--- a/2023/AWO_Einnahmen_Ausgaben_2023.xlsx
+++ b/2023/AWO_Einnahmen_Ausgaben_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1A2E1A-2939-4A94-99EA-CA237AF4B4FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6E24C4-4650-4541-9A1B-87D2D46C19DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="62">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -202,6 +202,24 @@
   </si>
   <si>
     <t>Treff zg Laune 10.1.</t>
+  </si>
+  <si>
+    <t>GEZ</t>
+  </si>
+  <si>
+    <t>Telekom</t>
+  </si>
+  <si>
+    <t>Beerdigung C.Eng</t>
+  </si>
+  <si>
+    <t>Blumen</t>
+  </si>
+  <si>
+    <t>Treff zg Laune 24.1.</t>
+  </si>
+  <si>
+    <t>Mülleimer</t>
   </si>
 </sst>
 </file>
@@ -865,7 +883,27 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="295">
+  <dxfs count="296">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -961,21 +999,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -4750,115 +4773,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="12">
-        <item h="1" x="1"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item h="1" x="0"/>
-        <item m="1" x="10"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </colItems>
-  <dataFields count="5">
-    <dataField name="Summe von Barkasse" fld="1" baseField="0" baseItem="0"/>
-    <dataField name="Summe von VOBA" fld="2" baseField="0" baseItem="0"/>
-    <dataField name="Summe von VOBA TgK 630041601" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Summe von KSK" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="2">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="1">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="0">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B16:G25" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
@@ -4945,17 +4859,126 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="5">
+    <format dxfId="6">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="4">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item h="1" x="1"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item h="1" x="0"/>
+        <item m="1" x="10"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="Summe von Barkasse" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Summe von VOBA" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Summe von VOBA TgK 630041601" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Summe von KSK" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="9">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="8">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -6081,9 +6104,9 @@
   </sheetPr>
   <dimension ref="A1:IK170"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6280,14 +6303,22 @@
       </c>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
+      <c r="A8" s="15">
+        <v>44951</v>
+      </c>
       <c r="B8" s="52">
         <v>5</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="19"/>
+      <c r="C8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E8" s="20"/>
-      <c r="F8" s="21"/>
+      <c r="F8" s="21">
+        <v>100</v>
+      </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
       <c r="I8" s="19"/>
@@ -7763,7 +7794,7 @@
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
-        <v>5683.4600000000055</v>
+        <v>5783.4600000000055</v>
       </c>
       <c r="G105" s="28">
         <f>SUM(G3:G104)</f>
@@ -7806,7 +7837,7 @@
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G171</f>
-        <v>5426.440000000006</v>
+        <v>5383.8700000000053</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H171</f>
@@ -7844,7 +7875,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>8676.320000000007</v>
+        <v>8633.7500000000055</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -8645,452 +8676,447 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 G50 F51:G53 G54:G58 E59:G60 D66:G66 E11:G11 F31:G31 F34:G34 F46:G49 F61 G61:G62 F63:G65 D68:G68 G67 F69:G75 D76:G81 D89:G89 G82 F83:G88 F90:G90 D91:G91 D95:G95 G92 E93:G93 F94:G94 D99:G104 F96:G97 G98 F19:G19 G4:G10 F24:G24 H28:I104 I27 G32:G33 G35:G36 F13:G14 H4:I26 G12 F16:G16 G15 G17:G18 G20:G23 F26:G26 G25 G28:G30 F37:G40 G41:G45">
-    <cfRule type="cellIs" dxfId="294" priority="260" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="295" priority="260" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="293" priority="229" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="294" priority="229" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="292" priority="231" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="293" priority="231" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="291" priority="227" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="292" priority="227" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="290" priority="201" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="291" priority="201" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="289" priority="196" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="290" priority="196" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="288" priority="181" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="289" priority="181" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="287" priority="178" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="288" priority="178" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="286" priority="173" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="287" priority="173" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="285" priority="170" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="286" priority="170" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37:E39">
-    <cfRule type="cellIs" dxfId="284" priority="164" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="285" priority="164" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="283" priority="159" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="284" priority="159" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="282" priority="147" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="283" priority="147" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="281" priority="145" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="282" priority="145" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48:E50">
-    <cfRule type="cellIs" dxfId="280" priority="143" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="281" priority="143" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="279" priority="139" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="280" priority="139" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54:F55">
-    <cfRule type="cellIs" dxfId="278" priority="137" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="279" priority="137" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="cellIs" dxfId="277" priority="125" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="278" priority="125" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="276" priority="124" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="277" priority="124" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="275" priority="123" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="276" priority="123" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:E69">
-    <cfRule type="cellIs" dxfId="274" priority="122" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="275" priority="122" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="273" priority="121" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="274" priority="121" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="cellIs" dxfId="272" priority="120" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="273" priority="120" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="271" priority="119" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="272" priority="119" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71">
-    <cfRule type="cellIs" dxfId="270" priority="118" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="271" priority="118" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="269" priority="117" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="270" priority="117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72">
-    <cfRule type="cellIs" dxfId="268" priority="116" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="269" priority="116" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="267" priority="115" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="268" priority="115" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
-    <cfRule type="cellIs" dxfId="266" priority="113" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="267" priority="113" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="265" priority="112" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="266" priority="112" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74">
-    <cfRule type="cellIs" dxfId="264" priority="111" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="265" priority="111" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="263" priority="110" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="264" priority="110" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75">
-    <cfRule type="cellIs" dxfId="262" priority="109" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="263" priority="109" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="261" priority="108" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="262" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="260" priority="107" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="261" priority="107" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83">
-    <cfRule type="cellIs" dxfId="259" priority="106" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="260" priority="106" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="258" priority="105" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="259" priority="105" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84">
-    <cfRule type="cellIs" dxfId="257" priority="104" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="258" priority="104" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="256" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="257" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D85">
-    <cfRule type="cellIs" dxfId="255" priority="102" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="256" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="254" priority="101" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="255" priority="101" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D86">
-    <cfRule type="cellIs" dxfId="253" priority="100" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="254" priority="100" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="252" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="253" priority="99" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87">
-    <cfRule type="cellIs" dxfId="251" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="252" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="250" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="251" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88">
-    <cfRule type="cellIs" dxfId="249" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="250" priority="96" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90:E90">
-    <cfRule type="cellIs" dxfId="248" priority="95" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="249" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:D92">
-    <cfRule type="cellIs" dxfId="247" priority="94" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="248" priority="94" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93">
-    <cfRule type="cellIs" dxfId="246" priority="93" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="247" priority="93" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="245" priority="92" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="246" priority="92" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D94">
-    <cfRule type="cellIs" dxfId="244" priority="91" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="245" priority="91" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96:E96">
-    <cfRule type="cellIs" dxfId="243" priority="90" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="244" priority="90" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="242" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="243" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="241" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="242" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:D98">
-    <cfRule type="cellIs" dxfId="240" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="241" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="239" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="240" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="238" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="239" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="237" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="236" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="238" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:D8">
+    <cfRule type="cellIs" dxfId="237" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="235" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="236" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="234" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="235" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="233" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="234" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" dxfId="232" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="233" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H27">
-    <cfRule type="cellIs" dxfId="231" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="232" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="230" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="231" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="229" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="230" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="228" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="229" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="227" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="228" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37:D40">
-    <cfRule type="cellIs" dxfId="226" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="227" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="225" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="224" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="226" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D11">
-    <cfRule type="cellIs" dxfId="223" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="224" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D15">
-    <cfRule type="cellIs" dxfId="222" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="223" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:E16">
-    <cfRule type="cellIs" dxfId="221" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="222" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D18">
-    <cfRule type="cellIs" dxfId="220" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="221" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="219" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="220" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:D21">
-    <cfRule type="cellIs" dxfId="218" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="219" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="217" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="218" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:D24">
-    <cfRule type="cellIs" dxfId="216" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="217" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="cellIs" dxfId="215" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="216" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:D36">
-    <cfRule type="cellIs" dxfId="214" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="215" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:D42">
-    <cfRule type="cellIs" dxfId="213" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="214" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:D44">
-    <cfRule type="cellIs" dxfId="212" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="213" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:D46">
-    <cfRule type="cellIs" dxfId="211" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="212" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:D59">
-    <cfRule type="cellIs" dxfId="210" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="211" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58">
-    <cfRule type="cellIs" dxfId="209" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="210" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="208" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="209" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="cellIs" dxfId="207" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="208" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="cellIs" dxfId="206" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="207" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:D64">
-    <cfRule type="cellIs" dxfId="205" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="206" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9124,9 +9150,9 @@
   </sheetPr>
   <dimension ref="A1:IM237"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9364,14 +9390,22 @@
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="43"/>
-      <c r="B9" s="15"/>
+      <c r="B9" s="15">
+        <v>44942</v>
+      </c>
       <c r="C9" s="52">
         <v>7</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="23"/>
+      <c r="D9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F9" s="20"/>
-      <c r="G9" s="21"/>
+      <c r="G9" s="21">
+        <v>-18.36</v>
+      </c>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="22"/>
@@ -9383,14 +9417,22 @@
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="43"/>
-      <c r="B10" s="15"/>
+      <c r="B10" s="15">
+        <v>44944</v>
+      </c>
       <c r="C10" s="52">
         <v>8</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="23"/>
+      <c r="D10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
+      <c r="G10" s="21">
+        <v>-41.72</v>
+      </c>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
       <c r="J10" s="22"/>
@@ -9402,14 +9444,22 @@
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="43"/>
-      <c r="B11" s="15"/>
+      <c r="B11" s="15">
+        <v>44949</v>
+      </c>
       <c r="C11" s="52">
         <v>9</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="23"/>
+      <c r="D11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>23</v>
+      </c>
       <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
+      <c r="G11" s="21">
+        <v>-30</v>
+      </c>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="22"/>
@@ -9421,14 +9471,22 @@
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="43"/>
-      <c r="B12" s="15"/>
+      <c r="B12" s="15">
+        <v>44950</v>
+      </c>
       <c r="C12" s="52">
         <v>10</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="23"/>
+      <c r="D12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F12" s="20"/>
-      <c r="G12" s="21"/>
+      <c r="G12" s="21">
+        <v>-8.49</v>
+      </c>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="22"/>
@@ -9440,14 +9498,22 @@
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="43"/>
-      <c r="B13" s="15"/>
+      <c r="B13" s="15">
+        <v>44952</v>
+      </c>
       <c r="C13" s="52">
         <v>11</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="23"/>
+      <c r="D13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F13" s="20"/>
-      <c r="G13" s="21"/>
+      <c r="G13" s="21">
+        <v>-12</v>
+      </c>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
       <c r="J13" s="22"/>
@@ -9459,14 +9525,22 @@
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="43"/>
-      <c r="B14" s="15"/>
+      <c r="B14" s="15">
+        <v>44952</v>
+      </c>
       <c r="C14" s="52">
         <v>12</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="23"/>
+      <c r="D14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F14" s="20"/>
-      <c r="G14" s="21"/>
+      <c r="G14" s="21">
+        <v>-32</v>
+      </c>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
       <c r="J14" s="22"/>
@@ -12143,7 +12217,7 @@
       </c>
       <c r="G171" s="34">
         <f>SUM(G3:G170)</f>
-        <v>-257.02</v>
+        <v>-399.59000000000003</v>
       </c>
       <c r="H171" s="34">
         <f>SUM(H3:H170)</f>
@@ -13140,993 +13214,1013 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="K173 J172:J235 I172:I237 D172:H235 C111:D111 C124 A55:A83 C127:C128 D128 B130:D130 C133:C134 B139:D139 C145:D145 C148:E148 D163:E163 B155:D155 B165:B237 C163:C236 D165:E172 D164 A3:A53 B134:B135 B150:D151 C153:E153 C154 A85:A236">
-    <cfRule type="cellIs" dxfId="204" priority="654" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="205" priority="658" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="203" priority="644" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="204" priority="648" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="202" priority="606" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="203" priority="610" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C122">
-    <cfRule type="cellIs" dxfId="201" priority="562" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="202" priority="566" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="200" priority="538" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="201" priority="542" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="199" priority="536" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="200" priority="540" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="198" priority="522" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="199" priority="526" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C112">
-    <cfRule type="cellIs" dxfId="197" priority="445" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="449" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124">
-    <cfRule type="cellIs" dxfId="196" priority="430" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="197" priority="434" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E126">
-    <cfRule type="cellIs" dxfId="195" priority="427" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="196" priority="431" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B126">
-    <cfRule type="cellIs" dxfId="194" priority="426" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="195" priority="430" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B127:B129">
-    <cfRule type="cellIs" dxfId="193" priority="424" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="194" priority="428" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C129:D129">
+    <cfRule type="cellIs" dxfId="193" priority="426" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B131">
     <cfRule type="cellIs" dxfId="192" priority="422" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B131">
-    <cfRule type="cellIs" dxfId="191" priority="418" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C132">
-    <cfRule type="cellIs" dxfId="190" priority="417" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="191" priority="421" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C135">
-    <cfRule type="cellIs" dxfId="189" priority="414" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="190" priority="418" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136:B137">
-    <cfRule type="cellIs" dxfId="188" priority="412" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="416" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E138">
-    <cfRule type="cellIs" dxfId="187" priority="410" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="188" priority="414" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="cellIs" dxfId="186" priority="407" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="187" priority="411" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F141">
-    <cfRule type="cellIs" dxfId="185" priority="405" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="186" priority="409" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E141">
-    <cfRule type="cellIs" dxfId="184" priority="404" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="185" priority="408" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F142">
-    <cfRule type="cellIs" dxfId="183" priority="403" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="184" priority="407" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F143">
-    <cfRule type="cellIs" dxfId="182" priority="401" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="183" priority="405" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F144">
+    <cfRule type="cellIs" dxfId="182" priority="403" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C146">
     <cfRule type="cellIs" dxfId="181" priority="399" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C146">
-    <cfRule type="cellIs" dxfId="180" priority="395" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C147">
-    <cfRule type="cellIs" dxfId="179" priority="394" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="180" priority="398" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C149:D149">
-    <cfRule type="cellIs" dxfId="178" priority="393" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="179" priority="397" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C152">
+    <cfRule type="cellIs" dxfId="178" priority="395" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B156:D156">
     <cfRule type="cellIs" dxfId="177" priority="391" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B156:D156">
-    <cfRule type="cellIs" dxfId="176" priority="387" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B157:D157">
-    <cfRule type="cellIs" dxfId="175" priority="384" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="176" priority="388" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E157">
-    <cfRule type="cellIs" dxfId="174" priority="383" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="175" priority="387" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C158:E158">
-    <cfRule type="cellIs" dxfId="173" priority="382" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="174" priority="386" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B158">
-    <cfRule type="cellIs" dxfId="172" priority="381" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="173" priority="385" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159:D159">
-    <cfRule type="cellIs" dxfId="171" priority="380" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="172" priority="384" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E159">
-    <cfRule type="cellIs" dxfId="170" priority="379" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="171" priority="383" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E160">
-    <cfRule type="cellIs" dxfId="169" priority="378" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="170" priority="382" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B160">
-    <cfRule type="cellIs" dxfId="168" priority="376" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="169" priority="380" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B161:D161">
-    <cfRule type="cellIs" dxfId="167" priority="375" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="168" priority="379" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E161">
-    <cfRule type="cellIs" dxfId="166" priority="374" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="167" priority="378" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D162:E162">
-    <cfRule type="cellIs" dxfId="165" priority="373" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="166" priority="377" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162:C162">
-    <cfRule type="cellIs" dxfId="164" priority="372" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="165" priority="376" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163">
-    <cfRule type="cellIs" dxfId="163" priority="371" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="164" priority="375" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B164">
-    <cfRule type="cellIs" dxfId="162" priority="370" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="163" priority="374" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E164">
-    <cfRule type="cellIs" dxfId="161" priority="369" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="162" priority="373" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="160" priority="347" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="161" priority="351" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="cellIs" dxfId="159" priority="338" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="160" priority="342" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="158" priority="336" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="159" priority="340" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" dxfId="157" priority="319" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="158" priority="323" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61">
-    <cfRule type="cellIs" dxfId="156" priority="317" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="157" priority="321" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62:F63">
-    <cfRule type="cellIs" dxfId="155" priority="315" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="156" priority="319" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21:E25 E3:E19">
-    <cfRule type="cellIs" dxfId="154" priority="274" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="155" priority="278" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="153" priority="248" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="154" priority="252" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="152" priority="202" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="153" priority="206" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="151" priority="161" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="152" priority="165" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D115">
-    <cfRule type="cellIs" dxfId="150" priority="160" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="151" priority="164" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D116">
-    <cfRule type="cellIs" dxfId="149" priority="159" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="150" priority="163" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D123">
-    <cfRule type="cellIs" dxfId="148" priority="151" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="149" priority="155" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E7">
-    <cfRule type="cellIs" dxfId="146" priority="146" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="148" priority="150" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
+    <cfRule type="cellIs" dxfId="147" priority="149" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="146" priority="148" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9:E10">
     <cfRule type="cellIs" dxfId="145" priority="145" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E14">
+    <cfRule type="cellIs" dxfId="144" priority="144" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="143" priority="143" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="142" priority="142" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="141" priority="141" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="140" priority="140" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:E28">
+    <cfRule type="cellIs" dxfId="139" priority="139" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="cellIs" dxfId="138" priority="138" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="137" priority="137" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
+    <cfRule type="cellIs" dxfId="136" priority="136" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31:E32">
+    <cfRule type="cellIs" dxfId="135" priority="135" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="134" priority="134" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="133" priority="133" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="132" priority="132" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="131" priority="131" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="130" priority="130" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="129" priority="129" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39:E41">
+    <cfRule type="cellIs" dxfId="128" priority="128" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42:E44">
+    <cfRule type="cellIs" dxfId="127" priority="127" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42:E44">
+    <cfRule type="cellIs" dxfId="126" priority="126" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="125" priority="125" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46:E47">
+    <cfRule type="cellIs" dxfId="124" priority="124" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="123" priority="123" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49:E50">
+    <cfRule type="cellIs" dxfId="122" priority="122" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51:E52">
+    <cfRule type="cellIs" dxfId="121" priority="121" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="120" priority="120" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="119" priority="119" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="118" priority="118" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="117" priority="117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="116" priority="116" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F57">
+    <cfRule type="cellIs" dxfId="115" priority="115" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58">
+    <cfRule type="cellIs" dxfId="114" priority="114" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57:E58">
+    <cfRule type="cellIs" dxfId="113" priority="113" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57:E58">
+    <cfRule type="cellIs" dxfId="112" priority="112" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="111" priority="111" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60:E62">
+    <cfRule type="cellIs" dxfId="110" priority="110" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="cellIs" dxfId="109" priority="109" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="cellIs" dxfId="108" priority="108" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="cellIs" dxfId="107" priority="107" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="cellIs" dxfId="106" priority="106" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67:E71">
+    <cfRule type="cellIs" dxfId="105" priority="105" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="104" priority="104" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="cellIs" dxfId="103" priority="103" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="102" priority="102" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="101" priority="101" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="100" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" dxfId="99" priority="99" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F78">
+    <cfRule type="cellIs" dxfId="98" priority="98" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F79">
+    <cfRule type="cellIs" dxfId="97" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78:E79">
+    <cfRule type="cellIs" dxfId="96" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78:E79">
+    <cfRule type="cellIs" dxfId="95" priority="95" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="94" priority="94" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="93" priority="93" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81:E82">
+    <cfRule type="cellIs" dxfId="92" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="91" priority="91" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="90" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="89" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F85">
+    <cfRule type="cellIs" dxfId="88" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F86">
+    <cfRule type="cellIs" dxfId="87" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85:E86">
+    <cfRule type="cellIs" dxfId="86" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85:E86">
+    <cfRule type="cellIs" dxfId="85" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87:E88">
+    <cfRule type="cellIs" dxfId="84" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89">
+    <cfRule type="cellIs" dxfId="83" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="82" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="cellIs" dxfId="81" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="cellIs" dxfId="80" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="cellIs" dxfId="79" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="78" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="77" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F95">
+    <cfRule type="cellIs" dxfId="76" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="cellIs" dxfId="75" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="cellIs" dxfId="74" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F96">
+    <cfRule type="cellIs" dxfId="73" priority="71" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="cellIs" dxfId="72" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="cellIs" dxfId="71" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="70" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98:E99">
+    <cfRule type="cellIs" dxfId="69" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100">
+    <cfRule type="cellIs" dxfId="68" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="cellIs" dxfId="67" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="66" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103">
+    <cfRule type="cellIs" dxfId="65" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="cellIs" dxfId="64" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F105:F106">
+    <cfRule type="cellIs" dxfId="63" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105:E106">
+    <cfRule type="cellIs" dxfId="62" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105:E106">
+    <cfRule type="cellIs" dxfId="61" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F107">
+    <cfRule type="cellIs" dxfId="60" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="59" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="58" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="cellIs" dxfId="57" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="cellIs" dxfId="56" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="cellIs" dxfId="55" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110">
+    <cfRule type="cellIs" dxfId="54" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
+    <cfRule type="cellIs" dxfId="53" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="cellIs" dxfId="52" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="cellIs" dxfId="51" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="cellIs" dxfId="50" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114">
+    <cfRule type="cellIs" dxfId="49" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116:E117">
+    <cfRule type="cellIs" dxfId="48" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
+    <cfRule type="cellIs" dxfId="47" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F119">
+    <cfRule type="cellIs" dxfId="46" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E119">
+    <cfRule type="cellIs" dxfId="45" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E119">
+    <cfRule type="cellIs" dxfId="44" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F120">
+    <cfRule type="cellIs" dxfId="43" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E120">
+    <cfRule type="cellIs" dxfId="42" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E120">
+    <cfRule type="cellIs" dxfId="41" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E121">
+    <cfRule type="cellIs" dxfId="40" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="cellIs" dxfId="39" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="cellIs" dxfId="38" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E123">
+    <cfRule type="cellIs" dxfId="37" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E124:E125">
+    <cfRule type="cellIs" dxfId="36" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E124:E125">
+    <cfRule type="cellIs" dxfId="35" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E127">
+    <cfRule type="cellIs" dxfId="34" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E128">
+    <cfRule type="cellIs" dxfId="33" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E129:E132">
+    <cfRule type="cellIs" dxfId="32" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E133">
+    <cfRule type="cellIs" dxfId="31" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E133">
+    <cfRule type="cellIs" dxfId="30" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F134">
+    <cfRule type="cellIs" dxfId="29" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E134">
+    <cfRule type="cellIs" dxfId="28" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E134">
+    <cfRule type="cellIs" dxfId="27" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F135">
+    <cfRule type="cellIs" dxfId="26" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E135">
+    <cfRule type="cellIs" dxfId="25" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E135">
+    <cfRule type="cellIs" dxfId="24" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E136">
+    <cfRule type="cellIs" dxfId="23" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E137">
+    <cfRule type="cellIs" dxfId="22" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E139:E140">
+    <cfRule type="cellIs" dxfId="21" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E142:E144">
+    <cfRule type="cellIs" dxfId="20" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F147">
+    <cfRule type="cellIs" dxfId="19" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E147">
+    <cfRule type="cellIs" dxfId="18" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E145:E146">
+    <cfRule type="cellIs" dxfId="17" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D146">
+    <cfRule type="cellIs" dxfId="16" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E149">
+    <cfRule type="cellIs" dxfId="15" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E150">
+    <cfRule type="cellIs" dxfId="14" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E151:E152">
+    <cfRule type="cellIs" dxfId="13" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B152:B154">
+    <cfRule type="cellIs" dxfId="12" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E154">
+    <cfRule type="cellIs" dxfId="11" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E155:E156">
+    <cfRule type="cellIs" dxfId="10" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9:E10">
+    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="144" priority="144" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="141" priority="141" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="140" priority="140" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="139" priority="139" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="138" priority="138" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="137" priority="137" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="136" priority="136" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27:E28">
-    <cfRule type="cellIs" dxfId="135" priority="135" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="134" priority="134" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="133" priority="133" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
-    <cfRule type="cellIs" dxfId="132" priority="132" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31:E32">
-    <cfRule type="cellIs" dxfId="131" priority="131" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="130" priority="130" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="129" priority="129" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="128" priority="128" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="127" priority="127" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="126" priority="126" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="125" priority="125" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39:E41">
-    <cfRule type="cellIs" dxfId="124" priority="124" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42:E44">
-    <cfRule type="cellIs" dxfId="123" priority="123" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42:E44">
-    <cfRule type="cellIs" dxfId="122" priority="122" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="121" priority="121" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46:E47">
-    <cfRule type="cellIs" dxfId="120" priority="120" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="119" priority="119" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49:E50">
-    <cfRule type="cellIs" dxfId="118" priority="118" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51:E52">
-    <cfRule type="cellIs" dxfId="117" priority="117" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="116" priority="116" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="115" priority="115" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="114" priority="114" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="113" priority="113" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="112" priority="112" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="111" priority="111" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="cellIs" dxfId="110" priority="110" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57:E58">
-    <cfRule type="cellIs" dxfId="109" priority="109" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57:E58">
-    <cfRule type="cellIs" dxfId="108" priority="108" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="107" priority="107" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60:E62">
-    <cfRule type="cellIs" dxfId="106" priority="106" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="105" priority="105" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="104" priority="104" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="103" priority="103" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="102" priority="102" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67:E71">
-    <cfRule type="cellIs" dxfId="101" priority="101" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="100" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="99" priority="99" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="98" priority="98" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="97" priority="97" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="96" priority="96" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="95" priority="95" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F78">
-    <cfRule type="cellIs" dxfId="94" priority="94" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F79">
-    <cfRule type="cellIs" dxfId="93" priority="93" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78:E79">
-    <cfRule type="cellIs" dxfId="92" priority="92" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78:E79">
-    <cfRule type="cellIs" dxfId="91" priority="91" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="90" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="89" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81:E82">
-    <cfRule type="cellIs" dxfId="88" priority="88" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="87" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="86" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="85" priority="85" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F85">
-    <cfRule type="cellIs" dxfId="84" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F86">
-    <cfRule type="cellIs" dxfId="83" priority="83" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85:E86">
-    <cfRule type="cellIs" dxfId="82" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85:E86">
-    <cfRule type="cellIs" dxfId="81" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87:E88">
-    <cfRule type="cellIs" dxfId="80" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="79" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="78" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="77" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="76" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="75" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="74" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="73" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F95">
-    <cfRule type="cellIs" dxfId="72" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="71" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="70" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F96">
-    <cfRule type="cellIs" dxfId="69" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="68" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="67" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="66" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98:E99">
-    <cfRule type="cellIs" dxfId="65" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="64" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="63" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="62" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="61" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="60" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F105:F106">
-    <cfRule type="cellIs" dxfId="59" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E105:E106">
-    <cfRule type="cellIs" dxfId="58" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E105:E106">
-    <cfRule type="cellIs" dxfId="57" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F107">
-    <cfRule type="cellIs" dxfId="56" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="55" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="54" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="53" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="52" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="51" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="50" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="49" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="48" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="47" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="46" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="45" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116:E117">
-    <cfRule type="cellIs" dxfId="44" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="43" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F119">
-    <cfRule type="cellIs" dxfId="42" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="41" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="40" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F120">
-    <cfRule type="cellIs" dxfId="39" priority="36" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E120">
-    <cfRule type="cellIs" dxfId="38" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E120">
-    <cfRule type="cellIs" dxfId="37" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E121">
-    <cfRule type="cellIs" dxfId="36" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="35" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="34" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="33" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E124:E125">
-    <cfRule type="cellIs" dxfId="32" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E124:E125">
-    <cfRule type="cellIs" dxfId="31" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E127">
-    <cfRule type="cellIs" dxfId="30" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E128">
-    <cfRule type="cellIs" dxfId="29" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E129:E132">
-    <cfRule type="cellIs" dxfId="28" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E133">
-    <cfRule type="cellIs" dxfId="27" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E133">
-    <cfRule type="cellIs" dxfId="26" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F134">
-    <cfRule type="cellIs" dxfId="25" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" dxfId="24" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" dxfId="23" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F135">
-    <cfRule type="cellIs" dxfId="22" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" dxfId="21" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" dxfId="20" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="19" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E137">
-    <cfRule type="cellIs" dxfId="18" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E139:E140">
-    <cfRule type="cellIs" dxfId="17" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E142:E144">
-    <cfRule type="cellIs" dxfId="16" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F147">
-    <cfRule type="cellIs" dxfId="15" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E147">
-    <cfRule type="cellIs" dxfId="14" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E145:E146">
-    <cfRule type="cellIs" dxfId="13" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D146">
-    <cfRule type="cellIs" dxfId="12" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E149">
-    <cfRule type="cellIs" dxfId="11" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E150">
-    <cfRule type="cellIs" dxfId="10" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E151:E152">
-    <cfRule type="cellIs" dxfId="9" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B152:B154">
-    <cfRule type="cellIs" dxfId="8" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E154">
-    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E155:E156">
-    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E14">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E14">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E8 E10:E29 E31:E33 E35:E79 E81:E111 E113:E140 E142:E144 E147:E153 E155:E170" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E155:E170 E31:E33 E35:E79 E81:E111 E113:E140 E142:E144 E147:E153 E3:E29" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$M$1:$M$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E141 E145:E146 E154" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E80 E112 E34 E30 E9" xr:uid="{00000000-0002-0000-0100-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E80 E112 E34 E30" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>$M$1:$M$20</formula1>
     </dataValidation>
   </dataValidations>

--- a/2023/AWO_Einnahmen_Ausgaben_2023.xlsx
+++ b/2023/AWO_Einnahmen_Ausgaben_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6E24C4-4650-4541-9A1B-87D2D46C19DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDC8883-DDF0-41F3-88C6-D2E9EDC90DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="71">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -220,6 +220,33 @@
   </si>
   <si>
     <t>Mülleimer</t>
+  </si>
+  <si>
+    <t>Mikrowelle Trauerkarte</t>
+  </si>
+  <si>
+    <t>Spende K.Dautz</t>
+  </si>
+  <si>
+    <t>Rückzahlung Strom 451,83-111(Monat Feb)</t>
+  </si>
+  <si>
+    <t>Inventar</t>
+  </si>
+  <si>
+    <t>Boxen</t>
+  </si>
+  <si>
+    <t>Essen Vorstand</t>
+  </si>
+  <si>
+    <t>Treff zg Laune 7.2.</t>
+  </si>
+  <si>
+    <t>Spenden Ritter und W.Baum</t>
+  </si>
+  <si>
+    <t>Milch</t>
   </si>
 </sst>
 </file>
@@ -883,7 +910,47 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="296">
+  <dxfs count="306">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -999,6 +1066,16 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -4773,6 +4850,115 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item h="1" x="1"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item h="1" x="0"/>
+        <item m="1" x="10"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="Summe von Barkasse" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Summe von VOBA" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Summe von VOBA TgK 630041601" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Summe von KSK" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="14">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="13">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="12">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B16:G25" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
@@ -4859,126 +5045,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="6">
+    <format dxfId="17">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="12">
-        <item h="1" x="1"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item h="1" x="0"/>
-        <item m="1" x="10"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </colItems>
-  <dataFields count="5">
-    <dataField name="Summe von Barkasse" fld="1" baseField="0" baseItem="0"/>
-    <dataField name="Summe von VOBA" fld="2" baseField="0" baseItem="0"/>
-    <dataField name="Summe von VOBA TgK 630041601" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Summe von KSK" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="9">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="8">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="7">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -6104,9 +6181,9 @@
   </sheetPr>
   <dimension ref="A1:IK170"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6328,14 +6405,22 @@
       </c>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
+      <c r="A9" s="15">
+        <v>44957</v>
+      </c>
       <c r="B9" s="52">
         <v>6</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="19"/>
+      <c r="C9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="E9" s="20"/>
-      <c r="F9" s="21"/>
+      <c r="F9" s="21">
+        <v>200</v>
+      </c>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
       <c r="I9" s="19"/>
@@ -6345,14 +6430,22 @@
       </c>
     </row>
     <row r="10" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
+      <c r="A10" s="15">
+        <v>44958</v>
+      </c>
       <c r="B10" s="52">
         <v>7</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="19"/>
+      <c r="C10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="E10" s="20"/>
-      <c r="F10" s="21"/>
+      <c r="F10" s="21">
+        <v>340.83</v>
+      </c>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
       <c r="I10" s="19"/>
@@ -6362,14 +6455,22 @@
       </c>
     </row>
     <row r="11" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
+      <c r="A11" s="15">
+        <v>44965</v>
+      </c>
       <c r="B11" s="52">
         <v>8</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18"/>
+      <c r="C11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="21">
+        <v>100</v>
+      </c>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
       <c r="I11" s="19"/>
@@ -6379,14 +6480,22 @@
       </c>
     </row>
     <row r="12" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
+      <c r="A12" s="15">
+        <v>44965</v>
+      </c>
       <c r="B12" s="52">
         <v>9</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="19"/>
+      <c r="C12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="E12" s="20"/>
-      <c r="F12" s="21"/>
+      <c r="F12" s="21">
+        <v>970</v>
+      </c>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
       <c r="I12" s="19"/>
@@ -7794,7 +7903,7 @@
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
-        <v>5783.4600000000055</v>
+        <v>7394.2900000000054</v>
       </c>
       <c r="G105" s="28">
         <f>SUM(G3:G104)</f>
@@ -7837,7 +7946,7 @@
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G171</f>
-        <v>5383.8700000000053</v>
+        <v>6184.5600000000049</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H171</f>
@@ -7875,7 +7984,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>8633.7500000000055</v>
+        <v>9434.4400000000041</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -8675,448 +8784,458 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 G50 F51:G53 G54:G58 E59:G60 D66:G66 E11:G11 F31:G31 F34:G34 F46:G49 F61 G61:G62 F63:G65 D68:G68 G67 F69:G75 D76:G81 D89:G89 G82 F83:G88 F90:G90 D91:G91 D95:G95 G92 E93:G93 F94:G94 D99:G104 F96:G97 G98 F19:G19 G4:G10 F24:G24 H28:I104 I27 G32:G33 G35:G36 F13:G14 H4:I26 G12 F16:G16 G15 G17:G18 G20:G23 F26:G26 G25 G28:G30 F37:G40 G41:G45">
-    <cfRule type="cellIs" dxfId="295" priority="260" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 G50 F51:G53 G54:G58 E59:G60 D66:G66 F31:G31 F34:G34 F46:G49 F61 G61:G62 F63:G65 D68:G68 G67 F69:G75 D76:G81 D89:G89 G82 F83:G88 F90:G90 D91:G91 D95:G95 G92 E93:G93 F94:G94 D99:G104 F96:G97 G98 F19:G19 F24:G24 H28:I104 I27 G32:G33 G35:G36 F13:G14 H4:I26 G4:G12 F16:G16 G15 G17:G18 G20:G23 F26:G26 G25 G28:G30 F37:G40 G41:G45">
+    <cfRule type="cellIs" dxfId="305" priority="264" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="294" priority="229" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="304" priority="233" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="293" priority="231" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="303" priority="235" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="292" priority="227" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="302" priority="231" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="291" priority="201" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="301" priority="205" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="290" priority="196" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="300" priority="200" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="289" priority="181" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="299" priority="185" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="288" priority="178" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="298" priority="182" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="287" priority="173" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="297" priority="177" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="286" priority="170" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="296" priority="174" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37:E39">
-    <cfRule type="cellIs" dxfId="285" priority="164" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="295" priority="168" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="284" priority="159" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="294" priority="163" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="283" priority="147" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="293" priority="151" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="282" priority="145" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="292" priority="149" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48:E50">
-    <cfRule type="cellIs" dxfId="281" priority="143" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="291" priority="147" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="280" priority="139" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="290" priority="143" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54:F55">
-    <cfRule type="cellIs" dxfId="279" priority="137" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="289" priority="141" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="cellIs" dxfId="278" priority="125" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="288" priority="129" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="277" priority="124" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="287" priority="128" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="276" priority="123" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="286" priority="127" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:E69">
-    <cfRule type="cellIs" dxfId="275" priority="122" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="285" priority="126" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="274" priority="121" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="284" priority="125" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="cellIs" dxfId="273" priority="120" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="283" priority="124" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="272" priority="119" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="282" priority="123" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71">
-    <cfRule type="cellIs" dxfId="271" priority="118" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="281" priority="122" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="270" priority="117" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="280" priority="121" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72">
-    <cfRule type="cellIs" dxfId="269" priority="116" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="279" priority="120" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="268" priority="115" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="278" priority="119" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
-    <cfRule type="cellIs" dxfId="267" priority="113" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="277" priority="117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="266" priority="112" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="276" priority="116" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74">
-    <cfRule type="cellIs" dxfId="265" priority="111" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="275" priority="115" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="264" priority="110" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="274" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75">
-    <cfRule type="cellIs" dxfId="263" priority="109" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="273" priority="113" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="262" priority="108" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="272" priority="112" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="261" priority="107" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="271" priority="111" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83">
-    <cfRule type="cellIs" dxfId="260" priority="106" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="270" priority="110" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="259" priority="105" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="269" priority="109" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84">
-    <cfRule type="cellIs" dxfId="258" priority="104" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="268" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="257" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="267" priority="107" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D85">
-    <cfRule type="cellIs" dxfId="256" priority="102" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="266" priority="106" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="255" priority="101" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="265" priority="105" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D86">
-    <cfRule type="cellIs" dxfId="254" priority="100" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="264" priority="104" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="253" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="263" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87">
-    <cfRule type="cellIs" dxfId="252" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="262" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="251" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="261" priority="101" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88">
-    <cfRule type="cellIs" dxfId="250" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="260" priority="100" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90:E90">
-    <cfRule type="cellIs" dxfId="249" priority="95" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="259" priority="99" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:D92">
-    <cfRule type="cellIs" dxfId="248" priority="94" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="258" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93">
-    <cfRule type="cellIs" dxfId="247" priority="93" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="257" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="246" priority="92" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="256" priority="96" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D94">
-    <cfRule type="cellIs" dxfId="245" priority="91" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="255" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96:E96">
-    <cfRule type="cellIs" dxfId="244" priority="90" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="254" priority="94" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="243" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="253" priority="93" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="242" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="252" priority="92" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:D98">
-    <cfRule type="cellIs" dxfId="241" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="251" priority="91" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="240" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="250" priority="90" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="239" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="249" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="238" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="248" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:D8">
-    <cfRule type="cellIs" dxfId="237" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="247" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="cellIs" dxfId="245" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="cellIs" dxfId="244" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="cellIs" dxfId="243" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27:H27">
+    <cfRule type="cellIs" dxfId="242" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
+    <cfRule type="cellIs" dxfId="241" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="240" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33">
+    <cfRule type="cellIs" dxfId="239" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="238" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37:D40">
+    <cfRule type="cellIs" dxfId="237" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="cellIs" dxfId="236" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13:D15">
+    <cfRule type="cellIs" dxfId="234" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:E16">
+    <cfRule type="cellIs" dxfId="233" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:D18">
+    <cfRule type="cellIs" dxfId="232" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="cellIs" dxfId="231" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20:D21">
+    <cfRule type="cellIs" dxfId="230" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="cellIs" dxfId="229" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23:D24">
+    <cfRule type="cellIs" dxfId="228" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25">
+    <cfRule type="cellIs" dxfId="227" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:D36">
+    <cfRule type="cellIs" dxfId="226" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41:D42">
+    <cfRule type="cellIs" dxfId="225" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43:D44">
+    <cfRule type="cellIs" dxfId="224" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45:D46">
+    <cfRule type="cellIs" dxfId="223" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47:D59">
+    <cfRule type="cellIs" dxfId="222" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58">
+    <cfRule type="cellIs" dxfId="221" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="cellIs" dxfId="220" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="cellIs" dxfId="219" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
+    <cfRule type="cellIs" dxfId="218" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63:D64">
+    <cfRule type="cellIs" dxfId="217" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="236" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="235" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="234" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" dxfId="233" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27:H27">
-    <cfRule type="cellIs" dxfId="232" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="231" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="230" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="229" priority="36" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="228" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37:D40">
-    <cfRule type="cellIs" dxfId="227" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="226" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10:D11">
-    <cfRule type="cellIs" dxfId="224" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12:D15">
-    <cfRule type="cellIs" dxfId="223" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:E16">
-    <cfRule type="cellIs" dxfId="222" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D18">
-    <cfRule type="cellIs" dxfId="221" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="220" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20:D21">
-    <cfRule type="cellIs" dxfId="219" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="218" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D24">
-    <cfRule type="cellIs" dxfId="217" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
-    <cfRule type="cellIs" dxfId="216" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27:D36">
-    <cfRule type="cellIs" dxfId="215" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41:D42">
-    <cfRule type="cellIs" dxfId="214" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43:D44">
-    <cfRule type="cellIs" dxfId="213" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45:D46">
-    <cfRule type="cellIs" dxfId="212" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D59">
-    <cfRule type="cellIs" dxfId="211" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="cellIs" dxfId="210" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="209" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
-    <cfRule type="cellIs" dxfId="208" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
-    <cfRule type="cellIs" dxfId="207" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63:D64">
-    <cfRule type="cellIs" dxfId="206" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="cellIs" dxfId="6" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9150,9 +9269,9 @@
   </sheetPr>
   <dimension ref="A1:IM237"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9552,14 +9671,22 @@
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="43"/>
-      <c r="B15" s="15"/>
+      <c r="B15" s="15">
+        <v>44957</v>
+      </c>
       <c r="C15" s="52">
         <v>13</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="23"/>
+      <c r="D15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F15" s="20"/>
-      <c r="G15" s="21"/>
+      <c r="G15" s="21">
+        <v>-171.49</v>
+      </c>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
       <c r="J15" s="22"/>
@@ -9571,14 +9698,22 @@
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="43"/>
-      <c r="B16" s="15"/>
+      <c r="B16" s="15">
+        <v>44958</v>
+      </c>
       <c r="C16" s="52">
         <v>14</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="23"/>
+      <c r="D16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F16" s="20"/>
-      <c r="G16" s="21"/>
+      <c r="G16" s="21">
+        <v>-12</v>
+      </c>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
       <c r="J16" s="22"/>
@@ -9590,14 +9725,22 @@
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="43"/>
-      <c r="B17" s="15"/>
+      <c r="B17" s="15">
+        <v>44959</v>
+      </c>
       <c r="C17" s="52">
         <v>15</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="23"/>
+      <c r="D17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
+      <c r="G17" s="21">
+        <v>-22</v>
+      </c>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
       <c r="J17" s="22"/>
@@ -9609,14 +9752,22 @@
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="43"/>
-      <c r="B18" s="15"/>
+      <c r="B18" s="15">
+        <v>44963</v>
+      </c>
       <c r="C18" s="52">
         <v>16</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="23"/>
+      <c r="D18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F18" s="20"/>
-      <c r="G18" s="21"/>
+      <c r="G18" s="21">
+        <v>-11.81</v>
+      </c>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="22"/>
@@ -9628,14 +9779,22 @@
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="43"/>
-      <c r="B19" s="15"/>
+      <c r="B19" s="15">
+        <v>44963</v>
+      </c>
       <c r="C19" s="52">
         <v>17</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="23"/>
+      <c r="D19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F19" s="20"/>
-      <c r="G19" s="21"/>
+      <c r="G19" s="21">
+        <v>-26.26</v>
+      </c>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
       <c r="J19" s="22"/>
@@ -9647,14 +9806,22 @@
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="43"/>
-      <c r="B20" s="15"/>
+      <c r="B20" s="15">
+        <v>44963</v>
+      </c>
       <c r="C20" s="52">
         <v>18</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="23"/>
+      <c r="D20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="F20" s="20"/>
-      <c r="G20" s="21"/>
+      <c r="G20" s="21">
+        <v>-563.20000000000005</v>
+      </c>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="22"/>
@@ -9664,14 +9831,22 @@
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="43"/>
-      <c r="B21" s="15"/>
+      <c r="B21" s="15">
+        <v>44965</v>
+      </c>
       <c r="C21" s="52">
         <v>19</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="23"/>
+      <c r="D21" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F21" s="20"/>
-      <c r="G21" s="21"/>
+      <c r="G21" s="21">
+        <v>-3.38</v>
+      </c>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
       <c r="J21" s="22"/>
@@ -12217,7 +12392,7 @@
       </c>
       <c r="G171" s="34">
         <f>SUM(G3:G170)</f>
-        <v>-399.59000000000003</v>
+        <v>-1209.73</v>
       </c>
       <c r="H171" s="34">
         <f>SUM(H3:H170)</f>
@@ -13214,1001 +13389,1036 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="K173 J172:J235 I172:I237 D172:H235 C111:D111 C124 A55:A83 C127:C128 D128 B130:D130 C133:C134 B139:D139 C145:D145 C148:E148 D163:E163 B155:D155 B165:B237 C163:C236 D165:E172 D164 A3:A53 B134:B135 B150:D151 C153:E153 C154 A85:A236">
-    <cfRule type="cellIs" dxfId="205" priority="658" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="216" priority="665" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="204" priority="648" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="215" priority="655" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="203" priority="610" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="214" priority="617" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C122">
-    <cfRule type="cellIs" dxfId="202" priority="566" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="213" priority="573" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="201" priority="542" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="212" priority="549" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="200" priority="540" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="211" priority="547" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="199" priority="526" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="210" priority="533" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C112">
-    <cfRule type="cellIs" dxfId="198" priority="449" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="209" priority="456" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124">
-    <cfRule type="cellIs" dxfId="197" priority="434" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="208" priority="441" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E126">
-    <cfRule type="cellIs" dxfId="196" priority="431" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="207" priority="438" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B126">
-    <cfRule type="cellIs" dxfId="195" priority="430" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="206" priority="437" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B127:B129">
-    <cfRule type="cellIs" dxfId="194" priority="428" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="205" priority="435" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C129:D129">
-    <cfRule type="cellIs" dxfId="193" priority="426" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="204" priority="433" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131">
-    <cfRule type="cellIs" dxfId="192" priority="422" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="203" priority="429" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C132">
-    <cfRule type="cellIs" dxfId="191" priority="421" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="202" priority="428" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C135">
-    <cfRule type="cellIs" dxfId="190" priority="418" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="201" priority="425" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136:B137">
-    <cfRule type="cellIs" dxfId="189" priority="416" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="200" priority="423" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E138">
-    <cfRule type="cellIs" dxfId="188" priority="414" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="199" priority="421" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="cellIs" dxfId="187" priority="411" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="418" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F141">
-    <cfRule type="cellIs" dxfId="186" priority="409" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="197" priority="416" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E141">
-    <cfRule type="cellIs" dxfId="185" priority="408" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="196" priority="415" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F142">
-    <cfRule type="cellIs" dxfId="184" priority="407" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="195" priority="414" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F143">
-    <cfRule type="cellIs" dxfId="183" priority="405" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="194" priority="412" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F144">
-    <cfRule type="cellIs" dxfId="182" priority="403" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="193" priority="410" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C146">
-    <cfRule type="cellIs" dxfId="181" priority="399" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="192" priority="406" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C147">
-    <cfRule type="cellIs" dxfId="180" priority="398" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="191" priority="405" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C149:D149">
-    <cfRule type="cellIs" dxfId="179" priority="397" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="190" priority="404" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C152">
-    <cfRule type="cellIs" dxfId="178" priority="395" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="402" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156:D156">
-    <cfRule type="cellIs" dxfId="177" priority="391" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="188" priority="398" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B157:D157">
-    <cfRule type="cellIs" dxfId="176" priority="388" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="187" priority="395" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E157">
-    <cfRule type="cellIs" dxfId="175" priority="387" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="186" priority="394" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C158:E158">
-    <cfRule type="cellIs" dxfId="174" priority="386" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="185" priority="393" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B158">
-    <cfRule type="cellIs" dxfId="173" priority="385" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="184" priority="392" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159:D159">
-    <cfRule type="cellIs" dxfId="172" priority="384" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="183" priority="391" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E159">
-    <cfRule type="cellIs" dxfId="171" priority="383" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="182" priority="390" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E160">
-    <cfRule type="cellIs" dxfId="170" priority="382" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="181" priority="389" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B160">
-    <cfRule type="cellIs" dxfId="169" priority="380" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="180" priority="387" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B161:D161">
-    <cfRule type="cellIs" dxfId="168" priority="379" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="179" priority="386" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E161">
-    <cfRule type="cellIs" dxfId="167" priority="378" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="178" priority="385" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D162:E162">
-    <cfRule type="cellIs" dxfId="166" priority="377" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="177" priority="384" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162:C162">
-    <cfRule type="cellIs" dxfId="165" priority="376" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="176" priority="383" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163">
-    <cfRule type="cellIs" dxfId="164" priority="375" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="175" priority="382" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B164">
-    <cfRule type="cellIs" dxfId="163" priority="374" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="174" priority="381" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E164">
-    <cfRule type="cellIs" dxfId="162" priority="373" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="173" priority="380" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="161" priority="351" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="172" priority="358" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="cellIs" dxfId="160" priority="342" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="171" priority="349" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="159" priority="340" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="170" priority="347" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" dxfId="158" priority="323" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="169" priority="330" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61">
-    <cfRule type="cellIs" dxfId="157" priority="321" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="168" priority="328" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62:F63">
-    <cfRule type="cellIs" dxfId="156" priority="319" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21:E25 E3:E19">
-    <cfRule type="cellIs" dxfId="155" priority="278" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="167" priority="326" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E19 E21:E25">
+    <cfRule type="cellIs" dxfId="2" priority="285" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="154" priority="252" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="166" priority="259" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="153" priority="206" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="165" priority="213" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="152" priority="165" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="164" priority="172" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D115">
-    <cfRule type="cellIs" dxfId="151" priority="164" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="163" priority="171" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D116">
-    <cfRule type="cellIs" dxfId="150" priority="163" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="162" priority="170" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D123">
-    <cfRule type="cellIs" dxfId="149" priority="155" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="161" priority="162" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E7">
-    <cfRule type="cellIs" dxfId="148" priority="150" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="160" priority="157" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="147" priority="149" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="159" priority="156" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="146" priority="148" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="158" priority="155" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E10">
-    <cfRule type="cellIs" dxfId="145" priority="145" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="157" priority="152" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:E14">
-    <cfRule type="cellIs" dxfId="144" priority="144" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="156" priority="151" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="143" priority="143" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="155" priority="150" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="142" priority="142" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="154" priority="149" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="141" priority="141" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="153" priority="148" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="140" priority="140" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="152" priority="147" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:E28">
-    <cfRule type="cellIs" dxfId="139" priority="139" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="151" priority="146" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="138" priority="138" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="150" priority="145" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="137" priority="137" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="149" priority="144" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="cellIs" dxfId="136" priority="136" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="148" priority="143" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:E32">
-    <cfRule type="cellIs" dxfId="135" priority="135" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="147" priority="142" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="134" priority="134" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="146" priority="141" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="133" priority="133" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="145" priority="140" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="132" priority="132" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="144" priority="139" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="131" priority="131" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="143" priority="138" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="130" priority="130" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="142" priority="137" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="129" priority="129" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="141" priority="136" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39:E41">
-    <cfRule type="cellIs" dxfId="128" priority="128" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="135" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:E44">
-    <cfRule type="cellIs" dxfId="127" priority="127" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="134" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:E44">
-    <cfRule type="cellIs" dxfId="126" priority="126" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="138" priority="133" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="125" priority="125" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="137" priority="132" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46:E47">
-    <cfRule type="cellIs" dxfId="124" priority="124" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="131" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="123" priority="123" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="130" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49:E50">
-    <cfRule type="cellIs" dxfId="122" priority="122" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="129" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51:E52">
-    <cfRule type="cellIs" dxfId="121" priority="121" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="128" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="120" priority="120" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="127" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="119" priority="119" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="126" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="118" priority="118" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="125" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="117" priority="117" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="129" priority="124" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="116" priority="116" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="123" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="115" priority="115" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="122" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58">
-    <cfRule type="cellIs" dxfId="114" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="121" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57:E58">
-    <cfRule type="cellIs" dxfId="113" priority="113" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="120" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57:E58">
-    <cfRule type="cellIs" dxfId="112" priority="112" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="119" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="111" priority="111" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="118" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60:E62">
-    <cfRule type="cellIs" dxfId="110" priority="110" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="109" priority="109" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="116" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="108" priority="108" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="115" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="107" priority="107" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="106" priority="106" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="113" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67:E71">
-    <cfRule type="cellIs" dxfId="105" priority="105" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="112" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="104" priority="104" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="111" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="103" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="110" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="102" priority="102" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="109" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="101" priority="101" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="100" priority="100" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="107" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="99" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="106" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F78">
-    <cfRule type="cellIs" dxfId="98" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="105" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F79">
-    <cfRule type="cellIs" dxfId="97" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="109" priority="104" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78:E79">
-    <cfRule type="cellIs" dxfId="96" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78:E79">
-    <cfRule type="cellIs" dxfId="95" priority="95" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="94" priority="94" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="101" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="93" priority="93" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="100" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81:E82">
-    <cfRule type="cellIs" dxfId="92" priority="92" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="99" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="91" priority="91" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="90" priority="90" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="89" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="96" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F85">
-    <cfRule type="cellIs" dxfId="88" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="100" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F86">
-    <cfRule type="cellIs" dxfId="87" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="94" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85:E86">
-    <cfRule type="cellIs" dxfId="86" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="93" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85:E86">
-    <cfRule type="cellIs" dxfId="85" priority="85" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="92" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87:E88">
-    <cfRule type="cellIs" dxfId="84" priority="84" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="91" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="83" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="90" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="82" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="94" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="81" priority="79" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="80" priority="78" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="85" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="79" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="78" priority="76" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="77" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F95">
-    <cfRule type="cellIs" dxfId="76" priority="74" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="75" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="74" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F96">
-    <cfRule type="cellIs" dxfId="73" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="78" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="72" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="71" priority="69" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="70" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98:E99">
-    <cfRule type="cellIs" dxfId="69" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="68" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="67" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="66" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="65" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="64" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F105:F106">
-    <cfRule type="cellIs" dxfId="63" priority="60" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105:E106">
-    <cfRule type="cellIs" dxfId="62" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105:E106">
-    <cfRule type="cellIs" dxfId="61" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F107">
-    <cfRule type="cellIs" dxfId="60" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="59" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="58" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="57" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="56" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="55" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="54" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="53" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="52" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="51" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="50" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="49" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116:E117">
-    <cfRule type="cellIs" dxfId="48" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="47" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F119">
-    <cfRule type="cellIs" dxfId="46" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="45" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="44" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F120">
-    <cfRule type="cellIs" dxfId="43" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E120">
-    <cfRule type="cellIs" dxfId="42" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E120">
-    <cfRule type="cellIs" dxfId="41" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E121">
-    <cfRule type="cellIs" dxfId="40" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="39" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="38" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="37" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E124:E125">
-    <cfRule type="cellIs" dxfId="36" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E124:E125">
-    <cfRule type="cellIs" dxfId="35" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E127">
-    <cfRule type="cellIs" dxfId="34" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E128">
-    <cfRule type="cellIs" dxfId="33" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E129:E132">
-    <cfRule type="cellIs" dxfId="32" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E133">
-    <cfRule type="cellIs" dxfId="31" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E133">
-    <cfRule type="cellIs" dxfId="30" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F134">
-    <cfRule type="cellIs" dxfId="29" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" dxfId="28" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" dxfId="27" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F135">
-    <cfRule type="cellIs" dxfId="26" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" dxfId="25" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" dxfId="24" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="23" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E137">
-    <cfRule type="cellIs" dxfId="22" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E139:E140">
-    <cfRule type="cellIs" dxfId="21" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E142:E144">
-    <cfRule type="cellIs" dxfId="20" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F147">
-    <cfRule type="cellIs" dxfId="19" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E147">
-    <cfRule type="cellIs" dxfId="18" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E145:E146">
-    <cfRule type="cellIs" dxfId="17" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D146">
-    <cfRule type="cellIs" dxfId="16" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E149">
-    <cfRule type="cellIs" dxfId="15" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E150">
-    <cfRule type="cellIs" dxfId="14" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E151:E152">
-    <cfRule type="cellIs" dxfId="13" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B152:B154">
-    <cfRule type="cellIs" dxfId="12" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E154">
-    <cfRule type="cellIs" dxfId="11" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E155:E156">
-    <cfRule type="cellIs" dxfId="10" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E10">
-    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:E14">
+    <cfRule type="cellIs" dxfId="19" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E14">
+    <cfRule type="cellIs" dxfId="18" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="11" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="9" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="8" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18:E19">
     <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E14">
+  <conditionalFormatting sqref="E21">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/2023/AWO_Einnahmen_Ausgaben_2023.xlsx
+++ b/2023/AWO_Einnahmen_Ausgaben_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDC8883-DDF0-41F3-88C6-D2E9EDC90DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B85B3C0-A55C-4FA0-A9DA-A0705B63031D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="84">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -247,6 +247,45 @@
   </si>
   <si>
     <t>Milch</t>
+  </si>
+  <si>
+    <t>Porto Bernd</t>
+  </si>
+  <si>
+    <t>Rückzahlung Wasser</t>
+  </si>
+  <si>
+    <t>Vereinsring Jahresbeitrag</t>
+  </si>
+  <si>
+    <t>SPD Miete</t>
+  </si>
+  <si>
+    <t>Strom Nachzahlung</t>
+  </si>
+  <si>
+    <t>Sekt</t>
+  </si>
+  <si>
+    <t>Essen Vorstand Trinkgeld siehe A18</t>
+  </si>
+  <si>
+    <t>Saiten</t>
+  </si>
+  <si>
+    <t>Blumen 80er Fr.Hänsel</t>
+  </si>
+  <si>
+    <t>Spende Ponderose</t>
+  </si>
+  <si>
+    <t>Fasching</t>
+  </si>
+  <si>
+    <t>Spende Rauhöft</t>
+  </si>
+  <si>
+    <t>Spende P.Mühmel</t>
   </si>
 </sst>
 </file>
@@ -910,7 +949,32 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="306">
+  <dxfs count="321">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1066,6 +1130,56 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -4850,115 +4964,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="12">
-        <item h="1" x="1"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item h="1" x="0"/>
-        <item m="1" x="10"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </colItems>
-  <dataFields count="5">
-    <dataField name="Summe von Barkasse" fld="1" baseField="0" baseItem="0"/>
-    <dataField name="Summe von VOBA" fld="2" baseField="0" baseItem="0"/>
-    <dataField name="Summe von VOBA TgK 630041601" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Summe von KSK" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="14">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="13">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="12">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B16:G25" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
@@ -5045,17 +5050,126 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="17">
+    <format dxfId="19">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="17">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item h="1" x="1"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item h="1" x="0"/>
+        <item m="1" x="10"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="Summe von Barkasse" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Summe von VOBA" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Summe von VOBA TgK 630041601" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Summe von KSK" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="22">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="21">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -6182,8 +6296,8 @@
   <dimension ref="A1:IK170"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <pane ySplit="2" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6505,14 +6619,22 @@
       </c>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
+      <c r="A13" s="15">
+        <v>44971</v>
+      </c>
       <c r="B13" s="52">
         <v>10</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="19"/>
+      <c r="C13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="E13" s="17"/>
-      <c r="F13" s="18"/>
+      <c r="F13" s="18">
+        <v>52.44</v>
+      </c>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
       <c r="I13" s="19"/>
@@ -6522,14 +6644,22 @@
       </c>
     </row>
     <row r="14" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
+      <c r="A14" s="15">
+        <v>44972</v>
+      </c>
       <c r="B14" s="52">
         <v>11</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="19"/>
+      <c r="C14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E14" s="17"/>
-      <c r="F14" s="18"/>
+      <c r="F14" s="18">
+        <v>20</v>
+      </c>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
       <c r="I14" s="19"/>
@@ -6539,14 +6669,22 @@
       </c>
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
+      <c r="A15" s="15">
+        <v>44979</v>
+      </c>
       <c r="B15" s="52">
         <v>12</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="19"/>
+      <c r="C15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E15" s="20"/>
-      <c r="F15" s="21"/>
+      <c r="F15" s="21">
+        <v>210</v>
+      </c>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
       <c r="I15" s="19"/>
@@ -6556,14 +6694,22 @@
       </c>
     </row>
     <row r="16" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
+      <c r="A16" s="15">
+        <v>44979</v>
+      </c>
       <c r="B16" s="52">
         <v>13</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="50"/>
+      <c r="C16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>13</v>
+      </c>
       <c r="E16" s="17"/>
-      <c r="F16" s="18"/>
+      <c r="F16" s="18">
+        <v>20</v>
+      </c>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
       <c r="I16" s="19"/>
@@ -6573,14 +6719,22 @@
       </c>
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
+      <c r="A17" s="15">
+        <v>44979</v>
+      </c>
       <c r="B17" s="52">
         <v>14</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="19"/>
+      <c r="C17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>13</v>
+      </c>
       <c r="E17" s="20"/>
-      <c r="F17" s="21"/>
+      <c r="F17" s="18">
+        <v>20</v>
+      </c>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="19"/>
@@ -7903,7 +8057,7 @@
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
-        <v>7394.2900000000054</v>
+        <v>7716.730000000005</v>
       </c>
       <c r="G105" s="28">
         <f>SUM(G3:G104)</f>
@@ -7946,7 +8100,7 @@
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G171</f>
-        <v>6184.5600000000049</v>
+        <v>5975.0700000000052</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H171</f>
@@ -7984,7 +8138,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>9434.4400000000041</v>
+        <v>9224.9500000000044</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -8785,457 +8939,472 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 G50 F51:G53 G54:G58 E59:G60 D66:G66 F31:G31 F34:G34 F46:G49 F61 G61:G62 F63:G65 D68:G68 G67 F69:G75 D76:G81 D89:G89 G82 F83:G88 F90:G90 D91:G91 D95:G95 G92 E93:G93 F94:G94 D99:G104 F96:G97 G98 F19:G19 F24:G24 H28:I104 I27 G32:G33 G35:G36 F13:G14 H4:I26 G4:G12 F16:G16 G15 G17:G18 G20:G23 F26:G26 G25 G28:G30 F37:G40 G41:G45">
-    <cfRule type="cellIs" dxfId="305" priority="264" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="320" priority="268" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="304" priority="233" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="319" priority="237" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="303" priority="235" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="318" priority="239" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="302" priority="231" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="317" priority="235" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="301" priority="205" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="316" priority="209" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="300" priority="200" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="315" priority="204" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="299" priority="185" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="314" priority="189" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="298" priority="182" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="313" priority="186" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="297" priority="177" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="312" priority="181" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="296" priority="174" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="311" priority="178" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37:E39">
-    <cfRule type="cellIs" dxfId="295" priority="168" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="310" priority="172" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="294" priority="163" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="309" priority="167" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="293" priority="151" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="308" priority="155" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="292" priority="149" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="307" priority="153" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48:E50">
-    <cfRule type="cellIs" dxfId="291" priority="147" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="306" priority="151" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="290" priority="143" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="305" priority="147" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54:F55">
-    <cfRule type="cellIs" dxfId="289" priority="141" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="304" priority="145" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="cellIs" dxfId="288" priority="129" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="303" priority="133" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="287" priority="128" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="302" priority="132" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="286" priority="127" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="301" priority="131" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:E69">
-    <cfRule type="cellIs" dxfId="285" priority="126" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="300" priority="130" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="284" priority="125" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="299" priority="129" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="cellIs" dxfId="283" priority="124" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="298" priority="128" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="282" priority="123" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="297" priority="127" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71">
-    <cfRule type="cellIs" dxfId="281" priority="122" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="296" priority="126" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="280" priority="121" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="295" priority="125" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72">
-    <cfRule type="cellIs" dxfId="279" priority="120" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="294" priority="124" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="278" priority="119" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="293" priority="123" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
-    <cfRule type="cellIs" dxfId="277" priority="117" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="292" priority="121" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="276" priority="116" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="291" priority="120" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74">
-    <cfRule type="cellIs" dxfId="275" priority="115" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="290" priority="119" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="274" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="289" priority="118" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75">
-    <cfRule type="cellIs" dxfId="273" priority="113" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="288" priority="117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="272" priority="112" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="287" priority="116" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="271" priority="111" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="286" priority="115" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83">
-    <cfRule type="cellIs" dxfId="270" priority="110" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="285" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="269" priority="109" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="284" priority="113" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84">
-    <cfRule type="cellIs" dxfId="268" priority="108" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="283" priority="112" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="267" priority="107" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="282" priority="111" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D85">
-    <cfRule type="cellIs" dxfId="266" priority="106" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="281" priority="110" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="265" priority="105" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="280" priority="109" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D86">
-    <cfRule type="cellIs" dxfId="264" priority="104" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="279" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="263" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="278" priority="107" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87">
-    <cfRule type="cellIs" dxfId="262" priority="102" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="277" priority="106" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="261" priority="101" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="276" priority="105" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88">
-    <cfRule type="cellIs" dxfId="260" priority="100" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="275" priority="104" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90:E90">
-    <cfRule type="cellIs" dxfId="259" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="274" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:D92">
-    <cfRule type="cellIs" dxfId="258" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="273" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93">
-    <cfRule type="cellIs" dxfId="257" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="272" priority="101" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="256" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="271" priority="100" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D94">
-    <cfRule type="cellIs" dxfId="255" priority="95" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="270" priority="99" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96:E96">
-    <cfRule type="cellIs" dxfId="254" priority="94" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="269" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="253" priority="93" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="268" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="252" priority="92" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="267" priority="96" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:D98">
-    <cfRule type="cellIs" dxfId="251" priority="91" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="266" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="250" priority="90" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="265" priority="94" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="249" priority="76" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="264" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="248" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="263" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:D8">
-    <cfRule type="cellIs" dxfId="247" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="262" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="245" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="261" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="244" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="260" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" dxfId="243" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="259" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H27">
-    <cfRule type="cellIs" dxfId="242" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="258" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="241" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="257" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="240" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="256" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="239" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="255" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="238" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="254" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37:D40">
-    <cfRule type="cellIs" dxfId="237" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="253" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="236" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13:D15">
-    <cfRule type="cellIs" dxfId="234" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="252" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:E16">
-    <cfRule type="cellIs" dxfId="233" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D18">
-    <cfRule type="cellIs" dxfId="232" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="250" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="cellIs" dxfId="249" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="231" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="248" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:D21">
-    <cfRule type="cellIs" dxfId="230" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="247" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="229" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="246" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:D24">
-    <cfRule type="cellIs" dxfId="228" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="245" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="cellIs" dxfId="227" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="244" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:D36">
-    <cfRule type="cellIs" dxfId="226" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="243" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:D42">
-    <cfRule type="cellIs" dxfId="225" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="242" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:D44">
-    <cfRule type="cellIs" dxfId="224" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="241" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:D46">
-    <cfRule type="cellIs" dxfId="223" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="240" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:D59">
-    <cfRule type="cellIs" dxfId="222" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="239" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58">
-    <cfRule type="cellIs" dxfId="221" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="238" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="220" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="237" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="cellIs" dxfId="219" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="236" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="cellIs" dxfId="218" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="235" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:D64">
-    <cfRule type="cellIs" dxfId="217" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="234" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="233" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="6" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="232" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="231" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="230" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="cellIs" dxfId="16" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:D15">
+    <cfRule type="cellIs" dxfId="15" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9270,8 +9439,8 @@
   <dimension ref="A1:IM237"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9856,14 +10025,22 @@
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="43"/>
-      <c r="B22" s="15"/>
+      <c r="B22" s="15">
+        <v>44970</v>
+      </c>
       <c r="C22" s="52">
         <v>20</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="23"/>
+      <c r="D22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="F22" s="20"/>
-      <c r="G22" s="21"/>
+      <c r="G22" s="21">
+        <v>-8.5</v>
+      </c>
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
       <c r="J22" s="22"/>
@@ -9873,14 +10050,22 @@
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="43"/>
-      <c r="B23" s="15"/>
+      <c r="B23" s="15">
+        <v>44972</v>
+      </c>
       <c r="C23" s="16">
         <v>21</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="23"/>
+      <c r="D23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="F23" s="17"/>
-      <c r="G23" s="21"/>
+      <c r="G23" s="21">
+        <v>-20</v>
+      </c>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
       <c r="J23" s="22"/>
@@ -9890,14 +10075,22 @@
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="43"/>
-      <c r="B24" s="15"/>
+      <c r="B24" s="15">
+        <v>44973</v>
+      </c>
       <c r="C24" s="16">
         <v>22</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="21"/>
+      <c r="D24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="20"/>
+      <c r="G24" s="21">
+        <v>-41.72</v>
+      </c>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
       <c r="J24" s="22"/>
@@ -9907,14 +10100,22 @@
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="43"/>
-      <c r="B25" s="15"/>
+      <c r="B25" s="15">
+        <v>44974</v>
+      </c>
       <c r="C25" s="52">
         <v>23</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="23"/>
+      <c r="D25" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F25" s="20"/>
-      <c r="G25" s="21"/>
+      <c r="G25" s="21">
+        <v>-43.86</v>
+      </c>
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
       <c r="J25" s="22"/>
@@ -9924,14 +10125,22 @@
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="43"/>
-      <c r="B26" s="15"/>
+      <c r="B26" s="15">
+        <v>44977</v>
+      </c>
       <c r="C26" s="52">
         <v>24</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="23"/>
+      <c r="D26" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F26" s="20"/>
-      <c r="G26" s="21"/>
+      <c r="G26" s="21">
+        <v>-30</v>
+      </c>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="22"/>
@@ -9941,14 +10150,22 @@
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="43"/>
-      <c r="B27" s="15"/>
+      <c r="B27" s="15">
+        <v>44978</v>
+      </c>
       <c r="C27" s="52">
         <v>25</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="23"/>
+      <c r="D27" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="F27" s="20"/>
-      <c r="G27" s="21"/>
+      <c r="G27" s="21">
+        <v>-20</v>
+      </c>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="22"/>
@@ -9958,14 +10175,22 @@
     </row>
     <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="43"/>
-      <c r="B28" s="15"/>
+      <c r="B28" s="15">
+        <v>44978</v>
+      </c>
       <c r="C28" s="52">
         <v>26</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="23"/>
+      <c r="D28" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F28" s="20"/>
-      <c r="G28" s="21"/>
+      <c r="G28" s="21">
+        <v>-19.649999999999999</v>
+      </c>
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
       <c r="J28" s="22"/>
@@ -9975,14 +10200,22 @@
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="43"/>
-      <c r="B29" s="15"/>
+      <c r="B29" s="15">
+        <v>44978</v>
+      </c>
       <c r="C29" s="52">
         <v>27</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="23"/>
+      <c r="D29" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>23</v>
+      </c>
       <c r="F29" s="17"/>
-      <c r="G29" s="21"/>
+      <c r="G29" s="21">
+        <v>-25</v>
+      </c>
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
       <c r="J29" s="22"/>
@@ -9992,14 +10225,22 @@
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="43"/>
-      <c r="B30" s="15"/>
+      <c r="B30" s="15">
+        <v>44979</v>
+      </c>
       <c r="C30" s="52">
         <v>28</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="23"/>
+      <c r="D30" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="F30" s="20"/>
-      <c r="G30" s="21"/>
+      <c r="G30" s="21">
+        <v>-300</v>
+      </c>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="22"/>
@@ -10009,14 +10250,22 @@
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="43"/>
-      <c r="B31" s="15"/>
+      <c r="B31" s="15">
+        <v>44979</v>
+      </c>
       <c r="C31" s="52">
         <v>29</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="23"/>
+      <c r="D31" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F31" s="17"/>
-      <c r="G31" s="21"/>
+      <c r="G31" s="21">
+        <v>-23.2</v>
+      </c>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="22"/>
@@ -12392,7 +12641,7 @@
       </c>
       <c r="G171" s="34">
         <f>SUM(G3:G170)</f>
-        <v>-1209.73</v>
+        <v>-1741.66</v>
       </c>
       <c r="H171" s="34">
         <f>SUM(H3:H170)</f>
@@ -13389,1042 +13638,1082 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="K173 J172:J235 I172:I237 D172:H235 C111:D111 C124 A55:A83 C127:C128 D128 B130:D130 C133:C134 B139:D139 C145:D145 C148:E148 D163:E163 B155:D155 B165:B237 C163:C236 D165:E172 D164 A3:A53 B134:B135 B150:D151 C153:E153 C154 A85:A236">
-    <cfRule type="cellIs" dxfId="216" priority="665" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="229" priority="678" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="215" priority="655" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="228" priority="668" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="214" priority="617" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="227" priority="630" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C122">
-    <cfRule type="cellIs" dxfId="213" priority="573" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="226" priority="586" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="212" priority="549" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="211" priority="547" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="225" priority="562" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="210" priority="533" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="223" priority="546" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C112">
-    <cfRule type="cellIs" dxfId="209" priority="456" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="222" priority="469" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124">
-    <cfRule type="cellIs" dxfId="208" priority="441" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="221" priority="454" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E126">
-    <cfRule type="cellIs" dxfId="207" priority="438" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="220" priority="451" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B126">
-    <cfRule type="cellIs" dxfId="206" priority="437" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="219" priority="450" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B127:B129">
-    <cfRule type="cellIs" dxfId="205" priority="435" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="218" priority="448" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C129:D129">
-    <cfRule type="cellIs" dxfId="204" priority="433" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="217" priority="446" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131">
-    <cfRule type="cellIs" dxfId="203" priority="429" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="216" priority="442" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C132">
-    <cfRule type="cellIs" dxfId="202" priority="428" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="215" priority="441" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C135">
-    <cfRule type="cellIs" dxfId="201" priority="425" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="214" priority="438" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136:B137">
-    <cfRule type="cellIs" dxfId="200" priority="423" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="213" priority="436" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E138">
-    <cfRule type="cellIs" dxfId="199" priority="421" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="212" priority="434" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="cellIs" dxfId="198" priority="418" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="211" priority="431" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F141">
-    <cfRule type="cellIs" dxfId="197" priority="416" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="210" priority="429" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E141">
-    <cfRule type="cellIs" dxfId="196" priority="415" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="209" priority="428" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F142">
-    <cfRule type="cellIs" dxfId="195" priority="414" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="208" priority="427" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F143">
-    <cfRule type="cellIs" dxfId="194" priority="412" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="207" priority="425" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F144">
-    <cfRule type="cellIs" dxfId="193" priority="410" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="206" priority="423" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C146">
-    <cfRule type="cellIs" dxfId="192" priority="406" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="205" priority="419" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C147">
-    <cfRule type="cellIs" dxfId="191" priority="405" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="204" priority="418" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C149:D149">
-    <cfRule type="cellIs" dxfId="190" priority="404" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="203" priority="417" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C152">
-    <cfRule type="cellIs" dxfId="189" priority="402" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="202" priority="415" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156:D156">
-    <cfRule type="cellIs" dxfId="188" priority="398" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="201" priority="411" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B157:D157">
-    <cfRule type="cellIs" dxfId="187" priority="395" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="200" priority="408" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E157">
-    <cfRule type="cellIs" dxfId="186" priority="394" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="199" priority="407" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C158:E158">
-    <cfRule type="cellIs" dxfId="185" priority="393" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="406" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B158">
-    <cfRule type="cellIs" dxfId="184" priority="392" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="197" priority="405" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159:D159">
-    <cfRule type="cellIs" dxfId="183" priority="391" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="196" priority="404" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E159">
-    <cfRule type="cellIs" dxfId="182" priority="390" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="195" priority="403" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E160">
-    <cfRule type="cellIs" dxfId="181" priority="389" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="194" priority="402" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B160">
-    <cfRule type="cellIs" dxfId="180" priority="387" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="193" priority="400" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B161:D161">
-    <cfRule type="cellIs" dxfId="179" priority="386" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="192" priority="399" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E161">
-    <cfRule type="cellIs" dxfId="178" priority="385" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="191" priority="398" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D162:E162">
-    <cfRule type="cellIs" dxfId="177" priority="384" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="190" priority="397" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162:C162">
-    <cfRule type="cellIs" dxfId="176" priority="383" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="396" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163">
-    <cfRule type="cellIs" dxfId="175" priority="382" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="188" priority="395" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B164">
-    <cfRule type="cellIs" dxfId="174" priority="381" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="187" priority="394" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E164">
-    <cfRule type="cellIs" dxfId="173" priority="380" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="186" priority="393" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="172" priority="358" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="185" priority="371" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="cellIs" dxfId="171" priority="349" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="184" priority="362" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="170" priority="347" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="183" priority="360" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" dxfId="169" priority="330" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="182" priority="343" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61">
-    <cfRule type="cellIs" dxfId="168" priority="328" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="181" priority="341" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62:F63">
-    <cfRule type="cellIs" dxfId="167" priority="326" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E19 E21:E25">
-    <cfRule type="cellIs" dxfId="2" priority="285" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="180" priority="339" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E19 E21:E26">
+    <cfRule type="cellIs" dxfId="179" priority="298" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="166" priority="259" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="178" priority="272" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="165" priority="213" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="177" priority="226" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="164" priority="172" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="176" priority="185" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D115">
-    <cfRule type="cellIs" dxfId="163" priority="171" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="175" priority="184" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D116">
-    <cfRule type="cellIs" dxfId="162" priority="170" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="174" priority="183" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D123">
-    <cfRule type="cellIs" dxfId="161" priority="162" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="173" priority="175" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E7">
-    <cfRule type="cellIs" dxfId="160" priority="157" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="172" priority="170" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="159" priority="156" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="171" priority="169" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="158" priority="155" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="170" priority="168" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E10">
-    <cfRule type="cellIs" dxfId="157" priority="152" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="169" priority="165" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:E14">
-    <cfRule type="cellIs" dxfId="156" priority="151" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="168" priority="164" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="155" priority="150" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="167" priority="163" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="154" priority="149" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="166" priority="162" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="cellIs" dxfId="162" priority="158" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
+    <cfRule type="cellIs" dxfId="160" priority="156" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="159" priority="155" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="158" priority="154" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="157" priority="153" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="156" priority="152" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="155" priority="151" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="154" priority="150" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="153" priority="149" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39:E41">
+    <cfRule type="cellIs" dxfId="152" priority="148" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42:E44">
+    <cfRule type="cellIs" dxfId="151" priority="147" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42:E44">
+    <cfRule type="cellIs" dxfId="150" priority="146" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="149" priority="145" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46:E47">
+    <cfRule type="cellIs" dxfId="148" priority="144" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="147" priority="143" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49:E50">
+    <cfRule type="cellIs" dxfId="146" priority="142" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51:E52">
+    <cfRule type="cellIs" dxfId="145" priority="141" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="144" priority="140" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="143" priority="139" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="142" priority="138" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="141" priority="137" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="140" priority="136" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F57">
+    <cfRule type="cellIs" dxfId="139" priority="135" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58">
+    <cfRule type="cellIs" dxfId="138" priority="134" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57:E58">
+    <cfRule type="cellIs" dxfId="137" priority="133" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57:E58">
+    <cfRule type="cellIs" dxfId="136" priority="132" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="135" priority="131" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60:E62">
+    <cfRule type="cellIs" dxfId="134" priority="130" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="cellIs" dxfId="133" priority="129" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="cellIs" dxfId="132" priority="128" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="cellIs" dxfId="131" priority="127" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="cellIs" dxfId="130" priority="126" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67:E71">
+    <cfRule type="cellIs" dxfId="129" priority="125" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="128" priority="124" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="cellIs" dxfId="127" priority="123" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="126" priority="122" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="125" priority="121" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="124" priority="120" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" dxfId="123" priority="119" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F78">
+    <cfRule type="cellIs" dxfId="122" priority="118" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F79">
+    <cfRule type="cellIs" dxfId="121" priority="117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78:E79">
+    <cfRule type="cellIs" dxfId="120" priority="116" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78:E79">
+    <cfRule type="cellIs" dxfId="119" priority="115" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="118" priority="114" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="117" priority="113" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81:E82">
+    <cfRule type="cellIs" dxfId="116" priority="112" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="115" priority="111" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="114" priority="110" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="113" priority="109" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F85">
+    <cfRule type="cellIs" dxfId="112" priority="108" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F86">
+    <cfRule type="cellIs" dxfId="111" priority="107" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85:E86">
+    <cfRule type="cellIs" dxfId="110" priority="106" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85:E86">
+    <cfRule type="cellIs" dxfId="109" priority="105" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87:E88">
+    <cfRule type="cellIs" dxfId="108" priority="104" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89">
+    <cfRule type="cellIs" dxfId="107" priority="103" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="106" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="cellIs" dxfId="105" priority="99" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="cellIs" dxfId="104" priority="98" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="cellIs" dxfId="103" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="102" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="101" priority="95" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F95">
+    <cfRule type="cellIs" dxfId="100" priority="94" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="cellIs" dxfId="99" priority="93" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="cellIs" dxfId="98" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F96">
+    <cfRule type="cellIs" dxfId="97" priority="91" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="cellIs" dxfId="96" priority="90" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="cellIs" dxfId="95" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="94" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98:E99">
+    <cfRule type="cellIs" dxfId="93" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100">
+    <cfRule type="cellIs" dxfId="92" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="cellIs" dxfId="91" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="90" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103">
+    <cfRule type="cellIs" dxfId="89" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="cellIs" dxfId="88" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F105:F106">
+    <cfRule type="cellIs" dxfId="87" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105:E106">
+    <cfRule type="cellIs" dxfId="86" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105:E106">
+    <cfRule type="cellIs" dxfId="85" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F107">
+    <cfRule type="cellIs" dxfId="84" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="83" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="82" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="cellIs" dxfId="81" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="cellIs" dxfId="80" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="cellIs" dxfId="79" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110">
+    <cfRule type="cellIs" dxfId="78" priority="71" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
+    <cfRule type="cellIs" dxfId="77" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="cellIs" dxfId="76" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="cellIs" dxfId="75" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="cellIs" dxfId="74" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114">
+    <cfRule type="cellIs" dxfId="73" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116:E117">
+    <cfRule type="cellIs" dxfId="72" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
+    <cfRule type="cellIs" dxfId="71" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F119">
+    <cfRule type="cellIs" dxfId="70" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E119">
+    <cfRule type="cellIs" dxfId="69" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E119">
+    <cfRule type="cellIs" dxfId="68" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F120">
+    <cfRule type="cellIs" dxfId="67" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E120">
+    <cfRule type="cellIs" dxfId="66" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E120">
+    <cfRule type="cellIs" dxfId="65" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E121">
+    <cfRule type="cellIs" dxfId="64" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="cellIs" dxfId="63" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="cellIs" dxfId="62" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E123">
+    <cfRule type="cellIs" dxfId="61" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E124:E125">
+    <cfRule type="cellIs" dxfId="60" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E124:E125">
+    <cfRule type="cellIs" dxfId="59" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E127">
+    <cfRule type="cellIs" dxfId="58" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E128">
+    <cfRule type="cellIs" dxfId="57" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E129:E132">
+    <cfRule type="cellIs" dxfId="56" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E133">
+    <cfRule type="cellIs" dxfId="55" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E133">
+    <cfRule type="cellIs" dxfId="54" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F134">
+    <cfRule type="cellIs" dxfId="53" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E134">
+    <cfRule type="cellIs" dxfId="52" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E134">
+    <cfRule type="cellIs" dxfId="51" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F135">
+    <cfRule type="cellIs" dxfId="50" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E135">
+    <cfRule type="cellIs" dxfId="49" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E135">
+    <cfRule type="cellIs" dxfId="48" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E136">
+    <cfRule type="cellIs" dxfId="47" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E137">
+    <cfRule type="cellIs" dxfId="46" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E139:E140">
+    <cfRule type="cellIs" dxfId="45" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E142:E144">
+    <cfRule type="cellIs" dxfId="44" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F147">
+    <cfRule type="cellIs" dxfId="43" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E147">
+    <cfRule type="cellIs" dxfId="42" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E145:E146">
+    <cfRule type="cellIs" dxfId="41" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D146">
+    <cfRule type="cellIs" dxfId="40" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E149">
+    <cfRule type="cellIs" dxfId="39" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E150">
+    <cfRule type="cellIs" dxfId="38" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E151:E152">
+    <cfRule type="cellIs" dxfId="37" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B152:B154">
+    <cfRule type="cellIs" dxfId="36" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E154">
+    <cfRule type="cellIs" dxfId="35" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E155:E156">
+    <cfRule type="cellIs" dxfId="34" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9:E10">
+    <cfRule type="cellIs" dxfId="33" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="32" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E14">
+    <cfRule type="cellIs" dxfId="31" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E14">
+    <cfRule type="cellIs" dxfId="30" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="29" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="28" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="27" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="26" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="cellIs" dxfId="25" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18:E19">
+    <cfRule type="cellIs" dxfId="24" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="cellIs" dxfId="23" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="cellIs" dxfId="14" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="cellIs" dxfId="13" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25:E26">
+    <cfRule type="cellIs" dxfId="12" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="153" priority="148" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="152" priority="147" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27:E28">
-    <cfRule type="cellIs" dxfId="151" priority="146" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="150" priority="145" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="cellIs" dxfId="10" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="cellIs" dxfId="9" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="cellIs" dxfId="7" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="cellIs" dxfId="6" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="149" priority="144" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
-    <cfRule type="cellIs" dxfId="148" priority="143" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31:E32">
-    <cfRule type="cellIs" dxfId="147" priority="142" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="146" priority="141" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="145" priority="140" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="144" priority="139" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="143" priority="138" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="142" priority="137" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="141" priority="136" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39:E41">
-    <cfRule type="cellIs" dxfId="140" priority="135" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42:E44">
-    <cfRule type="cellIs" dxfId="139" priority="134" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42:E44">
-    <cfRule type="cellIs" dxfId="138" priority="133" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="137" priority="132" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46:E47">
-    <cfRule type="cellIs" dxfId="136" priority="131" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="135" priority="130" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49:E50">
-    <cfRule type="cellIs" dxfId="134" priority="129" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51:E52">
-    <cfRule type="cellIs" dxfId="133" priority="128" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="132" priority="127" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="131" priority="126" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="130" priority="125" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="129" priority="124" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="128" priority="123" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="127" priority="122" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="cellIs" dxfId="126" priority="121" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57:E58">
-    <cfRule type="cellIs" dxfId="125" priority="120" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57:E58">
-    <cfRule type="cellIs" dxfId="124" priority="119" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="123" priority="118" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60:E62">
-    <cfRule type="cellIs" dxfId="122" priority="117" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="121" priority="116" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="120" priority="115" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="119" priority="114" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="118" priority="113" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67:E71">
-    <cfRule type="cellIs" dxfId="117" priority="112" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="116" priority="111" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="115" priority="110" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="114" priority="109" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="113" priority="108" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="112" priority="107" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="111" priority="106" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F78">
-    <cfRule type="cellIs" dxfId="110" priority="105" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F79">
-    <cfRule type="cellIs" dxfId="109" priority="104" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78:E79">
-    <cfRule type="cellIs" dxfId="108" priority="103" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78:E79">
-    <cfRule type="cellIs" dxfId="107" priority="102" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="106" priority="101" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="105" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81:E82">
-    <cfRule type="cellIs" dxfId="104" priority="99" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="103" priority="98" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="102" priority="97" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="101" priority="96" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F85">
-    <cfRule type="cellIs" dxfId="100" priority="95" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F86">
-    <cfRule type="cellIs" dxfId="99" priority="94" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85:E86">
-    <cfRule type="cellIs" dxfId="98" priority="93" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85:E86">
-    <cfRule type="cellIs" dxfId="97" priority="92" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87:E88">
-    <cfRule type="cellIs" dxfId="96" priority="91" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="95" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="94" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="93" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="92" priority="85" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="91" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="90" priority="83" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="89" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F95">
-    <cfRule type="cellIs" dxfId="88" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="87" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="86" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F96">
-    <cfRule type="cellIs" dxfId="85" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="84" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="83" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="82" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98:E99">
-    <cfRule type="cellIs" dxfId="81" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="80" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="79" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="78" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="77" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="76" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F105:F106">
-    <cfRule type="cellIs" dxfId="75" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E105:E106">
-    <cfRule type="cellIs" dxfId="74" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E105:E106">
-    <cfRule type="cellIs" dxfId="73" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F107">
-    <cfRule type="cellIs" dxfId="72" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="71" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="70" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="69" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="68" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="67" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="66" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="65" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="64" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="63" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="62" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="61" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116:E117">
-    <cfRule type="cellIs" dxfId="60" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="59" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F119">
-    <cfRule type="cellIs" dxfId="58" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="57" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="56" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F120">
-    <cfRule type="cellIs" dxfId="55" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E120">
-    <cfRule type="cellIs" dxfId="54" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E120">
-    <cfRule type="cellIs" dxfId="53" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E121">
-    <cfRule type="cellIs" dxfId="52" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="51" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="50" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="49" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E124:E125">
-    <cfRule type="cellIs" dxfId="48" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E124:E125">
-    <cfRule type="cellIs" dxfId="47" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E127">
-    <cfRule type="cellIs" dxfId="46" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E128">
-    <cfRule type="cellIs" dxfId="45" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E129:E132">
-    <cfRule type="cellIs" dxfId="44" priority="36" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E133">
-    <cfRule type="cellIs" dxfId="43" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E133">
-    <cfRule type="cellIs" dxfId="42" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F134">
-    <cfRule type="cellIs" dxfId="41" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" dxfId="40" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" dxfId="39" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F135">
-    <cfRule type="cellIs" dxfId="38" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" dxfId="37" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" dxfId="36" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="35" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E137">
-    <cfRule type="cellIs" dxfId="34" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E139:E140">
-    <cfRule type="cellIs" dxfId="33" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E142:E144">
-    <cfRule type="cellIs" dxfId="32" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F147">
-    <cfRule type="cellIs" dxfId="31" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E147">
-    <cfRule type="cellIs" dxfId="30" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E145:E146">
-    <cfRule type="cellIs" dxfId="29" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D146">
-    <cfRule type="cellIs" dxfId="28" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E149">
-    <cfRule type="cellIs" dxfId="27" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E150">
-    <cfRule type="cellIs" dxfId="26" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E151:E152">
-    <cfRule type="cellIs" dxfId="25" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B152:B154">
-    <cfRule type="cellIs" dxfId="24" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E154">
-    <cfRule type="cellIs" dxfId="23" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E155:E156">
-    <cfRule type="cellIs" dxfId="22" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9:E10">
-    <cfRule type="cellIs" dxfId="21" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="20" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E14">
-    <cfRule type="cellIs" dxfId="19" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E14">
-    <cfRule type="cellIs" dxfId="18" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="11" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="9" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="8" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18:E19">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E155:E170 E31:E33 E35:E79 E81:E111 E113:E140 E142:E144 E147:E153 E3:E29" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E155:E170 E3:E29 E35:E79 E81:E111 E113:E140 E142:E144 E147:E153 E31:E33" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$M$1:$M$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E141 E145:E146 E154" xr:uid="{00000000-0002-0000-0100-000001000000}">

--- a/2023/AWO_Einnahmen_Ausgaben_2023.xlsx
+++ b/2023/AWO_Einnahmen_Ausgaben_2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B85B3C0-A55C-4FA0-A9DA-A0705B63031D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF977EE-1221-4BAE-AF87-2D401A6D075A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="90">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -286,6 +286,24 @@
   </si>
   <si>
     <t>Spende P.Mühmel</t>
+  </si>
+  <si>
+    <t>Bürgerbus Beitrag</t>
+  </si>
+  <si>
+    <t>Vereinsförderung Wabu</t>
+  </si>
+  <si>
+    <t>Getränke Kappel</t>
+  </si>
+  <si>
+    <t>Bäcker Raisch</t>
+  </si>
+  <si>
+    <t>Brezeln</t>
+  </si>
+  <si>
+    <t>Treff zg Laune 7.3.</t>
   </si>
 </sst>
 </file>
@@ -949,32 +967,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="321">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="327">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1130,6 +1123,61 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -4964,6 +5012,115 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item h="1" x="1"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item h="1" x="0"/>
+        <item m="1" x="10"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="Summe von Barkasse" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Summe von VOBA" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Summe von VOBA TgK 630041601" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Summe von KSK" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="14">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="13">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="12">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B16:G25" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
@@ -5050,126 +5207,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="19">
+    <format dxfId="17">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="12">
-        <item h="1" x="1"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item h="1" x="0"/>
-        <item m="1" x="10"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </colItems>
-  <dataFields count="5">
-    <dataField name="Summe von Barkasse" fld="1" baseField="0" baseItem="0"/>
-    <dataField name="Summe von VOBA" fld="2" baseField="0" baseItem="0"/>
-    <dataField name="Summe von VOBA TgK 630041601" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Summe von KSK" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="22">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="21">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="20">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -6296,8 +6344,8 @@
   <dimension ref="A1:IK170"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <pane ySplit="2" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6744,14 +6792,22 @@
       </c>
     </row>
     <row r="18" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
+      <c r="A18" s="15">
+        <v>44986</v>
+      </c>
       <c r="B18" s="52">
         <v>15</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="19"/>
+      <c r="C18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="E18" s="20"/>
-      <c r="F18" s="21"/>
+      <c r="F18" s="21">
+        <v>450</v>
+      </c>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
       <c r="I18" s="19"/>
@@ -6761,14 +6817,22 @@
       </c>
     </row>
     <row r="19" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
+      <c r="A19" s="15">
+        <v>44991</v>
+      </c>
       <c r="B19" s="52">
         <v>16</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="18"/>
+      <c r="C19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="20"/>
+      <c r="F19" s="21">
+        <v>12</v>
+      </c>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="19"/>
@@ -6778,14 +6842,22 @@
       </c>
     </row>
     <row r="20" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
+      <c r="A20" s="15">
+        <v>44991</v>
+      </c>
       <c r="B20" s="52">
         <v>17</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="21"/>
+      <c r="C20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="F20" s="18">
+        <v>20</v>
+      </c>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
       <c r="I20" s="19"/>
@@ -6793,14 +6865,22 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
+      <c r="A21" s="15">
+        <v>44993</v>
+      </c>
       <c r="B21" s="52">
         <v>18</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="19"/>
+      <c r="C21" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E21" s="20"/>
-      <c r="F21" s="21"/>
+      <c r="F21" s="21">
+        <v>115</v>
+      </c>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
       <c r="I21" s="19"/>
@@ -8057,7 +8137,7 @@
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
-        <v>7716.730000000005</v>
+        <v>8313.730000000005</v>
       </c>
       <c r="G105" s="28">
         <f>SUM(G3:G104)</f>
@@ -8100,7 +8180,7 @@
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G171</f>
-        <v>5975.0700000000052</v>
+        <v>6266.9500000000053</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H171</f>
@@ -8138,7 +8218,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>9224.9500000000044</v>
+        <v>9516.8300000000054</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -8938,472 +9018,477 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 G50 F51:G53 G54:G58 E59:G60 D66:G66 F31:G31 F34:G34 F46:G49 F61 G61:G62 F63:G65 D68:G68 G67 F69:G75 D76:G81 D89:G89 G82 F83:G88 F90:G90 D91:G91 D95:G95 G92 E93:G93 F94:G94 D99:G104 F96:G97 G98 F19:G19 F24:G24 H28:I104 I27 G32:G33 G35:G36 F13:G14 H4:I26 G4:G12 F16:G16 G15 G17:G18 G20:G23 F26:G26 G25 G28:G30 F37:G40 G41:G45">
-    <cfRule type="cellIs" dxfId="320" priority="268" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 G50 F51:G53 G54:G58 E59:G60 D66:G66 F31:G31 F34:G34 F46:G49 F61 G61:G62 F63:G65 D68:G68 G67 F69:G75 D76:G81 D89:G89 G82 F83:G88 F90:G90 D91:G91 D95:G95 G92 E93:G93 F94:G94 D99:G104 F96:G97 G98 F24:G24 H28:I104 I27 G32:G33 G35:G36 F13:G14 H4:I26 G4:G12 F16:G16 G15 G17:G23 F26:G26 G25 G28:G30 F37:G40 G41:G45">
+    <cfRule type="cellIs" dxfId="326" priority="273" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="319" priority="237" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="325" priority="242" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="318" priority="239" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="324" priority="244" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="317" priority="235" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="323" priority="240" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="316" priority="209" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="322" priority="214" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="315" priority="204" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="321" priority="209" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="314" priority="189" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="320" priority="194" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="313" priority="186" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="319" priority="191" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="312" priority="181" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="318" priority="186" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="311" priority="178" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="317" priority="183" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37:E39">
-    <cfRule type="cellIs" dxfId="310" priority="172" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="316" priority="177" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="309" priority="167" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="315" priority="172" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="308" priority="155" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="314" priority="160" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="307" priority="153" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="313" priority="158" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48:E50">
-    <cfRule type="cellIs" dxfId="306" priority="151" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="312" priority="156" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="305" priority="147" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="311" priority="152" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54:F55">
-    <cfRule type="cellIs" dxfId="304" priority="145" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="310" priority="150" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="cellIs" dxfId="303" priority="133" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="309" priority="138" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="302" priority="132" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="308" priority="137" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="301" priority="131" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="307" priority="136" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:E69">
-    <cfRule type="cellIs" dxfId="300" priority="130" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="306" priority="135" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="299" priority="129" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="305" priority="134" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="cellIs" dxfId="298" priority="128" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="304" priority="133" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="297" priority="127" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="303" priority="132" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71">
-    <cfRule type="cellIs" dxfId="296" priority="126" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="302" priority="131" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="295" priority="125" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="301" priority="130" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72">
-    <cfRule type="cellIs" dxfId="294" priority="124" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="300" priority="129" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="293" priority="123" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="299" priority="128" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
-    <cfRule type="cellIs" dxfId="292" priority="121" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="298" priority="126" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="291" priority="120" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="297" priority="125" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74">
-    <cfRule type="cellIs" dxfId="290" priority="119" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="296" priority="124" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="289" priority="118" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="295" priority="123" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75">
-    <cfRule type="cellIs" dxfId="288" priority="117" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="294" priority="122" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="287" priority="116" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="293" priority="121" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="286" priority="115" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="292" priority="120" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83">
-    <cfRule type="cellIs" dxfId="285" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="291" priority="119" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="284" priority="113" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="290" priority="118" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84">
-    <cfRule type="cellIs" dxfId="283" priority="112" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="289" priority="117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="282" priority="111" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="288" priority="116" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D85">
-    <cfRule type="cellIs" dxfId="281" priority="110" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="287" priority="115" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="280" priority="109" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="286" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D86">
-    <cfRule type="cellIs" dxfId="279" priority="108" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="285" priority="113" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="278" priority="107" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="284" priority="112" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87">
-    <cfRule type="cellIs" dxfId="277" priority="106" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="283" priority="111" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="276" priority="105" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="282" priority="110" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88">
-    <cfRule type="cellIs" dxfId="275" priority="104" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="281" priority="109" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90:E90">
-    <cfRule type="cellIs" dxfId="274" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="280" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:D92">
-    <cfRule type="cellIs" dxfId="273" priority="102" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="279" priority="107" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93">
-    <cfRule type="cellIs" dxfId="272" priority="101" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="278" priority="106" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="271" priority="100" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="277" priority="105" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D94">
-    <cfRule type="cellIs" dxfId="270" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="276" priority="104" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96:E96">
-    <cfRule type="cellIs" dxfId="269" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="275" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="268" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="274" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="267" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="273" priority="101" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:D98">
-    <cfRule type="cellIs" dxfId="266" priority="95" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="272" priority="100" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="265" priority="94" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="264" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="271" priority="99" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="263" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="269" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:D8">
-    <cfRule type="cellIs" dxfId="262" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="268" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="261" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="267" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="260" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="266" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" dxfId="259" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="265" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H27">
-    <cfRule type="cellIs" dxfId="258" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="264" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="257" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="263" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="256" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="262" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="255" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="261" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="254" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="260" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37:D40">
-    <cfRule type="cellIs" dxfId="253" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="259" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="252" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="258" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:E16">
-    <cfRule type="cellIs" dxfId="250" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="257" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="cellIs" dxfId="253" priority="28" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23:D24">
+    <cfRule type="cellIs" dxfId="252" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25">
+    <cfRule type="cellIs" dxfId="251" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:D36">
+    <cfRule type="cellIs" dxfId="250" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41:D42">
+    <cfRule type="cellIs" dxfId="249" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43:D44">
+    <cfRule type="cellIs" dxfId="248" priority="22" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45:D46">
+    <cfRule type="cellIs" dxfId="247" priority="21" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47:D59">
+    <cfRule type="cellIs" dxfId="246" priority="20" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58">
+    <cfRule type="cellIs" dxfId="245" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="cellIs" dxfId="244" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="cellIs" dxfId="243" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62">
+    <cfRule type="cellIs" dxfId="242" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63:D64">
+    <cfRule type="cellIs" dxfId="241" priority="14" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="cellIs" dxfId="240" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="cellIs" dxfId="239" priority="12" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="cellIs" dxfId="238" priority="11" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="cellIs" dxfId="237" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="cellIs" dxfId="236" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:D15">
+    <cfRule type="cellIs" dxfId="235" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="cellIs" dxfId="234" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="cellIs" dxfId="233" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="249" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="248" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:D21">
-    <cfRule type="cellIs" dxfId="247" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="246" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D24">
-    <cfRule type="cellIs" dxfId="245" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
-    <cfRule type="cellIs" dxfId="244" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27:D36">
-    <cfRule type="cellIs" dxfId="243" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41:D42">
-    <cfRule type="cellIs" dxfId="242" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43:D44">
-    <cfRule type="cellIs" dxfId="241" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45:D46">
-    <cfRule type="cellIs" dxfId="240" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D59">
-    <cfRule type="cellIs" dxfId="239" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="cellIs" dxfId="238" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="237" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
-    <cfRule type="cellIs" dxfId="236" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
-    <cfRule type="cellIs" dxfId="235" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63:D64">
-    <cfRule type="cellIs" dxfId="234" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="233" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="232" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="231" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="230" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="16" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D15">
-    <cfRule type="cellIs" dxfId="15" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -9439,8 +9524,8 @@
   <dimension ref="A1:IM237"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
+      <pane ySplit="2" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10275,14 +10360,22 @@
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="43"/>
-      <c r="B32" s="15"/>
+      <c r="B32" s="15">
+        <v>44985</v>
+      </c>
       <c r="C32" s="52">
         <v>30</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="23"/>
+      <c r="D32" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="F32" s="20"/>
-      <c r="G32" s="21"/>
+      <c r="G32" s="21">
+        <v>-50</v>
+      </c>
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="22"/>
@@ -10292,14 +10385,22 @@
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="43"/>
-      <c r="B33" s="15"/>
+      <c r="B33" s="15">
+        <v>44986</v>
+      </c>
       <c r="C33" s="52">
         <v>31</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="23"/>
+      <c r="D33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F33" s="20"/>
-      <c r="G33" s="21"/>
+      <c r="G33" s="21">
+        <v>-12</v>
+      </c>
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
       <c r="J33" s="22"/>
@@ -10309,14 +10410,22 @@
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="43"/>
-      <c r="B34" s="15"/>
+      <c r="B34" s="15">
+        <v>44987</v>
+      </c>
       <c r="C34" s="52">
         <v>32</v>
       </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="23"/>
+      <c r="D34" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F34" s="20"/>
-      <c r="G34" s="21"/>
+      <c r="G34" s="21">
+        <v>-134</v>
+      </c>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="22"/>
@@ -10326,14 +10435,22 @@
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="43"/>
-      <c r="B35" s="15"/>
+      <c r="B35" s="15">
+        <v>44987</v>
+      </c>
       <c r="C35" s="52">
         <v>33</v>
       </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="23"/>
+      <c r="D35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F35" s="20"/>
-      <c r="G35" s="21"/>
+      <c r="G35" s="21">
+        <v>-28</v>
+      </c>
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
       <c r="J35" s="22"/>
@@ -10343,14 +10460,22 @@
     </row>
     <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="43"/>
-      <c r="B36" s="15"/>
+      <c r="B36" s="15">
+        <v>44987</v>
+      </c>
       <c r="C36" s="52">
         <v>34</v>
       </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="23"/>
+      <c r="D36" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F36" s="20"/>
-      <c r="G36" s="21"/>
+      <c r="G36" s="21">
+        <v>-47.12</v>
+      </c>
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
       <c r="J36" s="22"/>
@@ -10360,14 +10485,22 @@
     </row>
     <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="43"/>
-      <c r="B37" s="15"/>
+      <c r="B37" s="15">
+        <v>44987</v>
+      </c>
       <c r="C37" s="16">
         <v>35</v>
       </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="19"/>
+      <c r="D37" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F37" s="17"/>
-      <c r="G37" s="21"/>
+      <c r="G37" s="21">
+        <v>-20.61</v>
+      </c>
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
       <c r="J37" s="22"/>
@@ -10377,14 +10510,22 @@
     </row>
     <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="43"/>
-      <c r="B38" s="15"/>
+      <c r="B38" s="15">
+        <v>44993</v>
+      </c>
       <c r="C38" s="16">
         <v>36</v>
       </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="23"/>
+      <c r="D38" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F38" s="20"/>
-      <c r="G38" s="21"/>
+      <c r="G38" s="21">
+        <v>-13.39</v>
+      </c>
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
       <c r="J38" s="22"/>
@@ -10394,7 +10535,9 @@
     </row>
     <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="43"/>
-      <c r="B39" s="15"/>
+      <c r="B39" s="15">
+        <v>44993</v>
+      </c>
       <c r="C39" s="16">
         <v>37</v>
       </c>
@@ -12641,7 +12784,7 @@
       </c>
       <c r="G171" s="34">
         <f>SUM(G3:G170)</f>
-        <v>-1741.66</v>
+        <v>-2046.78</v>
       </c>
       <c r="H171" s="34">
         <f>SUM(H3:H170)</f>
@@ -13638,1088 +13781,1088 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="K173 J172:J235 I172:I237 D172:H235 C111:D111 C124 A55:A83 C127:C128 D128 B130:D130 C133:C134 B139:D139 C145:D145 C148:E148 D163:E163 B155:D155 B165:B237 C163:C236 D165:E172 D164 A3:A53 B134:B135 B150:D151 C153:E153 C154 A85:A236">
-    <cfRule type="cellIs" dxfId="229" priority="678" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="232" priority="685" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="228" priority="668" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="231" priority="675" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="227" priority="630" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="230" priority="637" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C122">
-    <cfRule type="cellIs" dxfId="226" priority="586" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="229" priority="593" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="225" priority="562" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="228" priority="569" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="223" priority="546" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="227" priority="553" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C112">
-    <cfRule type="cellIs" dxfId="222" priority="469" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="226" priority="476" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124">
-    <cfRule type="cellIs" dxfId="221" priority="454" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="225" priority="461" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E126">
-    <cfRule type="cellIs" dxfId="220" priority="451" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="224" priority="458" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B126">
-    <cfRule type="cellIs" dxfId="219" priority="450" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="223" priority="457" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B127:B129">
-    <cfRule type="cellIs" dxfId="218" priority="448" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="222" priority="455" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C129:D129">
-    <cfRule type="cellIs" dxfId="217" priority="446" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="221" priority="453" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131">
-    <cfRule type="cellIs" dxfId="216" priority="442" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="220" priority="449" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C132">
-    <cfRule type="cellIs" dxfId="215" priority="441" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="219" priority="448" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C135">
-    <cfRule type="cellIs" dxfId="214" priority="438" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="218" priority="445" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136:B137">
-    <cfRule type="cellIs" dxfId="213" priority="436" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="217" priority="443" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E138">
+    <cfRule type="cellIs" dxfId="216" priority="441" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B138">
+    <cfRule type="cellIs" dxfId="215" priority="438" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F141">
+    <cfRule type="cellIs" dxfId="214" priority="436" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E141">
+    <cfRule type="cellIs" dxfId="213" priority="435" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F142">
     <cfRule type="cellIs" dxfId="212" priority="434" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B138">
-    <cfRule type="cellIs" dxfId="211" priority="431" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F141">
-    <cfRule type="cellIs" dxfId="210" priority="429" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E141">
-    <cfRule type="cellIs" dxfId="209" priority="428" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F142">
-    <cfRule type="cellIs" dxfId="208" priority="427" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F143">
-    <cfRule type="cellIs" dxfId="207" priority="425" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="211" priority="432" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F144">
-    <cfRule type="cellIs" dxfId="206" priority="423" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="210" priority="430" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C146">
-    <cfRule type="cellIs" dxfId="205" priority="419" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="209" priority="426" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C147">
-    <cfRule type="cellIs" dxfId="204" priority="418" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="208" priority="425" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C149:D149">
-    <cfRule type="cellIs" dxfId="203" priority="417" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="207" priority="424" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C152">
-    <cfRule type="cellIs" dxfId="202" priority="415" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="206" priority="422" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156:D156">
-    <cfRule type="cellIs" dxfId="201" priority="411" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="205" priority="418" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B157:D157">
-    <cfRule type="cellIs" dxfId="200" priority="408" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="204" priority="415" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E157">
-    <cfRule type="cellIs" dxfId="199" priority="407" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="203" priority="414" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C158:E158">
-    <cfRule type="cellIs" dxfId="198" priority="406" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="202" priority="413" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B158">
-    <cfRule type="cellIs" dxfId="197" priority="405" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="201" priority="412" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159:D159">
-    <cfRule type="cellIs" dxfId="196" priority="404" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="200" priority="411" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E159">
-    <cfRule type="cellIs" dxfId="195" priority="403" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="199" priority="410" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E160">
-    <cfRule type="cellIs" dxfId="194" priority="402" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="409" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B160">
-    <cfRule type="cellIs" dxfId="193" priority="400" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="197" priority="407" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B161:D161">
-    <cfRule type="cellIs" dxfId="192" priority="399" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="196" priority="406" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E161">
-    <cfRule type="cellIs" dxfId="191" priority="398" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="195" priority="405" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D162:E162">
-    <cfRule type="cellIs" dxfId="190" priority="397" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="194" priority="404" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162:C162">
-    <cfRule type="cellIs" dxfId="189" priority="396" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="193" priority="403" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163">
-    <cfRule type="cellIs" dxfId="188" priority="395" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="192" priority="402" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B164">
-    <cfRule type="cellIs" dxfId="187" priority="394" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="191" priority="401" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E164">
-    <cfRule type="cellIs" dxfId="186" priority="393" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="185" priority="371" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="190" priority="400" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="cellIs" dxfId="184" priority="362" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="188" priority="369" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="183" priority="360" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="187" priority="367" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" dxfId="182" priority="343" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="186" priority="350" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61">
-    <cfRule type="cellIs" dxfId="181" priority="341" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="185" priority="348" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62:F63">
-    <cfRule type="cellIs" dxfId="180" priority="339" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="184" priority="346" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E19 E21:E26">
-    <cfRule type="cellIs" dxfId="179" priority="298" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="183" priority="305" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="178" priority="272" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="182" priority="279" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="177" priority="226" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="181" priority="233" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="176" priority="185" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="180" priority="192" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D115">
-    <cfRule type="cellIs" dxfId="175" priority="184" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="179" priority="191" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D116">
-    <cfRule type="cellIs" dxfId="174" priority="183" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="178" priority="190" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D123">
-    <cfRule type="cellIs" dxfId="173" priority="175" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="177" priority="182" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E7">
-    <cfRule type="cellIs" dxfId="172" priority="170" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="176" priority="177" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="171" priority="169" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="175" priority="176" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="170" priority="168" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="174" priority="175" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E10">
+    <cfRule type="cellIs" dxfId="173" priority="172" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E14">
+    <cfRule type="cellIs" dxfId="172" priority="171" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="171" priority="170" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="170" priority="169" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
     <cfRule type="cellIs" dxfId="169" priority="165" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
+    <cfRule type="cellIs" dxfId="168" priority="163" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="167" priority="162" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39:E41">
+    <cfRule type="cellIs" dxfId="160" priority="155" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42:E44">
+    <cfRule type="cellIs" dxfId="159" priority="154" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42:E44">
+    <cfRule type="cellIs" dxfId="158" priority="153" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="157" priority="152" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46:E47">
+    <cfRule type="cellIs" dxfId="156" priority="151" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="155" priority="150" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49:E50">
+    <cfRule type="cellIs" dxfId="154" priority="149" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51:E52">
+    <cfRule type="cellIs" dxfId="153" priority="148" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="152" priority="147" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="151" priority="146" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="150" priority="145" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="149" priority="144" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="148" priority="143" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F57">
+    <cfRule type="cellIs" dxfId="147" priority="142" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58">
+    <cfRule type="cellIs" dxfId="146" priority="141" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57:E58">
+    <cfRule type="cellIs" dxfId="145" priority="140" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57:E58">
+    <cfRule type="cellIs" dxfId="144" priority="139" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="143" priority="138" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60:E62">
+    <cfRule type="cellIs" dxfId="142" priority="137" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="cellIs" dxfId="141" priority="136" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="cellIs" dxfId="140" priority="135" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="cellIs" dxfId="139" priority="134" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="cellIs" dxfId="138" priority="133" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67:E71">
+    <cfRule type="cellIs" dxfId="137" priority="132" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="136" priority="131" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="cellIs" dxfId="135" priority="130" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="134" priority="129" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="133" priority="128" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="132" priority="127" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" dxfId="131" priority="126" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F78">
+    <cfRule type="cellIs" dxfId="130" priority="125" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F79">
+    <cfRule type="cellIs" dxfId="129" priority="124" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78:E79">
+    <cfRule type="cellIs" dxfId="128" priority="123" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78:E79">
+    <cfRule type="cellIs" dxfId="127" priority="122" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="126" priority="121" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="125" priority="120" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81:E82">
+    <cfRule type="cellIs" dxfId="124" priority="119" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="123" priority="118" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="122" priority="117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="121" priority="116" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F85">
+    <cfRule type="cellIs" dxfId="120" priority="115" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F86">
+    <cfRule type="cellIs" dxfId="119" priority="114" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85:E86">
+    <cfRule type="cellIs" dxfId="118" priority="113" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85:E86">
+    <cfRule type="cellIs" dxfId="117" priority="112" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87:E88">
+    <cfRule type="cellIs" dxfId="116" priority="111" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89">
+    <cfRule type="cellIs" dxfId="115" priority="110" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="114" priority="107" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="cellIs" dxfId="113" priority="106" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="cellIs" dxfId="112" priority="105" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93">
+    <cfRule type="cellIs" dxfId="111" priority="104" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="110" priority="103" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="109" priority="102" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F95">
+    <cfRule type="cellIs" dxfId="108" priority="101" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="cellIs" dxfId="107" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="cellIs" dxfId="106" priority="99" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F96">
+    <cfRule type="cellIs" dxfId="105" priority="98" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="cellIs" dxfId="104" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="cellIs" dxfId="103" priority="96" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="102" priority="95" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98:E99">
+    <cfRule type="cellIs" dxfId="101" priority="94" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100">
+    <cfRule type="cellIs" dxfId="100" priority="93" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="cellIs" dxfId="99" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="98" priority="91" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103">
+    <cfRule type="cellIs" dxfId="97" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="cellIs" dxfId="96" priority="88" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F105:F106">
+    <cfRule type="cellIs" dxfId="95" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105:E106">
+    <cfRule type="cellIs" dxfId="94" priority="86" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105:E106">
+    <cfRule type="cellIs" dxfId="93" priority="85" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F107">
+    <cfRule type="cellIs" dxfId="92" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="91" priority="83" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="90" priority="82" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="cellIs" dxfId="89" priority="81" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="cellIs" dxfId="88" priority="80" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="cellIs" dxfId="87" priority="79" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110">
+    <cfRule type="cellIs" dxfId="86" priority="78" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
+    <cfRule type="cellIs" dxfId="85" priority="77" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="cellIs" dxfId="84" priority="76" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112">
+    <cfRule type="cellIs" dxfId="83" priority="75" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="cellIs" dxfId="82" priority="74" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114">
+    <cfRule type="cellIs" dxfId="81" priority="73" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116:E117">
+    <cfRule type="cellIs" dxfId="80" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118">
+    <cfRule type="cellIs" dxfId="79" priority="71" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F119">
+    <cfRule type="cellIs" dxfId="78" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E119">
+    <cfRule type="cellIs" dxfId="77" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E119">
+    <cfRule type="cellIs" dxfId="76" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F120">
+    <cfRule type="cellIs" dxfId="75" priority="67" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E120">
+    <cfRule type="cellIs" dxfId="74" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E120">
+    <cfRule type="cellIs" dxfId="73" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E121">
+    <cfRule type="cellIs" dxfId="72" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="cellIs" dxfId="71" priority="63" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="cellIs" dxfId="70" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E123">
+    <cfRule type="cellIs" dxfId="69" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E124:E125">
+    <cfRule type="cellIs" dxfId="68" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E124:E125">
+    <cfRule type="cellIs" dxfId="67" priority="59" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E127">
+    <cfRule type="cellIs" dxfId="66" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E128">
+    <cfRule type="cellIs" dxfId="65" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E129:E132">
+    <cfRule type="cellIs" dxfId="64" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E133">
+    <cfRule type="cellIs" dxfId="63" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E133">
+    <cfRule type="cellIs" dxfId="62" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F134">
+    <cfRule type="cellIs" dxfId="61" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E134">
+    <cfRule type="cellIs" dxfId="60" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E134">
+    <cfRule type="cellIs" dxfId="59" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F135">
+    <cfRule type="cellIs" dxfId="58" priority="50" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E135">
+    <cfRule type="cellIs" dxfId="57" priority="49" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E135">
+    <cfRule type="cellIs" dxfId="56" priority="48" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E136">
+    <cfRule type="cellIs" dxfId="55" priority="47" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E137">
+    <cfRule type="cellIs" dxfId="54" priority="46" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E139:E140">
+    <cfRule type="cellIs" dxfId="53" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E142:E144">
+    <cfRule type="cellIs" dxfId="52" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F147">
+    <cfRule type="cellIs" dxfId="51" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E147">
+    <cfRule type="cellIs" dxfId="50" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E145:E146">
+    <cfRule type="cellIs" dxfId="49" priority="41" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D146">
+    <cfRule type="cellIs" dxfId="48" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E149">
+    <cfRule type="cellIs" dxfId="47" priority="39" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E150">
+    <cfRule type="cellIs" dxfId="46" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E151:E152">
+    <cfRule type="cellIs" dxfId="45" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B152:B154">
+    <cfRule type="cellIs" dxfId="44" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E154">
+    <cfRule type="cellIs" dxfId="43" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E155:E156">
+    <cfRule type="cellIs" dxfId="42" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9:E10">
+    <cfRule type="cellIs" dxfId="41" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="40" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E13:E14">
-    <cfRule type="cellIs" dxfId="168" priority="164" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="167" priority="163" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="166" priority="162" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="162" priority="158" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
-    <cfRule type="cellIs" dxfId="160" priority="156" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="159" priority="155" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="158" priority="154" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="157" priority="153" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="156" priority="152" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="155" priority="151" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="154" priority="150" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="153" priority="149" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39:E41">
-    <cfRule type="cellIs" dxfId="152" priority="148" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42:E44">
-    <cfRule type="cellIs" dxfId="151" priority="147" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42:E44">
-    <cfRule type="cellIs" dxfId="150" priority="146" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="149" priority="145" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46:E47">
-    <cfRule type="cellIs" dxfId="148" priority="144" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="147" priority="143" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49:E50">
-    <cfRule type="cellIs" dxfId="146" priority="142" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51:E52">
-    <cfRule type="cellIs" dxfId="145" priority="141" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="144" priority="140" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="143" priority="139" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="142" priority="138" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="141" priority="137" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="140" priority="136" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="139" priority="135" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="cellIs" dxfId="138" priority="134" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57:E58">
-    <cfRule type="cellIs" dxfId="137" priority="133" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57:E58">
-    <cfRule type="cellIs" dxfId="136" priority="132" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="135" priority="131" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60:E62">
-    <cfRule type="cellIs" dxfId="134" priority="130" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="133" priority="129" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="132" priority="128" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="131" priority="127" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="130" priority="126" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67:E71">
-    <cfRule type="cellIs" dxfId="129" priority="125" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="128" priority="124" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="127" priority="123" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="126" priority="122" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="125" priority="121" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="124" priority="120" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="123" priority="119" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F78">
-    <cfRule type="cellIs" dxfId="122" priority="118" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F79">
-    <cfRule type="cellIs" dxfId="121" priority="117" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78:E79">
-    <cfRule type="cellIs" dxfId="120" priority="116" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78:E79">
-    <cfRule type="cellIs" dxfId="119" priority="115" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="118" priority="114" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="117" priority="113" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81:E82">
-    <cfRule type="cellIs" dxfId="116" priority="112" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="115" priority="111" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="114" priority="110" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="113" priority="109" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F85">
-    <cfRule type="cellIs" dxfId="112" priority="108" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F86">
-    <cfRule type="cellIs" dxfId="111" priority="107" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85:E86">
-    <cfRule type="cellIs" dxfId="110" priority="106" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85:E86">
-    <cfRule type="cellIs" dxfId="109" priority="105" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87:E88">
-    <cfRule type="cellIs" dxfId="108" priority="104" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="107" priority="103" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="106" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="105" priority="99" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="104" priority="98" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="103" priority="97" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="102" priority="96" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="101" priority="95" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F95">
-    <cfRule type="cellIs" dxfId="100" priority="94" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="99" priority="93" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="98" priority="92" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F96">
-    <cfRule type="cellIs" dxfId="97" priority="91" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="96" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="95" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="94" priority="88" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98:E99">
-    <cfRule type="cellIs" dxfId="93" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="92" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="91" priority="85" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="90" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="89" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="88" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F105:F106">
-    <cfRule type="cellIs" dxfId="87" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E105:E106">
-    <cfRule type="cellIs" dxfId="86" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E105:E106">
-    <cfRule type="cellIs" dxfId="85" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F107">
-    <cfRule type="cellIs" dxfId="84" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="83" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="82" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="81" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="80" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="79" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="78" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="77" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="76" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="75" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="74" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="73" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116:E117">
-    <cfRule type="cellIs" dxfId="72" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="71" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F119">
-    <cfRule type="cellIs" dxfId="70" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="69" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="68" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F120">
-    <cfRule type="cellIs" dxfId="67" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E120">
-    <cfRule type="cellIs" dxfId="66" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E120">
-    <cfRule type="cellIs" dxfId="65" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E121">
-    <cfRule type="cellIs" dxfId="64" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="63" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="62" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="61" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E124:E125">
-    <cfRule type="cellIs" dxfId="60" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E124:E125">
-    <cfRule type="cellIs" dxfId="59" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E127">
-    <cfRule type="cellIs" dxfId="58" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E128">
-    <cfRule type="cellIs" dxfId="57" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E129:E132">
-    <cfRule type="cellIs" dxfId="56" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E133">
-    <cfRule type="cellIs" dxfId="55" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E133">
-    <cfRule type="cellIs" dxfId="54" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F134">
-    <cfRule type="cellIs" dxfId="53" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" dxfId="52" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" dxfId="51" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F135">
-    <cfRule type="cellIs" dxfId="50" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" dxfId="49" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" dxfId="48" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="47" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E137">
-    <cfRule type="cellIs" dxfId="46" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E139:E140">
-    <cfRule type="cellIs" dxfId="45" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E142:E144">
-    <cfRule type="cellIs" dxfId="44" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F147">
-    <cfRule type="cellIs" dxfId="43" priority="36" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E147">
-    <cfRule type="cellIs" dxfId="42" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E145:E146">
-    <cfRule type="cellIs" dxfId="41" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D146">
-    <cfRule type="cellIs" dxfId="40" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E149">
-    <cfRule type="cellIs" dxfId="39" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E150">
-    <cfRule type="cellIs" dxfId="38" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E151:E152">
-    <cfRule type="cellIs" dxfId="37" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B152:B154">
-    <cfRule type="cellIs" dxfId="36" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E154">
-    <cfRule type="cellIs" dxfId="35" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E155:E156">
-    <cfRule type="cellIs" dxfId="34" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9:E10">
-    <cfRule type="cellIs" dxfId="33" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="32" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:E14">
-    <cfRule type="cellIs" dxfId="31" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E14">
-    <cfRule type="cellIs" dxfId="30" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="29" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="28" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="27" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="26" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="25" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E19">
-    <cfRule type="cellIs" dxfId="24" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="23" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="14" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="13" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25:E26">
-    <cfRule type="cellIs" dxfId="12" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="11" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="10" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="9" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="7" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="6" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33:E35">
+    <cfRule type="cellIs" dxfId="11" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33:E35">
+    <cfRule type="cellIs" dxfId="10" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33:E35">
+    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33:E35">
+    <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36:E38">
+    <cfRule type="cellIs" dxfId="6" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36:E38">
+    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36:E38">
+    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E155:E170 E3:E29 E35:E79 E81:E111 E113:E140 E142:E144 E147:E153 E31:E33" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E155:E170 E3:E29 E81:E111 E113:E140 E142:E144 E147:E153 E31:E79" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$M$1:$M$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E141 E145:E146 E154" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E80 E112 E34 E30" xr:uid="{00000000-0002-0000-0100-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E80 E112 E30" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>$M$1:$M$20</formula1>
     </dataValidation>
   </dataValidations>

--- a/2023/AWO_Einnahmen_Ausgaben_2023.xlsx
+++ b/2023/AWO_Einnahmen_Ausgaben_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF977EE-1221-4BAE-AF87-2D401A6D075A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA23044-767D-4ED5-B2CC-65E8184412F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -304,6 +304,12 @@
   </si>
   <si>
     <t>Treff zg Laune 7.3.</t>
+  </si>
+  <si>
+    <t>A.Odendahl</t>
+  </si>
+  <si>
+    <t>JHV Anonym</t>
   </si>
 </sst>
 </file>
@@ -967,62 +973,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="327">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="317">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1123,6 +1074,11 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -5012,115 +4968,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="12">
-        <item h="1" x="1"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item h="1" x="0"/>
-        <item m="1" x="10"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </colItems>
-  <dataFields count="5">
-    <dataField name="Summe von Barkasse" fld="1" baseField="0" baseItem="0"/>
-    <dataField name="Summe von VOBA" fld="2" baseField="0" baseItem="0"/>
-    <dataField name="Summe von VOBA TgK 630041601" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Summe von KSK" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="14">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="13">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="12">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B16:G25" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
@@ -5207,17 +5054,126 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="17">
+    <format dxfId="3">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item h="1" x="1"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item h="1" x="0"/>
+        <item m="1" x="10"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="Summe von Barkasse" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Summe von VOBA" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Summe von VOBA TgK 630041601" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Summe von KSK" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="6">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="5">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -6344,8 +6300,8 @@
   <dimension ref="A1:IK170"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6918,13 +6874,21 @@
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
+      <c r="A24" s="15">
+        <v>45011</v>
+      </c>
       <c r="B24" s="16">
         <v>21</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="17"/>
+      <c r="C24" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="17">
+        <v>40</v>
+      </c>
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
@@ -6933,13 +6897,21 @@
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
+      <c r="A25" s="15">
+        <v>45011</v>
+      </c>
       <c r="B25" s="52">
         <v>22</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="20"/>
+      <c r="C25" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="20">
+        <v>75</v>
+      </c>
       <c r="F25" s="21"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
@@ -8133,7 +8105,7 @@
       <c r="D105" s="26"/>
       <c r="E105" s="27">
         <f>SUM(E3:E104)</f>
-        <v>23.510000000000218</v>
+        <v>138.51000000000022</v>
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
@@ -8176,7 +8148,7 @@
       <c r="D107" s="48"/>
       <c r="E107" s="28">
         <f>E105+Ausgaben!F171</f>
-        <v>23.510000000000218</v>
+        <v>138.51000000000022</v>
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G171</f>
@@ -8218,7 +8190,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>9516.8300000000054</v>
+        <v>9631.8300000000054</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -9019,476 +8991,476 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 G50 F51:G53 G54:G58 E59:G60 D66:G66 F31:G31 F34:G34 F46:G49 F61 G61:G62 F63:G65 D68:G68 G67 F69:G75 D76:G81 D89:G89 G82 F83:G88 F90:G90 D91:G91 D95:G95 G92 E93:G93 F94:G94 D99:G104 F96:G97 G98 F24:G24 H28:I104 I27 G32:G33 G35:G36 F13:G14 H4:I26 G4:G12 F16:G16 G15 G17:G23 F26:G26 G25 G28:G30 F37:G40 G41:G45">
-    <cfRule type="cellIs" dxfId="326" priority="273" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="316" priority="274" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="325" priority="242" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="315" priority="243" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="324" priority="244" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="314" priority="245" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="323" priority="240" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="313" priority="241" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="322" priority="214" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="312" priority="215" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="321" priority="209" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="311" priority="210" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="320" priority="194" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="310" priority="195" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="319" priority="191" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="309" priority="192" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="318" priority="186" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="308" priority="187" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="317" priority="183" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="307" priority="184" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37:E39">
-    <cfRule type="cellIs" dxfId="316" priority="177" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="306" priority="178" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="315" priority="172" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="305" priority="173" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="314" priority="160" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="304" priority="161" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="313" priority="158" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="303" priority="159" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48:E50">
-    <cfRule type="cellIs" dxfId="312" priority="156" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="302" priority="157" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="311" priority="152" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="301" priority="153" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54:F55">
-    <cfRule type="cellIs" dxfId="310" priority="150" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="300" priority="151" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="cellIs" dxfId="309" priority="138" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="299" priority="139" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="308" priority="137" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="298" priority="138" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="307" priority="136" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="297" priority="137" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:E69">
-    <cfRule type="cellIs" dxfId="306" priority="135" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="296" priority="136" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="305" priority="134" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="295" priority="135" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70">
-    <cfRule type="cellIs" dxfId="304" priority="133" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="294" priority="134" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="303" priority="132" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="293" priority="133" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71">
-    <cfRule type="cellIs" dxfId="302" priority="131" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="292" priority="132" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="301" priority="130" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="291" priority="131" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72">
-    <cfRule type="cellIs" dxfId="300" priority="129" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="290" priority="130" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="299" priority="128" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="289" priority="129" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
-    <cfRule type="cellIs" dxfId="298" priority="126" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="288" priority="127" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="297" priority="125" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="287" priority="126" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74">
-    <cfRule type="cellIs" dxfId="296" priority="124" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="286" priority="125" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="295" priority="123" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="285" priority="124" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75">
-    <cfRule type="cellIs" dxfId="294" priority="122" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="284" priority="123" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="293" priority="121" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="283" priority="122" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="292" priority="120" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="282" priority="121" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83">
-    <cfRule type="cellIs" dxfId="291" priority="119" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="281" priority="120" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="290" priority="118" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="280" priority="119" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84">
-    <cfRule type="cellIs" dxfId="289" priority="117" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="279" priority="118" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="288" priority="116" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="278" priority="117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D85">
-    <cfRule type="cellIs" dxfId="287" priority="115" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="277" priority="116" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="286" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="276" priority="115" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D86">
-    <cfRule type="cellIs" dxfId="285" priority="113" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="275" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="284" priority="112" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="274" priority="113" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87">
-    <cfRule type="cellIs" dxfId="283" priority="111" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="273" priority="112" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="282" priority="110" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="272" priority="111" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88">
-    <cfRule type="cellIs" dxfId="281" priority="109" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="271" priority="110" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90:E90">
-    <cfRule type="cellIs" dxfId="280" priority="108" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="270" priority="109" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:D92">
-    <cfRule type="cellIs" dxfId="279" priority="107" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="269" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93">
-    <cfRule type="cellIs" dxfId="278" priority="106" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="268" priority="107" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="277" priority="105" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="267" priority="106" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D94">
-    <cfRule type="cellIs" dxfId="276" priority="104" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="266" priority="105" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96:E96">
-    <cfRule type="cellIs" dxfId="275" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="265" priority="104" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="274" priority="102" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="264" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="273" priority="101" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="263" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:D98">
-    <cfRule type="cellIs" dxfId="272" priority="100" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="262" priority="101" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="271" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="261" priority="100" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="269" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="260" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:D8">
-    <cfRule type="cellIs" dxfId="268" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="259" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="267" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="258" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="266" priority="60" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="257" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" dxfId="265" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="256" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H27">
-    <cfRule type="cellIs" dxfId="264" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="255" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="263" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="254" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="262" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="253" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="261" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="252" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="260" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="251" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37:D40">
-    <cfRule type="cellIs" dxfId="259" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="250" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="258" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="249" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:E16">
-    <cfRule type="cellIs" dxfId="257" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="248" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="253" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D24">
-    <cfRule type="cellIs" dxfId="252" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
-    <cfRule type="cellIs" dxfId="251" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="247" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="cellIs" dxfId="246" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:D36">
-    <cfRule type="cellIs" dxfId="250" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="244" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:D42">
-    <cfRule type="cellIs" dxfId="249" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="243" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:D44">
-    <cfRule type="cellIs" dxfId="248" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="242" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:D46">
-    <cfRule type="cellIs" dxfId="247" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="241" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:D59">
-    <cfRule type="cellIs" dxfId="246" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="240" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58">
-    <cfRule type="cellIs" dxfId="245" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="239" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="244" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="238" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="cellIs" dxfId="243" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="237" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="cellIs" dxfId="242" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="236" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:D64">
-    <cfRule type="cellIs" dxfId="241" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="235" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="240" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="234" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="239" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="233" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="238" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="232" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="237" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="231" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="236" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="230" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D15">
-    <cfRule type="cellIs" dxfId="235" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="229" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="234" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="228" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="233" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="227" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="7" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="226" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="225" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="224" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="223" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:D21">
+    <cfRule type="cellIs" dxfId="222" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24:D25">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -13781,1077 +13753,1077 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="K173 J172:J235 I172:I237 D172:H235 C111:D111 C124 A55:A83 C127:C128 D128 B130:D130 C133:C134 B139:D139 C145:D145 C148:E148 D163:E163 B155:D155 B165:B237 C163:C236 D165:E172 D164 A3:A53 B134:B135 B150:D151 C153:E153 C154 A85:A236">
-    <cfRule type="cellIs" dxfId="232" priority="685" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="221" priority="685" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="231" priority="675" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="220" priority="675" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="230" priority="637" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="219" priority="637" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C122">
-    <cfRule type="cellIs" dxfId="229" priority="593" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="218" priority="593" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="228" priority="569" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="217" priority="569" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="227" priority="553" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="216" priority="553" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C112">
-    <cfRule type="cellIs" dxfId="226" priority="476" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="215" priority="476" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124">
-    <cfRule type="cellIs" dxfId="225" priority="461" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="214" priority="461" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E126">
-    <cfRule type="cellIs" dxfId="224" priority="458" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="213" priority="458" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125:B126">
-    <cfRule type="cellIs" dxfId="223" priority="457" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="212" priority="457" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B127:B129">
-    <cfRule type="cellIs" dxfId="222" priority="455" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="211" priority="455" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C129:D129">
-    <cfRule type="cellIs" dxfId="221" priority="453" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="210" priority="453" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131">
-    <cfRule type="cellIs" dxfId="220" priority="449" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="209" priority="449" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C132">
-    <cfRule type="cellIs" dxfId="219" priority="448" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="208" priority="448" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C135">
-    <cfRule type="cellIs" dxfId="218" priority="445" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="207" priority="445" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136:B137">
-    <cfRule type="cellIs" dxfId="217" priority="443" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="206" priority="443" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E138">
-    <cfRule type="cellIs" dxfId="216" priority="441" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="205" priority="441" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="cellIs" dxfId="215" priority="438" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="204" priority="438" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F141">
-    <cfRule type="cellIs" dxfId="214" priority="436" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="203" priority="436" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E141">
-    <cfRule type="cellIs" dxfId="213" priority="435" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="202" priority="435" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F142">
-    <cfRule type="cellIs" dxfId="212" priority="434" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="201" priority="434" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F143">
-    <cfRule type="cellIs" dxfId="211" priority="432" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="200" priority="432" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F144">
-    <cfRule type="cellIs" dxfId="210" priority="430" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="199" priority="430" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C146">
-    <cfRule type="cellIs" dxfId="209" priority="426" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="426" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C147">
-    <cfRule type="cellIs" dxfId="208" priority="425" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="197" priority="425" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C149:D149">
-    <cfRule type="cellIs" dxfId="207" priority="424" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="196" priority="424" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C152">
-    <cfRule type="cellIs" dxfId="206" priority="422" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="195" priority="422" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156:D156">
-    <cfRule type="cellIs" dxfId="205" priority="418" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="194" priority="418" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B157:D157">
-    <cfRule type="cellIs" dxfId="204" priority="415" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="193" priority="415" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E157">
-    <cfRule type="cellIs" dxfId="203" priority="414" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="192" priority="414" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C158:E158">
-    <cfRule type="cellIs" dxfId="202" priority="413" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="191" priority="413" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B158">
-    <cfRule type="cellIs" dxfId="201" priority="412" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="190" priority="412" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159:D159">
-    <cfRule type="cellIs" dxfId="200" priority="411" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="411" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E159">
-    <cfRule type="cellIs" dxfId="199" priority="410" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="188" priority="410" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E160">
-    <cfRule type="cellIs" dxfId="198" priority="409" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="187" priority="409" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B160">
-    <cfRule type="cellIs" dxfId="197" priority="407" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="186" priority="407" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B161:D161">
-    <cfRule type="cellIs" dxfId="196" priority="406" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="185" priority="406" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E161">
-    <cfRule type="cellIs" dxfId="195" priority="405" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="184" priority="405" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D162:E162">
-    <cfRule type="cellIs" dxfId="194" priority="404" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="183" priority="404" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162:C162">
-    <cfRule type="cellIs" dxfId="193" priority="403" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="182" priority="403" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163">
-    <cfRule type="cellIs" dxfId="192" priority="402" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="181" priority="402" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B164">
-    <cfRule type="cellIs" dxfId="191" priority="401" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="180" priority="401" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E164">
-    <cfRule type="cellIs" dxfId="190" priority="400" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="179" priority="400" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="cellIs" dxfId="188" priority="369" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="178" priority="369" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="187" priority="367" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="177" priority="367" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" dxfId="186" priority="350" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="176" priority="350" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61">
-    <cfRule type="cellIs" dxfId="185" priority="348" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="175" priority="348" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62:F63">
-    <cfRule type="cellIs" dxfId="184" priority="346" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="174" priority="346" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E19 E21:E26">
-    <cfRule type="cellIs" dxfId="183" priority="305" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="173" priority="305" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="182" priority="279" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="172" priority="279" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="181" priority="233" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="171" priority="233" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="180" priority="192" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="170" priority="192" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D115">
-    <cfRule type="cellIs" dxfId="179" priority="191" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="169" priority="191" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D116">
-    <cfRule type="cellIs" dxfId="178" priority="190" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="168" priority="190" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D123">
-    <cfRule type="cellIs" dxfId="177" priority="182" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="167" priority="182" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E7">
-    <cfRule type="cellIs" dxfId="176" priority="177" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="166" priority="177" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="175" priority="176" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="165" priority="176" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="174" priority="175" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="164" priority="175" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E10">
-    <cfRule type="cellIs" dxfId="173" priority="172" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="163" priority="172" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:E14">
-    <cfRule type="cellIs" dxfId="172" priority="171" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="162" priority="171" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="171" priority="170" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="161" priority="170" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="170" priority="169" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="160" priority="169" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="169" priority="165" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="159" priority="165" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="cellIs" dxfId="168" priority="163" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="158" priority="163" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="167" priority="162" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="157" priority="162" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39:E41">
-    <cfRule type="cellIs" dxfId="160" priority="155" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="156" priority="155" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:E44">
-    <cfRule type="cellIs" dxfId="159" priority="154" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="155" priority="154" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:E44">
-    <cfRule type="cellIs" dxfId="158" priority="153" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="154" priority="153" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="157" priority="152" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="153" priority="152" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46:E47">
-    <cfRule type="cellIs" dxfId="156" priority="151" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="152" priority="151" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="155" priority="150" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="151" priority="150" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49:E50">
-    <cfRule type="cellIs" dxfId="154" priority="149" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="150" priority="149" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51:E52">
-    <cfRule type="cellIs" dxfId="153" priority="148" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="149" priority="148" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="152" priority="147" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="148" priority="147" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="151" priority="146" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="147" priority="146" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="150" priority="145" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="146" priority="145" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="149" priority="144" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="145" priority="144" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="148" priority="143" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="144" priority="143" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="147" priority="142" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="143" priority="142" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58">
-    <cfRule type="cellIs" dxfId="146" priority="141" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="142" priority="141" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57:E58">
-    <cfRule type="cellIs" dxfId="145" priority="140" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="141" priority="140" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57:E58">
-    <cfRule type="cellIs" dxfId="144" priority="139" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="139" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="143" priority="138" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="138" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60:E62">
-    <cfRule type="cellIs" dxfId="142" priority="137" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="138" priority="137" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="141" priority="136" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="137" priority="136" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="140" priority="135" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="135" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="139" priority="134" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="134" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="138" priority="133" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="133" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67:E71">
-    <cfRule type="cellIs" dxfId="137" priority="132" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="132" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="136" priority="131" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="131" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="135" priority="130" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="130" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="134" priority="129" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="129" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="133" priority="128" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="129" priority="128" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="132" priority="127" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="127" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="131" priority="126" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="126" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F78">
-    <cfRule type="cellIs" dxfId="130" priority="125" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="125" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F79">
-    <cfRule type="cellIs" dxfId="129" priority="124" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="124" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78:E79">
-    <cfRule type="cellIs" dxfId="128" priority="123" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="123" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78:E79">
-    <cfRule type="cellIs" dxfId="127" priority="122" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="122" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="126" priority="121" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="121" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="125" priority="120" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="120" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81:E82">
-    <cfRule type="cellIs" dxfId="124" priority="119" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="119" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="123" priority="118" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="118" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="122" priority="117" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="121" priority="116" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="116" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F85">
-    <cfRule type="cellIs" dxfId="120" priority="115" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="115" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F86">
-    <cfRule type="cellIs" dxfId="119" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85:E86">
-    <cfRule type="cellIs" dxfId="118" priority="113" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="113" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85:E86">
-    <cfRule type="cellIs" dxfId="117" priority="112" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="112" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87:E88">
-    <cfRule type="cellIs" dxfId="116" priority="111" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="111" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="115" priority="110" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="110" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="114" priority="107" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="107" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="113" priority="106" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="109" priority="106" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="112" priority="105" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="105" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="111" priority="104" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="104" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="110" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="109" priority="102" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F95">
-    <cfRule type="cellIs" dxfId="108" priority="101" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="101" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="107" priority="100" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="100" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="106" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="99" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F96">
-    <cfRule type="cellIs" dxfId="105" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="104" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="100" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="103" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="96" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="102" priority="95" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98:E99">
-    <cfRule type="cellIs" dxfId="101" priority="94" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="94" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="100" priority="93" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="93" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="99" priority="92" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="92" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="98" priority="91" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="94" priority="91" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="97" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="96" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F105:F106">
-    <cfRule type="cellIs" dxfId="95" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105:E106">
-    <cfRule type="cellIs" dxfId="94" priority="86" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="86" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105:E106">
-    <cfRule type="cellIs" dxfId="93" priority="85" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="85" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F107">
-    <cfRule type="cellIs" dxfId="92" priority="84" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="91" priority="83" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="83" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="90" priority="82" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="82" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="89" priority="81" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="81" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="88" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="87" priority="79" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="79" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="86" priority="78" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="78" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="85" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="84" priority="76" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="83" priority="75" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="75" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="82" priority="74" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="81" priority="73" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="73" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116:E117">
-    <cfRule type="cellIs" dxfId="80" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="79" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F119">
-    <cfRule type="cellIs" dxfId="78" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="77" priority="69" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="76" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F120">
-    <cfRule type="cellIs" dxfId="75" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E120">
-    <cfRule type="cellIs" dxfId="74" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E120">
-    <cfRule type="cellIs" dxfId="73" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E121">
-    <cfRule type="cellIs" dxfId="72" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="71" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="70" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="69" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E124:E125">
-    <cfRule type="cellIs" dxfId="68" priority="60" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E124:E125">
-    <cfRule type="cellIs" dxfId="67" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E127">
-    <cfRule type="cellIs" dxfId="66" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E128">
-    <cfRule type="cellIs" dxfId="65" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E129:E132">
-    <cfRule type="cellIs" dxfId="64" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E133">
-    <cfRule type="cellIs" dxfId="63" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E133">
-    <cfRule type="cellIs" dxfId="62" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F134">
-    <cfRule type="cellIs" dxfId="61" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" dxfId="60" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" dxfId="59" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F135">
-    <cfRule type="cellIs" dxfId="58" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" dxfId="57" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" dxfId="56" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="55" priority="47" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E137">
-    <cfRule type="cellIs" dxfId="54" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E139:E140">
-    <cfRule type="cellIs" dxfId="53" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E142:E144">
-    <cfRule type="cellIs" dxfId="52" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F147">
-    <cfRule type="cellIs" dxfId="51" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E147">
-    <cfRule type="cellIs" dxfId="50" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E145:E146">
-    <cfRule type="cellIs" dxfId="49" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D146">
-    <cfRule type="cellIs" dxfId="48" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E149">
-    <cfRule type="cellIs" dxfId="47" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E150">
-    <cfRule type="cellIs" dxfId="46" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E151:E152">
-    <cfRule type="cellIs" dxfId="45" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B152:B154">
-    <cfRule type="cellIs" dxfId="44" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E154">
-    <cfRule type="cellIs" dxfId="43" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E155:E156">
-    <cfRule type="cellIs" dxfId="42" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E10">
-    <cfRule type="cellIs" dxfId="41" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="40" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:E14">
-    <cfRule type="cellIs" dxfId="39" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:E14">
-    <cfRule type="cellIs" dxfId="38" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="37" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="36" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="35" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="34" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="33" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E19">
-    <cfRule type="cellIs" dxfId="32" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="31" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="30" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="29" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25:E26">
-    <cfRule type="cellIs" dxfId="28" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="27" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="26" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="25" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="24" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="23" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="22" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="21" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="20" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="19" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="18" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33:E35">
-    <cfRule type="cellIs" dxfId="11" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33:E35">
-    <cfRule type="cellIs" dxfId="10" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33:E35">
-    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33:E35">
-    <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36:E38">
-    <cfRule type="cellIs" dxfId="6" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36:E38">
-    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36:E38">
-    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2023/AWO_Einnahmen_Ausgaben_2023.xlsx
+++ b/2023/AWO_Einnahmen_Ausgaben_2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA23044-767D-4ED5-B2CC-65E8184412F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A69CA7-EA09-4F77-9921-2A90356067C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="100">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -310,6 +310,30 @@
   </si>
   <si>
     <t>JHV Anonym</t>
+  </si>
+  <si>
+    <t>Ehrennadeln</t>
+  </si>
+  <si>
+    <t>Treff zg Laune 21.3.</t>
+  </si>
+  <si>
+    <t>Brezeln JHV</t>
+  </si>
+  <si>
+    <t>HDB JHV</t>
+  </si>
+  <si>
+    <t>Treff zg Laune 4.4.</t>
+  </si>
+  <si>
+    <t>Druckerpatrone Bernd</t>
+  </si>
+  <si>
+    <t>Einladungen Wolfgang</t>
+  </si>
+  <si>
+    <t>Spende Rickers</t>
   </si>
 </sst>
 </file>
@@ -973,108 +997,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="317">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="73">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1411,1219 +1334,100 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0"/>
@@ -4968,6 +3772,115 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item h="1" x="1"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item h="1" x="0"/>
+        <item m="1" x="10"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="Summe von Barkasse" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Summe von VOBA" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Summe von VOBA TgK 630041601" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Summe von KSK" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="69">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="68">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="67">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B16:G25" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
@@ -5054,126 +3967,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="3">
+    <format dxfId="72">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="71">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="12">
-        <item h="1" x="1"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item h="1" x="0"/>
-        <item m="1" x="10"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </colItems>
-  <dataFields count="5">
-    <dataField name="Summe von Barkasse" fld="1" baseField="0" baseItem="0"/>
-    <dataField name="Summe von VOBA" fld="2" baseField="0" baseItem="0"/>
-    <dataField name="Summe von VOBA TgK 630041601" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Summe von KSK" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="6">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="5">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="4">
+    <format dxfId="70">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -6300,8 +5104,8 @@
   <dimension ref="A1:IK170"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6844,14 +5648,22 @@
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
+      <c r="A22" s="15">
+        <v>45008</v>
+      </c>
       <c r="B22" s="52">
         <v>19</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="18"/>
+      <c r="C22" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="20"/>
+      <c r="F22" s="21">
+        <v>85</v>
+      </c>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
       <c r="I22" s="19"/>
@@ -6859,13 +5671,21 @@
       <c r="K22" s="2"/>
     </row>
     <row r="23" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
+      <c r="A23" s="15">
+        <v>45011</v>
+      </c>
       <c r="B23" s="52">
-        <v>18</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="20"/>
+        <v>20</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="17">
+        <v>40</v>
+      </c>
       <c r="F23" s="21"/>
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
@@ -6877,17 +5697,17 @@
       <c r="A24" s="15">
         <v>45011</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="52">
         <v>21</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D24" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="17">
-        <v>40</v>
+      <c r="E24" s="20">
+        <v>75</v>
       </c>
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
@@ -6898,21 +5718,21 @@
     </row>
     <row r="25" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15">
-        <v>45011</v>
+        <v>45021</v>
       </c>
       <c r="B25" s="52">
         <v>22</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="20">
-        <v>75</v>
-      </c>
-      <c r="F25" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="20"/>
+      <c r="F25" s="21">
+        <v>120</v>
+      </c>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
       <c r="I25" s="19"/>
@@ -6920,14 +5740,22 @@
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="15"/>
+      <c r="A26" s="15">
+        <v>45034</v>
+      </c>
       <c r="B26" s="52">
         <v>23</v>
       </c>
-      <c r="C26" s="39"/>
-      <c r="D26" s="50"/>
+      <c r="C26" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>13</v>
+      </c>
       <c r="E26" s="17"/>
-      <c r="F26" s="18"/>
+      <c r="F26" s="18">
+        <v>10</v>
+      </c>
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
       <c r="I26" s="19"/>
@@ -8109,7 +6937,7 @@
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
-        <v>8313.730000000005</v>
+        <v>8528.730000000005</v>
       </c>
       <c r="G105" s="28">
         <f>SUM(G3:G104)</f>
@@ -8152,7 +6980,7 @@
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G171</f>
-        <v>6266.9500000000053</v>
+        <v>5632.7000000000044</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H171</f>
@@ -8190,7 +7018,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>9631.8300000000054</v>
+        <v>8997.5800000000054</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -8990,478 +7818,123 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D109 E3:I3 E105:I169 D104:I104 G50 F51:G53 G54:G58 E59:G60 D66:G66 F31:G31 F34:G34 F46:G49 F61 G61:G62 F63:G65 D68:G68 G67 F69:G75 D76:G81 D89:G89 G82 F83:G88 F90:G90 D91:G91 D95:G95 G92 E93:G93 F94:G94 D99:G104 F96:G97 G98 F24:G24 H28:I104 I27 G32:G33 G35:G36 F13:G14 H4:I26 G4:G12 F16:G16 G15 G17:G23 F26:G26 G25 G28:G30 F37:G40 G41:G45">
-    <cfRule type="cellIs" dxfId="316" priority="274" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="A92:D92">
+    <cfRule type="cellIs" dxfId="66" priority="109" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="315" priority="243" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B82">
+    <cfRule type="cellIs" dxfId="65" priority="123" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F56">
-    <cfRule type="cellIs" dxfId="314" priority="245" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="C98:D98">
+    <cfRule type="cellIs" dxfId="64" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="313" priority="241" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D4:D15">
+    <cfRule type="cellIs" dxfId="63" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="312" priority="215" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D17:D65">
+    <cfRule type="cellIs" dxfId="62" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="311" priority="210" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D67">
+    <cfRule type="cellIs" dxfId="61" priority="138" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="310" priority="195" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D16:G16">
+    <cfRule type="cellIs" dxfId="60" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="309" priority="192" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D68:G81">
+    <cfRule type="cellIs" dxfId="59" priority="124" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="308" priority="187" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D83:G91">
+    <cfRule type="cellIs" dxfId="58" priority="110" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="307" priority="184" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D93:G97">
+    <cfRule type="cellIs" dxfId="57" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E37:E39">
-    <cfRule type="cellIs" dxfId="306" priority="178" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="305" priority="173" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="304" priority="161" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="303" priority="159" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48:E50">
-    <cfRule type="cellIs" dxfId="302" priority="157" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E46:E50">
+    <cfRule type="cellIs" dxfId="56" priority="158" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="301" priority="153" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="154" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F54:F55">
-    <cfRule type="cellIs" dxfId="300" priority="151" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E20:F20">
+    <cfRule type="cellIs" dxfId="54" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
-    <cfRule type="cellIs" dxfId="299" priority="139" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E13:G14">
+    <cfRule type="cellIs" dxfId="53" priority="211" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" dxfId="298" priority="138" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F24:G24">
+    <cfRule type="cellIs" dxfId="52" priority="196" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="297" priority="137" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E26:G26">
+    <cfRule type="cellIs" dxfId="51" priority="193" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D69:E69">
-    <cfRule type="cellIs" dxfId="296" priority="136" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E31:G34">
+    <cfRule type="cellIs" dxfId="50" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="295" priority="135" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E37:G40">
+    <cfRule type="cellIs" dxfId="49" priority="174" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D70">
-    <cfRule type="cellIs" dxfId="294" priority="134" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="293" priority="133" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D71">
-    <cfRule type="cellIs" dxfId="292" priority="132" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="291" priority="131" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D72">
-    <cfRule type="cellIs" dxfId="290" priority="130" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="289" priority="129" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D73">
-    <cfRule type="cellIs" dxfId="288" priority="127" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="287" priority="126" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D74">
-    <cfRule type="cellIs" dxfId="286" priority="125" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="285" priority="124" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D75">
-    <cfRule type="cellIs" dxfId="284" priority="123" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="283" priority="122" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="282" priority="121" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D83">
-    <cfRule type="cellIs" dxfId="281" priority="120" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="280" priority="119" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D84">
-    <cfRule type="cellIs" dxfId="279" priority="118" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="278" priority="117" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D85">
-    <cfRule type="cellIs" dxfId="277" priority="116" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="276" priority="115" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D86">
-    <cfRule type="cellIs" dxfId="275" priority="114" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="274" priority="113" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D87">
-    <cfRule type="cellIs" dxfId="273" priority="112" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="272" priority="111" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D88">
-    <cfRule type="cellIs" dxfId="271" priority="110" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D90:E90">
-    <cfRule type="cellIs" dxfId="270" priority="109" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A92:D92">
-    <cfRule type="cellIs" dxfId="269" priority="108" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D93">
-    <cfRule type="cellIs" dxfId="268" priority="107" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="267" priority="106" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D94">
-    <cfRule type="cellIs" dxfId="266" priority="105" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D96:E96">
-    <cfRule type="cellIs" dxfId="265" priority="104" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="264" priority="103" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="263" priority="102" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C98:D98">
-    <cfRule type="cellIs" dxfId="262" priority="101" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="261" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="260" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7:D8">
-    <cfRule type="cellIs" dxfId="259" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="258" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="257" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" dxfId="256" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27:H27">
-    <cfRule type="cellIs" dxfId="255" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="254" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="253" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="252" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="251" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37:D40">
-    <cfRule type="cellIs" dxfId="250" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="249" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:E16">
-    <cfRule type="cellIs" dxfId="248" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="247" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="246" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27:D36">
-    <cfRule type="cellIs" dxfId="244" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41:D42">
-    <cfRule type="cellIs" dxfId="243" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43:D44">
-    <cfRule type="cellIs" dxfId="242" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45:D46">
-    <cfRule type="cellIs" dxfId="241" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D59">
-    <cfRule type="cellIs" dxfId="240" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="cellIs" dxfId="239" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="cellIs" dxfId="238" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
-    <cfRule type="cellIs" dxfId="237" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
-    <cfRule type="cellIs" dxfId="236" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63:D64">
-    <cfRule type="cellIs" dxfId="235" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="234" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="233" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="232" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="231" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="230" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D15">
-    <cfRule type="cellIs" dxfId="229" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="228" priority="8" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E3:I3 G4:G12 H4:I26 G15 G17:G23 G25 G28:G30 H28:I104 G35:G36 G41:G45 E59:G60 F61 G61:G62 F63:G65 D66:G66 G82 G92 G98 D99:G104 D104:I104 E105:I169 D109">
+    <cfRule type="cellIs" dxfId="48" priority="275" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="227" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="226" priority="6" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F46:G58">
+    <cfRule type="cellIs" dxfId="46" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="225" priority="5" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F67:G67">
+    <cfRule type="cellIs" dxfId="45" priority="139" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="224" priority="4" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="G27:I27">
+    <cfRule type="cellIs" dxfId="44" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="223" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20:D21">
-    <cfRule type="cellIs" dxfId="222" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24:D25">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="43" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9496,8 +7969,8 @@
   <dimension ref="A1:IM237"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10508,15 +8981,21 @@
     <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="43"/>
       <c r="B39" s="15">
-        <v>44993</v>
+        <v>45001</v>
       </c>
       <c r="C39" s="16">
         <v>37</v>
       </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="19"/>
+      <c r="D39" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F39" s="20"/>
-      <c r="G39" s="21"/>
+      <c r="G39" s="21">
+        <v>-41.72</v>
+      </c>
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
       <c r="J39" s="22"/>
@@ -10526,14 +9005,22 @@
     </row>
     <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="43"/>
-      <c r="B40" s="15"/>
+      <c r="B40" s="15">
+        <v>45002</v>
+      </c>
       <c r="C40" s="52">
         <v>38</v>
       </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="19"/>
+      <c r="D40" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="F40" s="20"/>
-      <c r="G40" s="21"/>
+      <c r="G40" s="21">
+        <v>-65</v>
+      </c>
       <c r="H40" s="21"/>
       <c r="I40" s="21"/>
       <c r="J40" s="22"/>
@@ -10543,14 +9030,22 @@
     </row>
     <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="43"/>
-      <c r="B41" s="15"/>
+      <c r="B41" s="15">
+        <v>45012</v>
+      </c>
       <c r="C41" s="52">
         <v>39</v>
       </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="19"/>
+      <c r="D41" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>23</v>
+      </c>
       <c r="F41" s="20"/>
-      <c r="G41" s="21"/>
+      <c r="G41" s="21">
+        <v>-260</v>
+      </c>
       <c r="H41" s="21"/>
       <c r="I41" s="21"/>
       <c r="J41" s="22"/>
@@ -10560,14 +9055,22 @@
     </row>
     <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="43"/>
-      <c r="B42" s="15"/>
+      <c r="B42" s="15">
+        <v>45012</v>
+      </c>
       <c r="C42" s="52">
         <v>40</v>
       </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="23"/>
+      <c r="D42" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="F42" s="20"/>
-      <c r="G42" s="21"/>
+      <c r="G42" s="21">
+        <v>-11.31</v>
+      </c>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
       <c r="J42" s="22"/>
@@ -10577,14 +9080,22 @@
     </row>
     <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="43"/>
-      <c r="B43" s="15"/>
+      <c r="B43" s="15">
+        <v>45016</v>
+      </c>
       <c r="C43" s="52">
         <v>41</v>
       </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="23"/>
+      <c r="D43" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F43" s="17"/>
-      <c r="G43" s="21"/>
+      <c r="G43" s="21">
+        <v>-25.57</v>
+      </c>
       <c r="H43" s="21"/>
       <c r="I43" s="21"/>
       <c r="J43" s="22"/>
@@ -10594,14 +9105,22 @@
     </row>
     <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="43"/>
-      <c r="B44" s="15"/>
+      <c r="B44" s="15">
+        <v>45016</v>
+      </c>
       <c r="C44" s="52">
         <v>42</v>
       </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="23"/>
+      <c r="D44" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="F44" s="17"/>
-      <c r="G44" s="21"/>
+      <c r="G44" s="21">
+        <v>-144.30000000000001</v>
+      </c>
       <c r="H44" s="21"/>
       <c r="I44" s="21"/>
       <c r="J44" s="22"/>
@@ -10611,14 +9130,22 @@
     </row>
     <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="43"/>
-      <c r="B45" s="15"/>
+      <c r="B45" s="15">
+        <v>45019</v>
+      </c>
       <c r="C45" s="52">
         <v>43</v>
       </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="23"/>
+      <c r="D45" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F45" s="20"/>
-      <c r="G45" s="21"/>
+      <c r="G45" s="21">
+        <v>-12</v>
+      </c>
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
       <c r="J45" s="22"/>
@@ -10628,14 +9155,22 @@
     </row>
     <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="43"/>
-      <c r="B46" s="15"/>
+      <c r="B46" s="15">
+        <v>45020</v>
+      </c>
       <c r="C46" s="16">
         <v>44</v>
       </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="19"/>
+      <c r="D46" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F46" s="20"/>
-      <c r="G46" s="21"/>
+      <c r="G46" s="21">
+        <v>-28</v>
+      </c>
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
       <c r="J46" s="22"/>
@@ -10645,14 +9180,22 @@
     </row>
     <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="43"/>
-      <c r="B47" s="15"/>
+      <c r="B47" s="15">
+        <v>45020</v>
+      </c>
       <c r="C47" s="52">
         <v>45</v>
       </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="19"/>
+      <c r="D47" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F47" s="20"/>
-      <c r="G47" s="21"/>
+      <c r="G47" s="21">
+        <v>-134</v>
+      </c>
       <c r="H47" s="21"/>
       <c r="I47" s="21"/>
       <c r="J47" s="22"/>
@@ -10662,14 +9205,22 @@
     </row>
     <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="43"/>
-      <c r="B48" s="15"/>
+      <c r="B48" s="15">
+        <v>45029</v>
+      </c>
       <c r="C48" s="52">
         <v>46</v>
       </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="23"/>
+      <c r="D48" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="F48" s="20"/>
-      <c r="G48" s="21"/>
+      <c r="G48" s="21">
+        <v>-71.59</v>
+      </c>
       <c r="H48" s="21"/>
       <c r="I48" s="21"/>
       <c r="J48" s="22"/>
@@ -10679,14 +9230,22 @@
     </row>
     <row r="49" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="43"/>
-      <c r="B49" s="15"/>
+      <c r="B49" s="15">
+        <v>45030</v>
+      </c>
       <c r="C49" s="52">
         <v>47</v>
       </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="19"/>
+      <c r="D49" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="F49" s="20"/>
-      <c r="G49" s="21"/>
+      <c r="G49" s="21">
+        <v>-37.4</v>
+      </c>
       <c r="H49" s="21"/>
       <c r="I49" s="21"/>
       <c r="J49" s="22"/>
@@ -10696,14 +9255,22 @@
     </row>
     <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="43"/>
-      <c r="B50" s="15"/>
+      <c r="B50" s="15">
+        <v>45033</v>
+      </c>
       <c r="C50" s="52">
         <v>48</v>
       </c>
-      <c r="D50" s="3"/>
-      <c r="E50" s="19"/>
+      <c r="D50" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F50" s="20"/>
-      <c r="G50" s="21"/>
+      <c r="G50" s="21">
+        <v>-18.36</v>
+      </c>
       <c r="H50" s="21"/>
       <c r="I50" s="21"/>
       <c r="J50" s="22"/>
@@ -12756,7 +11323,7 @@
       </c>
       <c r="G171" s="34">
         <f>SUM(G3:G170)</f>
-        <v>-2046.78</v>
+        <v>-2896.0300000000007</v>
       </c>
       <c r="H171" s="34">
         <f>SUM(H3:H170)</f>
@@ -13752,1078 +12319,218 @@
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="K173 J172:J235 I172:I237 D172:H235 C111:D111 C124 A55:A83 C127:C128 D128 B130:D130 C133:C134 B139:D139 C145:D145 C148:E148 D163:E163 B155:D155 B165:B237 C163:C236 D165:E172 D164 A3:A53 B134:B135 B150:D151 C153:E153 C154 A85:A236">
-    <cfRule type="cellIs" dxfId="221" priority="685" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="A3:A236">
+    <cfRule type="cellIs" dxfId="42" priority="637" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="220" priority="675" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B124:B129">
+    <cfRule type="cellIs" dxfId="41" priority="455" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="219" priority="637" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B131">
+    <cfRule type="cellIs" dxfId="40" priority="449" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B134:B138">
+    <cfRule type="cellIs" dxfId="39" priority="438" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B152:B154">
+    <cfRule type="cellIs" dxfId="38" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B160">
+    <cfRule type="cellIs" dxfId="37" priority="407" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B163:B237">
+    <cfRule type="cellIs" dxfId="36" priority="401" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B162:C162">
+    <cfRule type="cellIs" dxfId="35" priority="403" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B155:D157">
+    <cfRule type="cellIs" dxfId="34" priority="415" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B159:D159">
+    <cfRule type="cellIs" dxfId="33" priority="411" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B161:D161">
+    <cfRule type="cellIs" dxfId="32" priority="406" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B158:E158">
+    <cfRule type="cellIs" dxfId="31" priority="412" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C112">
+    <cfRule type="cellIs" dxfId="30" priority="476" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C122">
-    <cfRule type="cellIs" dxfId="218" priority="593" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="593" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C132:C135">
+    <cfRule type="cellIs" dxfId="28" priority="445" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C146:C147">
+    <cfRule type="cellIs" dxfId="27" priority="425" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C152">
+    <cfRule type="cellIs" dxfId="26" priority="422" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C111:D111 C124 C127:C128 D128 B130:D130 B139:D139 C145:D145 C148:E148 B150:D151 C153:E153 C154 C163:C236 D172:H235 J172:J235 I172:I237 K173">
+    <cfRule type="cellIs" dxfId="25" priority="685" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C129:D129">
+    <cfRule type="cellIs" dxfId="24" priority="453" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C149:D149">
+    <cfRule type="cellIs" dxfId="23" priority="424" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D115:D116">
+    <cfRule type="cellIs" dxfId="22" priority="190" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D123">
+    <cfRule type="cellIs" dxfId="21" priority="182" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D146">
+    <cfRule type="cellIs" dxfId="20" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D162:E172">
+    <cfRule type="cellIs" dxfId="19" priority="400" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E147">
+    <cfRule type="cellIs" dxfId="18" priority="1" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E149:E152">
+    <cfRule type="cellIs" dxfId="17" priority="37" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E154:E157">
+    <cfRule type="cellIs" dxfId="16" priority="32" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E159:E161">
+    <cfRule type="cellIs" dxfId="15" priority="405" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="217" priority="569" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="569" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="cellIs" dxfId="13" priority="165" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
+    <cfRule type="cellIs" dxfId="12" priority="163" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="216" priority="553" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="553" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C112">
-    <cfRule type="cellIs" dxfId="215" priority="476" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F43:F44">
+    <cfRule type="cellIs" dxfId="10" priority="367" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B124">
-    <cfRule type="cellIs" dxfId="214" priority="461" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F57:F58">
+    <cfRule type="cellIs" dxfId="9" priority="141" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E126">
-    <cfRule type="cellIs" dxfId="213" priority="458" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F60:F63">
+    <cfRule type="cellIs" dxfId="8" priority="346" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B125:B126">
-    <cfRule type="cellIs" dxfId="212" priority="457" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F78:F79">
+    <cfRule type="cellIs" dxfId="7" priority="124" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B127:B129">
-    <cfRule type="cellIs" dxfId="211" priority="455" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F85:F86">
+    <cfRule type="cellIs" dxfId="6" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C129:D129">
-    <cfRule type="cellIs" dxfId="210" priority="453" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F95:F96">
+    <cfRule type="cellIs" dxfId="5" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B131">
-    <cfRule type="cellIs" dxfId="209" priority="449" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F105:F107">
+    <cfRule type="cellIs" dxfId="4" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C132">
-    <cfRule type="cellIs" dxfId="208" priority="448" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F119:F120">
+    <cfRule type="cellIs" dxfId="3" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C135">
-    <cfRule type="cellIs" dxfId="207" priority="445" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F134:F135">
+    <cfRule type="cellIs" dxfId="2" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B136:B137">
-    <cfRule type="cellIs" dxfId="206" priority="443" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E138">
-    <cfRule type="cellIs" dxfId="205" priority="441" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B138">
-    <cfRule type="cellIs" dxfId="204" priority="438" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F141">
-    <cfRule type="cellIs" dxfId="203" priority="436" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E141">
-    <cfRule type="cellIs" dxfId="202" priority="435" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F142">
-    <cfRule type="cellIs" dxfId="201" priority="434" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F143">
-    <cfRule type="cellIs" dxfId="200" priority="432" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F144">
-    <cfRule type="cellIs" dxfId="199" priority="430" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C146">
-    <cfRule type="cellIs" dxfId="198" priority="426" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C147">
-    <cfRule type="cellIs" dxfId="197" priority="425" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C149:D149">
-    <cfRule type="cellIs" dxfId="196" priority="424" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C152">
-    <cfRule type="cellIs" dxfId="195" priority="422" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B156:D156">
-    <cfRule type="cellIs" dxfId="194" priority="418" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B157:D157">
-    <cfRule type="cellIs" dxfId="193" priority="415" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E157">
-    <cfRule type="cellIs" dxfId="192" priority="414" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C158:E158">
-    <cfRule type="cellIs" dxfId="191" priority="413" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B158">
-    <cfRule type="cellIs" dxfId="190" priority="412" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B159:D159">
-    <cfRule type="cellIs" dxfId="189" priority="411" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E159">
-    <cfRule type="cellIs" dxfId="188" priority="410" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E160">
-    <cfRule type="cellIs" dxfId="187" priority="409" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B160">
-    <cfRule type="cellIs" dxfId="186" priority="407" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B161:D161">
-    <cfRule type="cellIs" dxfId="185" priority="406" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E161">
-    <cfRule type="cellIs" dxfId="184" priority="405" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D162:E162">
-    <cfRule type="cellIs" dxfId="183" priority="404" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B162:C162">
-    <cfRule type="cellIs" dxfId="182" priority="403" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B163">
-    <cfRule type="cellIs" dxfId="181" priority="402" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B164">
-    <cfRule type="cellIs" dxfId="180" priority="401" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E164">
-    <cfRule type="cellIs" dxfId="179" priority="400" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F43">
-    <cfRule type="cellIs" dxfId="178" priority="369" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" dxfId="177" priority="367" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" dxfId="176" priority="350" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F61">
-    <cfRule type="cellIs" dxfId="175" priority="348" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F62:F63">
-    <cfRule type="cellIs" dxfId="174" priority="346" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E19 E21:E26">
-    <cfRule type="cellIs" dxfId="173" priority="305" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="172" priority="279" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="171" priority="233" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E115">
-    <cfRule type="cellIs" dxfId="170" priority="192" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D115">
-    <cfRule type="cellIs" dxfId="169" priority="191" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D116">
-    <cfRule type="cellIs" dxfId="168" priority="190" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D123">
-    <cfRule type="cellIs" dxfId="167" priority="182" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E7">
-    <cfRule type="cellIs" dxfId="166" priority="177" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="165" priority="176" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="164" priority="175" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9:E10">
-    <cfRule type="cellIs" dxfId="163" priority="172" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E14">
-    <cfRule type="cellIs" dxfId="162" priority="171" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="161" priority="170" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="160" priority="169" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="159" priority="165" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
-    <cfRule type="cellIs" dxfId="158" priority="163" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="157" priority="162" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39:E41">
-    <cfRule type="cellIs" dxfId="156" priority="155" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42:E44">
-    <cfRule type="cellIs" dxfId="155" priority="154" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42:E44">
-    <cfRule type="cellIs" dxfId="154" priority="153" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="153" priority="152" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46:E47">
-    <cfRule type="cellIs" dxfId="152" priority="151" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="151" priority="150" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49:E50">
-    <cfRule type="cellIs" dxfId="150" priority="149" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51:E52">
-    <cfRule type="cellIs" dxfId="149" priority="148" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="148" priority="147" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="147" priority="146" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="146" priority="145" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="145" priority="144" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="144" priority="143" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" dxfId="143" priority="142" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="cellIs" dxfId="142" priority="141" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57:E58">
-    <cfRule type="cellIs" dxfId="141" priority="140" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57:E58">
-    <cfRule type="cellIs" dxfId="140" priority="139" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="139" priority="138" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60:E62">
-    <cfRule type="cellIs" dxfId="138" priority="137" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="137" priority="136" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="136" priority="135" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="135" priority="134" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="134" priority="133" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67:E71">
-    <cfRule type="cellIs" dxfId="133" priority="132" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="132" priority="131" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="131" priority="130" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="130" priority="129" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="129" priority="128" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="128" priority="127" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="127" priority="126" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F78">
-    <cfRule type="cellIs" dxfId="126" priority="125" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F79">
-    <cfRule type="cellIs" dxfId="125" priority="124" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78:E79">
-    <cfRule type="cellIs" dxfId="124" priority="123" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78:E79">
-    <cfRule type="cellIs" dxfId="123" priority="122" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="122" priority="121" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="121" priority="120" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81:E82">
-    <cfRule type="cellIs" dxfId="120" priority="119" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="119" priority="118" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="118" priority="117" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="117" priority="116" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F85">
-    <cfRule type="cellIs" dxfId="116" priority="115" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F86">
-    <cfRule type="cellIs" dxfId="115" priority="114" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85:E86">
-    <cfRule type="cellIs" dxfId="114" priority="113" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85:E86">
-    <cfRule type="cellIs" dxfId="113" priority="112" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87:E88">
-    <cfRule type="cellIs" dxfId="112" priority="111" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="111" priority="110" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="110" priority="107" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="109" priority="106" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="108" priority="105" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
-    <cfRule type="cellIs" dxfId="107" priority="104" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="106" priority="103" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="105" priority="102" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F95">
-    <cfRule type="cellIs" dxfId="104" priority="101" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="103" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="102" priority="99" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F96">
-    <cfRule type="cellIs" dxfId="101" priority="98" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="100" priority="97" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="99" priority="96" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="98" priority="95" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98:E99">
-    <cfRule type="cellIs" dxfId="97" priority="94" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="96" priority="93" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="95" priority="92" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="94" priority="91" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="93" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="92" priority="88" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F105:F106">
-    <cfRule type="cellIs" dxfId="91" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E105:E106">
-    <cfRule type="cellIs" dxfId="90" priority="86" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E105:E106">
-    <cfRule type="cellIs" dxfId="89" priority="85" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F107">
-    <cfRule type="cellIs" dxfId="88" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="87" priority="83" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="86" priority="82" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="85" priority="81" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="84" priority="80" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="83" priority="79" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="82" priority="78" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="81" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="80" priority="76" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="79" priority="75" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="78" priority="74" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E114">
-    <cfRule type="cellIs" dxfId="77" priority="73" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E116:E117">
-    <cfRule type="cellIs" dxfId="76" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="75" priority="71" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F119">
-    <cfRule type="cellIs" dxfId="74" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="73" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="72" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F120">
-    <cfRule type="cellIs" dxfId="71" priority="67" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E120">
-    <cfRule type="cellIs" dxfId="70" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E120">
-    <cfRule type="cellIs" dxfId="69" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E121">
-    <cfRule type="cellIs" dxfId="68" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="67" priority="63" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="66" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="65" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E124:E125">
-    <cfRule type="cellIs" dxfId="64" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E124:E125">
-    <cfRule type="cellIs" dxfId="63" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E127">
-    <cfRule type="cellIs" dxfId="62" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E128">
-    <cfRule type="cellIs" dxfId="61" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E129:E132">
-    <cfRule type="cellIs" dxfId="60" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E133">
-    <cfRule type="cellIs" dxfId="59" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E133">
-    <cfRule type="cellIs" dxfId="58" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F134">
-    <cfRule type="cellIs" dxfId="57" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" dxfId="56" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E134">
-    <cfRule type="cellIs" dxfId="55" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F135">
-    <cfRule type="cellIs" dxfId="54" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" dxfId="53" priority="49" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" dxfId="52" priority="48" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="51" priority="47" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E137">
-    <cfRule type="cellIs" dxfId="50" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E139:E140">
-    <cfRule type="cellIs" dxfId="49" priority="45" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E142:E144">
-    <cfRule type="cellIs" dxfId="48" priority="44" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F141:F144">
+    <cfRule type="cellIs" dxfId="1" priority="430" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F147">
-    <cfRule type="cellIs" dxfId="47" priority="43" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E147">
-    <cfRule type="cellIs" dxfId="46" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E145:E146">
-    <cfRule type="cellIs" dxfId="45" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D146">
-    <cfRule type="cellIs" dxfId="44" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E149">
-    <cfRule type="cellIs" dxfId="43" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E150">
-    <cfRule type="cellIs" dxfId="42" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E151:E152">
-    <cfRule type="cellIs" dxfId="41" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B152:B154">
-    <cfRule type="cellIs" dxfId="40" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E154">
-    <cfRule type="cellIs" dxfId="39" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E155:E156">
-    <cfRule type="cellIs" dxfId="38" priority="32" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9:E10">
-    <cfRule type="cellIs" dxfId="37" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="36" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E14">
-    <cfRule type="cellIs" dxfId="35" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E14">
-    <cfRule type="cellIs" dxfId="34" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="33" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="32" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="31" priority="25" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="30" priority="24" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="29" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18:E19">
-    <cfRule type="cellIs" dxfId="28" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="27" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="26" priority="20" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="25" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25:E26">
-    <cfRule type="cellIs" dxfId="24" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="23" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="22" priority="16" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="21" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="20" priority="14" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="19" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="18" priority="12" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="17" priority="11" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="16" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="15" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="14" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33:E35">
-    <cfRule type="cellIs" dxfId="13" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33:E35">
-    <cfRule type="cellIs" dxfId="12" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33:E35">
-    <cfRule type="cellIs" dxfId="11" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33:E35">
-    <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36:E38">
-    <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36:E38">
-    <cfRule type="cellIs" dxfId="8" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36:E38">
-    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2023/AWO_Einnahmen_Ausgaben_2023.xlsx
+++ b/2023/AWO_Einnahmen_Ausgaben_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A69CA7-EA09-4F77-9921-2A90356067C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C9A56E-2BE9-472F-981D-B1315D6DE945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="108">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -334,6 +334,30 @@
   </si>
   <si>
     <t>Spende Rickers</t>
+  </si>
+  <si>
+    <t>Treff zg Laune 18.4.</t>
+  </si>
+  <si>
+    <t>Getränke Brezeln</t>
+  </si>
+  <si>
+    <t>Spende Fr.Büchel</t>
+  </si>
+  <si>
+    <t>Trauerfeier Fam Radtke Miete Häusle</t>
+  </si>
+  <si>
+    <t>SPD Miete 19.4.</t>
+  </si>
+  <si>
+    <t>AWO Radservice, Hilfe Jungs</t>
+  </si>
+  <si>
+    <t>Häusle streichen, Verpflegung</t>
+  </si>
+  <si>
+    <t>Butter</t>
   </si>
 </sst>
 </file>
@@ -997,7 +1021,32 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="73">
+  <dxfs count="78">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3772,115 +3821,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="12">
-        <item h="1" x="1"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item h="1" x="0"/>
-        <item m="1" x="10"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </colItems>
-  <dataFields count="5">
-    <dataField name="Summe von Barkasse" fld="1" baseField="0" baseItem="0"/>
-    <dataField name="Summe von VOBA" fld="2" baseField="0" baseItem="0"/>
-    <dataField name="Summe von VOBA TgK 630041601" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Summe von KSK" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="69">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="68">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="67">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B16:G25" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
@@ -3967,17 +3907,126 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="72">
+    <format dxfId="74">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="71">
+    <format dxfId="73">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="70">
+    <format dxfId="72">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item h="1" x="1"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item h="1" x="0"/>
+        <item m="1" x="10"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="Summe von Barkasse" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Summe von VOBA" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Summe von VOBA TgK 630041601" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Summe von KSK" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="77">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="76">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="75">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5104,8 +5153,8 @@
   <dimension ref="A1:IK170"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+      <pane ySplit="2" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5763,14 +5812,22 @@
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="15"/>
+      <c r="A27" s="15">
+        <v>45035</v>
+      </c>
       <c r="B27" s="16">
         <v>24</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="19"/>
+      <c r="C27" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E27" s="20"/>
-      <c r="F27" s="21"/>
+      <c r="F27" s="21">
+        <v>100</v>
+      </c>
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
       <c r="I27" s="19"/>
@@ -5778,14 +5835,22 @@
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
+      <c r="A28" s="15">
+        <v>45037</v>
+      </c>
       <c r="B28" s="16">
         <v>25</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="21"/>
+      <c r="C28" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="17"/>
+      <c r="F28" s="18">
+        <v>30</v>
+      </c>
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
       <c r="I28" s="19"/>
@@ -5793,14 +5858,22 @@
       <c r="K28" s="2"/>
     </row>
     <row r="29" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="15"/>
+      <c r="A29" s="15">
+        <v>45037</v>
+      </c>
       <c r="B29" s="16">
         <v>26</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="19"/>
+      <c r="C29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E29" s="20"/>
-      <c r="F29" s="21"/>
+      <c r="F29" s="21">
+        <v>16</v>
+      </c>
       <c r="G29" s="18"/>
       <c r="H29" s="18"/>
       <c r="I29" s="19"/>
@@ -5808,14 +5881,22 @@
       <c r="K29" s="2"/>
     </row>
     <row r="30" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="15"/>
+      <c r="A30" s="15">
+        <v>45040</v>
+      </c>
       <c r="B30" s="16">
         <v>27</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="21"/>
+      <c r="C30" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="17"/>
+      <c r="F30" s="18">
+        <v>60</v>
+      </c>
       <c r="G30" s="18"/>
       <c r="H30" s="18"/>
       <c r="I30" s="19"/>
@@ -5823,14 +5904,22 @@
       <c r="K30" s="2"/>
     </row>
     <row r="31" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="15"/>
+      <c r="A31" s="15">
+        <v>45048</v>
+      </c>
       <c r="B31" s="16">
         <v>28</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="19"/>
+      <c r="C31" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E31" s="17"/>
-      <c r="F31" s="18"/>
+      <c r="F31" s="18">
+        <v>25</v>
+      </c>
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
       <c r="I31" s="19"/>
@@ -6937,7 +7026,7 @@
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
-        <v>8528.730000000005</v>
+        <v>8759.730000000005</v>
       </c>
       <c r="G105" s="28">
         <f>SUM(G3:G104)</f>
@@ -6980,7 +7069,7 @@
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G171</f>
-        <v>5632.7000000000044</v>
+        <v>5589.0700000000052</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H171</f>
@@ -7018,7 +7107,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>8997.5800000000054</v>
+        <v>8953.9500000000062</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -7819,122 +7908,137 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="A92:D92">
-    <cfRule type="cellIs" dxfId="66" priority="109" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="112" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="65" priority="123" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="126" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:D98">
-    <cfRule type="cellIs" dxfId="64" priority="102" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="105" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D15">
-    <cfRule type="cellIs" dxfId="63" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D65">
-    <cfRule type="cellIs" dxfId="62" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="61" priority="138" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="141" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:G16">
-    <cfRule type="cellIs" dxfId="60" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68:G81">
-    <cfRule type="cellIs" dxfId="59" priority="124" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="127" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:G91">
-    <cfRule type="cellIs" dxfId="58" priority="110" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="113" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93:G97">
-    <cfRule type="cellIs" dxfId="57" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="106" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="61" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46:E50">
-    <cfRule type="cellIs" dxfId="56" priority="158" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="161" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="55" priority="154" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="157" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:F20">
-    <cfRule type="cellIs" dxfId="54" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:G14">
-    <cfRule type="cellIs" dxfId="53" priority="211" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="214" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26:G26">
+    <cfRule type="cellIs" dxfId="56" priority="196" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32:G34 G31">
+    <cfRule type="cellIs" dxfId="55" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37:G40">
+    <cfRule type="cellIs" dxfId="54" priority="177" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:I3 G4:G12 H4:I26 G15 G17:G23 G25 G28:G30 H28:I104 G35:G36 G41:G45 E59:G60 F61 G61:G62 F63:G65 D66:G66 G82 G92 G98 D99:G104 D104:I104 E105:I169 D109">
+    <cfRule type="cellIs" dxfId="53" priority="278" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="cellIs" dxfId="52" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:G24">
-    <cfRule type="cellIs" dxfId="52" priority="196" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26:G26">
-    <cfRule type="cellIs" dxfId="51" priority="193" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31:G34">
-    <cfRule type="cellIs" dxfId="50" priority="50" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37:G40">
-    <cfRule type="cellIs" dxfId="49" priority="174" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:I3 G4:G12 H4:I26 G15 G17:G23 G25 G28:G30 H28:I104 G35:G36 G41:G45 E59:G60 F61 G61:G62 F63:G65 D66:G66 G82 G92 G98 D99:G104 D104:I104 E105:I169 D109">
-    <cfRule type="cellIs" dxfId="48" priority="275" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="47" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="199" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46:G58">
-    <cfRule type="cellIs" dxfId="46" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67:G67">
-    <cfRule type="cellIs" dxfId="45" priority="139" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="142" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:I27">
-    <cfRule type="cellIs" dxfId="44" priority="60" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="43" priority="1" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E28:F28">
+    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30:F30">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31:F31">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7969,8 +8073,8 @@
   <dimension ref="A1:IM237"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G51" sqref="G51"/>
+      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9280,14 +9384,22 @@
     </row>
     <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="43"/>
-      <c r="B51" s="15"/>
+      <c r="B51" s="15">
+        <v>45035</v>
+      </c>
       <c r="C51" s="52">
         <v>49</v>
       </c>
-      <c r="D51" s="3"/>
-      <c r="E51" s="23"/>
+      <c r="D51" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F51" s="20"/>
-      <c r="G51" s="21"/>
+      <c r="G51" s="21">
+        <v>-41.72</v>
+      </c>
       <c r="H51" s="21"/>
       <c r="I51" s="21"/>
       <c r="J51" s="22"/>
@@ -9297,14 +9409,22 @@
     </row>
     <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="43"/>
-      <c r="B52" s="15"/>
+      <c r="B52" s="15">
+        <v>45036</v>
+      </c>
       <c r="C52" s="52">
         <v>50</v>
       </c>
-      <c r="D52" s="3"/>
-      <c r="E52" s="23"/>
+      <c r="D52" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E52" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F52" s="20"/>
-      <c r="G52" s="21"/>
+      <c r="G52" s="21">
+        <v>-56.1</v>
+      </c>
       <c r="H52" s="21"/>
       <c r="I52" s="21"/>
       <c r="J52" s="22"/>
@@ -9314,14 +9434,22 @@
     </row>
     <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="43"/>
-      <c r="B53" s="15"/>
+      <c r="B53" s="15">
+        <v>45040</v>
+      </c>
       <c r="C53" s="52">
         <v>51</v>
       </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="23"/>
+      <c r="D53" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E53" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F53" s="20"/>
-      <c r="G53" s="21"/>
+      <c r="G53" s="21">
+        <v>-5.94</v>
+      </c>
       <c r="H53" s="21"/>
       <c r="I53" s="21"/>
       <c r="J53" s="22"/>
@@ -9331,14 +9459,22 @@
     </row>
     <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="43"/>
-      <c r="B54" s="15"/>
+      <c r="B54" s="15">
+        <v>45048</v>
+      </c>
       <c r="C54" s="52">
         <v>52</v>
       </c>
-      <c r="D54" s="3"/>
-      <c r="E54" s="23"/>
+      <c r="D54" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E54" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="F54" s="20"/>
-      <c r="G54" s="21"/>
+      <c r="G54" s="21">
+        <v>-80</v>
+      </c>
       <c r="H54" s="21"/>
       <c r="I54" s="21"/>
       <c r="J54" s="22"/>
@@ -9348,14 +9484,22 @@
     </row>
     <row r="55" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="43"/>
-      <c r="B55" s="15"/>
+      <c r="B55" s="15">
+        <v>45048</v>
+      </c>
       <c r="C55" s="52">
         <v>53</v>
       </c>
-      <c r="D55" s="3"/>
-      <c r="E55" s="19"/>
+      <c r="D55" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E55" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F55" s="20"/>
-      <c r="G55" s="21"/>
+      <c r="G55" s="21">
+        <v>-87.97</v>
+      </c>
       <c r="H55" s="21"/>
       <c r="I55" s="21"/>
       <c r="J55" s="22"/>
@@ -9365,14 +9509,22 @@
     </row>
     <row r="56" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="43"/>
-      <c r="B56" s="15"/>
+      <c r="B56" s="15">
+        <v>45048</v>
+      </c>
       <c r="C56" s="52">
         <v>54</v>
       </c>
-      <c r="D56" s="3"/>
-      <c r="E56" s="23"/>
+      <c r="D56" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E56" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F56" s="20"/>
-      <c r="G56" s="21"/>
+      <c r="G56" s="21">
+        <v>-2.9</v>
+      </c>
       <c r="H56" s="21"/>
       <c r="I56" s="21"/>
       <c r="J56" s="22"/>
@@ -11323,7 +11475,7 @@
       </c>
       <c r="G171" s="34">
         <f>SUM(G3:G170)</f>
-        <v>-2896.0300000000007</v>
+        <v>-3170.6600000000003</v>
       </c>
       <c r="H171" s="34">
         <f>SUM(H3:H170)</f>
@@ -12320,217 +12472,217 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A236">
-    <cfRule type="cellIs" dxfId="42" priority="637" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="637" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124:B129">
-    <cfRule type="cellIs" dxfId="41" priority="455" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="455" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131">
-    <cfRule type="cellIs" dxfId="40" priority="449" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="449" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134:B138">
-    <cfRule type="cellIs" dxfId="39" priority="438" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="438" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B152:B154">
-    <cfRule type="cellIs" dxfId="38" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B160">
-    <cfRule type="cellIs" dxfId="37" priority="407" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="407" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163:B237">
-    <cfRule type="cellIs" dxfId="36" priority="401" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="401" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162:C162">
-    <cfRule type="cellIs" dxfId="35" priority="403" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="403" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B155:D157">
-    <cfRule type="cellIs" dxfId="34" priority="415" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="415" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159:D159">
-    <cfRule type="cellIs" dxfId="33" priority="411" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="411" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B161:D161">
-    <cfRule type="cellIs" dxfId="32" priority="406" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="406" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B158:E158">
-    <cfRule type="cellIs" dxfId="31" priority="412" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="412" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C112">
-    <cfRule type="cellIs" dxfId="30" priority="476" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="476" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C122">
-    <cfRule type="cellIs" dxfId="29" priority="593" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="593" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C132:C135">
-    <cfRule type="cellIs" dxfId="28" priority="445" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="445" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C146:C147">
-    <cfRule type="cellIs" dxfId="27" priority="425" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="425" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C152">
-    <cfRule type="cellIs" dxfId="26" priority="422" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="422" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C111:D111 C124 C127:C128 D128 B130:D130 B139:D139 C145:D145 C148:E148 B150:D151 C153:E153 C154 C163:C236 D172:H235 J172:J235 I172:I237 K173">
-    <cfRule type="cellIs" dxfId="25" priority="685" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="685" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C129:D129">
-    <cfRule type="cellIs" dxfId="24" priority="453" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="453" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C149:D149">
-    <cfRule type="cellIs" dxfId="23" priority="424" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="424" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D115:D116">
-    <cfRule type="cellIs" dxfId="22" priority="190" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="190" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D123">
-    <cfRule type="cellIs" dxfId="21" priority="182" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="182" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D146">
-    <cfRule type="cellIs" dxfId="20" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D162:E172">
-    <cfRule type="cellIs" dxfId="19" priority="400" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="400" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E147">
-    <cfRule type="cellIs" dxfId="18" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E149:E152">
-    <cfRule type="cellIs" dxfId="17" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E154:E157">
-    <cfRule type="cellIs" dxfId="16" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E159:E161">
-    <cfRule type="cellIs" dxfId="15" priority="405" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="405" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="14" priority="569" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="569" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="13" priority="165" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="165" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="cellIs" dxfId="12" priority="163" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="163" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="11" priority="553" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="553" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:F44">
-    <cfRule type="cellIs" dxfId="10" priority="367" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="367" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57:F58">
-    <cfRule type="cellIs" dxfId="9" priority="141" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="141" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60:F63">
-    <cfRule type="cellIs" dxfId="8" priority="346" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="346" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F78:F79">
-    <cfRule type="cellIs" dxfId="7" priority="124" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="124" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F85:F86">
-    <cfRule type="cellIs" dxfId="6" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F95:F96">
-    <cfRule type="cellIs" dxfId="5" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F105:F107">
-    <cfRule type="cellIs" dxfId="4" priority="84" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F119:F120">
-    <cfRule type="cellIs" dxfId="3" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F134:F135">
-    <cfRule type="cellIs" dxfId="2" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F141:F144">
-    <cfRule type="cellIs" dxfId="1" priority="430" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="430" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F147">
-    <cfRule type="cellIs" dxfId="0" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2023/AWO_Einnahmen_Ausgaben_2023.xlsx
+++ b/2023/AWO_Einnahmen_Ausgaben_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C9A56E-2BE9-472F-981D-B1315D6DE945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8DD791-5F5F-4C53-8D07-A8366CF2036F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="116">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -358,6 +358,30 @@
   </si>
   <si>
     <t>Butter</t>
+  </si>
+  <si>
+    <t>Radservice Spenden</t>
+  </si>
+  <si>
+    <t>Busreise 28.4.</t>
+  </si>
+  <si>
+    <t>Ausgaben August Häusle streichen</t>
+  </si>
+  <si>
+    <t>Treff zg Laune 2.5.</t>
+  </si>
+  <si>
+    <t>Büromaterial Roland</t>
+  </si>
+  <si>
+    <t>Radservice Verpflegung</t>
+  </si>
+  <si>
+    <t>Ausgaben Tzgl</t>
+  </si>
+  <si>
+    <t>Ausgaben Tzgl Getränke</t>
   </si>
 </sst>
 </file>
@@ -1021,11 +1045,102 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="78">
+  <dxfs count="76">
     <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1377,107 +1492,6 @@
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0"/>
   <colors>
@@ -3907,17 +3921,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="74">
+    <format dxfId="2">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="73">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="72">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -4016,17 +4030,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="77">
+    <format dxfId="5">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="76">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="75">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5152,9 +5166,9 @@
   </sheetPr>
   <dimension ref="A1:IK170"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5927,14 +5941,22 @@
       <c r="K31" s="2"/>
     </row>
     <row r="32" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="15"/>
+      <c r="A32" s="15">
+        <v>45048</v>
+      </c>
       <c r="B32" s="16">
         <v>29</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="19"/>
+      <c r="C32" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="E32" s="17"/>
-      <c r="F32" s="18"/>
+      <c r="F32" s="18">
+        <v>85</v>
+      </c>
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
       <c r="I32" s="19"/>
@@ -5942,14 +5964,22 @@
       <c r="K32" s="2"/>
     </row>
     <row r="33" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="15"/>
+      <c r="A33" s="15">
+        <v>45048</v>
+      </c>
       <c r="B33" s="16">
         <v>30</v>
       </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="19"/>
+      <c r="C33" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>14</v>
+      </c>
       <c r="E33" s="17"/>
-      <c r="F33" s="18"/>
+      <c r="F33" s="18">
+        <v>110</v>
+      </c>
       <c r="G33" s="18"/>
       <c r="H33" s="18"/>
       <c r="I33" s="19"/>
@@ -5957,14 +5987,22 @@
       <c r="K33" s="2"/>
     </row>
     <row r="34" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="15"/>
+      <c r="A34" s="15">
+        <v>45049</v>
+      </c>
       <c r="B34" s="16">
         <v>31</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="18"/>
+      <c r="C34" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="20"/>
+      <c r="F34" s="21">
+        <v>94</v>
+      </c>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
       <c r="I34" s="19"/>
@@ -7026,7 +7064,7 @@
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
-        <v>8759.730000000005</v>
+        <v>9048.730000000005</v>
       </c>
       <c r="G105" s="28">
         <f>SUM(G3:G104)</f>
@@ -7069,7 +7107,7 @@
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G171</f>
-        <v>5589.0700000000052</v>
+        <v>5384.0700000000052</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H171</f>
@@ -7107,7 +7145,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>8953.9500000000062</v>
+        <v>8748.9500000000062</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -7908,137 +7946,137 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="A92:D92">
-    <cfRule type="cellIs" dxfId="71" priority="112" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="112" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="70" priority="126" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="126" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:D98">
-    <cfRule type="cellIs" dxfId="69" priority="105" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="105" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D15">
-    <cfRule type="cellIs" dxfId="68" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D65">
-    <cfRule type="cellIs" dxfId="67" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="66" priority="141" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="141" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:G16">
-    <cfRule type="cellIs" dxfId="65" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68:G81">
-    <cfRule type="cellIs" dxfId="64" priority="127" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="127" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:G91">
-    <cfRule type="cellIs" dxfId="63" priority="113" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="113" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93:G97">
-    <cfRule type="cellIs" dxfId="62" priority="106" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="106" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="61" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46:E50">
-    <cfRule type="cellIs" dxfId="60" priority="161" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="161" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="59" priority="157" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="157" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:F20">
-    <cfRule type="cellIs" dxfId="58" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:G14">
-    <cfRule type="cellIs" dxfId="57" priority="214" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="214" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:G26">
-    <cfRule type="cellIs" dxfId="56" priority="196" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="196" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32:G34 G31">
-    <cfRule type="cellIs" dxfId="55" priority="53" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E32:G33 G31 G34">
+    <cfRule type="cellIs" dxfId="59" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37:G40">
-    <cfRule type="cellIs" dxfId="54" priority="177" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="177" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:I3 G4:G12 H4:I26 G15 G17:G23 G25 G28:G30 H28:I104 G35:G36 G41:G45 E59:G60 F61 G61:G62 F63:G65 D66:G66 G82 G92 G98 D99:G104 D104:I104 E105:I169 D109">
-    <cfRule type="cellIs" dxfId="53" priority="278" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="278" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="52" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:G24">
-    <cfRule type="cellIs" dxfId="51" priority="199" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="199" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46:G58">
-    <cfRule type="cellIs" dxfId="50" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67:G67">
-    <cfRule type="cellIs" dxfId="49" priority="142" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="142" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:I27">
-    <cfRule type="cellIs" dxfId="48" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:F30">
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:F31">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8072,9 +8110,9 @@
   </sheetPr>
   <dimension ref="A1:IM237"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G57" sqref="G57"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9534,14 +9572,22 @@
     </row>
     <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="43"/>
-      <c r="B57" s="15"/>
+      <c r="B57" s="15">
+        <v>45048</v>
+      </c>
       <c r="C57" s="52">
         <v>55</v>
       </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="21"/>
+      <c r="D57" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" s="20"/>
+      <c r="G57" s="21">
+        <v>-12</v>
+      </c>
       <c r="H57" s="21"/>
       <c r="I57" s="21"/>
       <c r="J57" s="22"/>
@@ -9551,14 +9597,22 @@
     </row>
     <row r="58" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="43"/>
-      <c r="B58" s="15"/>
+      <c r="B58" s="15">
+        <v>45049</v>
+      </c>
       <c r="C58" s="52">
         <v>56</v>
       </c>
-      <c r="D58" s="3"/>
-      <c r="E58" s="23"/>
+      <c r="D58" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E58" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F58" s="17"/>
-      <c r="G58" s="21"/>
+      <c r="G58" s="21">
+        <v>-123.15</v>
+      </c>
       <c r="H58" s="21"/>
       <c r="I58" s="21"/>
       <c r="J58" s="22"/>
@@ -9568,14 +9622,22 @@
     </row>
     <row r="59" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="43"/>
-      <c r="B59" s="15"/>
+      <c r="B59" s="15">
+        <v>45049</v>
+      </c>
       <c r="C59" s="52">
         <v>57</v>
       </c>
-      <c r="D59" s="3"/>
-      <c r="E59" s="23"/>
+      <c r="D59" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E59" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F59" s="20"/>
-      <c r="G59" s="21"/>
+      <c r="G59" s="21">
+        <v>-134</v>
+      </c>
       <c r="H59" s="21"/>
       <c r="I59" s="21"/>
       <c r="J59" s="22"/>
@@ -9585,14 +9647,22 @@
     </row>
     <row r="60" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="43"/>
-      <c r="B60" s="15"/>
+      <c r="B60" s="15">
+        <v>45049</v>
+      </c>
       <c r="C60" s="52">
         <v>58</v>
       </c>
-      <c r="D60" s="3"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="21"/>
+      <c r="D60" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E60" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F60" s="20"/>
+      <c r="G60" s="21">
+        <v>-28</v>
+      </c>
       <c r="H60" s="21"/>
       <c r="I60" s="21"/>
       <c r="J60" s="22"/>
@@ -9602,14 +9672,22 @@
     </row>
     <row r="61" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="43"/>
-      <c r="B61" s="15"/>
+      <c r="B61" s="15">
+        <v>45049</v>
+      </c>
       <c r="C61" s="52">
         <v>59</v>
       </c>
-      <c r="D61" s="3"/>
-      <c r="E61" s="19"/>
+      <c r="D61" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E61" s="19" t="s">
+        <v>15</v>
+      </c>
       <c r="F61" s="17"/>
-      <c r="G61" s="21"/>
+      <c r="G61" s="21">
+        <v>-77.959999999999994</v>
+      </c>
       <c r="H61" s="21"/>
       <c r="I61" s="21"/>
       <c r="J61" s="22"/>
@@ -9619,14 +9697,22 @@
     </row>
     <row r="62" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="43"/>
-      <c r="B62" s="15"/>
+      <c r="B62" s="15">
+        <v>45050</v>
+      </c>
       <c r="C62" s="52">
         <v>60</v>
       </c>
-      <c r="D62" s="3"/>
-      <c r="E62" s="19"/>
+      <c r="D62" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E62" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="F62" s="17"/>
-      <c r="G62" s="21"/>
+      <c r="G62" s="21">
+        <v>-60.5</v>
+      </c>
       <c r="H62" s="21"/>
       <c r="I62" s="21"/>
       <c r="J62" s="22"/>
@@ -9636,14 +9722,22 @@
     </row>
     <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="43"/>
-      <c r="B63" s="15"/>
+      <c r="B63" s="15">
+        <v>45054</v>
+      </c>
       <c r="C63" s="52">
         <v>61</v>
       </c>
-      <c r="D63" s="3"/>
-      <c r="E63" s="23"/>
+      <c r="D63" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E63" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F63" s="17"/>
-      <c r="G63" s="21"/>
+      <c r="G63" s="21">
+        <v>-44.64</v>
+      </c>
       <c r="H63" s="21"/>
       <c r="I63" s="21"/>
       <c r="J63" s="22"/>
@@ -9653,14 +9747,22 @@
     </row>
     <row r="64" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="43"/>
-      <c r="B64" s="15"/>
+      <c r="B64" s="15">
+        <v>45054</v>
+      </c>
       <c r="C64" s="52">
         <v>62</v>
       </c>
-      <c r="D64" s="39"/>
-      <c r="E64" s="19"/>
+      <c r="D64" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E64" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F64" s="20"/>
-      <c r="G64" s="21"/>
+      <c r="G64" s="21">
+        <v>-13.75</v>
+      </c>
       <c r="H64" s="21"/>
       <c r="I64" s="21"/>
       <c r="J64" s="22"/>
@@ -11475,7 +11577,7 @@
       </c>
       <c r="G171" s="34">
         <f>SUM(G3:G170)</f>
-        <v>-3170.6600000000003</v>
+        <v>-3664.6600000000003</v>
       </c>
       <c r="H171" s="34">
         <f>SUM(H3:H170)</f>
@@ -12472,217 +12574,217 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A236">
-    <cfRule type="cellIs" dxfId="47" priority="637" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="637" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124:B129">
-    <cfRule type="cellIs" dxfId="46" priority="455" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="455" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131">
-    <cfRule type="cellIs" dxfId="45" priority="449" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="449" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134:B138">
-    <cfRule type="cellIs" dxfId="44" priority="438" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="438" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B152:B154">
-    <cfRule type="cellIs" dxfId="43" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B160">
-    <cfRule type="cellIs" dxfId="42" priority="407" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="407" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163:B237">
-    <cfRule type="cellIs" dxfId="41" priority="401" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="401" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162:C162">
-    <cfRule type="cellIs" dxfId="40" priority="403" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="403" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B155:D157">
-    <cfRule type="cellIs" dxfId="39" priority="415" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="415" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159:D159">
-    <cfRule type="cellIs" dxfId="38" priority="411" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="411" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B161:D161">
-    <cfRule type="cellIs" dxfId="37" priority="406" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="406" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B158:E158">
-    <cfRule type="cellIs" dxfId="36" priority="412" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="412" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C112">
-    <cfRule type="cellIs" dxfId="35" priority="476" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="476" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C122">
-    <cfRule type="cellIs" dxfId="34" priority="593" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="593" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C132:C135">
-    <cfRule type="cellIs" dxfId="33" priority="445" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="445" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C146:C147">
-    <cfRule type="cellIs" dxfId="32" priority="425" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="425" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C152">
-    <cfRule type="cellIs" dxfId="31" priority="422" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="422" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C111:D111 C124 C127:C128 D128 B130:D130 B139:D139 C145:D145 C148:E148 B150:D151 C153:E153 C154 C163:C236 D172:H235 J172:J235 I172:I237 K173">
-    <cfRule type="cellIs" dxfId="30" priority="685" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="685" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C129:D129">
-    <cfRule type="cellIs" dxfId="29" priority="453" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="453" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C149:D149">
-    <cfRule type="cellIs" dxfId="28" priority="424" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="424" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D115:D116">
-    <cfRule type="cellIs" dxfId="27" priority="190" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="190" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D123">
-    <cfRule type="cellIs" dxfId="26" priority="182" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="182" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D146">
-    <cfRule type="cellIs" dxfId="25" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D162:E172">
-    <cfRule type="cellIs" dxfId="24" priority="400" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="400" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E147">
-    <cfRule type="cellIs" dxfId="23" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E149:E152">
-    <cfRule type="cellIs" dxfId="22" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E154:E157">
-    <cfRule type="cellIs" dxfId="21" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E159:E161">
-    <cfRule type="cellIs" dxfId="20" priority="405" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="405" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="19" priority="569" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="569" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="18" priority="165" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="165" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="cellIs" dxfId="17" priority="163" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="163" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="16" priority="553" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="553" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:F44">
-    <cfRule type="cellIs" dxfId="15" priority="367" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="367" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F57:F58">
-    <cfRule type="cellIs" dxfId="14" priority="141" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F58">
+    <cfRule type="cellIs" dxfId="15" priority="141" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F60:F63">
-    <cfRule type="cellIs" dxfId="13" priority="346" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F61:F63">
+    <cfRule type="cellIs" dxfId="14" priority="346" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F78:F79">
-    <cfRule type="cellIs" dxfId="12" priority="124" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="124" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F85:F86">
-    <cfRule type="cellIs" dxfId="11" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F95:F96">
-    <cfRule type="cellIs" dxfId="10" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F105:F107">
-    <cfRule type="cellIs" dxfId="9" priority="84" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F119:F120">
-    <cfRule type="cellIs" dxfId="8" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F134:F135">
-    <cfRule type="cellIs" dxfId="7" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F141:F144">
-    <cfRule type="cellIs" dxfId="6" priority="430" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="430" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F147">
-    <cfRule type="cellIs" dxfId="5" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2023/AWO_Einnahmen_Ausgaben_2023.xlsx
+++ b/2023/AWO_Einnahmen_Ausgaben_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8DD791-5F5F-4C53-8D07-A8366CF2036F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2C88F9-B747-49B1-840F-4A5A13B92B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="124">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -382,6 +382,30 @@
   </si>
   <si>
     <t>Ausgaben Tzgl Getränke</t>
+  </si>
+  <si>
+    <t>Jugendwerk Awo Waldheim, siehe Beschluss</t>
+  </si>
+  <si>
+    <t>Biergarnitur</t>
+  </si>
+  <si>
+    <t>Fahrt Fellbach</t>
+  </si>
+  <si>
+    <t>Toilettensitze</t>
+  </si>
+  <si>
+    <t>Tzgl</t>
+  </si>
+  <si>
+    <t>Treff zg Laune 16.5.</t>
+  </si>
+  <si>
+    <t>Leinwand</t>
+  </si>
+  <si>
+    <t>hdmi kabel</t>
   </si>
 </sst>
 </file>
@@ -1045,7 +1069,12 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="76">
+  <dxfs count="77">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -3835,6 +3864,115 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item h="1" x="1"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item h="1" x="0"/>
+        <item m="1" x="10"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="Summe von Barkasse" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Summe von VOBA" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Summe von VOBA TgK 630041601" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Summe von KSK" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="3">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="2">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B16:G25" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
@@ -3921,126 +4059,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="2">
+    <format dxfId="6">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="12">
-        <item h="1" x="1"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item h="1" x="0"/>
-        <item m="1" x="10"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </colItems>
-  <dataFields count="5">
-    <dataField name="Summe von Barkasse" fld="1" baseField="0" baseItem="0"/>
-    <dataField name="Summe von VOBA" fld="2" baseField="0" baseItem="0"/>
-    <dataField name="Summe von VOBA TgK 630041601" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Summe von KSK" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="5">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
     <format dxfId="4">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5167,8 +5196,8 @@
   <dimension ref="A1:IK170"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
+      <pane ySplit="2" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6010,14 +6039,22 @@
       <c r="K34" s="2"/>
     </row>
     <row r="35" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="15"/>
+      <c r="A35" s="15">
+        <v>45055</v>
+      </c>
       <c r="B35" s="16">
         <v>32</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="19"/>
+      <c r="C35" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>14</v>
+      </c>
       <c r="E35" s="20"/>
-      <c r="F35" s="21"/>
+      <c r="F35" s="21">
+        <v>2.1800000000000002</v>
+      </c>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
       <c r="I35" s="19"/>
@@ -6025,14 +6062,22 @@
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="15"/>
+      <c r="A36" s="15">
+        <v>45063</v>
+      </c>
       <c r="B36" s="16">
         <v>33</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="19"/>
+      <c r="C36" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E36" s="20"/>
-      <c r="F36" s="21"/>
+      <c r="F36" s="21">
+        <v>80</v>
+      </c>
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
       <c r="I36" s="19"/>
@@ -7064,7 +7109,7 @@
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
-        <v>9048.730000000005</v>
+        <v>9130.9100000000053</v>
       </c>
       <c r="G105" s="28">
         <f>SUM(G3:G104)</f>
@@ -7107,7 +7152,7 @@
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G171</f>
-        <v>5384.0700000000052</v>
+        <v>4955.9900000000052</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H171</f>
@@ -7145,7 +7190,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>8748.9500000000062</v>
+        <v>8320.8700000000063</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -7946,137 +7991,142 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="A92:D92">
-    <cfRule type="cellIs" dxfId="75" priority="112" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="113" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="74" priority="126" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="127" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:D98">
-    <cfRule type="cellIs" dxfId="73" priority="105" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="106" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D15">
-    <cfRule type="cellIs" dxfId="72" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D65">
-    <cfRule type="cellIs" dxfId="71" priority="5" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D17:D34 D36:D65">
+    <cfRule type="cellIs" dxfId="72" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="70" priority="141" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="142" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:G16">
-    <cfRule type="cellIs" dxfId="69" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68:G81">
-    <cfRule type="cellIs" dxfId="68" priority="127" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="128" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:G91">
-    <cfRule type="cellIs" dxfId="67" priority="113" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93:G97">
-    <cfRule type="cellIs" dxfId="66" priority="106" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="107" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="65" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46:E50">
-    <cfRule type="cellIs" dxfId="64" priority="161" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="162" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="63" priority="157" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="158" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:F20">
-    <cfRule type="cellIs" dxfId="62" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:G14">
-    <cfRule type="cellIs" dxfId="61" priority="214" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="215" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:G26">
-    <cfRule type="cellIs" dxfId="60" priority="196" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="197" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32:G33 G31 G34">
-    <cfRule type="cellIs" dxfId="59" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37:G40">
-    <cfRule type="cellIs" dxfId="58" priority="177" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="178" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:I3 G4:G12 H4:I26 G15 G17:G23 G25 G28:G30 H28:I104 G35:G36 G41:G45 E59:G60 F61 G61:G62 F63:G65 D66:G66 G82 G92 G98 D99:G104 D104:I104 E105:I169 D109">
-    <cfRule type="cellIs" dxfId="57" priority="278" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="279" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="56" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:G24">
-    <cfRule type="cellIs" dxfId="55" priority="199" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="200" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46:G58">
-    <cfRule type="cellIs" dxfId="54" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67:G67">
-    <cfRule type="cellIs" dxfId="53" priority="142" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="143" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:I27">
-    <cfRule type="cellIs" dxfId="52" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:F28">
+    <cfRule type="cellIs" dxfId="52" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30:F30">
     <cfRule type="cellIs" dxfId="51" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30:F30">
+  <conditionalFormatting sqref="E31:F31">
     <cfRule type="cellIs" dxfId="50" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31:F31">
-    <cfRule type="cellIs" dxfId="49" priority="1" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D35">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8111,8 +8161,8 @@
   <dimension ref="A1:IM237"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D65" sqref="D65"/>
+      <pane ySplit="2" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9772,14 +9822,22 @@
     </row>
     <row r="65" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="43"/>
-      <c r="B65" s="15"/>
+      <c r="B65" s="15">
+        <v>45056</v>
+      </c>
       <c r="C65" s="52">
         <v>63</v>
       </c>
-      <c r="D65" s="3"/>
-      <c r="E65" s="23"/>
+      <c r="D65" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E65" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="F65" s="20"/>
-      <c r="G65" s="21"/>
+      <c r="G65" s="21">
+        <v>-120</v>
+      </c>
       <c r="H65" s="21"/>
       <c r="I65" s="21"/>
       <c r="J65" s="22"/>
@@ -9789,14 +9847,22 @@
     </row>
     <row r="66" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="43"/>
-      <c r="B66" s="15"/>
+      <c r="B66" s="15">
+        <v>45056</v>
+      </c>
       <c r="C66" s="52">
         <v>64</v>
       </c>
-      <c r="D66" s="3"/>
-      <c r="E66" s="23"/>
+      <c r="D66" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E66" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F66" s="20"/>
-      <c r="G66" s="21"/>
+      <c r="G66" s="21">
+        <v>-120</v>
+      </c>
       <c r="H66" s="21"/>
       <c r="I66" s="21"/>
       <c r="J66" s="22"/>
@@ -9806,14 +9872,22 @@
     </row>
     <row r="67" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="43"/>
-      <c r="B67" s="15"/>
+      <c r="B67" s="15">
+        <v>45061</v>
+      </c>
       <c r="C67" s="52">
         <v>65</v>
       </c>
-      <c r="D67" s="3"/>
-      <c r="E67" s="19"/>
+      <c r="D67" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E67" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="F67" s="20"/>
-      <c r="G67" s="21"/>
+      <c r="G67" s="21">
+        <v>-27.36</v>
+      </c>
       <c r="H67" s="21"/>
       <c r="I67" s="21"/>
       <c r="J67" s="22"/>
@@ -9823,14 +9897,22 @@
     </row>
     <row r="68" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="43"/>
-      <c r="B68" s="15"/>
+      <c r="B68" s="15">
+        <v>45061</v>
+      </c>
       <c r="C68" s="52">
         <v>66</v>
       </c>
-      <c r="D68" s="3"/>
-      <c r="E68" s="19"/>
+      <c r="D68" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E68" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F68" s="20"/>
-      <c r="G68" s="21"/>
+      <c r="G68" s="21">
+        <v>-79.900000000000006</v>
+      </c>
       <c r="H68" s="21"/>
       <c r="I68" s="21"/>
       <c r="J68" s="22"/>
@@ -9840,14 +9922,22 @@
     </row>
     <row r="69" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="43"/>
-      <c r="B69" s="15"/>
+      <c r="B69" s="15">
+        <v>45063</v>
+      </c>
       <c r="C69" s="52">
         <v>67</v>
       </c>
-      <c r="D69" s="3"/>
-      <c r="E69" s="19"/>
+      <c r="D69" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E69" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F69" s="21"/>
-      <c r="G69" s="21"/>
+      <c r="G69" s="21">
+        <v>-9.3000000000000007</v>
+      </c>
       <c r="H69" s="21"/>
       <c r="I69" s="21"/>
       <c r="J69" s="22"/>
@@ -9857,14 +9947,22 @@
     </row>
     <row r="70" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="43"/>
-      <c r="B70" s="15"/>
+      <c r="B70" s="15">
+        <v>45065</v>
+      </c>
       <c r="C70" s="52">
         <v>68</v>
       </c>
-      <c r="D70" s="3"/>
-      <c r="E70" s="19"/>
+      <c r="D70" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E70" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F70" s="20"/>
-      <c r="G70" s="21"/>
+      <c r="G70" s="21">
+        <v>-41.72</v>
+      </c>
       <c r="H70" s="21"/>
       <c r="I70" s="21"/>
       <c r="J70" s="22"/>
@@ -9874,14 +9972,22 @@
     </row>
     <row r="71" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="43"/>
-      <c r="B71" s="15"/>
+      <c r="B71" s="15">
+        <v>45065</v>
+      </c>
       <c r="C71" s="52">
         <v>69</v>
       </c>
-      <c r="D71" s="3"/>
-      <c r="E71" s="19"/>
+      <c r="D71" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E71" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F71" s="20"/>
-      <c r="G71" s="21"/>
+      <c r="G71" s="21">
+        <v>-99.99</v>
+      </c>
       <c r="H71" s="20"/>
       <c r="I71" s="21"/>
       <c r="J71" s="22"/>
@@ -9891,14 +9997,22 @@
     </row>
     <row r="72" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="43"/>
-      <c r="B72" s="15"/>
+      <c r="B72" s="15">
+        <v>45065</v>
+      </c>
       <c r="C72" s="52">
         <v>70</v>
       </c>
-      <c r="D72" s="3"/>
-      <c r="E72" s="23"/>
+      <c r="D72" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E72" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F72" s="20"/>
-      <c r="G72" s="21"/>
+      <c r="G72" s="21">
+        <v>-11.99</v>
+      </c>
       <c r="H72" s="21"/>
       <c r="I72" s="21"/>
       <c r="J72" s="22"/>
@@ -11577,7 +11691,7 @@
       </c>
       <c r="G171" s="34">
         <f>SUM(G3:G170)</f>
-        <v>-3664.6600000000003</v>
+        <v>-4174.92</v>
       </c>
       <c r="H171" s="34">
         <f>SUM(H3:H170)</f>
@@ -12574,217 +12688,217 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A236">
-    <cfRule type="cellIs" dxfId="48" priority="637" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="637" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124:B129">
-    <cfRule type="cellIs" dxfId="47" priority="455" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="455" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131">
-    <cfRule type="cellIs" dxfId="46" priority="449" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="449" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134:B138">
-    <cfRule type="cellIs" dxfId="45" priority="438" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="438" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B152:B154">
-    <cfRule type="cellIs" dxfId="44" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B160">
-    <cfRule type="cellIs" dxfId="43" priority="407" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="407" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163:B237">
-    <cfRule type="cellIs" dxfId="42" priority="401" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="401" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162:C162">
-    <cfRule type="cellIs" dxfId="41" priority="403" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="403" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B155:D157">
-    <cfRule type="cellIs" dxfId="40" priority="415" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="415" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159:D159">
-    <cfRule type="cellIs" dxfId="39" priority="411" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="411" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B161:D161">
-    <cfRule type="cellIs" dxfId="38" priority="406" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="406" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B158:E158">
-    <cfRule type="cellIs" dxfId="37" priority="412" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="412" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C112">
-    <cfRule type="cellIs" dxfId="36" priority="476" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="476" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C122">
-    <cfRule type="cellIs" dxfId="35" priority="593" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="593" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C132:C135">
-    <cfRule type="cellIs" dxfId="34" priority="445" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="445" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C146:C147">
-    <cfRule type="cellIs" dxfId="33" priority="425" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="425" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C152">
-    <cfRule type="cellIs" dxfId="32" priority="422" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="422" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C111:D111 C124 C127:C128 D128 B130:D130 B139:D139 C145:D145 C148:E148 B150:D151 C153:E153 C154 C163:C236 D172:H235 J172:J235 I172:I237 K173">
-    <cfRule type="cellIs" dxfId="31" priority="685" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="685" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C129:D129">
-    <cfRule type="cellIs" dxfId="30" priority="453" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="453" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C149:D149">
-    <cfRule type="cellIs" dxfId="29" priority="424" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="424" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D115:D116">
-    <cfRule type="cellIs" dxfId="28" priority="190" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="190" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D123">
-    <cfRule type="cellIs" dxfId="27" priority="182" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="182" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D146">
-    <cfRule type="cellIs" dxfId="26" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D162:E172">
-    <cfRule type="cellIs" dxfId="25" priority="400" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="400" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E147">
-    <cfRule type="cellIs" dxfId="24" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E149:E152">
-    <cfRule type="cellIs" dxfId="23" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E154:E157">
-    <cfRule type="cellIs" dxfId="22" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E159:E161">
-    <cfRule type="cellIs" dxfId="21" priority="405" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="405" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="20" priority="569" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="569" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="19" priority="165" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="165" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="cellIs" dxfId="18" priority="163" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="163" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="17" priority="553" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="553" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:F44">
-    <cfRule type="cellIs" dxfId="16" priority="367" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="367" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58">
-    <cfRule type="cellIs" dxfId="15" priority="141" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="141" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61:F63">
-    <cfRule type="cellIs" dxfId="14" priority="346" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="346" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F78:F79">
-    <cfRule type="cellIs" dxfId="13" priority="124" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="124" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F85:F86">
-    <cfRule type="cellIs" dxfId="12" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F95:F96">
-    <cfRule type="cellIs" dxfId="11" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F105:F107">
-    <cfRule type="cellIs" dxfId="10" priority="84" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F119:F120">
-    <cfRule type="cellIs" dxfId="9" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F134:F135">
-    <cfRule type="cellIs" dxfId="8" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F141:F144">
-    <cfRule type="cellIs" dxfId="7" priority="430" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="430" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F147">
-    <cfRule type="cellIs" dxfId="6" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2023/AWO_Einnahmen_Ausgaben_2023.xlsx
+++ b/2023/AWO_Einnahmen_Ausgaben_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2C88F9-B747-49B1-840F-4A5A13B92B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F682FA0-67EC-458F-BEE7-9FA08C0E26E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="127">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -406,6 +406,15 @@
   </si>
   <si>
     <t>hdmi kabel</t>
+  </si>
+  <si>
+    <t>Getränke vom 17.5. SPD</t>
+  </si>
+  <si>
+    <t>Individualhilfe</t>
+  </si>
+  <si>
+    <t>Trauerkarte E.Ruck</t>
   </si>
 </sst>
 </file>
@@ -3864,22 +3873,23 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B16:G25" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
-      <items count="12">
+      <items count="13">
         <item h="1" x="1"/>
-        <item m="1" x="9"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item m="1" x="11"/>
+        <item x="0"/>
         <item x="3"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item m="1" x="10"/>
+        <item h="1" x="9"/>
         <item x="5"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item h="1" x="0"/>
-        <item m="1" x="10"/>
-        <item x="7"/>
-        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3892,12 +3902,12 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="8">
+  <rowItems count="9">
+    <i>
+      <x v="1"/>
+    </i>
     <i>
       <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
     </i>
     <i>
       <x v="4"/>
@@ -3909,10 +3919,13 @@
       <x v="6"/>
     </i>
     <i>
-      <x v="9"/>
+      <x v="7"/>
     </i>
     <i>
-      <x v="10"/>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="11"/>
     </i>
     <i t="grand">
       <x/>
@@ -3973,23 +3986,22 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B16:G25" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
-      <items count="13">
+      <items count="12">
         <item h="1" x="1"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="4"/>
         <item x="6"/>
+        <item x="8"/>
+        <item h="1" x="0"/>
+        <item m="1" x="10"/>
+        <item x="7"/>
         <item x="2"/>
-        <item m="1" x="11"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item x="4"/>
-        <item x="7"/>
-        <item m="1" x="10"/>
-        <item h="1" x="9"/>
-        <item x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4002,12 +4014,12 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="9">
+  <rowItems count="8">
     <i>
-      <x v="1"/>
+      <x v="2"/>
     </i>
     <i>
-      <x v="2"/>
+      <x v="3"/>
     </i>
     <i>
       <x v="4"/>
@@ -4019,13 +4031,10 @@
       <x v="6"/>
     </i>
     <i>
-      <x v="7"/>
+      <x v="9"/>
     </i>
     <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="11"/>
+      <x v="10"/>
     </i>
     <i t="grand">
       <x/>
@@ -5195,9 +5204,9 @@
   </sheetPr>
   <dimension ref="A1:IK170"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6085,14 +6094,22 @@
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="15"/>
+      <c r="A37" s="15">
+        <v>45065</v>
+      </c>
       <c r="B37" s="16">
         <v>34</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="19"/>
+      <c r="C37" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E37" s="17"/>
-      <c r="F37" s="18"/>
+      <c r="F37" s="18">
+        <v>14.5</v>
+      </c>
       <c r="G37" s="18"/>
       <c r="H37" s="18"/>
       <c r="I37" s="19"/>
@@ -7109,7 +7126,7 @@
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
-        <v>9130.9100000000053</v>
+        <v>9145.4100000000053</v>
       </c>
       <c r="G105" s="28">
         <f>SUM(G3:G104)</f>
@@ -7152,7 +7169,7 @@
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G171</f>
-        <v>4955.9900000000052</v>
+        <v>4910.4900000000052</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H171</f>
@@ -7190,7 +7207,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>8320.8700000000063</v>
+        <v>8275.3700000000063</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -8011,122 +8028,122 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D34 D36:D65">
-    <cfRule type="cellIs" dxfId="72" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="71" priority="142" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="142" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:G16">
-    <cfRule type="cellIs" dxfId="70" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68:G81">
-    <cfRule type="cellIs" dxfId="69" priority="128" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="128" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:G91">
-    <cfRule type="cellIs" dxfId="68" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93:G97">
-    <cfRule type="cellIs" dxfId="67" priority="107" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="107" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="66" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46:E50">
-    <cfRule type="cellIs" dxfId="65" priority="162" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="162" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="64" priority="158" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="158" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:F20">
-    <cfRule type="cellIs" dxfId="63" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:G14">
-    <cfRule type="cellIs" dxfId="62" priority="215" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="215" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:G26">
-    <cfRule type="cellIs" dxfId="61" priority="197" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="197" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32:G33 G31 G34">
-    <cfRule type="cellIs" dxfId="60" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37:G40">
-    <cfRule type="cellIs" dxfId="59" priority="178" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="178" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:I3 G4:G12 H4:I26 G15 G17:G23 G25 G28:G30 H28:I104 G35:G36 G41:G45 E59:G60 F61 G61:G62 F63:G65 D66:G66 G82 G92 G98 D99:G104 D104:I104 E105:I169 D109">
-    <cfRule type="cellIs" dxfId="58" priority="279" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="279" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="57" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:G24">
-    <cfRule type="cellIs" dxfId="56" priority="200" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="200" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46:G58">
-    <cfRule type="cellIs" dxfId="55" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67:G67">
-    <cfRule type="cellIs" dxfId="54" priority="143" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="143" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:I27">
-    <cfRule type="cellIs" dxfId="53" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="52" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:F30">
-    <cfRule type="cellIs" dxfId="51" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:F31">
-    <cfRule type="cellIs" dxfId="50" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8160,9 +8177,9 @@
   </sheetPr>
   <dimension ref="A1:IM237"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G73" sqref="G73"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10022,14 +10039,22 @@
     </row>
     <row r="73" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="43"/>
-      <c r="B73" s="15"/>
+      <c r="B73" s="15">
+        <v>45068</v>
+      </c>
       <c r="C73" s="52">
         <v>71</v>
       </c>
-      <c r="D73" s="3"/>
-      <c r="E73" s="19"/>
+      <c r="D73" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E73" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="F73" s="20"/>
-      <c r="G73" s="21"/>
+      <c r="G73" s="21">
+        <v>-40</v>
+      </c>
       <c r="H73" s="21"/>
       <c r="I73" s="21"/>
       <c r="J73" s="22"/>
@@ -10039,14 +10064,22 @@
     </row>
     <row r="74" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="43"/>
-      <c r="B74" s="15"/>
+      <c r="B74" s="15">
+        <v>45070</v>
+      </c>
       <c r="C74" s="52">
         <v>72</v>
       </c>
-      <c r="D74" s="39"/>
-      <c r="E74" s="23"/>
+      <c r="D74" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="E74" s="23" t="s">
+        <v>23</v>
+      </c>
       <c r="F74" s="20"/>
-      <c r="G74" s="21"/>
+      <c r="G74" s="21">
+        <v>-20</v>
+      </c>
       <c r="H74" s="21"/>
       <c r="I74" s="21"/>
       <c r="J74" s="22"/>
@@ -11691,7 +11724,7 @@
       </c>
       <c r="G171" s="34">
         <f>SUM(G3:G170)</f>
-        <v>-4174.92</v>
+        <v>-4234.92</v>
       </c>
       <c r="H171" s="34">
         <f>SUM(H3:H170)</f>

--- a/2023/AWO_Einnahmen_Ausgaben_2023.xlsx
+++ b/2023/AWO_Einnahmen_Ausgaben_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F682FA0-67EC-458F-BEE7-9FA08C0E26E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E4D1E2-9D84-4B0F-BE06-FBA5F2418B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="140">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -415,6 +415,45 @@
   </si>
   <si>
     <t>Trauerkarte E.Ruck</t>
+  </si>
+  <si>
+    <t>Radservice Spenden Fritz</t>
+  </si>
+  <si>
+    <t>Radservice Spenden Köppke</t>
+  </si>
+  <si>
+    <t>Radservice Spenden Klein</t>
+  </si>
+  <si>
+    <t>Radservice Spenden Frank</t>
+  </si>
+  <si>
+    <t>Druckerei Nitsch BildRollup</t>
+  </si>
+  <si>
+    <t>Busreise 26.5.</t>
+  </si>
+  <si>
+    <t>Radservice Spende Claudia für Rad</t>
+  </si>
+  <si>
+    <t>Toner Schriftführer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bäcker </t>
+  </si>
+  <si>
+    <t>Treff zg Laune 30.5.</t>
+  </si>
+  <si>
+    <t>Treff zg Laune 6.6.</t>
+  </si>
+  <si>
+    <t>Bäcker</t>
+  </si>
+  <si>
+    <t>Getränke</t>
   </si>
 </sst>
 </file>
@@ -1078,7 +1117,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="77">
+  <dxfs count="78">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1179,6 +1218,11 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -5204,9 +5248,9 @@
   </sheetPr>
   <dimension ref="A1:IK170"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6117,14 +6161,22 @@
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="15"/>
+      <c r="A38" s="15">
+        <v>45071</v>
+      </c>
       <c r="B38" s="52">
         <v>35</v>
       </c>
-      <c r="C38" s="39"/>
-      <c r="D38" s="19"/>
+      <c r="C38" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E38" s="17"/>
-      <c r="F38" s="18"/>
+      <c r="F38" s="18">
+        <v>0</v>
+      </c>
       <c r="G38" s="18"/>
       <c r="H38" s="18"/>
       <c r="I38" s="19"/>
@@ -6132,14 +6184,22 @@
       <c r="K38" s="2"/>
     </row>
     <row r="39" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="15"/>
+      <c r="A39" s="15">
+        <v>45071</v>
+      </c>
       <c r="B39" s="16">
         <v>36</v>
       </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="19"/>
+      <c r="C39" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E39" s="17"/>
-      <c r="F39" s="18"/>
+      <c r="F39" s="18">
+        <v>0</v>
+      </c>
       <c r="G39" s="18"/>
       <c r="H39" s="18"/>
       <c r="I39" s="19"/>
@@ -6147,14 +6207,22 @@
       <c r="K39" s="2"/>
     </row>
     <row r="40" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="15"/>
+      <c r="A40" s="15">
+        <v>45071</v>
+      </c>
       <c r="B40" s="16">
         <v>37</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="19"/>
+      <c r="C40" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E40" s="17"/>
-      <c r="F40" s="18"/>
+      <c r="F40" s="18">
+        <v>0</v>
+      </c>
       <c r="G40" s="18"/>
       <c r="H40" s="18"/>
       <c r="I40" s="19"/>
@@ -6162,14 +6230,22 @@
       <c r="K40" s="2"/>
     </row>
     <row r="41" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="15"/>
+      <c r="A41" s="15">
+        <v>45071</v>
+      </c>
       <c r="B41" s="16">
         <v>38</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="19"/>
+      <c r="C41" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E41" s="20"/>
-      <c r="F41" s="21"/>
+      <c r="F41" s="21">
+        <v>0</v>
+      </c>
       <c r="G41" s="18"/>
       <c r="H41" s="18"/>
       <c r="I41" s="19"/>
@@ -6177,14 +6253,22 @@
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="15"/>
+      <c r="A42" s="15">
+        <v>45076</v>
+      </c>
       <c r="B42" s="52">
         <v>39</v>
       </c>
-      <c r="C42" s="39"/>
-      <c r="D42" s="19"/>
+      <c r="C42" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>14</v>
+      </c>
       <c r="E42" s="20"/>
-      <c r="F42" s="21"/>
+      <c r="F42" s="21">
+        <v>100</v>
+      </c>
       <c r="G42" s="18"/>
       <c r="H42" s="18"/>
       <c r="I42" s="19"/>
@@ -6192,14 +6276,22 @@
       <c r="K42" s="2"/>
     </row>
     <row r="43" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="15"/>
+      <c r="A43" s="15">
+        <v>45076</v>
+      </c>
       <c r="B43" s="16">
         <v>40</v>
       </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="19"/>
+      <c r="C43" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>14</v>
+      </c>
       <c r="E43" s="20"/>
-      <c r="F43" s="21"/>
+      <c r="F43" s="21">
+        <v>50</v>
+      </c>
       <c r="G43" s="18"/>
       <c r="H43" s="18"/>
       <c r="I43" s="19"/>
@@ -6207,14 +6299,22 @@
       <c r="K43" s="2"/>
     </row>
     <row r="44" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="15"/>
+      <c r="A44" s="15">
+        <v>45079</v>
+      </c>
       <c r="B44" s="16">
         <v>41</v>
       </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="19"/>
+      <c r="C44" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E44" s="20"/>
-      <c r="F44" s="21"/>
+      <c r="F44" s="21">
+        <v>70</v>
+      </c>
       <c r="G44" s="18"/>
       <c r="H44" s="18"/>
       <c r="I44" s="19"/>
@@ -6222,14 +6322,22 @@
       <c r="K44" s="2"/>
     </row>
     <row r="45" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="15"/>
+      <c r="A45" s="15">
+        <v>45084</v>
+      </c>
       <c r="B45" s="16">
         <v>42</v>
       </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="19"/>
+      <c r="C45" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E45" s="20"/>
-      <c r="F45" s="21"/>
+      <c r="F45" s="21">
+        <v>185</v>
+      </c>
       <c r="G45" s="18"/>
       <c r="H45" s="18"/>
       <c r="I45" s="19"/>
@@ -7126,7 +7234,7 @@
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
-        <v>9145.4100000000053</v>
+        <v>9550.4100000000053</v>
       </c>
       <c r="G105" s="28">
         <f>SUM(G3:G104)</f>
@@ -7169,7 +7277,7 @@
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G171</f>
-        <v>4910.4900000000052</v>
+        <v>4709.8500000000049</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H171</f>
@@ -7207,7 +7315,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>8275.3700000000063</v>
+        <v>8074.730000000005</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -8008,142 +8116,147 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="A92:D92">
-    <cfRule type="cellIs" dxfId="76" priority="113" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="75" priority="127" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="128" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:D98">
-    <cfRule type="cellIs" dxfId="74" priority="106" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="107" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D15">
-    <cfRule type="cellIs" dxfId="73" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D34 D36:D65">
-    <cfRule type="cellIs" dxfId="0" priority="6" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D17:D34 D36:D41 D44:D65">
+    <cfRule type="cellIs" dxfId="73" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="72" priority="142" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="143" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:G16">
-    <cfRule type="cellIs" dxfId="71" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68:G81">
-    <cfRule type="cellIs" dxfId="70" priority="128" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="129" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:G91">
-    <cfRule type="cellIs" dxfId="69" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="115" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93:G97">
-    <cfRule type="cellIs" dxfId="68" priority="107" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="67" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46:E50">
-    <cfRule type="cellIs" dxfId="66" priority="162" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="163" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="65" priority="158" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="159" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:F20">
-    <cfRule type="cellIs" dxfId="64" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:G14">
-    <cfRule type="cellIs" dxfId="63" priority="215" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="216" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:G26">
-    <cfRule type="cellIs" dxfId="62" priority="197" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="198" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32:G33 G31 G34">
-    <cfRule type="cellIs" dxfId="61" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37:G40">
-    <cfRule type="cellIs" dxfId="60" priority="178" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="179" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:I3 G4:G12 H4:I26 G15 G17:G23 G25 G28:G30 H28:I104 G35:G36 G41:G45 E59:G60 F61 G61:G62 F63:G65 D66:G66 G82 G92 G98 D99:G104 D104:I104 E105:I169 D109">
-    <cfRule type="cellIs" dxfId="59" priority="279" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="280" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="58" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:G24">
-    <cfRule type="cellIs" dxfId="57" priority="200" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="201" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46:G58">
-    <cfRule type="cellIs" dxfId="56" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67:G67">
-    <cfRule type="cellIs" dxfId="55" priority="143" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="144" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:I27">
-    <cfRule type="cellIs" dxfId="54" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="53" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:F30">
-    <cfRule type="cellIs" dxfId="52" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:F31">
-    <cfRule type="cellIs" dxfId="51" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="50" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42:D43">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8177,9 +8290,9 @@
   </sheetPr>
   <dimension ref="A1:IM237"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G75" sqref="G75"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10089,14 +10202,22 @@
     </row>
     <row r="75" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="43"/>
-      <c r="B75" s="15"/>
+      <c r="B75" s="15">
+        <v>45076</v>
+      </c>
       <c r="C75" s="52">
         <v>73</v>
       </c>
-      <c r="D75" s="3"/>
-      <c r="E75" s="23"/>
+      <c r="D75" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E75" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="F75" s="20"/>
-      <c r="G75" s="21"/>
+      <c r="G75" s="21">
+        <v>-293.93</v>
+      </c>
       <c r="H75" s="21"/>
       <c r="I75" s="21"/>
       <c r="J75" s="22"/>
@@ -10106,14 +10227,22 @@
     </row>
     <row r="76" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="43"/>
-      <c r="B76" s="15"/>
+      <c r="B76" s="15">
+        <v>45076</v>
+      </c>
       <c r="C76" s="52">
         <v>74</v>
       </c>
-      <c r="D76" s="3"/>
-      <c r="E76" s="23"/>
+      <c r="D76" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E76" s="19" t="s">
+        <v>15</v>
+      </c>
       <c r="F76" s="20"/>
-      <c r="G76" s="21"/>
+      <c r="G76" s="21">
+        <v>-70.540000000000006</v>
+      </c>
       <c r="H76" s="21"/>
       <c r="I76" s="21"/>
       <c r="J76" s="22"/>
@@ -10123,14 +10252,22 @@
     </row>
     <row r="77" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="43"/>
-      <c r="B77" s="15"/>
+      <c r="B77" s="15">
+        <v>45078</v>
+      </c>
       <c r="C77" s="52">
         <v>75</v>
       </c>
-      <c r="D77" s="3"/>
-      <c r="E77" s="19"/>
+      <c r="D77" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E77" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F77" s="20"/>
-      <c r="G77" s="21"/>
+      <c r="G77" s="21">
+        <v>-12</v>
+      </c>
       <c r="H77" s="21"/>
       <c r="I77" s="21"/>
       <c r="J77" s="22"/>
@@ -10140,14 +10277,22 @@
     </row>
     <row r="78" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="43"/>
-      <c r="B78" s="15"/>
+      <c r="B78" s="15">
+        <v>45079</v>
+      </c>
       <c r="C78" s="52">
         <v>76</v>
       </c>
-      <c r="D78" s="3"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="17"/>
-      <c r="G78" s="21"/>
+      <c r="D78" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E78" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F78" s="20"/>
+      <c r="G78" s="21">
+        <v>-134</v>
+      </c>
       <c r="H78" s="21"/>
       <c r="I78" s="21"/>
       <c r="J78" s="22"/>
@@ -10157,14 +10302,22 @@
     </row>
     <row r="79" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="43"/>
-      <c r="B79" s="15"/>
+      <c r="B79" s="15">
+        <v>45079</v>
+      </c>
       <c r="C79" s="52">
         <v>77</v>
       </c>
-      <c r="D79" s="3"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="17"/>
-      <c r="G79" s="21"/>
+      <c r="D79" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E79" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F79" s="20"/>
+      <c r="G79" s="21">
+        <v>-28</v>
+      </c>
       <c r="H79" s="21"/>
       <c r="I79" s="21"/>
       <c r="J79" s="22"/>
@@ -10174,14 +10327,22 @@
     </row>
     <row r="80" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="43"/>
-      <c r="B80" s="15"/>
+      <c r="B80" s="15">
+        <v>45079</v>
+      </c>
       <c r="C80" s="52">
         <v>78</v>
       </c>
-      <c r="D80" s="3"/>
-      <c r="E80" s="23"/>
+      <c r="D80" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E80" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F80" s="20"/>
-      <c r="G80" s="21"/>
+      <c r="G80" s="21">
+        <v>-9.67</v>
+      </c>
       <c r="H80" s="21"/>
       <c r="I80" s="21"/>
       <c r="J80" s="22"/>
@@ -10191,14 +10352,22 @@
     </row>
     <row r="81" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="43"/>
-      <c r="B81" s="15"/>
+      <c r="B81" s="15">
+        <v>45084</v>
+      </c>
       <c r="C81" s="52">
         <v>79</v>
       </c>
-      <c r="D81" s="3"/>
-      <c r="E81" s="23"/>
+      <c r="D81" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E81" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F81" s="20"/>
-      <c r="G81" s="21"/>
+      <c r="G81" s="21">
+        <v>-5.04</v>
+      </c>
       <c r="H81" s="21"/>
       <c r="I81" s="21"/>
       <c r="J81" s="22"/>
@@ -10208,14 +10377,22 @@
     </row>
     <row r="82" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="43"/>
-      <c r="B82" s="15"/>
+      <c r="B82" s="15">
+        <v>45084</v>
+      </c>
       <c r="C82" s="52">
         <v>80</v>
       </c>
-      <c r="D82" s="3"/>
-      <c r="E82" s="23"/>
+      <c r="D82" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E82" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F82" s="20"/>
-      <c r="G82" s="21"/>
+      <c r="G82" s="21">
+        <v>-52.46</v>
+      </c>
       <c r="H82" s="21"/>
       <c r="I82" s="21"/>
       <c r="J82" s="22"/>
@@ -11724,7 +11901,7 @@
       </c>
       <c r="G171" s="34">
         <f>SUM(G3:G170)</f>
-        <v>-4234.92</v>
+        <v>-4840.5600000000004</v>
       </c>
       <c r="H171" s="34">
         <f>SUM(H3:H170)</f>
@@ -12895,11 +13072,6 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F78:F79">
-    <cfRule type="cellIs" dxfId="14" priority="124" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F85:F86">
     <cfRule type="cellIs" dxfId="13" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
@@ -12936,13 +13108,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E155:E170 E3:E29 E81:E111 E113:E140 E142:E144 E147:E153 E31:E79" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E155:E170 E3:E29 E113:E140 E142:E144 E147:E153 E31:E111" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$M$1:$M$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E141 E145:E146 E154" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E80 E112 E30" xr:uid="{00000000-0002-0000-0100-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E30 E112" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>$M$1:$M$20</formula1>
     </dataValidation>
   </dataValidations>

--- a/2023/AWO_Einnahmen_Ausgaben_2023.xlsx
+++ b/2023/AWO_Einnahmen_Ausgaben_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E4D1E2-9D84-4B0F-BE06-FBA5F2418B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF2996E-9985-4DC5-AD4F-4BD4BB0EDA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="140">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -1117,108 +1117,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="78">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="74">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1560,19 +1459,100 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0"/>
@@ -3917,6 +3897,115 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item h="1" x="1"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item h="1" x="0"/>
+        <item m="1" x="10"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="Summe von Barkasse" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Summe von VOBA" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Summe von VOBA TgK 630041601" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Summe von KSK" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="70">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="69">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="68">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B16:G25" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
@@ -4003,126 +4092,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="3">
+    <format dxfId="73">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="72">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="12">
-        <item h="1" x="1"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item h="1" x="0"/>
-        <item m="1" x="10"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </colItems>
-  <dataFields count="5">
-    <dataField name="Summe von Barkasse" fld="1" baseField="0" baseItem="0"/>
-    <dataField name="Summe von VOBA" fld="2" baseField="0" baseItem="0"/>
-    <dataField name="Summe von VOBA TgK 630041601" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Summe von KSK" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="6">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="5">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="4">
+    <format dxfId="71">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5248,9 +5228,9 @@
   </sheetPr>
   <dimension ref="A1:IK170"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A46" sqref="A46"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6171,7 +6151,7 @@
         <v>127</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E38" s="17"/>
       <c r="F38" s="18">
@@ -6194,7 +6174,7 @@
         <v>128</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E39" s="17"/>
       <c r="F39" s="18">
@@ -6217,7 +6197,7 @@
         <v>129</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E40" s="17"/>
       <c r="F40" s="18">
@@ -6240,7 +6220,7 @@
         <v>130</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E41" s="20"/>
       <c r="F41" s="21">
@@ -6345,14 +6325,22 @@
       <c r="K45" s="2"/>
     </row>
     <row r="46" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="15"/>
+      <c r="A46" s="15">
+        <v>45071</v>
+      </c>
       <c r="B46" s="16">
         <v>43</v>
       </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="18"/>
+      <c r="C46" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="20"/>
+      <c r="F46" s="21">
+        <v>0</v>
+      </c>
       <c r="G46" s="18"/>
       <c r="H46" s="18"/>
       <c r="I46" s="19"/>
@@ -8116,122 +8104,72 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="A92:D92">
-    <cfRule type="cellIs" dxfId="77" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="76" priority="128" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="128" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:D98">
-    <cfRule type="cellIs" dxfId="75" priority="107" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="107" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D15">
-    <cfRule type="cellIs" dxfId="74" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D34 D36:D41 D44:D65">
-    <cfRule type="cellIs" dxfId="73" priority="7" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D17:D65">
+    <cfRule type="cellIs" dxfId="63" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="72" priority="143" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="143" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:G16">
-    <cfRule type="cellIs" dxfId="71" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68:G81">
-    <cfRule type="cellIs" dxfId="70" priority="129" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="129" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:G91">
-    <cfRule type="cellIs" dxfId="69" priority="115" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="115" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93:G97">
-    <cfRule type="cellIs" dxfId="68" priority="108" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="67" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E46:E50">
-    <cfRule type="cellIs" dxfId="66" priority="163" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E47:E50">
+    <cfRule type="cellIs" dxfId="56" priority="163" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="65" priority="159" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="159" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:F20">
-    <cfRule type="cellIs" dxfId="64" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:G14">
-    <cfRule type="cellIs" dxfId="63" priority="216" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26:G26">
-    <cfRule type="cellIs" dxfId="62" priority="198" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32:G33 G31 G34">
-    <cfRule type="cellIs" dxfId="61" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37:G40">
-    <cfRule type="cellIs" dxfId="60" priority="179" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:I3 G4:G12 H4:I26 G15 G17:G23 G25 G28:G30 H28:I104 G35:G36 G41:G45 E59:G60 F61 G61:G62 F63:G65 D66:G66 G82 G92 G98 D99:G104 D104:I104 E105:I169 D109">
-    <cfRule type="cellIs" dxfId="59" priority="280" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="58" priority="13" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24:G24">
-    <cfRule type="cellIs" dxfId="57" priority="201" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F46:G58">
-    <cfRule type="cellIs" dxfId="56" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F67:G67">
-    <cfRule type="cellIs" dxfId="55" priority="144" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27:I27">
-    <cfRule type="cellIs" dxfId="54" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8240,23 +8178,58 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30:F30">
-    <cfRule type="cellIs" dxfId="52" priority="4" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E30:F31">
+    <cfRule type="cellIs" dxfId="52" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31:F31">
-    <cfRule type="cellIs" dxfId="51" priority="3" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E13:G14">
+    <cfRule type="cellIs" dxfId="51" priority="216" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="50" priority="2" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E26:G26">
+    <cfRule type="cellIs" dxfId="50" priority="198" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42:D43">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E37:G40">
+    <cfRule type="cellIs" dxfId="49" priority="179" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:I3 G4:G12 H4:I26 G15 G17:G23 G25 H28:I104 G41:G45 E59:G60 F61 G61:G62 F63:G65 D66:G66 G82 G92 G98 D99:G104 D104:I104 E105:I169 D109">
+    <cfRule type="cellIs" dxfId="48" priority="280" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="cellIs" dxfId="47" priority="13" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24:G24">
+    <cfRule type="cellIs" dxfId="46" priority="201" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47:G58 G46">
+    <cfRule type="cellIs" dxfId="45" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F67:G67">
+    <cfRule type="cellIs" dxfId="44" priority="144" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28:G31 E32:G33 G34:G36">
+    <cfRule type="cellIs" dxfId="43" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27:I27">
+    <cfRule type="cellIs" dxfId="42" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8290,7 +8263,7 @@
   </sheetPr>
   <dimension ref="A1:IM237"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G83" sqref="G83"/>
     </sheetView>
@@ -12898,212 +12871,212 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A236">
-    <cfRule type="cellIs" dxfId="49" priority="637" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="637" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124:B129">
-    <cfRule type="cellIs" dxfId="48" priority="455" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="455" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131">
-    <cfRule type="cellIs" dxfId="47" priority="449" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="449" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134:B138">
-    <cfRule type="cellIs" dxfId="46" priority="438" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="438" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B152:B154">
-    <cfRule type="cellIs" dxfId="45" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B160">
-    <cfRule type="cellIs" dxfId="44" priority="407" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="407" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163:B237">
-    <cfRule type="cellIs" dxfId="43" priority="401" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="401" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162:C162">
-    <cfRule type="cellIs" dxfId="42" priority="403" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="403" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B155:D157">
-    <cfRule type="cellIs" dxfId="41" priority="415" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="415" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159:D159">
-    <cfRule type="cellIs" dxfId="40" priority="411" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="411" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B161:D161">
-    <cfRule type="cellIs" dxfId="39" priority="406" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="406" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B158:E158">
-    <cfRule type="cellIs" dxfId="38" priority="412" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="412" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C112">
-    <cfRule type="cellIs" dxfId="37" priority="476" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="476" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C122">
-    <cfRule type="cellIs" dxfId="36" priority="593" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="593" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C132:C135">
-    <cfRule type="cellIs" dxfId="35" priority="445" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="445" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C146:C147">
-    <cfRule type="cellIs" dxfId="34" priority="425" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="425" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C152">
-    <cfRule type="cellIs" dxfId="33" priority="422" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="422" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C111:D111 C124 C127:C128 D128 B130:D130 B139:D139 C145:D145 C148:E148 B150:D151 C153:E153 C154 C163:C236 D172:H235 J172:J235 I172:I237 K173">
-    <cfRule type="cellIs" dxfId="32" priority="685" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="685" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C129:D129">
-    <cfRule type="cellIs" dxfId="31" priority="453" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="453" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C149:D149">
-    <cfRule type="cellIs" dxfId="30" priority="424" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="424" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D115:D116">
-    <cfRule type="cellIs" dxfId="29" priority="190" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="190" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D123">
-    <cfRule type="cellIs" dxfId="28" priority="182" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="182" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D146">
-    <cfRule type="cellIs" dxfId="27" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D162:E172">
-    <cfRule type="cellIs" dxfId="26" priority="400" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="400" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E147">
-    <cfRule type="cellIs" dxfId="25" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E149:E152">
-    <cfRule type="cellIs" dxfId="24" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E154:E157">
-    <cfRule type="cellIs" dxfId="23" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E159:E161">
-    <cfRule type="cellIs" dxfId="22" priority="405" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="405" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="21" priority="569" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="569" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="20" priority="165" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="165" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="cellIs" dxfId="19" priority="163" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="163" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="18" priority="553" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="553" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:F44">
-    <cfRule type="cellIs" dxfId="17" priority="367" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="367" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58">
-    <cfRule type="cellIs" dxfId="16" priority="141" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="141" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61:F63">
-    <cfRule type="cellIs" dxfId="15" priority="346" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="346" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F85:F86">
-    <cfRule type="cellIs" dxfId="13" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F95:F96">
-    <cfRule type="cellIs" dxfId="12" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F105:F107">
-    <cfRule type="cellIs" dxfId="11" priority="84" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F119:F120">
-    <cfRule type="cellIs" dxfId="10" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F134:F135">
-    <cfRule type="cellIs" dxfId="9" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="50" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F141:F144">
-    <cfRule type="cellIs" dxfId="8" priority="430" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="430" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F147">
-    <cfRule type="cellIs" dxfId="7" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2023/AWO_Einnahmen_Ausgaben_2023.xlsx
+++ b/2023/AWO_Einnahmen_Ausgaben_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF2996E-9985-4DC5-AD4F-4BD4BB0EDA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC4FF7C-8518-44FD-9D10-91EA7CB1A8F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="147">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -454,6 +454,27 @@
   </si>
   <si>
     <t>Getränke</t>
+  </si>
+  <si>
+    <t>Miete SPD</t>
+  </si>
+  <si>
+    <t>Treff zg Laune 13.6.</t>
+  </si>
+  <si>
+    <t>tzgl 13.6.</t>
+  </si>
+  <si>
+    <t>Trauerkarte Fr.Bubser</t>
+  </si>
+  <si>
+    <t>Spende Fr.Irion</t>
+  </si>
+  <si>
+    <t>Tzgl Kuchen 27.6.</t>
+  </si>
+  <si>
+    <t>Treff zg Laune 27.6.</t>
   </si>
 </sst>
 </file>
@@ -3897,22 +3918,23 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B16:G25" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
-      <items count="12">
+      <items count="13">
         <item h="1" x="1"/>
-        <item m="1" x="9"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item m="1" x="11"/>
+        <item x="0"/>
         <item x="3"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item m="1" x="10"/>
+        <item h="1" x="9"/>
         <item x="5"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item h="1" x="0"/>
-        <item m="1" x="10"/>
-        <item x="7"/>
-        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3925,12 +3947,12 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="8">
+  <rowItems count="9">
+    <i>
+      <x v="1"/>
+    </i>
     <i>
       <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
     </i>
     <i>
       <x v="4"/>
@@ -3942,10 +3964,13 @@
       <x v="6"/>
     </i>
     <i>
-      <x v="9"/>
+      <x v="7"/>
     </i>
     <i>
-      <x v="10"/>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="11"/>
     </i>
     <i t="grand">
       <x/>
@@ -4006,23 +4031,22 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B16:G25" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
-      <items count="13">
+      <items count="12">
         <item h="1" x="1"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="4"/>
         <item x="6"/>
+        <item x="8"/>
+        <item h="1" x="0"/>
+        <item m="1" x="10"/>
+        <item x="7"/>
         <item x="2"/>
-        <item m="1" x="11"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item x="4"/>
-        <item x="7"/>
-        <item m="1" x="10"/>
-        <item h="1" x="9"/>
-        <item x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4035,12 +4059,12 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="9">
+  <rowItems count="8">
     <i>
-      <x v="1"/>
+      <x v="2"/>
     </i>
     <i>
-      <x v="2"/>
+      <x v="3"/>
     </i>
     <i>
       <x v="4"/>
@@ -4052,13 +4076,10 @@
       <x v="6"/>
     </i>
     <i>
-      <x v="7"/>
+      <x v="9"/>
     </i>
     <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="11"/>
+      <x v="10"/>
     </i>
     <i t="grand">
       <x/>
@@ -5229,8 +5250,8 @@
   <dimension ref="A1:IK170"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6326,20 +6347,20 @@
     </row>
     <row r="46" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="15">
-        <v>45071</v>
+        <v>45091</v>
       </c>
       <c r="B46" s="16">
         <v>43</v>
       </c>
       <c r="C46" s="39" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E46" s="20"/>
       <c r="F46" s="21">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G46" s="18"/>
       <c r="H46" s="18"/>
@@ -6348,14 +6369,22 @@
       <c r="K46" s="2"/>
     </row>
     <row r="47" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="15"/>
+      <c r="A47" s="15">
+        <v>45092</v>
+      </c>
       <c r="B47" s="16">
         <v>44</v>
       </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="19"/>
+      <c r="C47" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E47" s="17"/>
-      <c r="F47" s="18"/>
+      <c r="F47" s="18">
+        <v>87</v>
+      </c>
       <c r="G47" s="18"/>
       <c r="H47" s="18"/>
       <c r="I47" s="19"/>
@@ -6363,14 +6392,22 @@
       <c r="K47" s="2"/>
     </row>
     <row r="48" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="15"/>
+      <c r="A48" s="15">
+        <v>45097</v>
+      </c>
       <c r="B48" s="16">
         <v>45</v>
       </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="19"/>
+      <c r="C48" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="E48" s="17"/>
-      <c r="F48" s="18"/>
+      <c r="F48" s="18">
+        <v>30</v>
+      </c>
       <c r="G48" s="18"/>
       <c r="H48" s="18"/>
       <c r="I48" s="19"/>
@@ -6378,14 +6415,22 @@
       <c r="K48" s="2"/>
     </row>
     <row r="49" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="15"/>
+      <c r="A49" s="15">
+        <v>45100</v>
+      </c>
       <c r="B49" s="16">
         <v>46</v>
       </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="18"/>
+      <c r="C49" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="20"/>
+      <c r="F49" s="21">
+        <v>2.1800000000000002</v>
+      </c>
       <c r="G49" s="18"/>
       <c r="H49" s="18"/>
       <c r="I49" s="19"/>
@@ -6393,14 +6438,22 @@
       <c r="K49" s="2"/>
     </row>
     <row r="50" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="15"/>
+      <c r="A50" s="15">
+        <v>45105</v>
+      </c>
       <c r="B50" s="16">
         <v>47</v>
       </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="19"/>
+      <c r="C50" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E50" s="17"/>
-      <c r="F50" s="18"/>
+      <c r="F50" s="18">
+        <v>83</v>
+      </c>
       <c r="G50" s="18"/>
       <c r="H50" s="18"/>
       <c r="I50" s="19"/>
@@ -7222,7 +7275,7 @@
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
-        <v>9550.4100000000053</v>
+        <v>9777.5900000000056</v>
       </c>
       <c r="G105" s="28">
         <f>SUM(G3:G104)</f>
@@ -7265,7 +7318,7 @@
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G171</f>
-        <v>4709.8500000000049</v>
+        <v>4804.1700000000046</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H171</f>
@@ -7303,7 +7356,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>8074.730000000005</v>
+        <v>8169.0500000000047</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -8158,7 +8211,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E47:E50">
+  <conditionalFormatting sqref="E47:E48 E50">
     <cfRule type="cellIs" dxfId="56" priority="163" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -8198,7 +8251,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:I3 G4:G12 H4:I26 G15 G17:G23 G25 H28:I104 G41:G45 E59:G60 F61 G61:G62 F63:G65 D66:G66 G82 G92 G98 D99:G104 D104:I104 E105:I169 D109">
+  <conditionalFormatting sqref="E3:I3 G4:G12 H4:I26 G15 G17:G23 G25 H28:I104 E59:G60 F61 G61:G62 F63:G65 D66:G66 G82 G92 G98 D99:G104 D104:I104 E105:I169 D109">
     <cfRule type="cellIs" dxfId="48" priority="280" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -8213,18 +8266,18 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47:G58 G46">
-    <cfRule type="cellIs" dxfId="45" priority="26" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F67:G67">
-    <cfRule type="cellIs" dxfId="44" priority="144" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="144" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:G31 E32:G33 G34:G36">
-    <cfRule type="cellIs" dxfId="43" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G41:G46 F47:G48 F51:G58 G49:G50 F50">
+    <cfRule type="cellIs" dxfId="43" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8264,8 +8317,8 @@
   <dimension ref="A1:IM237"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G83" sqref="G83"/>
+      <pane ySplit="2" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10375,14 +10428,22 @@
     </row>
     <row r="83" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="43"/>
-      <c r="B83" s="15"/>
+      <c r="B83" s="15">
+        <v>45092</v>
+      </c>
       <c r="C83" s="52">
         <v>81</v>
       </c>
-      <c r="D83" s="3"/>
-      <c r="E83" s="23"/>
+      <c r="D83" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E83" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F83" s="20"/>
-      <c r="G83" s="21"/>
+      <c r="G83" s="21">
+        <v>-57.56</v>
+      </c>
       <c r="H83" s="21"/>
       <c r="I83" s="21"/>
       <c r="J83" s="22"/>
@@ -10392,14 +10453,22 @@
     </row>
     <row r="84" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="43"/>
-      <c r="B84" s="15"/>
+      <c r="B84" s="15">
+        <v>45097</v>
+      </c>
       <c r="C84" s="52">
         <v>82</v>
       </c>
-      <c r="D84" s="3"/>
-      <c r="E84" s="23"/>
+      <c r="D84" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E84" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F84" s="20"/>
-      <c r="G84" s="21"/>
+      <c r="G84" s="21">
+        <v>-41.72</v>
+      </c>
       <c r="H84" s="21"/>
       <c r="I84" s="21"/>
       <c r="J84" s="22"/>
@@ -10409,14 +10478,22 @@
     </row>
     <row r="85" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="43"/>
-      <c r="B85" s="15"/>
+      <c r="B85" s="15">
+        <v>45097</v>
+      </c>
       <c r="C85" s="52">
         <v>83</v>
       </c>
-      <c r="D85" s="3"/>
-      <c r="E85" s="23"/>
-      <c r="F85" s="17"/>
-      <c r="G85" s="21"/>
+      <c r="D85" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E85" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F85" s="20"/>
+      <c r="G85" s="21">
+        <v>-20</v>
+      </c>
       <c r="H85" s="21"/>
       <c r="I85" s="21"/>
       <c r="J85" s="22"/>
@@ -10426,14 +10503,22 @@
     </row>
     <row r="86" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="43"/>
-      <c r="B86" s="15"/>
+      <c r="B86" s="15">
+        <v>45104</v>
+      </c>
       <c r="C86" s="52">
         <v>84</v>
       </c>
-      <c r="D86" s="3"/>
-      <c r="E86" s="23"/>
+      <c r="D86" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E86" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="F86" s="17"/>
-      <c r="G86" s="21"/>
+      <c r="G86" s="21">
+        <v>-13.58</v>
+      </c>
       <c r="H86" s="21"/>
       <c r="I86" s="21"/>
       <c r="J86" s="22"/>
@@ -11874,7 +11959,7 @@
       </c>
       <c r="G171" s="34">
         <f>SUM(G3:G170)</f>
-        <v>-4840.5600000000004</v>
+        <v>-4973.420000000001</v>
       </c>
       <c r="H171" s="34">
         <f>SUM(H3:H170)</f>
@@ -13045,7 +13130,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F85:F86">
+  <conditionalFormatting sqref="F86">
     <cfRule type="cellIs" dxfId="6" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/2023/AWO_Einnahmen_Ausgaben_2023.xlsx
+++ b/2023/AWO_Einnahmen_Ausgaben_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC4FF7C-8518-44FD-9D10-91EA7CB1A8F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63FC9B3-9A6B-4B16-B104-01B7078CF1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="149">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -475,6 +475,12 @@
   </si>
   <si>
     <t>Treff zg Laune 27.6.</t>
+  </si>
+  <si>
+    <t>wcrolle brezeln</t>
+  </si>
+  <si>
+    <t>tzgl kuchen</t>
   </si>
 </sst>
 </file>
@@ -1138,7 +1144,17 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="74">
+  <dxfs count="76">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3918,6 +3934,115 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item h="1" x="1"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item h="1" x="0"/>
+        <item m="1" x="10"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="Summe von Barkasse" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Summe von VOBA" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Summe von VOBA TgK 630041601" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Summe von KSK" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="72">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="71">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="70">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B16:G25" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
@@ -4004,126 +4129,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="70">
+    <format dxfId="75">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="69">
+    <format dxfId="74">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="68">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="12">
-        <item h="1" x="1"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item h="1" x="0"/>
-        <item m="1" x="10"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </colItems>
-  <dataFields count="5">
-    <dataField name="Summe von Barkasse" fld="1" baseField="0" baseItem="0"/>
-    <dataField name="Summe von VOBA" fld="2" baseField="0" baseItem="0"/>
-    <dataField name="Summe von VOBA TgK 630041601" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Summe von KSK" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="3">
     <format dxfId="73">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="72">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="71">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5249,8 +5265,8 @@
   </sheetPr>
   <dimension ref="A1:IK170"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
@@ -7318,7 +7334,7 @@
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G171</f>
-        <v>4804.1700000000046</v>
+        <v>4548.480000000005</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H171</f>
@@ -7356,7 +7372,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>8169.0500000000047</v>
+        <v>7913.3600000000051</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -8157,132 +8173,127 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="A92:D92">
-    <cfRule type="cellIs" dxfId="67" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="66" priority="128" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="128" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:D98">
-    <cfRule type="cellIs" dxfId="65" priority="107" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="107" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D15">
-    <cfRule type="cellIs" dxfId="64" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D65">
-    <cfRule type="cellIs" dxfId="63" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="62" priority="143" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="143" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:G16">
-    <cfRule type="cellIs" dxfId="61" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68:G81">
-    <cfRule type="cellIs" dxfId="60" priority="129" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="129" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:G91">
-    <cfRule type="cellIs" dxfId="59" priority="115" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="115" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93:G97">
-    <cfRule type="cellIs" dxfId="58" priority="108" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="57" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47:E48 E50">
-    <cfRule type="cellIs" dxfId="56" priority="163" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="55" priority="159" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="159" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:F20">
-    <cfRule type="cellIs" dxfId="54" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="53" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:F31">
-    <cfRule type="cellIs" dxfId="52" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:G14">
-    <cfRule type="cellIs" dxfId="51" priority="216" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="216" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:G26">
-    <cfRule type="cellIs" dxfId="50" priority="198" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="198" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37:G40">
-    <cfRule type="cellIs" dxfId="49" priority="179" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="179" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:I3 G4:G12 H4:I26 G15 G17:G23 G25 H28:I104 E59:G60 F61 G61:G62 F63:G65 D66:G66 G82 G92 G98 D99:G104 D104:I104 E105:I169 D109">
-    <cfRule type="cellIs" dxfId="48" priority="280" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="280" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="47" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:G24">
-    <cfRule type="cellIs" dxfId="46" priority="201" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="201" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67:G67">
-    <cfRule type="cellIs" dxfId="45" priority="144" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="144" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:G31 E32:G33 G34:G36">
-    <cfRule type="cellIs" dxfId="44" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G41:G46 F47:G48 F51:G58 G49:G50 F50">
-    <cfRule type="cellIs" dxfId="43" priority="26" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="G41:G46 E47:G48 G49:G50 E50:F50 F51:G58">
+    <cfRule type="cellIs" dxfId="46" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:I27">
-    <cfRule type="cellIs" dxfId="42" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8316,9 +8327,9 @@
   </sheetPr>
   <dimension ref="A1:IM237"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D87" sqref="D87"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10528,14 +10539,22 @@
     </row>
     <row r="87" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="43"/>
-      <c r="B87" s="15"/>
+      <c r="B87" s="15">
+        <v>45105</v>
+      </c>
       <c r="C87" s="16">
         <v>85</v>
       </c>
-      <c r="D87" s="3"/>
-      <c r="E87" s="23"/>
+      <c r="D87" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E87" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F87" s="20"/>
-      <c r="G87" s="21"/>
+      <c r="G87" s="21">
+        <v>-38.18</v>
+      </c>
       <c r="H87" s="21"/>
       <c r="I87" s="21"/>
       <c r="J87" s="22"/>
@@ -10545,14 +10564,22 @@
     </row>
     <row r="88" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="43"/>
-      <c r="B88" s="15"/>
+      <c r="B88" s="15">
+        <v>45107</v>
+      </c>
       <c r="C88" s="16">
         <v>86</v>
       </c>
-      <c r="D88" s="3"/>
-      <c r="E88" s="23"/>
+      <c r="D88" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E88" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F88" s="20"/>
-      <c r="G88" s="21"/>
+      <c r="G88" s="21">
+        <v>-25.57</v>
+      </c>
       <c r="H88" s="21"/>
       <c r="I88" s="21"/>
       <c r="J88" s="22"/>
@@ -10562,14 +10589,22 @@
     </row>
     <row r="89" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="43"/>
-      <c r="B89" s="15"/>
+      <c r="B89" s="15">
+        <v>45110</v>
+      </c>
       <c r="C89" s="16">
         <v>87</v>
       </c>
-      <c r="D89" s="3"/>
-      <c r="E89" s="19"/>
+      <c r="D89" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E89" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F89" s="20"/>
-      <c r="G89" s="21"/>
+      <c r="G89" s="21">
+        <v>-17.940000000000001</v>
+      </c>
       <c r="H89" s="21"/>
       <c r="I89" s="21"/>
       <c r="J89" s="22"/>
@@ -10579,14 +10614,22 @@
     </row>
     <row r="90" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="43"/>
-      <c r="B90" s="15"/>
+      <c r="B90" s="15">
+        <v>45110</v>
+      </c>
       <c r="C90" s="52">
         <v>88</v>
       </c>
-      <c r="D90" s="3"/>
-      <c r="E90" s="23"/>
+      <c r="D90" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E90" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F90" s="20"/>
-      <c r="G90" s="21"/>
+      <c r="G90" s="21">
+        <v>-12</v>
+      </c>
       <c r="H90" s="21"/>
       <c r="I90" s="21"/>
       <c r="J90" s="22"/>
@@ -10596,14 +10639,22 @@
     </row>
     <row r="91" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="43"/>
-      <c r="B91" s="15"/>
+      <c r="B91" s="15">
+        <v>45110</v>
+      </c>
       <c r="C91" s="52">
         <v>89</v>
       </c>
-      <c r="D91" s="3"/>
-      <c r="E91" s="23"/>
+      <c r="D91" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E91" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F91" s="20"/>
-      <c r="G91" s="21"/>
+      <c r="G91" s="21">
+        <v>-134</v>
+      </c>
       <c r="H91" s="21"/>
       <c r="I91" s="21"/>
       <c r="J91" s="22"/>
@@ -10613,14 +10664,22 @@
     </row>
     <row r="92" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="43"/>
-      <c r="B92" s="15"/>
+      <c r="B92" s="15">
+        <v>45110</v>
+      </c>
       <c r="C92" s="52">
         <v>90</v>
       </c>
-      <c r="D92" s="3"/>
-      <c r="E92" s="23"/>
+      <c r="D92" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E92" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F92" s="20"/>
-      <c r="G92" s="21"/>
+      <c r="G92" s="21">
+        <v>-28</v>
+      </c>
       <c r="H92" s="21"/>
       <c r="I92" s="21"/>
       <c r="J92" s="22"/>
@@ -11959,7 +12018,7 @@
       </c>
       <c r="G171" s="34">
         <f>SUM(G3:G170)</f>
-        <v>-4973.420000000001</v>
+        <v>-5229.1100000000006</v>
       </c>
       <c r="H171" s="34">
         <f>SUM(H3:H170)</f>
@@ -12956,217 +13015,227 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A236">
-    <cfRule type="cellIs" dxfId="41" priority="637" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="640" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124:B129">
-    <cfRule type="cellIs" dxfId="40" priority="455" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="458" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131">
-    <cfRule type="cellIs" dxfId="39" priority="449" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="452" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134:B138">
-    <cfRule type="cellIs" dxfId="38" priority="438" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="441" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B152:B154">
-    <cfRule type="cellIs" dxfId="37" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B160">
-    <cfRule type="cellIs" dxfId="36" priority="407" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="410" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163:B237">
-    <cfRule type="cellIs" dxfId="35" priority="401" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="404" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162:C162">
-    <cfRule type="cellIs" dxfId="34" priority="403" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="406" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B155:D157">
+    <cfRule type="cellIs" dxfId="36" priority="418" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B159:D159">
+    <cfRule type="cellIs" dxfId="35" priority="414" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B161:D161">
+    <cfRule type="cellIs" dxfId="34" priority="409" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B158:E158">
     <cfRule type="cellIs" dxfId="33" priority="415" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B159:D159">
-    <cfRule type="cellIs" dxfId="32" priority="411" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B161:D161">
-    <cfRule type="cellIs" dxfId="31" priority="406" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B158:E158">
-    <cfRule type="cellIs" dxfId="30" priority="412" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C112">
-    <cfRule type="cellIs" dxfId="29" priority="476" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="479" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C122">
-    <cfRule type="cellIs" dxfId="28" priority="593" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="596" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C132:C135">
-    <cfRule type="cellIs" dxfId="27" priority="445" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="448" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C146:C147">
-    <cfRule type="cellIs" dxfId="26" priority="425" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="428" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C152">
-    <cfRule type="cellIs" dxfId="25" priority="422" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="425" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C111:D111 C124 C127:C128 D128 B130:D130 B139:D139 C145:D145 C148:E148 B150:D151 C153:E153 C154 C163:C236 D172:H235 J172:J235 I172:I237 K173">
-    <cfRule type="cellIs" dxfId="24" priority="685" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="688" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C129:D129">
-    <cfRule type="cellIs" dxfId="23" priority="453" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="456" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C149:D149">
-    <cfRule type="cellIs" dxfId="22" priority="424" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="427" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D115:D116">
-    <cfRule type="cellIs" dxfId="21" priority="190" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="193" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D123">
-    <cfRule type="cellIs" dxfId="20" priority="182" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="185" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D146">
+    <cfRule type="cellIs" dxfId="22" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D162:E172">
+    <cfRule type="cellIs" dxfId="21" priority="403" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E86 E88 E90:E147">
+    <cfRule type="cellIs" dxfId="20" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E149:E152">
     <cfRule type="cellIs" dxfId="19" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D162:E172">
-    <cfRule type="cellIs" dxfId="18" priority="400" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E147">
-    <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E149:E152">
-    <cfRule type="cellIs" dxfId="16" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E154:E157">
-    <cfRule type="cellIs" dxfId="15" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E159:E161">
-    <cfRule type="cellIs" dxfId="14" priority="405" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="408" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="13" priority="569" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="572" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="12" priority="165" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="168" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="cellIs" dxfId="11" priority="163" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="166" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="10" priority="553" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="556" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:F44">
-    <cfRule type="cellIs" dxfId="9" priority="367" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="370" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58">
-    <cfRule type="cellIs" dxfId="8" priority="141" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="144" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61:F63">
-    <cfRule type="cellIs" dxfId="7" priority="346" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="349" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F86">
-    <cfRule type="cellIs" dxfId="6" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F95:F96">
-    <cfRule type="cellIs" dxfId="5" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="101" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F105:F107">
-    <cfRule type="cellIs" dxfId="4" priority="84" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F119:F120">
-    <cfRule type="cellIs" dxfId="3" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F134:F135">
-    <cfRule type="cellIs" dxfId="2" priority="50" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F141:F144">
-    <cfRule type="cellIs" dxfId="1" priority="430" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="433" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F147">
-    <cfRule type="cellIs" dxfId="0" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E155:E170 E3:E29 E113:E140 E142:E144 E147:E153 E31:E111" xr:uid="{00000000-0002-0000-0100-000000000000}">
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E155:E170 E3:E29 E113:E140 E142:E144 E147:E153 E31:E86 E88 E90:E111" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$M$1:$M$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E141 E145:E146 E154" xr:uid="{00000000-0002-0000-0100-000001000000}">
@@ -13174,6 +13243,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E30 E112" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>$M$1:$M$20</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E87 E89" xr:uid="{2159CF4B-2649-4586-B851-DB145DFC2247}">
+      <formula1>$K$1:$K$19</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>

--- a/2023/AWO_Einnahmen_Ausgaben_2023.xlsx
+++ b/2023/AWO_Einnahmen_Ausgaben_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63FC9B3-9A6B-4B16-B104-01B7078CF1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FFCF11-53B2-40CD-B6EE-CAEC2F69401F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="163">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -481,6 +481,48 @@
   </si>
   <si>
     <t>tzgl kuchen</t>
+  </si>
+  <si>
+    <t>14a</t>
+  </si>
+  <si>
+    <t>Kontoauszug KSK</t>
+  </si>
+  <si>
+    <t>Servietten, Taschen</t>
+  </si>
+  <si>
+    <t>Rücküberweisung Beitrag Fr.Scharley</t>
+  </si>
+  <si>
+    <t>Wechselgeld Sommerfest</t>
+  </si>
+  <si>
+    <t>Treff zg Laune 11.7.</t>
+  </si>
+  <si>
+    <t>Wechselgeld Sommerfest, Ausgaben Bernd</t>
+  </si>
+  <si>
+    <t>Wechselgeld Sommerfest Bernd</t>
+  </si>
+  <si>
+    <t>Kaffeesahne</t>
+  </si>
+  <si>
+    <t>Einnahmen Sommerfest</t>
+  </si>
+  <si>
+    <t>Bar auf Konto</t>
+  </si>
+  <si>
+    <t>Spende D.Müller</t>
+  </si>
+  <si>
+    <t>Beiträge</t>
+  </si>
+  <si>
+    <t>Ausgaben Sommerfest</t>
   </si>
 </sst>
 </file>
@@ -1144,27 +1186,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="76">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="72">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -3934,115 +3956,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="12">
-        <item h="1" x="1"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item h="1" x="0"/>
-        <item m="1" x="10"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </colItems>
-  <dataFields count="5">
-    <dataField name="Summe von Barkasse" fld="1" baseField="0" baseItem="0"/>
-    <dataField name="Summe von VOBA" fld="2" baseField="0" baseItem="0"/>
-    <dataField name="Summe von VOBA TgK 630041601" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Summe von KSK" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="72">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="71">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="70">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B16:G25" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
@@ -4129,17 +4042,126 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="75">
+    <format dxfId="68">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="74">
+    <format dxfId="67">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="73">
+    <format dxfId="66">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item h="1" x="1"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item h="1" x="0"/>
+        <item m="1" x="10"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="Summe von Barkasse" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Summe von VOBA" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Summe von VOBA TgK 630041601" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Summe von KSK" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="71">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="70">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="69">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5265,9 +5287,9 @@
   </sheetPr>
   <dimension ref="A1:IK170"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6477,13 +6499,21 @@
       <c r="K50" s="2"/>
     </row>
     <row r="51" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="15"/>
+      <c r="A51" s="15">
+        <v>45119</v>
+      </c>
       <c r="B51" s="16">
         <v>48</v>
       </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="20"/>
+      <c r="C51" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E51" s="20">
+        <v>100</v>
+      </c>
       <c r="F51" s="18"/>
       <c r="G51" s="18"/>
       <c r="H51" s="18"/>
@@ -6492,14 +6522,22 @@
       <c r="K51" s="2"/>
     </row>
     <row r="52" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="15"/>
+      <c r="A52" s="15">
+        <v>45119</v>
+      </c>
       <c r="B52" s="16">
         <v>49</v>
       </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="18"/>
+      <c r="C52" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52" s="17"/>
+      <c r="F52" s="18">
+        <v>82</v>
+      </c>
       <c r="G52" s="18"/>
       <c r="H52" s="18"/>
       <c r="I52" s="19"/>
@@ -6507,13 +6545,21 @@
       <c r="K52" s="2"/>
     </row>
     <row r="53" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="15"/>
+      <c r="A53" s="15">
+        <v>45120</v>
+      </c>
       <c r="B53" s="16">
         <v>50</v>
       </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="17"/>
+      <c r="C53" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" s="17">
+        <v>9.5</v>
+      </c>
       <c r="F53" s="18"/>
       <c r="G53" s="18"/>
       <c r="H53" s="18"/>
@@ -6522,13 +6568,21 @@
       <c r="K53" s="2"/>
     </row>
     <row r="54" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="15"/>
+      <c r="A54" s="15">
+        <v>45124</v>
+      </c>
       <c r="B54" s="16">
         <v>51</v>
       </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="20"/>
+      <c r="C54" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="20">
+        <v>1268.2</v>
+      </c>
       <c r="F54" s="18"/>
       <c r="G54" s="18"/>
       <c r="H54" s="18"/>
@@ -6537,14 +6591,22 @@
       <c r="K54" s="2"/>
     </row>
     <row r="55" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="15"/>
+      <c r="A55" s="15">
+        <v>45124</v>
+      </c>
       <c r="B55" s="16">
         <v>52</v>
       </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="19"/>
+      <c r="C55" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="E55" s="20"/>
-      <c r="F55" s="18"/>
+      <c r="F55" s="18">
+        <v>1380</v>
+      </c>
       <c r="G55" s="18"/>
       <c r="H55" s="18"/>
       <c r="I55" s="19"/>
@@ -6552,14 +6614,22 @@
       <c r="K55" s="2"/>
     </row>
     <row r="56" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="15"/>
+      <c r="A56" s="15">
+        <v>45126</v>
+      </c>
       <c r="B56" s="16">
         <v>53</v>
       </c>
-      <c r="C56" s="39"/>
-      <c r="D56" s="19"/>
+      <c r="C56" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="D56" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="E56" s="20"/>
-      <c r="F56" s="18"/>
+      <c r="F56" s="18">
+        <v>50</v>
+      </c>
       <c r="G56" s="18"/>
       <c r="H56" s="18"/>
       <c r="I56" s="19"/>
@@ -6567,14 +6637,22 @@
       <c r="K56" s="2"/>
     </row>
     <row r="57" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="15"/>
+      <c r="A57" s="15">
+        <v>45126</v>
+      </c>
       <c r="B57" s="16">
         <v>54</v>
       </c>
-      <c r="C57" s="39"/>
-      <c r="D57" s="19"/>
+      <c r="C57" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>27</v>
+      </c>
       <c r="E57" s="20"/>
-      <c r="F57" s="18"/>
+      <c r="F57" s="18">
+        <v>1282.3800000000001</v>
+      </c>
       <c r="G57" s="18"/>
       <c r="H57" s="18"/>
       <c r="I57" s="19"/>
@@ -6582,14 +6660,22 @@
       <c r="K57" s="2"/>
     </row>
     <row r="58" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="15"/>
+      <c r="A58" s="15">
+        <v>45128</v>
+      </c>
       <c r="B58" s="16">
         <v>55</v>
       </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="19"/>
+      <c r="C58" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="E58" s="20"/>
-      <c r="F58" s="18"/>
+      <c r="F58" s="18">
+        <v>129.71</v>
+      </c>
       <c r="G58" s="18"/>
       <c r="H58" s="18"/>
       <c r="I58" s="19"/>
@@ -7287,11 +7373,11 @@
       <c r="D105" s="26"/>
       <c r="E105" s="27">
         <f>SUM(E3:E104)</f>
-        <v>138.51000000000022</v>
+        <v>1516.2100000000003</v>
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
-        <v>9777.5900000000056</v>
+        <v>12701.680000000004</v>
       </c>
       <c r="G105" s="28">
         <f>SUM(G3:G104)</f>
@@ -7329,12 +7415,12 @@
       <c r="C107" s="25"/>
       <c r="D107" s="48"/>
       <c r="E107" s="28">
-        <f>E105+Ausgaben!F171</f>
-        <v>138.51000000000022</v>
+        <f>E105+Ausgaben!F172</f>
+        <v>6.5000000000002274</v>
       </c>
       <c r="F107" s="28">
-        <f>F105+Ausgaben!G171</f>
-        <v>4548.480000000005</v>
+        <f>F105+Ausgaben!G172</f>
+        <v>7015.0500000000038</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H171</f>
@@ -7342,7 +7428,7 @@
       </c>
       <c r="H107" s="28">
         <f>H105+Ausgaben!I171</f>
-        <v>276.63</v>
+        <v>276.13</v>
       </c>
       <c r="I107" s="29">
         <f>I105+Ausgaben!J171</f>
@@ -7372,7 +7458,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>7913.3600000000051</v>
+        <v>10247.420000000002</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -8173,127 +8259,127 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="A92:D92">
-    <cfRule type="cellIs" dxfId="69" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="68" priority="128" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="128" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:D98">
-    <cfRule type="cellIs" dxfId="67" priority="107" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="107" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D15">
-    <cfRule type="cellIs" dxfId="66" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D65">
-    <cfRule type="cellIs" dxfId="65" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="64" priority="143" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="143" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:G16">
-    <cfRule type="cellIs" dxfId="63" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68:G81">
-    <cfRule type="cellIs" dxfId="62" priority="129" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="129" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:G91">
-    <cfRule type="cellIs" dxfId="61" priority="115" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="115" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93:G97">
-    <cfRule type="cellIs" dxfId="60" priority="108" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="59" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="58" priority="159" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="159" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:F20">
-    <cfRule type="cellIs" dxfId="57" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="56" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:F31">
-    <cfRule type="cellIs" dxfId="55" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:G14">
-    <cfRule type="cellIs" dxfId="54" priority="216" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="216" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:G26">
-    <cfRule type="cellIs" dxfId="53" priority="198" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="198" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37:G40">
-    <cfRule type="cellIs" dxfId="52" priority="179" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="179" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:I3 G4:G12 H4:I26 G15 G17:G23 G25 H28:I104 E59:G60 F61 G61:G62 F63:G65 D66:G66 G82 G92 G98 D99:G104 D104:I104 E105:I169 D109">
-    <cfRule type="cellIs" dxfId="51" priority="280" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="280" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="50" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:G24">
-    <cfRule type="cellIs" dxfId="49" priority="201" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="201" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67:G67">
-    <cfRule type="cellIs" dxfId="48" priority="144" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="144" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:G31 E32:G33 G34:G36">
-    <cfRule type="cellIs" dxfId="47" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G41:G46 E47:G48 G49:G50 E50:F50 F51:G58">
-    <cfRule type="cellIs" dxfId="46" priority="26" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="G41:G46 E47:G48 G49:G50 E50:F50 F51:G51 E52:G52 F53:G58">
+    <cfRule type="cellIs" dxfId="42" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:I27">
-    <cfRule type="cellIs" dxfId="45" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8325,11 +8411,11 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:IM237"/>
+  <dimension ref="A1:IM238"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8784,23 +8870,23 @@
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="43"/>
       <c r="B17" s="15">
-        <v>44959</v>
-      </c>
-      <c r="C17" s="52">
-        <v>15</v>
+        <v>44958</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>149</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F17" s="20"/>
-      <c r="G17" s="21">
-        <v>-22</v>
-      </c>
+      <c r="G17" s="21"/>
       <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
+      <c r="I17" s="21">
+        <v>-0.5</v>
+      </c>
       <c r="J17" s="22"/>
       <c r="K17" s="4"/>
       <c r="L17" s="2"/>
@@ -8811,20 +8897,20 @@
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="43"/>
       <c r="B18" s="15">
-        <v>44963</v>
+        <v>44959</v>
       </c>
       <c r="C18" s="52">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="21">
-        <v>-11.81</v>
+        <v>-22</v>
       </c>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
@@ -8841,17 +8927,17 @@
         <v>44963</v>
       </c>
       <c r="C19" s="52">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E19" s="23" t="s">
         <v>0</v>
       </c>
       <c r="F19" s="20"/>
       <c r="G19" s="21">
-        <v>-26.26</v>
+        <v>-11.81</v>
       </c>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
@@ -8868,17 +8954,17 @@
         <v>44963</v>
       </c>
       <c r="C20" s="52">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F20" s="20"/>
       <c r="G20" s="21">
-        <v>-563.20000000000005</v>
+        <v>-26.26</v>
       </c>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
@@ -8890,20 +8976,20 @@
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="43"/>
       <c r="B21" s="15">
-        <v>44965</v>
+        <v>44963</v>
       </c>
       <c r="C21" s="52">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F21" s="20"/>
       <c r="G21" s="21">
-        <v>-3.38</v>
+        <v>-563.20000000000005</v>
       </c>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
@@ -8915,20 +9001,20 @@
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="43"/>
       <c r="B22" s="15">
-        <v>44970</v>
+        <v>44965</v>
       </c>
       <c r="C22" s="52">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F22" s="20"/>
       <c r="G22" s="21">
-        <v>-8.5</v>
+        <v>-3.38</v>
       </c>
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
@@ -8940,20 +9026,20 @@
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="43"/>
       <c r="B23" s="15">
-        <v>44972</v>
-      </c>
-      <c r="C23" s="16">
-        <v>21</v>
+        <v>44970</v>
+      </c>
+      <c r="C23" s="52">
+        <v>20</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E23" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="17"/>
+      <c r="F23" s="20"/>
       <c r="G23" s="21">
-        <v>-20</v>
+        <v>-8.5</v>
       </c>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
@@ -8965,20 +9051,20 @@
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="43"/>
       <c r="B24" s="15">
-        <v>44973</v>
+        <v>44972</v>
       </c>
       <c r="C24" s="16">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="20"/>
+        <v>14</v>
+      </c>
+      <c r="F24" s="17"/>
       <c r="G24" s="21">
-        <v>-41.72</v>
+        <v>-20</v>
       </c>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
@@ -8990,20 +9076,20 @@
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="43"/>
       <c r="B25" s="15">
-        <v>44974</v>
-      </c>
-      <c r="C25" s="52">
-        <v>23</v>
+        <v>44973</v>
+      </c>
+      <c r="C25" s="16">
+        <v>22</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="E25" s="23" t="s">
         <v>22</v>
       </c>
       <c r="F25" s="20"/>
       <c r="G25" s="21">
-        <v>-43.86</v>
+        <v>-41.72</v>
       </c>
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
@@ -9015,20 +9101,20 @@
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="43"/>
       <c r="B26" s="15">
-        <v>44977</v>
+        <v>44974</v>
       </c>
       <c r="C26" s="52">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F26" s="20"/>
       <c r="G26" s="21">
-        <v>-30</v>
+        <v>-43.86</v>
       </c>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
@@ -9040,20 +9126,20 @@
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="43"/>
       <c r="B27" s="15">
-        <v>44978</v>
+        <v>44977</v>
       </c>
       <c r="C27" s="52">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F27" s="20"/>
       <c r="G27" s="21">
-        <v>-20</v>
+        <v>-30</v>
       </c>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
@@ -9068,17 +9154,17 @@
         <v>44978</v>
       </c>
       <c r="C28" s="52">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F28" s="20"/>
       <c r="G28" s="21">
-        <v>-19.649999999999999</v>
+        <v>-20</v>
       </c>
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
@@ -9093,17 +9179,17 @@
         <v>44978</v>
       </c>
       <c r="C29" s="52">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" s="17"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="20"/>
       <c r="G29" s="21">
-        <v>-25</v>
+        <v>-19.649999999999999</v>
       </c>
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
@@ -9115,20 +9201,20 @@
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="43"/>
       <c r="B30" s="15">
-        <v>44979</v>
+        <v>44978</v>
       </c>
       <c r="C30" s="52">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="20"/>
+        <v>23</v>
+      </c>
+      <c r="F30" s="17"/>
       <c r="G30" s="21">
-        <v>-300</v>
+        <v>-25</v>
       </c>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
@@ -9143,17 +9229,17 @@
         <v>44979</v>
       </c>
       <c r="C31" s="52">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="F31" s="17"/>
+        <v>13</v>
+      </c>
+      <c r="F31" s="20"/>
       <c r="G31" s="21">
-        <v>-23.2</v>
+        <v>-300</v>
       </c>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
@@ -9165,20 +9251,20 @@
     <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="43"/>
       <c r="B32" s="15">
-        <v>44985</v>
+        <v>44979</v>
       </c>
       <c r="C32" s="52">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="20"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="17"/>
       <c r="G32" s="21">
-        <v>-50</v>
+        <v>-23.2</v>
       </c>
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
@@ -9190,20 +9276,20 @@
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="43"/>
       <c r="B33" s="15">
-        <v>44986</v>
+        <v>44985</v>
       </c>
       <c r="C33" s="52">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F33" s="20"/>
       <c r="G33" s="21">
-        <v>-12</v>
+        <v>-50</v>
       </c>
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
@@ -9215,20 +9301,20 @@
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="43"/>
       <c r="B34" s="15">
-        <v>44987</v>
+        <v>44986</v>
       </c>
       <c r="C34" s="52">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="E34" s="23" t="s">
         <v>22</v>
       </c>
       <c r="F34" s="20"/>
       <c r="G34" s="21">
-        <v>-134</v>
+        <v>-12</v>
       </c>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
@@ -9243,7 +9329,7 @@
         <v>44987</v>
       </c>
       <c r="C35" s="52">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>52</v>
@@ -9253,7 +9339,7 @@
       </c>
       <c r="F35" s="20"/>
       <c r="G35" s="21">
-        <v>-28</v>
+        <v>-134</v>
       </c>
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
@@ -9268,17 +9354,17 @@
         <v>44987</v>
       </c>
       <c r="C36" s="52">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F36" s="20"/>
       <c r="G36" s="21">
-        <v>-47.12</v>
+        <v>-28</v>
       </c>
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
@@ -9292,18 +9378,18 @@
       <c r="B37" s="15">
         <v>44987</v>
       </c>
-      <c r="C37" s="16">
-        <v>35</v>
+      <c r="C37" s="52">
+        <v>34</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E37" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="F37" s="17"/>
+      <c r="F37" s="20"/>
       <c r="G37" s="21">
-        <v>-20.61</v>
+        <v>-47.12</v>
       </c>
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
@@ -9315,20 +9401,20 @@
     <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="43"/>
       <c r="B38" s="15">
-        <v>44993</v>
+        <v>44987</v>
       </c>
       <c r="C38" s="16">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E38" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="F38" s="20"/>
+      <c r="F38" s="17"/>
       <c r="G38" s="21">
-        <v>-13.39</v>
+        <v>-20.61</v>
       </c>
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
@@ -9340,20 +9426,20 @@
     <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="43"/>
       <c r="B39" s="15">
-        <v>45001</v>
+        <v>44993</v>
       </c>
       <c r="C39" s="16">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F39" s="20"/>
       <c r="G39" s="21">
-        <v>-41.72</v>
+        <v>-13.39</v>
       </c>
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
@@ -9365,20 +9451,20 @@
     <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="43"/>
       <c r="B40" s="15">
-        <v>45002</v>
-      </c>
-      <c r="C40" s="52">
-        <v>38</v>
+        <v>45001</v>
+      </c>
+      <c r="C40" s="16">
+        <v>37</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="E40" s="23" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F40" s="20"/>
       <c r="G40" s="21">
-        <v>-65</v>
+        <v>-41.72</v>
       </c>
       <c r="H40" s="21"/>
       <c r="I40" s="21"/>
@@ -9390,20 +9476,20 @@
     <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="43"/>
       <c r="B41" s="15">
-        <v>45012</v>
+        <v>45002</v>
       </c>
       <c r="C41" s="52">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F41" s="20"/>
       <c r="G41" s="21">
-        <v>-260</v>
+        <v>-65</v>
       </c>
       <c r="H41" s="21"/>
       <c r="I41" s="21"/>
@@ -9418,17 +9504,17 @@
         <v>45012</v>
       </c>
       <c r="C42" s="52">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F42" s="20"/>
       <c r="G42" s="21">
-        <v>-11.31</v>
+        <v>-260</v>
       </c>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
@@ -9440,20 +9526,20 @@
     <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="43"/>
       <c r="B43" s="15">
-        <v>45016</v>
+        <v>45012</v>
       </c>
       <c r="C43" s="52">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F43" s="17"/>
+        <v>14</v>
+      </c>
+      <c r="F43" s="20"/>
       <c r="G43" s="21">
-        <v>-25.57</v>
+        <v>-11.31</v>
       </c>
       <c r="H43" s="21"/>
       <c r="I43" s="21"/>
@@ -9468,17 +9554,17 @@
         <v>45016</v>
       </c>
       <c r="C44" s="52">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F44" s="17"/>
       <c r="G44" s="21">
-        <v>-144.30000000000001</v>
+        <v>-25.57</v>
       </c>
       <c r="H44" s="21"/>
       <c r="I44" s="21"/>
@@ -9490,20 +9576,20 @@
     <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="43"/>
       <c r="B45" s="15">
-        <v>45019</v>
+        <v>45016</v>
       </c>
       <c r="C45" s="52">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F45" s="20"/>
+        <v>14</v>
+      </c>
+      <c r="F45" s="17"/>
       <c r="G45" s="21">
-        <v>-12</v>
+        <v>-144.30000000000001</v>
       </c>
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
@@ -9515,20 +9601,20 @@
     <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="43"/>
       <c r="B46" s="15">
-        <v>45020</v>
-      </c>
-      <c r="C46" s="16">
-        <v>44</v>
+        <v>45019</v>
+      </c>
+      <c r="C46" s="52">
+        <v>43</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="E46" s="23" t="s">
         <v>22</v>
       </c>
       <c r="F46" s="20"/>
       <c r="G46" s="21">
-        <v>-28</v>
+        <v>-12</v>
       </c>
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
@@ -9542,8 +9628,8 @@
       <c r="B47" s="15">
         <v>45020</v>
       </c>
-      <c r="C47" s="52">
-        <v>45</v>
+      <c r="C47" s="16">
+        <v>44</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>52</v>
@@ -9553,7 +9639,7 @@
       </c>
       <c r="F47" s="20"/>
       <c r="G47" s="21">
-        <v>-134</v>
+        <v>-28</v>
       </c>
       <c r="H47" s="21"/>
       <c r="I47" s="21"/>
@@ -9565,20 +9651,20 @@
     <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="43"/>
       <c r="B48" s="15">
-        <v>45029</v>
+        <v>45020</v>
       </c>
       <c r="C48" s="52">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F48" s="20"/>
       <c r="G48" s="21">
-        <v>-71.59</v>
+        <v>-134</v>
       </c>
       <c r="H48" s="21"/>
       <c r="I48" s="21"/>
@@ -9590,20 +9676,20 @@
     <row r="49" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="43"/>
       <c r="B49" s="15">
-        <v>45030</v>
+        <v>45029</v>
       </c>
       <c r="C49" s="52">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E49" s="23" t="s">
         <v>14</v>
       </c>
       <c r="F49" s="20"/>
       <c r="G49" s="21">
-        <v>-37.4</v>
+        <v>-71.59</v>
       </c>
       <c r="H49" s="21"/>
       <c r="I49" s="21"/>
@@ -9615,20 +9701,20 @@
     <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="43"/>
       <c r="B50" s="15">
-        <v>45033</v>
+        <v>45030</v>
       </c>
       <c r="C50" s="52">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F50" s="20"/>
       <c r="G50" s="21">
-        <v>-18.36</v>
+        <v>-37.4</v>
       </c>
       <c r="H50" s="21"/>
       <c r="I50" s="21"/>
@@ -9640,20 +9726,20 @@
     <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="43"/>
       <c r="B51" s="15">
-        <v>45035</v>
+        <v>45033</v>
       </c>
       <c r="C51" s="52">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E51" s="23" t="s">
         <v>22</v>
       </c>
       <c r="F51" s="20"/>
       <c r="G51" s="21">
-        <v>-41.72</v>
+        <v>-18.36</v>
       </c>
       <c r="H51" s="21"/>
       <c r="I51" s="21"/>
@@ -9665,20 +9751,20 @@
     <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="43"/>
       <c r="B52" s="15">
-        <v>45036</v>
+        <v>45035</v>
       </c>
       <c r="C52" s="52">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F52" s="20"/>
       <c r="G52" s="21">
-        <v>-56.1</v>
+        <v>-41.72</v>
       </c>
       <c r="H52" s="21"/>
       <c r="I52" s="21"/>
@@ -9690,20 +9776,20 @@
     <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="43"/>
       <c r="B53" s="15">
-        <v>45040</v>
+        <v>45036</v>
       </c>
       <c r="C53" s="52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="E53" s="23" t="s">
         <v>0</v>
       </c>
       <c r="F53" s="20"/>
       <c r="G53" s="21">
-        <v>-5.94</v>
+        <v>-56.1</v>
       </c>
       <c r="H53" s="21"/>
       <c r="I53" s="21"/>
@@ -9715,20 +9801,20 @@
     <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="43"/>
       <c r="B54" s="15">
-        <v>45048</v>
+        <v>45040</v>
       </c>
       <c r="C54" s="52">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F54" s="20"/>
       <c r="G54" s="21">
-        <v>-80</v>
+        <v>-5.94</v>
       </c>
       <c r="H54" s="21"/>
       <c r="I54" s="21"/>
@@ -9743,17 +9829,17 @@
         <v>45048</v>
       </c>
       <c r="C55" s="52">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E55" s="23" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F55" s="20"/>
       <c r="G55" s="21">
-        <v>-87.97</v>
+        <v>-80</v>
       </c>
       <c r="H55" s="21"/>
       <c r="I55" s="21"/>
@@ -9768,17 +9854,17 @@
         <v>45048</v>
       </c>
       <c r="C56" s="52">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E56" s="23" t="s">
         <v>0</v>
       </c>
       <c r="F56" s="20"/>
       <c r="G56" s="21">
-        <v>-2.9</v>
+        <v>-87.97</v>
       </c>
       <c r="H56" s="21"/>
       <c r="I56" s="21"/>
@@ -9793,17 +9879,17 @@
         <v>45048</v>
       </c>
       <c r="C57" s="52">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F57" s="20"/>
       <c r="G57" s="21">
-        <v>-12</v>
+        <v>-2.9</v>
       </c>
       <c r="H57" s="21"/>
       <c r="I57" s="21"/>
@@ -9815,20 +9901,20 @@
     <row r="58" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="43"/>
       <c r="B58" s="15">
-        <v>45049</v>
+        <v>45048</v>
       </c>
       <c r="C58" s="52">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="E58" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="F58" s="17"/>
+      <c r="F58" s="20"/>
       <c r="G58" s="21">
-        <v>-123.15</v>
+        <v>-12</v>
       </c>
       <c r="H58" s="21"/>
       <c r="I58" s="21"/>
@@ -9843,17 +9929,17 @@
         <v>45049</v>
       </c>
       <c r="C59" s="52">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="E59" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="F59" s="20"/>
+      <c r="F59" s="17"/>
       <c r="G59" s="21">
-        <v>-134</v>
+        <v>-123.15</v>
       </c>
       <c r="H59" s="21"/>
       <c r="I59" s="21"/>
@@ -9868,7 +9954,7 @@
         <v>45049</v>
       </c>
       <c r="C60" s="52">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>52</v>
@@ -9878,7 +9964,7 @@
       </c>
       <c r="F60" s="20"/>
       <c r="G60" s="21">
-        <v>-28</v>
+        <v>-134</v>
       </c>
       <c r="H60" s="21"/>
       <c r="I60" s="21"/>
@@ -9893,17 +9979,17 @@
         <v>45049</v>
       </c>
       <c r="C61" s="52">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E61" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F61" s="17"/>
+        <v>52</v>
+      </c>
+      <c r="E61" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F61" s="20"/>
       <c r="G61" s="21">
-        <v>-77.959999999999994</v>
+        <v>-28</v>
       </c>
       <c r="H61" s="21"/>
       <c r="I61" s="21"/>
@@ -9915,20 +10001,20 @@
     <row r="62" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="43"/>
       <c r="B62" s="15">
-        <v>45050</v>
+        <v>45049</v>
       </c>
       <c r="C62" s="52">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E62" s="23" t="s">
-        <v>14</v>
+        <v>112</v>
+      </c>
+      <c r="E62" s="19" t="s">
+        <v>15</v>
       </c>
       <c r="F62" s="17"/>
       <c r="G62" s="21">
-        <v>-60.5</v>
+        <v>-77.959999999999994</v>
       </c>
       <c r="H62" s="21"/>
       <c r="I62" s="21"/>
@@ -9940,20 +10026,20 @@
     <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="43"/>
       <c r="B63" s="15">
-        <v>45054</v>
+        <v>45050</v>
       </c>
       <c r="C63" s="52">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E63" s="23" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F63" s="17"/>
       <c r="G63" s="21">
-        <v>-44.64</v>
+        <v>-60.5</v>
       </c>
       <c r="H63" s="21"/>
       <c r="I63" s="21"/>
@@ -9968,17 +10054,17 @@
         <v>45054</v>
       </c>
       <c r="C64" s="52">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E64" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="F64" s="20"/>
+      <c r="F64" s="17"/>
       <c r="G64" s="21">
-        <v>-13.75</v>
+        <v>-44.64</v>
       </c>
       <c r="H64" s="21"/>
       <c r="I64" s="21"/>
@@ -9990,20 +10076,20 @@
     <row r="65" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="43"/>
       <c r="B65" s="15">
-        <v>45056</v>
+        <v>45054</v>
       </c>
       <c r="C65" s="52">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E65" s="23" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F65" s="20"/>
       <c r="G65" s="21">
-        <v>-120</v>
+        <v>-13.75</v>
       </c>
       <c r="H65" s="21"/>
       <c r="I65" s="21"/>
@@ -10018,13 +10104,13 @@
         <v>45056</v>
       </c>
       <c r="C66" s="52">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E66" s="23" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F66" s="20"/>
       <c r="G66" s="21">
@@ -10040,20 +10126,20 @@
     <row r="67" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="43"/>
       <c r="B67" s="15">
-        <v>45061</v>
+        <v>45056</v>
       </c>
       <c r="C67" s="52">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E67" s="23" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F67" s="20"/>
       <c r="G67" s="21">
-        <v>-27.36</v>
+        <v>-120</v>
       </c>
       <c r="H67" s="21"/>
       <c r="I67" s="21"/>
@@ -10068,17 +10154,17 @@
         <v>45061</v>
       </c>
       <c r="C68" s="52">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E68" s="23" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F68" s="20"/>
       <c r="G68" s="21">
-        <v>-79.900000000000006</v>
+        <v>-27.36</v>
       </c>
       <c r="H68" s="21"/>
       <c r="I68" s="21"/>
@@ -10090,20 +10176,20 @@
     <row r="69" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="43"/>
       <c r="B69" s="15">
-        <v>45063</v>
+        <v>45061</v>
       </c>
       <c r="C69" s="52">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E69" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="F69" s="21"/>
+      <c r="F69" s="20"/>
       <c r="G69" s="21">
-        <v>-9.3000000000000007</v>
+        <v>-79.900000000000006</v>
       </c>
       <c r="H69" s="21"/>
       <c r="I69" s="21"/>
@@ -10115,20 +10201,20 @@
     <row r="70" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="43"/>
       <c r="B70" s="15">
-        <v>45065</v>
+        <v>45063</v>
       </c>
       <c r="C70" s="52">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="E70" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F70" s="20"/>
+        <v>0</v>
+      </c>
+      <c r="F70" s="21"/>
       <c r="G70" s="21">
-        <v>-41.72</v>
+        <v>-9.3000000000000007</v>
       </c>
       <c r="H70" s="21"/>
       <c r="I70" s="21"/>
@@ -10143,17 +10229,17 @@
         <v>45065</v>
       </c>
       <c r="C71" s="52">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>122</v>
+        <v>57</v>
       </c>
       <c r="E71" s="23" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F71" s="20"/>
       <c r="G71" s="21">
-        <v>-99.99</v>
+        <v>-41.72</v>
       </c>
       <c r="H71" s="20"/>
       <c r="I71" s="21"/>
@@ -10168,17 +10254,17 @@
         <v>45065</v>
       </c>
       <c r="C72" s="52">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E72" s="23" t="s">
         <v>0</v>
       </c>
       <c r="F72" s="20"/>
       <c r="G72" s="21">
-        <v>-11.99</v>
+        <v>-99.99</v>
       </c>
       <c r="H72" s="21"/>
       <c r="I72" s="21"/>
@@ -10190,20 +10276,20 @@
     <row r="73" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="43"/>
       <c r="B73" s="15">
-        <v>45068</v>
+        <v>45065</v>
       </c>
       <c r="C73" s="52">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E73" s="19" t="s">
-        <v>13</v>
+        <v>123</v>
+      </c>
+      <c r="E73" s="23" t="s">
+        <v>0</v>
       </c>
       <c r="F73" s="20"/>
       <c r="G73" s="21">
-        <v>-40</v>
+        <v>-11.99</v>
       </c>
       <c r="H73" s="21"/>
       <c r="I73" s="21"/>
@@ -10215,20 +10301,20 @@
     <row r="74" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="43"/>
       <c r="B74" s="15">
-        <v>45070</v>
+        <v>45068</v>
       </c>
       <c r="C74" s="52">
-        <v>72</v>
-      </c>
-      <c r="D74" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="E74" s="23" t="s">
-        <v>23</v>
+        <v>71</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E74" s="19" t="s">
+        <v>13</v>
       </c>
       <c r="F74" s="20"/>
       <c r="G74" s="21">
-        <v>-20</v>
+        <v>-40</v>
       </c>
       <c r="H74" s="21"/>
       <c r="I74" s="21"/>
@@ -10240,20 +10326,20 @@
     <row r="75" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="43"/>
       <c r="B75" s="15">
-        <v>45076</v>
+        <v>45070</v>
       </c>
       <c r="C75" s="52">
-        <v>73</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>131</v>
+        <v>72</v>
+      </c>
+      <c r="D75" s="39" t="s">
+        <v>126</v>
       </c>
       <c r="E75" s="23" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F75" s="20"/>
       <c r="G75" s="21">
-        <v>-293.93</v>
+        <v>-20</v>
       </c>
       <c r="H75" s="21"/>
       <c r="I75" s="21"/>
@@ -10268,17 +10354,17 @@
         <v>45076</v>
       </c>
       <c r="C76" s="52">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E76" s="19" t="s">
-        <v>15</v>
+        <v>131</v>
+      </c>
+      <c r="E76" s="23" t="s">
+        <v>14</v>
       </c>
       <c r="F76" s="20"/>
       <c r="G76" s="21">
-        <v>-70.540000000000006</v>
+        <v>-293.93</v>
       </c>
       <c r="H76" s="21"/>
       <c r="I76" s="21"/>
@@ -10290,20 +10376,20 @@
     <row r="77" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="43"/>
       <c r="B77" s="15">
-        <v>45078</v>
+        <v>45076</v>
       </c>
       <c r="C77" s="52">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E77" s="23" t="s">
-        <v>22</v>
+        <v>134</v>
+      </c>
+      <c r="E77" s="19" t="s">
+        <v>15</v>
       </c>
       <c r="F77" s="20"/>
       <c r="G77" s="21">
-        <v>-12</v>
+        <v>-70.540000000000006</v>
       </c>
       <c r="H77" s="21"/>
       <c r="I77" s="21"/>
@@ -10315,20 +10401,20 @@
     <row r="78" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="43"/>
       <c r="B78" s="15">
-        <v>45079</v>
+        <v>45078</v>
       </c>
       <c r="C78" s="52">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="E78" s="23" t="s">
         <v>22</v>
       </c>
       <c r="F78" s="20"/>
       <c r="G78" s="21">
-        <v>-134</v>
+        <v>-12</v>
       </c>
       <c r="H78" s="21"/>
       <c r="I78" s="21"/>
@@ -10343,7 +10429,7 @@
         <v>45079</v>
       </c>
       <c r="C79" s="52">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>52</v>
@@ -10353,7 +10439,7 @@
       </c>
       <c r="F79" s="20"/>
       <c r="G79" s="21">
-        <v>-28</v>
+        <v>-134</v>
       </c>
       <c r="H79" s="21"/>
       <c r="I79" s="21"/>
@@ -10368,17 +10454,17 @@
         <v>45079</v>
       </c>
       <c r="C80" s="52">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="E80" s="23" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F80" s="20"/>
       <c r="G80" s="21">
-        <v>-9.67</v>
+        <v>-28</v>
       </c>
       <c r="H80" s="21"/>
       <c r="I80" s="21"/>
@@ -10390,20 +10476,20 @@
     <row r="81" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="43"/>
       <c r="B81" s="15">
-        <v>45084</v>
+        <v>45079</v>
       </c>
       <c r="C81" s="52">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E81" s="23" t="s">
         <v>0</v>
       </c>
       <c r="F81" s="20"/>
       <c r="G81" s="21">
-        <v>-5.04</v>
+        <v>-9.67</v>
       </c>
       <c r="H81" s="21"/>
       <c r="I81" s="21"/>
@@ -10418,17 +10504,17 @@
         <v>45084</v>
       </c>
       <c r="C82" s="52">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E82" s="23" t="s">
         <v>0</v>
       </c>
       <c r="F82" s="20"/>
       <c r="G82" s="21">
-        <v>-52.46</v>
+        <v>-5.04</v>
       </c>
       <c r="H82" s="21"/>
       <c r="I82" s="21"/>
@@ -10440,20 +10526,20 @@
     <row r="83" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="43"/>
       <c r="B83" s="15">
-        <v>45092</v>
+        <v>45084</v>
       </c>
       <c r="C83" s="52">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E83" s="23" t="s">
         <v>0</v>
       </c>
       <c r="F83" s="20"/>
       <c r="G83" s="21">
-        <v>-57.56</v>
+        <v>-52.46</v>
       </c>
       <c r="H83" s="21"/>
       <c r="I83" s="21"/>
@@ -10465,20 +10551,20 @@
     <row r="84" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="43"/>
       <c r="B84" s="15">
-        <v>45097</v>
+        <v>45092</v>
       </c>
       <c r="C84" s="52">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="E84" s="23" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F84" s="20"/>
       <c r="G84" s="21">
-        <v>-41.72</v>
+        <v>-57.56</v>
       </c>
       <c r="H84" s="21"/>
       <c r="I84" s="21"/>
@@ -10493,17 +10579,17 @@
         <v>45097</v>
       </c>
       <c r="C85" s="52">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>143</v>
+        <v>57</v>
       </c>
       <c r="E85" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F85" s="20"/>
       <c r="G85" s="21">
-        <v>-20</v>
+        <v>-41.72</v>
       </c>
       <c r="H85" s="21"/>
       <c r="I85" s="21"/>
@@ -10515,20 +10601,20 @@
     <row r="86" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="43"/>
       <c r="B86" s="15">
-        <v>45104</v>
+        <v>45097</v>
       </c>
       <c r="C86" s="52">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E86" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="F86" s="17"/>
+        <v>23</v>
+      </c>
+      <c r="F86" s="20"/>
       <c r="G86" s="21">
-        <v>-13.58</v>
+        <v>-20</v>
       </c>
       <c r="H86" s="21"/>
       <c r="I86" s="21"/>
@@ -10540,20 +10626,20 @@
     <row r="87" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="43"/>
       <c r="B87" s="15">
-        <v>45105</v>
-      </c>
-      <c r="C87" s="16">
-        <v>85</v>
+        <v>45104</v>
+      </c>
+      <c r="C87" s="52">
+        <v>84</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E87" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E87" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="F87" s="20"/>
+      <c r="F87" s="17"/>
       <c r="G87" s="21">
-        <v>-38.18</v>
+        <v>-13.58</v>
       </c>
       <c r="H87" s="21"/>
       <c r="I87" s="21"/>
@@ -10565,20 +10651,20 @@
     <row r="88" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="43"/>
       <c r="B88" s="15">
-        <v>45107</v>
+        <v>45105</v>
       </c>
       <c r="C88" s="16">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E88" s="23" t="s">
-        <v>22</v>
+        <v>147</v>
+      </c>
+      <c r="E88" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="F88" s="20"/>
       <c r="G88" s="21">
-        <v>-25.57</v>
+        <v>-38.18</v>
       </c>
       <c r="H88" s="21"/>
       <c r="I88" s="21"/>
@@ -10590,20 +10676,20 @@
     <row r="89" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="43"/>
       <c r="B89" s="15">
-        <v>45110</v>
+        <v>45107</v>
       </c>
       <c r="C89" s="16">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E89" s="19" t="s">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="E89" s="23" t="s">
+        <v>22</v>
       </c>
       <c r="F89" s="20"/>
       <c r="G89" s="21">
-        <v>-17.940000000000001</v>
+        <v>-25.57</v>
       </c>
       <c r="H89" s="21"/>
       <c r="I89" s="21"/>
@@ -10617,18 +10703,18 @@
       <c r="B90" s="15">
         <v>45110</v>
       </c>
-      <c r="C90" s="52">
-        <v>88</v>
+      <c r="C90" s="16">
+        <v>87</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E90" s="23" t="s">
-        <v>22</v>
+        <v>148</v>
+      </c>
+      <c r="E90" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="F90" s="20"/>
       <c r="G90" s="21">
-        <v>-12</v>
+        <v>-17.940000000000001</v>
       </c>
       <c r="H90" s="21"/>
       <c r="I90" s="21"/>
@@ -10643,17 +10729,17 @@
         <v>45110</v>
       </c>
       <c r="C91" s="52">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="E91" s="23" t="s">
         <v>22</v>
       </c>
       <c r="F91" s="20"/>
       <c r="G91" s="21">
-        <v>-134</v>
+        <v>-12</v>
       </c>
       <c r="H91" s="21"/>
       <c r="I91" s="21"/>
@@ -10665,10 +10751,10 @@
     <row r="92" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="43"/>
       <c r="B92" s="15">
-        <v>45110</v>
+        <v>45111</v>
       </c>
       <c r="C92" s="52">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>52</v>
@@ -10678,7 +10764,7 @@
       </c>
       <c r="F92" s="20"/>
       <c r="G92" s="21">
-        <v>-28</v>
+        <v>-134</v>
       </c>
       <c r="H92" s="21"/>
       <c r="I92" s="21"/>
@@ -10689,14 +10775,22 @@
     </row>
     <row r="93" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="43"/>
-      <c r="B93" s="15"/>
+      <c r="B93" s="15">
+        <v>45111</v>
+      </c>
       <c r="C93" s="52">
-        <v>91</v>
-      </c>
-      <c r="D93" s="3"/>
-      <c r="E93" s="23"/>
+        <v>90</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E93" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F93" s="20"/>
-      <c r="G93" s="21"/>
+      <c r="G93" s="21">
+        <v>-28</v>
+      </c>
       <c r="H93" s="21"/>
       <c r="I93" s="21"/>
       <c r="J93" s="22"/>
@@ -10706,14 +10800,22 @@
     </row>
     <row r="94" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="43"/>
-      <c r="B94" s="15"/>
+      <c r="B94" s="15">
+        <v>45118</v>
+      </c>
       <c r="C94" s="52">
-        <v>92</v>
-      </c>
-      <c r="D94" s="3"/>
-      <c r="E94" s="23"/>
+        <v>91</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E94" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F94" s="20"/>
-      <c r="G94" s="21"/>
+      <c r="G94" s="21">
+        <v>-127.7</v>
+      </c>
       <c r="H94" s="21"/>
       <c r="I94" s="21"/>
       <c r="J94" s="22"/>
@@ -10723,14 +10825,22 @@
     </row>
     <row r="95" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="43"/>
-      <c r="B95" s="15"/>
+      <c r="B95" s="15">
+        <v>45119</v>
+      </c>
       <c r="C95" s="52">
-        <v>93</v>
-      </c>
-      <c r="D95" s="3"/>
-      <c r="E95" s="23"/>
-      <c r="F95" s="17"/>
-      <c r="G95" s="21"/>
+        <v>92</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E95" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" s="20"/>
+      <c r="G95" s="21">
+        <v>-45</v>
+      </c>
       <c r="H95" s="21"/>
       <c r="I95" s="21"/>
       <c r="J95" s="22"/>
@@ -10740,14 +10850,22 @@
     </row>
     <row r="96" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="43"/>
-      <c r="B96" s="15"/>
+      <c r="B96" s="15">
+        <v>45119</v>
+      </c>
       <c r="C96" s="52">
-        <v>94</v>
-      </c>
-      <c r="D96" s="3"/>
-      <c r="E96" s="23"/>
+        <v>93</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E96" s="23" t="s">
+        <v>28</v>
+      </c>
       <c r="F96" s="17"/>
-      <c r="G96" s="21"/>
+      <c r="G96" s="21">
+        <v>-100</v>
+      </c>
       <c r="H96" s="21"/>
       <c r="I96" s="21"/>
       <c r="J96" s="22"/>
@@ -10757,14 +10875,22 @@
     </row>
     <row r="97" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="43"/>
-      <c r="B97" s="15"/>
+      <c r="B97" s="15">
+        <v>45119</v>
+      </c>
       <c r="C97" s="52">
-        <v>95</v>
-      </c>
-      <c r="D97" s="3"/>
-      <c r="E97" s="23"/>
-      <c r="F97" s="20"/>
-      <c r="G97" s="21"/>
+        <v>94</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E97" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F97" s="17"/>
+      <c r="G97" s="21">
+        <v>-3.72</v>
+      </c>
       <c r="H97" s="21"/>
       <c r="I97" s="21"/>
       <c r="J97" s="22"/>
@@ -10774,14 +10900,22 @@
     </row>
     <row r="98" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="43"/>
-      <c r="B98" s="15"/>
+      <c r="B98" s="15">
+        <v>45120</v>
+      </c>
       <c r="C98" s="52">
-        <v>96</v>
-      </c>
-      <c r="D98" s="3"/>
-      <c r="E98" s="23"/>
+        <v>95</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E98" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F98" s="20"/>
-      <c r="G98" s="21"/>
+      <c r="G98" s="21">
+        <v>-9.5</v>
+      </c>
       <c r="H98" s="21"/>
       <c r="I98" s="21"/>
       <c r="J98" s="22"/>
@@ -10791,14 +10925,22 @@
     </row>
     <row r="99" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="43"/>
-      <c r="B99" s="15"/>
+      <c r="B99" s="15">
+        <v>45120</v>
+      </c>
       <c r="C99" s="52">
-        <v>97</v>
-      </c>
-      <c r="D99" s="16"/>
-      <c r="E99" s="23"/>
+        <v>96</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E99" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F99" s="20"/>
-      <c r="G99" s="21"/>
+      <c r="G99" s="21">
+        <v>-1.69</v>
+      </c>
       <c r="H99" s="21"/>
       <c r="I99" s="21"/>
       <c r="J99" s="22"/>
@@ -10808,14 +10950,22 @@
     </row>
     <row r="100" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="43"/>
-      <c r="B100" s="15"/>
+      <c r="B100" s="15">
+        <v>45124</v>
+      </c>
       <c r="C100" s="52">
-        <v>98</v>
-      </c>
-      <c r="D100" s="3"/>
-      <c r="E100" s="23"/>
+        <v>97</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E100" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F100" s="20"/>
-      <c r="G100" s="21"/>
+      <c r="G100" s="21">
+        <v>-18.36</v>
+      </c>
       <c r="H100" s="21"/>
       <c r="I100" s="21"/>
       <c r="J100" s="22"/>
@@ -10827,13 +10977,21 @@
     </row>
     <row r="101" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="43"/>
-      <c r="B101" s="15"/>
+      <c r="B101" s="15">
+        <v>45124</v>
+      </c>
       <c r="C101" s="52">
-        <v>99</v>
-      </c>
-      <c r="D101" s="3"/>
-      <c r="E101" s="23"/>
-      <c r="F101" s="20"/>
+        <v>98</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E101" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F101" s="20">
+        <v>-1380</v>
+      </c>
       <c r="G101" s="21"/>
       <c r="H101" s="21"/>
       <c r="I101" s="21"/>
@@ -10844,14 +11002,22 @@
     </row>
     <row r="102" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="43"/>
-      <c r="B102" s="15"/>
+      <c r="B102" s="15">
+        <v>45125</v>
+      </c>
       <c r="C102" s="52">
-        <v>100</v>
-      </c>
-      <c r="D102" s="3"/>
-      <c r="E102" s="19"/>
+        <v>99</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E102" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F102" s="20"/>
-      <c r="G102" s="21"/>
+      <c r="G102" s="21">
+        <v>-41.72</v>
+      </c>
       <c r="H102" s="21"/>
       <c r="I102" s="21"/>
       <c r="J102" s="22"/>
@@ -10861,14 +11027,22 @@
     </row>
     <row r="103" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="43"/>
-      <c r="B103" s="15"/>
+      <c r="B103" s="15">
+        <v>45127</v>
+      </c>
       <c r="C103" s="52">
-        <v>101</v>
-      </c>
-      <c r="D103" s="3"/>
-      <c r="E103" s="19"/>
+        <v>100</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E103" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F103" s="20"/>
-      <c r="G103" s="21"/>
+      <c r="G103" s="21">
+        <v>-109.83</v>
+      </c>
       <c r="H103" s="21"/>
       <c r="I103" s="21"/>
       <c r="J103" s="22"/>
@@ -10878,13 +11052,21 @@
     </row>
     <row r="104" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="43"/>
-      <c r="B104" s="15"/>
+      <c r="B104" s="15">
+        <v>45128</v>
+      </c>
       <c r="C104" s="52">
-        <v>102</v>
-      </c>
-      <c r="D104" s="3"/>
-      <c r="E104" s="23"/>
-      <c r="F104" s="20"/>
+        <v>101</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E104" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F104" s="20">
+        <v>-129.71</v>
+      </c>
       <c r="G104" s="21"/>
       <c r="H104" s="21"/>
       <c r="I104" s="21"/>
@@ -10896,12 +11078,12 @@
     <row r="105" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="43"/>
       <c r="B105" s="15"/>
-      <c r="C105" s="52" t="s">
-        <v>47</v>
+      <c r="C105" s="52">
+        <v>102</v>
       </c>
       <c r="D105" s="3"/>
       <c r="E105" s="23"/>
-      <c r="F105" s="17"/>
+      <c r="F105" s="20"/>
       <c r="G105" s="21"/>
       <c r="H105" s="21"/>
       <c r="I105" s="21"/>
@@ -10913,8 +11095,8 @@
     <row r="106" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="43"/>
       <c r="B106" s="15"/>
-      <c r="C106" s="52">
-        <v>103</v>
+      <c r="C106" s="52" t="s">
+        <v>47</v>
       </c>
       <c r="D106" s="3"/>
       <c r="E106" s="23"/>
@@ -10931,7 +11113,7 @@
       <c r="A107" s="43"/>
       <c r="B107" s="15"/>
       <c r="C107" s="52">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D107" s="3"/>
       <c r="E107" s="23"/>
@@ -10948,11 +11130,11 @@
       <c r="A108" s="43"/>
       <c r="B108" s="15"/>
       <c r="C108" s="52">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D108" s="3"/>
       <c r="E108" s="23"/>
-      <c r="F108" s="20"/>
+      <c r="F108" s="17"/>
       <c r="G108" s="21"/>
       <c r="H108" s="21"/>
       <c r="I108" s="21"/>
@@ -10965,7 +11147,7 @@
       <c r="A109" s="43"/>
       <c r="B109" s="15"/>
       <c r="C109" s="52">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D109" s="3"/>
       <c r="E109" s="23"/>
@@ -10982,10 +11164,10 @@
       <c r="A110" s="43"/>
       <c r="B110" s="15"/>
       <c r="C110" s="52">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D110" s="3"/>
-      <c r="E110" s="19"/>
+      <c r="E110" s="23"/>
       <c r="F110" s="20"/>
       <c r="G110" s="21"/>
       <c r="H110" s="21"/>
@@ -10999,10 +11181,10 @@
       <c r="A111" s="43"/>
       <c r="B111" s="15"/>
       <c r="C111" s="52">
-        <v>108</v>
-      </c>
-      <c r="D111" s="39"/>
-      <c r="E111" s="23"/>
+        <v>107</v>
+      </c>
+      <c r="D111" s="3"/>
+      <c r="E111" s="19"/>
       <c r="F111" s="20"/>
       <c r="G111" s="21"/>
       <c r="H111" s="21"/>
@@ -11016,9 +11198,9 @@
       <c r="A112" s="43"/>
       <c r="B112" s="15"/>
       <c r="C112" s="52">
-        <v>109</v>
-      </c>
-      <c r="D112" s="3"/>
+        <v>108</v>
+      </c>
+      <c r="D112" s="39"/>
       <c r="E112" s="23"/>
       <c r="F112" s="20"/>
       <c r="G112" s="21"/>
@@ -11032,8 +11214,8 @@
     <row r="113" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="43"/>
       <c r="B113" s="15"/>
-      <c r="C113" s="16">
-        <v>110</v>
+      <c r="C113" s="52">
+        <v>109</v>
       </c>
       <c r="D113" s="3"/>
       <c r="E113" s="23"/>
@@ -11050,7 +11232,7 @@
       <c r="A114" s="43"/>
       <c r="B114" s="15"/>
       <c r="C114" s="16">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="23"/>
@@ -11067,10 +11249,10 @@
       <c r="A115" s="43"/>
       <c r="B115" s="15"/>
       <c r="C115" s="16">
-        <v>112</v>
-      </c>
-      <c r="D115" s="39"/>
-      <c r="E115" s="19"/>
+        <v>111</v>
+      </c>
+      <c r="D115" s="3"/>
+      <c r="E115" s="23"/>
       <c r="F115" s="20"/>
       <c r="G115" s="21"/>
       <c r="H115" s="21"/>
@@ -11083,11 +11265,11 @@
     <row r="116" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="43"/>
       <c r="B116" s="15"/>
-      <c r="C116" s="52">
-        <v>113</v>
+      <c r="C116" s="16">
+        <v>112</v>
       </c>
       <c r="D116" s="39"/>
-      <c r="E116" s="23"/>
+      <c r="E116" s="19"/>
       <c r="F116" s="20"/>
       <c r="G116" s="21"/>
       <c r="H116" s="21"/>
@@ -11101,9 +11283,9 @@
       <c r="A117" s="43"/>
       <c r="B117" s="15"/>
       <c r="C117" s="52">
-        <v>114</v>
-      </c>
-      <c r="D117" s="3"/>
+        <v>113</v>
+      </c>
+      <c r="D117" s="39"/>
       <c r="E117" s="23"/>
       <c r="F117" s="20"/>
       <c r="G117" s="21"/>
@@ -11118,7 +11300,7 @@
       <c r="A118" s="43"/>
       <c r="B118" s="15"/>
       <c r="C118" s="52">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="23"/>
@@ -11135,11 +11317,11 @@
       <c r="A119" s="43"/>
       <c r="B119" s="15"/>
       <c r="C119" s="52">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D119" s="3"/>
       <c r="E119" s="23"/>
-      <c r="F119" s="17"/>
+      <c r="F119" s="20"/>
       <c r="G119" s="21"/>
       <c r="H119" s="21"/>
       <c r="I119" s="21"/>
@@ -11152,7 +11334,7 @@
       <c r="A120" s="43"/>
       <c r="B120" s="15"/>
       <c r="C120" s="52">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D120" s="3"/>
       <c r="E120" s="23"/>
@@ -11169,11 +11351,11 @@
       <c r="A121" s="43"/>
       <c r="B121" s="15"/>
       <c r="C121" s="52">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="23"/>
-      <c r="F121" s="20"/>
+      <c r="F121" s="17"/>
       <c r="G121" s="21"/>
       <c r="H121" s="21"/>
       <c r="I121" s="21"/>
@@ -11186,7 +11368,7 @@
       <c r="A122" s="43"/>
       <c r="B122" s="15"/>
       <c r="C122" s="52">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D122" s="3"/>
       <c r="E122" s="23"/>
@@ -11203,9 +11385,9 @@
       <c r="A123" s="43"/>
       <c r="B123" s="15"/>
       <c r="C123" s="52">
-        <v>120</v>
-      </c>
-      <c r="D123" s="39"/>
+        <v>119</v>
+      </c>
+      <c r="D123" s="3"/>
       <c r="E123" s="23"/>
       <c r="F123" s="20"/>
       <c r="G123" s="21"/>
@@ -11220,9 +11402,9 @@
       <c r="A124" s="43"/>
       <c r="B124" s="15"/>
       <c r="C124" s="52">
-        <v>121</v>
-      </c>
-      <c r="D124" s="3"/>
+        <v>120</v>
+      </c>
+      <c r="D124" s="39"/>
       <c r="E124" s="23"/>
       <c r="F124" s="20"/>
       <c r="G124" s="21"/>
@@ -11237,7 +11419,7 @@
       <c r="A125" s="43"/>
       <c r="B125" s="15"/>
       <c r="C125" s="52">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D125" s="3"/>
       <c r="E125" s="23"/>
@@ -11254,7 +11436,7 @@
       <c r="A126" s="43"/>
       <c r="B126" s="15"/>
       <c r="C126" s="52">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="23"/>
@@ -11271,7 +11453,7 @@
       <c r="A127" s="43"/>
       <c r="B127" s="15"/>
       <c r="C127" s="52">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D127" s="3"/>
       <c r="E127" s="23"/>
@@ -11288,9 +11470,9 @@
       <c r="A128" s="43"/>
       <c r="B128" s="15"/>
       <c r="C128" s="52">
-        <v>125</v>
-      </c>
-      <c r="D128" s="39"/>
+        <v>124</v>
+      </c>
+      <c r="D128" s="3"/>
       <c r="E128" s="23"/>
       <c r="F128" s="20"/>
       <c r="G128" s="21"/>
@@ -11305,7 +11487,7 @@
       <c r="A129" s="43"/>
       <c r="B129" s="15"/>
       <c r="C129" s="52">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D129" s="39"/>
       <c r="E129" s="23"/>
@@ -11322,7 +11504,7 @@
       <c r="A130" s="43"/>
       <c r="B130" s="15"/>
       <c r="C130" s="52">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D130" s="39"/>
       <c r="E130" s="23"/>
@@ -11339,9 +11521,9 @@
       <c r="A131" s="43"/>
       <c r="B131" s="15"/>
       <c r="C131" s="52">
-        <v>128</v>
-      </c>
-      <c r="D131" s="3"/>
+        <v>127</v>
+      </c>
+      <c r="D131" s="39"/>
       <c r="E131" s="23"/>
       <c r="F131" s="20"/>
       <c r="G131" s="21"/>
@@ -11356,11 +11538,11 @@
       <c r="A132" s="43"/>
       <c r="B132" s="15"/>
       <c r="C132" s="52">
-        <v>129</v>
-      </c>
-      <c r="D132" s="54"/>
+        <v>128</v>
+      </c>
+      <c r="D132" s="3"/>
       <c r="E132" s="23"/>
-      <c r="F132" s="55"/>
+      <c r="F132" s="20"/>
       <c r="G132" s="21"/>
       <c r="H132" s="21"/>
       <c r="I132" s="21"/>
@@ -11373,11 +11555,11 @@
       <c r="A133" s="43"/>
       <c r="B133" s="15"/>
       <c r="C133" s="52">
-        <v>130</v>
-      </c>
-      <c r="D133" s="3"/>
+        <v>129</v>
+      </c>
+      <c r="D133" s="54"/>
       <c r="E133" s="23"/>
-      <c r="F133" s="20"/>
+      <c r="F133" s="55"/>
       <c r="G133" s="21"/>
       <c r="H133" s="21"/>
       <c r="I133" s="21"/>
@@ -11390,11 +11572,11 @@
       <c r="A134" s="43"/>
       <c r="B134" s="15"/>
       <c r="C134" s="52">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D134" s="3"/>
       <c r="E134" s="23"/>
-      <c r="F134" s="17"/>
+      <c r="F134" s="20"/>
       <c r="G134" s="21"/>
       <c r="H134" s="21"/>
       <c r="I134" s="21"/>
@@ -11407,7 +11589,7 @@
       <c r="A135" s="43"/>
       <c r="B135" s="15"/>
       <c r="C135" s="52">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D135" s="3"/>
       <c r="E135" s="23"/>
@@ -11424,11 +11606,11 @@
       <c r="A136" s="43"/>
       <c r="B136" s="15"/>
       <c r="C136" s="52">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D136" s="3"/>
       <c r="E136" s="23"/>
-      <c r="F136" s="20"/>
+      <c r="F136" s="17"/>
       <c r="G136" s="21"/>
       <c r="H136" s="21"/>
       <c r="I136" s="21"/>
@@ -11441,7 +11623,7 @@
       <c r="A137" s="43"/>
       <c r="B137" s="15"/>
       <c r="C137" s="52">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D137" s="3"/>
       <c r="E137" s="23"/>
@@ -11458,7 +11640,7 @@
       <c r="A138" s="43"/>
       <c r="B138" s="15"/>
       <c r="C138" s="52">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D138" s="3"/>
       <c r="E138" s="23"/>
@@ -11475,9 +11657,9 @@
       <c r="A139" s="43"/>
       <c r="B139" s="15"/>
       <c r="C139" s="52">
-        <v>136</v>
-      </c>
-      <c r="D139" s="39"/>
+        <v>135</v>
+      </c>
+      <c r="D139" s="3"/>
       <c r="E139" s="23"/>
       <c r="F139" s="20"/>
       <c r="G139" s="21"/>
@@ -11491,10 +11673,10 @@
     <row r="140" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="43"/>
       <c r="B140" s="15"/>
-      <c r="C140" s="16">
-        <v>137</v>
-      </c>
-      <c r="D140" s="3"/>
+      <c r="C140" s="52">
+        <v>136</v>
+      </c>
+      <c r="D140" s="39"/>
       <c r="E140" s="23"/>
       <c r="F140" s="20"/>
       <c r="G140" s="21"/>
@@ -11509,11 +11691,11 @@
       <c r="A141" s="43"/>
       <c r="B141" s="15"/>
       <c r="C141" s="16">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D141" s="3"/>
-      <c r="E141" s="19"/>
-      <c r="F141" s="17"/>
+      <c r="E141" s="23"/>
+      <c r="F141" s="20"/>
       <c r="G141" s="21"/>
       <c r="H141" s="21"/>
       <c r="I141" s="21"/>
@@ -11526,10 +11708,10 @@
       <c r="A142" s="43"/>
       <c r="B142" s="15"/>
       <c r="C142" s="16">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D142" s="3"/>
-      <c r="E142" s="23"/>
+      <c r="E142" s="19"/>
       <c r="F142" s="17"/>
       <c r="G142" s="21"/>
       <c r="H142" s="21"/>
@@ -11543,7 +11725,7 @@
       <c r="A143" s="43"/>
       <c r="B143" s="15"/>
       <c r="C143" s="16">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D143" s="3"/>
       <c r="E143" s="23"/>
@@ -11560,7 +11742,7 @@
       <c r="A144" s="43"/>
       <c r="B144" s="15"/>
       <c r="C144" s="16">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D144" s="3"/>
       <c r="E144" s="23"/>
@@ -11576,12 +11758,12 @@
     <row r="145" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="43"/>
       <c r="B145" s="15"/>
-      <c r="C145" s="52">
-        <v>142</v>
-      </c>
-      <c r="D145" s="39"/>
-      <c r="E145" s="19"/>
-      <c r="F145" s="20"/>
+      <c r="C145" s="16">
+        <v>141</v>
+      </c>
+      <c r="D145" s="3"/>
+      <c r="E145" s="23"/>
+      <c r="F145" s="17"/>
       <c r="G145" s="21"/>
       <c r="H145" s="21"/>
       <c r="I145" s="21"/>
@@ -11594,12 +11776,12 @@
       <c r="A146" s="43"/>
       <c r="B146" s="15"/>
       <c r="C146" s="52">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D146" s="39"/>
       <c r="E146" s="19"/>
       <c r="F146" s="20"/>
-      <c r="G146" s="20"/>
+      <c r="G146" s="21"/>
       <c r="H146" s="21"/>
       <c r="I146" s="21"/>
       <c r="J146" s="22"/>
@@ -11611,12 +11793,12 @@
       <c r="A147" s="43"/>
       <c r="B147" s="15"/>
       <c r="C147" s="52">
-        <v>144</v>
-      </c>
-      <c r="D147" s="3"/>
-      <c r="E147" s="23"/>
-      <c r="F147" s="17"/>
-      <c r="G147" s="21"/>
+        <v>143</v>
+      </c>
+      <c r="D147" s="39"/>
+      <c r="E147" s="19"/>
+      <c r="F147" s="20"/>
+      <c r="G147" s="20"/>
       <c r="H147" s="21"/>
       <c r="I147" s="21"/>
       <c r="J147" s="22"/>
@@ -11627,11 +11809,11 @@
       <c r="A148" s="43"/>
       <c r="B148" s="15"/>
       <c r="C148" s="52">
-        <v>145</v>
-      </c>
-      <c r="D148" s="39"/>
-      <c r="E148" s="19"/>
-      <c r="F148" s="20"/>
+        <v>144</v>
+      </c>
+      <c r="D148" s="3"/>
+      <c r="E148" s="23"/>
+      <c r="F148" s="17"/>
       <c r="G148" s="21"/>
       <c r="H148" s="21"/>
       <c r="I148" s="21"/>
@@ -11644,10 +11826,10 @@
       <c r="A149" s="43"/>
       <c r="B149" s="15"/>
       <c r="C149" s="52">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D149" s="39"/>
-      <c r="E149" s="23"/>
+      <c r="E149" s="19"/>
       <c r="F149" s="20"/>
       <c r="G149" s="21"/>
       <c r="H149" s="21"/>
@@ -11661,7 +11843,7 @@
       <c r="A150" s="43"/>
       <c r="B150" s="15"/>
       <c r="C150" s="52">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D150" s="39"/>
       <c r="E150" s="23"/>
@@ -11678,7 +11860,7 @@
       <c r="A151" s="43"/>
       <c r="B151" s="15"/>
       <c r="C151" s="52">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D151" s="39"/>
       <c r="E151" s="23"/>
@@ -11695,9 +11877,9 @@
       <c r="A152" s="43"/>
       <c r="B152" s="15"/>
       <c r="C152" s="52">
-        <v>149</v>
-      </c>
-      <c r="D152" s="3"/>
+        <v>148</v>
+      </c>
+      <c r="D152" s="39"/>
       <c r="E152" s="23"/>
       <c r="F152" s="20"/>
       <c r="G152" s="21"/>
@@ -11712,10 +11894,10 @@
       <c r="A153" s="43"/>
       <c r="B153" s="15"/>
       <c r="C153" s="52">
-        <v>150</v>
-      </c>
-      <c r="D153" s="39"/>
-      <c r="E153" s="19"/>
+        <v>149</v>
+      </c>
+      <c r="D153" s="3"/>
+      <c r="E153" s="23"/>
       <c r="F153" s="20"/>
       <c r="G153" s="21"/>
       <c r="H153" s="21"/>
@@ -11729,7 +11911,7 @@
       <c r="A154" s="43"/>
       <c r="B154" s="15"/>
       <c r="C154" s="52">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D154" s="39"/>
       <c r="E154" s="19"/>
@@ -11746,10 +11928,10 @@
       <c r="A155" s="43"/>
       <c r="B155" s="15"/>
       <c r="C155" s="52">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D155" s="39"/>
-      <c r="E155" s="23"/>
+      <c r="E155" s="19"/>
       <c r="F155" s="20"/>
       <c r="G155" s="21"/>
       <c r="H155" s="21"/>
@@ -11763,7 +11945,7 @@
       <c r="A156" s="43"/>
       <c r="B156" s="15"/>
       <c r="C156" s="52">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D156" s="39"/>
       <c r="E156" s="23"/>
@@ -11780,10 +11962,10 @@
       <c r="A157" s="43"/>
       <c r="B157" s="15"/>
       <c r="C157" s="52">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D157" s="39"/>
-      <c r="E157" s="19"/>
+      <c r="E157" s="23"/>
       <c r="F157" s="20"/>
       <c r="G157" s="21"/>
       <c r="H157" s="21"/>
@@ -11797,7 +11979,7 @@
       <c r="A158" s="43"/>
       <c r="B158" s="15"/>
       <c r="C158" s="52">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D158" s="39"/>
       <c r="E158" s="19"/>
@@ -11814,7 +11996,7 @@
       <c r="A159" s="43"/>
       <c r="B159" s="15"/>
       <c r="C159" s="52">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D159" s="39"/>
       <c r="E159" s="19"/>
@@ -11831,10 +12013,10 @@
       <c r="A160" s="43"/>
       <c r="B160" s="15"/>
       <c r="C160" s="52">
-        <v>157</v>
-      </c>
-      <c r="D160" s="3"/>
-      <c r="E160" s="23"/>
+        <v>156</v>
+      </c>
+      <c r="D160" s="39"/>
+      <c r="E160" s="19"/>
       <c r="F160" s="20"/>
       <c r="G160" s="21"/>
       <c r="H160" s="21"/>
@@ -11848,10 +12030,10 @@
       <c r="A161" s="43"/>
       <c r="B161" s="15"/>
       <c r="C161" s="52">
-        <v>158</v>
-      </c>
-      <c r="D161" s="39"/>
-      <c r="E161" s="19"/>
+        <v>157</v>
+      </c>
+      <c r="D161" s="3"/>
+      <c r="E161" s="23"/>
       <c r="F161" s="20"/>
       <c r="G161" s="21"/>
       <c r="H161" s="21"/>
@@ -11865,11 +12047,11 @@
       <c r="A162" s="43"/>
       <c r="B162" s="15"/>
       <c r="C162" s="52">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D162" s="39"/>
       <c r="E162" s="19"/>
-      <c r="F162" s="21"/>
+      <c r="F162" s="20"/>
       <c r="G162" s="21"/>
       <c r="H162" s="21"/>
       <c r="I162" s="21"/>
@@ -11882,11 +12064,11 @@
       <c r="A163" s="43"/>
       <c r="B163" s="15"/>
       <c r="C163" s="52">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D163" s="39"/>
       <c r="E163" s="19"/>
-      <c r="F163" s="20"/>
+      <c r="F163" s="21"/>
       <c r="G163" s="21"/>
       <c r="H163" s="21"/>
       <c r="I163" s="21"/>
@@ -11899,7 +12081,7 @@
       <c r="A164" s="43"/>
       <c r="B164" s="15"/>
       <c r="C164" s="52">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D164" s="39"/>
       <c r="E164" s="19"/>
@@ -11916,7 +12098,7 @@
       <c r="A165" s="43"/>
       <c r="B165" s="15"/>
       <c r="C165" s="52">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D165" s="39"/>
       <c r="E165" s="19"/>
@@ -11932,7 +12114,9 @@
     <row r="166" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="43"/>
       <c r="B166" s="15"/>
-      <c r="C166" s="52"/>
+      <c r="C166" s="52">
+        <v>162</v>
+      </c>
       <c r="D166" s="39"/>
       <c r="E166" s="19"/>
       <c r="F166" s="20"/>
@@ -12006,27 +12190,19 @@
     </row>
     <row r="171" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="43"/>
-      <c r="B171" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C171" s="53"/>
-      <c r="D171" s="31"/>
-      <c r="E171" s="32"/>
-      <c r="F171" s="33">
-        <f>SUM(F3:F170)</f>
-        <v>0</v>
-      </c>
-      <c r="G171" s="34">
-        <f>SUM(G3:G170)</f>
-        <v>-5229.1100000000006</v>
-      </c>
+      <c r="B171" s="15"/>
+      <c r="C171" s="52"/>
+      <c r="D171" s="39"/>
+      <c r="E171" s="19"/>
+      <c r="F171" s="20"/>
+      <c r="G171" s="21"/>
       <c r="H171" s="34">
         <f>SUM(H3:H170)</f>
         <v>0</v>
       </c>
       <c r="I171" s="34">
         <f>SUM(I3:I170)</f>
-        <v>-163.41</v>
+        <v>-163.91</v>
       </c>
       <c r="J171" s="47">
         <f>SUM(J3:J170)</f>
@@ -12039,12 +12215,20 @@
     </row>
     <row r="172" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="44"/>
-      <c r="B172" s="18"/>
-      <c r="C172" s="18"/>
-      <c r="D172" s="18"/>
-      <c r="E172" s="18"/>
-      <c r="F172" s="18"/>
-      <c r="G172" s="18"/>
+      <c r="B172" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C172" s="53"/>
+      <c r="D172" s="31"/>
+      <c r="E172" s="32"/>
+      <c r="F172" s="33">
+        <f>SUM(F3:F171)</f>
+        <v>-1509.71</v>
+      </c>
+      <c r="G172" s="34">
+        <f>SUM(G3:G171)</f>
+        <v>-5686.63</v>
+      </c>
       <c r="H172" s="18"/>
       <c r="I172" s="18"/>
       <c r="J172" s="18"/>
@@ -13001,250 +13185,243 @@
       <c r="A236" s="44"/>
       <c r="B236" s="18"/>
       <c r="C236" s="18"/>
+      <c r="D236" s="18"/>
+      <c r="E236" s="18"/>
+      <c r="F236" s="18"/>
+      <c r="G236" s="18"/>
       <c r="I236" s="18"/>
       <c r="K236" s="2"/>
       <c r="M236" s="2"/>
     </row>
     <row r="237" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B237" s="18"/>
+      <c r="C237" s="18"/>
       <c r="I237" s="18"/>
+    </row>
+    <row r="238" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B238" s="18"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:K165" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A3:A236">
-    <cfRule type="cellIs" dxfId="44" priority="640" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="A3:A236 H172:H235 D173:G236 E3:E148">
+    <cfRule type="cellIs" dxfId="40" priority="640" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B124:B129">
-    <cfRule type="cellIs" dxfId="43" priority="458" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B125:B130">
+    <cfRule type="cellIs" dxfId="39" priority="458" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B131">
-    <cfRule type="cellIs" dxfId="42" priority="452" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B132">
+    <cfRule type="cellIs" dxfId="38" priority="452" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B134:B138">
-    <cfRule type="cellIs" dxfId="41" priority="441" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B135:B139">
+    <cfRule type="cellIs" dxfId="37" priority="441" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B152:B154">
-    <cfRule type="cellIs" dxfId="40" priority="37" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B153:B155">
+    <cfRule type="cellIs" dxfId="36" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B160">
-    <cfRule type="cellIs" dxfId="39" priority="410" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B161">
+    <cfRule type="cellIs" dxfId="35" priority="410" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B163:B237">
-    <cfRule type="cellIs" dxfId="38" priority="404" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B164:B238">
+    <cfRule type="cellIs" dxfId="34" priority="404" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B162:C162">
-    <cfRule type="cellIs" dxfId="37" priority="406" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B163:C163">
+    <cfRule type="cellIs" dxfId="33" priority="406" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B155:D157">
-    <cfRule type="cellIs" dxfId="36" priority="418" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B156:D158">
+    <cfRule type="cellIs" dxfId="32" priority="418" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B159:D159">
-    <cfRule type="cellIs" dxfId="35" priority="414" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B160:D160">
+    <cfRule type="cellIs" dxfId="31" priority="414" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B161:D161">
-    <cfRule type="cellIs" dxfId="34" priority="409" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B162:D162">
+    <cfRule type="cellIs" dxfId="30" priority="409" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B158:E158">
-    <cfRule type="cellIs" dxfId="33" priority="415" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B159:E159">
+    <cfRule type="cellIs" dxfId="29" priority="415" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C112">
-    <cfRule type="cellIs" dxfId="32" priority="479" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="C113">
+    <cfRule type="cellIs" dxfId="28" priority="479" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C122">
-    <cfRule type="cellIs" dxfId="31" priority="596" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="C123">
+    <cfRule type="cellIs" dxfId="27" priority="596" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C132:C135">
-    <cfRule type="cellIs" dxfId="30" priority="448" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="C133:C136">
+    <cfRule type="cellIs" dxfId="26" priority="448" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C146:C147">
-    <cfRule type="cellIs" dxfId="29" priority="428" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="C147:C148">
+    <cfRule type="cellIs" dxfId="25" priority="428" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C152">
-    <cfRule type="cellIs" dxfId="28" priority="425" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="C153">
+    <cfRule type="cellIs" dxfId="24" priority="425" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C111:D111 C124 C127:C128 D128 B130:D130 B139:D139 C145:D145 C148:E148 B150:D151 C153:E153 C154 C163:C236 D172:H235 J172:J235 I172:I237 K173">
-    <cfRule type="cellIs" dxfId="27" priority="688" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="C112:D112 C125 C128:C129 D129 B131:D131 B140:D140 C146:D146 C149:E149 B151:D152 C154:E154 C155 C164:C237 J172:J235 I172:I237 K173">
+    <cfRule type="cellIs" dxfId="23" priority="688" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C129:D129">
-    <cfRule type="cellIs" dxfId="26" priority="456" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="C130:D130">
+    <cfRule type="cellIs" dxfId="22" priority="456" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C149:D149">
-    <cfRule type="cellIs" dxfId="25" priority="427" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="C150:D150">
+    <cfRule type="cellIs" dxfId="21" priority="427" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D115:D116">
-    <cfRule type="cellIs" dxfId="24" priority="193" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D116:D117">
+    <cfRule type="cellIs" dxfId="20" priority="193" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D123">
-    <cfRule type="cellIs" dxfId="23" priority="185" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D124">
+    <cfRule type="cellIs" dxfId="19" priority="185" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D146">
-    <cfRule type="cellIs" dxfId="22" priority="43" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D147">
+    <cfRule type="cellIs" dxfId="18" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D162:E172">
-    <cfRule type="cellIs" dxfId="21" priority="403" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D163:E173">
+    <cfRule type="cellIs" dxfId="17" priority="403" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E86 E88 E90:E147">
-    <cfRule type="cellIs" dxfId="20" priority="4" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E150:E153">
+    <cfRule type="cellIs" dxfId="16" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E149:E152">
-    <cfRule type="cellIs" dxfId="19" priority="40" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E155:E158">
+    <cfRule type="cellIs" dxfId="15" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E154:E157">
-    <cfRule type="cellIs" dxfId="18" priority="35" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E160:E162">
+    <cfRule type="cellIs" dxfId="14" priority="408" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E159:E161">
-    <cfRule type="cellIs" dxfId="17" priority="408" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F24">
+    <cfRule type="cellIs" dxfId="13" priority="572" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="16" priority="572" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F30">
+    <cfRule type="cellIs" dxfId="12" priority="168" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="15" priority="168" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F32">
+    <cfRule type="cellIs" dxfId="11" priority="166" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
-    <cfRule type="cellIs" dxfId="14" priority="166" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F38">
+    <cfRule type="cellIs" dxfId="10" priority="556" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="13" priority="556" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F44:F45">
+    <cfRule type="cellIs" dxfId="9" priority="370" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F43:F44">
-    <cfRule type="cellIs" dxfId="12" priority="370" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F59">
+    <cfRule type="cellIs" dxfId="8" priority="144" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="cellIs" dxfId="11" priority="144" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F62:F64">
+    <cfRule type="cellIs" dxfId="7" priority="349" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F61:F63">
-    <cfRule type="cellIs" dxfId="10" priority="349" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F87">
+    <cfRule type="cellIs" dxfId="6" priority="117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F86">
-    <cfRule type="cellIs" dxfId="9" priority="117" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F96:F97">
+    <cfRule type="cellIs" dxfId="5" priority="101" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F95:F96">
-    <cfRule type="cellIs" dxfId="8" priority="101" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F106:F108">
+    <cfRule type="cellIs" dxfId="4" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F105:F107">
-    <cfRule type="cellIs" dxfId="7" priority="87" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F120:F121">
+    <cfRule type="cellIs" dxfId="3" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F119:F120">
-    <cfRule type="cellIs" dxfId="6" priority="70" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F135:F136">
+    <cfRule type="cellIs" dxfId="2" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F134:F135">
-    <cfRule type="cellIs" dxfId="5" priority="53" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F142:F145">
+    <cfRule type="cellIs" dxfId="1" priority="433" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F141:F144">
-    <cfRule type="cellIs" dxfId="4" priority="433" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F147">
-    <cfRule type="cellIs" dxfId="3" priority="46" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F148">
+    <cfRule type="cellIs" dxfId="0" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E155:E170 E3:E29 E113:E140 E142:E144 E147:E153 E31:E86 E88 E90:E111" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E156:E171 E114:E141 E143:E145 E148:E154 E32:E87 E89 E3:E30 E91:E93 E95:E96 E100:E102 E104:E112" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$M$1:$M$19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E141 E145:E146 E154" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E142 E146:E147 E155" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E30 E112" xr:uid="{00000000-0002-0000-0100-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E31 E113" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>$M$1:$M$20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E87 E89" xr:uid="{2159CF4B-2649-4586-B851-DB145DFC2247}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E88 E90 E94 E97:E99 E103" xr:uid="{2159CF4B-2649-4586-B851-DB145DFC2247}">
       <formula1>$K$1:$K$19</formula1>
     </dataValidation>
   </dataValidations>

--- a/2023/AWO_Einnahmen_Ausgaben_2023.xlsx
+++ b/2023/AWO_Einnahmen_Ausgaben_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FFCF11-53B2-40CD-B6EE-CAEC2F69401F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7AB475-82F3-4E8D-9BF8-16AA208E7EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="Gesamt" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Ausgaben!$B$2:$K$165</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Ausgaben!$B$2:$K$164</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Einnahmen!$A$2:$I$100</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Ausgaben!$A$1:$J$171</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Ausgaben!$A$1:$J$170</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Einnahmen!$A$1:$I$109</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="170">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -177,9 +177,6 @@
     <t>SPD Getränke</t>
   </si>
   <si>
-    <t>102a</t>
-  </si>
-  <si>
     <t>Übertrag aus 2022</t>
   </si>
   <si>
@@ -523,6 +520,30 @@
   </si>
   <si>
     <t>Ausgaben Sommerfest</t>
+  </si>
+  <si>
+    <t>Treff zg Laune 25.7.</t>
+  </si>
+  <si>
+    <t>Sommerfest Kappel</t>
+  </si>
+  <si>
+    <t>Bäcke Raisch Sommerfest</t>
+  </si>
+  <si>
+    <t>F.Steibing Spende</t>
+  </si>
+  <si>
+    <t>F.Guelmue Individualhilfe</t>
+  </si>
+  <si>
+    <t>Glasbrenner Sommerfest</t>
+  </si>
+  <si>
+    <t>Roland Übernahme Lebensmittel Sommerfest</t>
+  </si>
+  <si>
+    <t>Ausgaben tzgl Roland</t>
   </si>
 </sst>
 </file>
@@ -1742,7 +1763,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Bernd Wild" refreshedDate="44931.461712384262" createdVersion="4" refreshedVersion="8" minRefreshableVersion="3" recordCount="168" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="E2:J170" sheet="Ausgaben"/>
+    <worksheetSource ref="E2:J169" sheet="Ausgaben"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Zweck II" numFmtId="0">
@@ -3956,23 +3977,22 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B16:G25" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
-      <items count="13">
+      <items count="12">
         <item h="1" x="1"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="4"/>
         <item x="6"/>
+        <item x="8"/>
+        <item h="1" x="0"/>
+        <item m="1" x="10"/>
+        <item x="7"/>
         <item x="2"/>
-        <item m="1" x="11"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item x="4"/>
-        <item x="7"/>
-        <item m="1" x="10"/>
-        <item h="1" x="9"/>
-        <item x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3985,12 +4005,12 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="9">
+  <rowItems count="8">
     <i>
-      <x v="1"/>
+      <x v="2"/>
     </i>
     <i>
-      <x v="2"/>
+      <x v="3"/>
     </i>
     <i>
       <x v="4"/>
@@ -4002,13 +4022,10 @@
       <x v="6"/>
     </i>
     <i>
-      <x v="7"/>
+      <x v="9"/>
     </i>
     <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="11"/>
+      <x v="10"/>
     </i>
     <i t="grand">
       <x/>
@@ -4069,22 +4086,23 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B16:G25" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
-      <items count="12">
+      <items count="13">
         <item h="1" x="1"/>
-        <item m="1" x="9"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item m="1" x="11"/>
+        <item x="0"/>
         <item x="3"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item m="1" x="10"/>
+        <item h="1" x="9"/>
         <item x="5"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item h="1" x="0"/>
-        <item m="1" x="10"/>
-        <item x="7"/>
-        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4097,12 +4115,12 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="8">
+  <rowItems count="9">
+    <i>
+      <x v="1"/>
+    </i>
     <i>
       <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
     </i>
     <i>
       <x v="4"/>
@@ -4114,10 +4132,13 @@
       <x v="6"/>
     </i>
     <i>
-      <x v="9"/>
+      <x v="7"/>
     </i>
     <i>
-      <x v="10"/>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="11"/>
     </i>
     <i t="grand">
       <x/>
@@ -5288,8 +5309,8 @@
   <dimension ref="A1:IK170"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F59" sqref="F59"/>
+      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5362,7 +5383,7 @@
       <c r="A3" s="9"/>
       <c r="B3" s="10"/>
       <c r="C3" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="12">
@@ -5393,7 +5414,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>13</v>
@@ -5443,7 +5464,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>14</v>
@@ -5468,7 +5489,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>0</v>
@@ -5493,7 +5514,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>0</v>
@@ -5518,7 +5539,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>13</v>
@@ -5543,7 +5564,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>22</v>
@@ -5568,7 +5589,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>0</v>
@@ -5593,7 +5614,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>13</v>
@@ -5618,7 +5639,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>22</v>
@@ -5643,7 +5664,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>0</v>
@@ -5668,7 +5689,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>0</v>
@@ -5693,7 +5714,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D16" s="50" t="s">
         <v>13</v>
@@ -5718,7 +5739,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D17" s="50" t="s">
         <v>13</v>
@@ -5743,7 +5764,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>13</v>
@@ -5793,7 +5814,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>0</v>
@@ -5816,7 +5837,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>0</v>
@@ -5839,7 +5860,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>0</v>
@@ -5862,7 +5883,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>13</v>
@@ -5885,7 +5906,7 @@
         <v>21</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D24" s="19" t="s">
         <v>13</v>
@@ -5908,7 +5929,7 @@
         <v>22</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>0</v>
@@ -5931,7 +5952,7 @@
         <v>23</v>
       </c>
       <c r="C26" s="39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D26" s="50" t="s">
         <v>13</v>
@@ -5954,7 +5975,7 @@
         <v>24</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D27" s="19" t="s">
         <v>0</v>
@@ -5977,7 +5998,7 @@
         <v>25</v>
       </c>
       <c r="C28" s="39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D28" s="50" t="s">
         <v>13</v>
@@ -6023,7 +6044,7 @@
         <v>27</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D30" s="19" t="s">
         <v>0</v>
@@ -6046,7 +6067,7 @@
         <v>28</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D31" s="19" t="s">
         <v>0</v>
@@ -6069,7 +6090,7 @@
         <v>29</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D32" s="19" t="s">
         <v>13</v>
@@ -6092,7 +6113,7 @@
         <v>30</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D33" s="19" t="s">
         <v>14</v>
@@ -6115,7 +6136,7 @@
         <v>31</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D34" s="19" t="s">
         <v>0</v>
@@ -6138,7 +6159,7 @@
         <v>32</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D35" s="19" t="s">
         <v>14</v>
@@ -6161,7 +6182,7 @@
         <v>33</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D36" s="19" t="s">
         <v>0</v>
@@ -6184,7 +6205,7 @@
         <v>34</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D37" s="19" t="s">
         <v>0</v>
@@ -6207,7 +6228,7 @@
         <v>35</v>
       </c>
       <c r="C38" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D38" s="19" t="s">
         <v>13</v>
@@ -6230,7 +6251,7 @@
         <v>36</v>
       </c>
       <c r="C39" s="39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D39" s="19" t="s">
         <v>13</v>
@@ -6253,7 +6274,7 @@
         <v>37</v>
       </c>
       <c r="C40" s="39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D40" s="19" t="s">
         <v>13</v>
@@ -6276,7 +6297,7 @@
         <v>38</v>
       </c>
       <c r="C41" s="39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D41" s="19" t="s">
         <v>13</v>
@@ -6299,7 +6320,7 @@
         <v>39</v>
       </c>
       <c r="C42" s="39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="19" t="s">
         <v>14</v>
@@ -6322,7 +6343,7 @@
         <v>40</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="19" t="s">
         <v>14</v>
@@ -6345,7 +6366,7 @@
         <v>41</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="19" t="s">
         <v>0</v>
@@ -6368,7 +6389,7 @@
         <v>42</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="19" t="s">
         <v>0</v>
@@ -6391,7 +6412,7 @@
         <v>43</v>
       </c>
       <c r="C46" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="19" t="s">
         <v>0</v>
@@ -6414,7 +6435,7 @@
         <v>44</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="19" t="s">
         <v>0</v>
@@ -6437,7 +6458,7 @@
         <v>45</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48" s="19" t="s">
         <v>13</v>
@@ -6460,7 +6481,7 @@
         <v>46</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D49" s="19" t="s">
         <v>14</v>
@@ -6483,7 +6504,7 @@
         <v>47</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D50" s="19" t="s">
         <v>0</v>
@@ -6506,7 +6527,7 @@
         <v>48</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="19" t="s">
         <v>28</v>
@@ -6529,7 +6550,7 @@
         <v>49</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D52" s="19" t="s">
         <v>0</v>
@@ -6552,7 +6573,7 @@
         <v>50</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D53" s="19" t="s">
         <v>0</v>
@@ -6575,7 +6596,7 @@
         <v>51</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D54" s="19" t="s">
         <v>0</v>
@@ -6598,7 +6619,7 @@
         <v>52</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D55" s="19" t="s">
         <v>28</v>
@@ -6621,7 +6642,7 @@
         <v>53</v>
       </c>
       <c r="C56" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D56" s="19" t="s">
         <v>13</v>
@@ -6644,7 +6665,7 @@
         <v>54</v>
       </c>
       <c r="C57" s="39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D57" s="19" t="s">
         <v>27</v>
@@ -6667,7 +6688,7 @@
         <v>55</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D58" s="19" t="s">
         <v>28</v>
@@ -6683,14 +6704,22 @@
       <c r="K58" s="2"/>
     </row>
     <row r="59" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="15"/>
+      <c r="A59" s="15">
+        <v>45134</v>
+      </c>
       <c r="B59" s="16">
         <v>56</v>
       </c>
-      <c r="C59" s="3"/>
-      <c r="D59" s="19"/>
+      <c r="C59" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E59" s="17"/>
-      <c r="F59" s="18"/>
+      <c r="F59" s="18">
+        <v>95</v>
+      </c>
       <c r="G59" s="18"/>
       <c r="H59" s="18"/>
       <c r="I59" s="19"/>
@@ -6698,14 +6727,22 @@
       <c r="K59" s="2"/>
     </row>
     <row r="60" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="15"/>
+      <c r="A60" s="15">
+        <v>45140</v>
+      </c>
       <c r="B60" s="16">
         <v>57</v>
       </c>
-      <c r="C60" s="3"/>
-      <c r="D60" s="19"/>
+      <c r="C60" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D60" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="E60" s="17"/>
-      <c r="F60" s="18"/>
+      <c r="F60" s="18">
+        <v>334.19</v>
+      </c>
       <c r="G60" s="18"/>
       <c r="H60" s="18"/>
       <c r="I60" s="19"/>
@@ -6713,13 +6750,21 @@
       <c r="K60" s="2"/>
     </row>
     <row r="61" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="15"/>
+      <c r="A61" s="15">
+        <v>45145</v>
+      </c>
       <c r="B61" s="52">
         <v>58</v>
       </c>
-      <c r="C61" s="39"/>
-      <c r="D61" s="19"/>
-      <c r="F61" s="17"/>
+      <c r="C61" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F61" s="17">
+        <v>57.8</v>
+      </c>
       <c r="G61" s="18"/>
       <c r="H61" s="18"/>
       <c r="I61" s="19"/>
@@ -6727,14 +6772,22 @@
       <c r="K61" s="2"/>
     </row>
     <row r="62" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="15"/>
+      <c r="A62" s="15">
+        <v>45154</v>
+      </c>
       <c r="B62" s="52">
         <v>59</v>
       </c>
-      <c r="C62" s="39"/>
-      <c r="D62" s="19"/>
+      <c r="C62" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>27</v>
+      </c>
       <c r="E62" s="20"/>
-      <c r="F62" s="21"/>
+      <c r="F62" s="21">
+        <v>45</v>
+      </c>
       <c r="G62" s="18"/>
       <c r="H62" s="18"/>
       <c r="I62" s="19"/>
@@ -7377,7 +7430,7 @@
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
-        <v>12701.680000000004</v>
+        <v>13233.670000000004</v>
       </c>
       <c r="G105" s="28">
         <f>SUM(G3:G104)</f>
@@ -7415,23 +7468,23 @@
       <c r="C107" s="25"/>
       <c r="D107" s="48"/>
       <c r="E107" s="28">
-        <f>E105+Ausgaben!F172</f>
+        <f>E105+Ausgaben!F171</f>
         <v>6.5000000000002274</v>
       </c>
       <c r="F107" s="28">
-        <f>F105+Ausgaben!G172</f>
-        <v>7015.0500000000038</v>
+        <f>F105+Ausgaben!G171</f>
+        <v>6190.6600000000044</v>
       </c>
       <c r="G107" s="28">
-        <f>G105+Ausgaben!H171</f>
+        <f>G105+Ausgaben!H170</f>
         <v>2000.5</v>
       </c>
       <c r="H107" s="28">
-        <f>H105+Ausgaben!I171</f>
+        <f>H105+Ausgaben!I170</f>
         <v>276.13</v>
       </c>
       <c r="I107" s="29">
-        <f>I105+Ausgaben!J171</f>
+        <f>I105+Ausgaben!J170</f>
         <v>949.24</v>
       </c>
       <c r="J107" s="2"/>
@@ -7458,7 +7511,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>10247.420000000002</v>
+        <v>9423.0300000000025</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -8411,11 +8464,11 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:IM238"/>
+  <dimension ref="A1:IM237"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B105" sqref="B105"/>
+      <pane ySplit="2" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H105" sqref="H105:H114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8498,7 +8551,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>3</v>
@@ -8525,7 +8578,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" s="23" t="s">
         <v>13</v>
@@ -8579,7 +8632,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6" s="23" t="s">
         <v>22</v>
@@ -8606,7 +8659,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" s="23" t="s">
         <v>22</v>
@@ -8633,7 +8686,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8" s="23" t="s">
         <v>0</v>
@@ -8660,7 +8713,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" s="23" t="s">
         <v>22</v>
@@ -8687,7 +8740,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10" s="23" t="s">
         <v>22</v>
@@ -8714,7 +8767,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>23</v>
@@ -8741,7 +8794,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" s="23" t="s">
         <v>0</v>
@@ -8795,7 +8848,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>22</v>
@@ -8822,7 +8875,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>0</v>
@@ -8873,10 +8926,10 @@
         <v>44958</v>
       </c>
       <c r="C17" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>14</v>
@@ -8903,7 +8956,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E18" s="23" t="s">
         <v>22</v>
@@ -8930,7 +8983,7 @@
         <v>16</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19" s="23" t="s">
         <v>0</v>
@@ -8957,7 +9010,7 @@
         <v>17</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20" s="23" t="s">
         <v>0</v>
@@ -8982,7 +9035,7 @@
         <v>18</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E21" s="23" t="s">
         <v>14</v>
@@ -9007,7 +9060,7 @@
         <v>19</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E22" s="23" t="s">
         <v>0</v>
@@ -9032,7 +9085,7 @@
         <v>20</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E23" s="23" t="s">
         <v>14</v>
@@ -9057,7 +9110,7 @@
         <v>21</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E24" s="23" t="s">
         <v>14</v>
@@ -9082,7 +9135,7 @@
         <v>22</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E25" s="23" t="s">
         <v>22</v>
@@ -9107,7 +9160,7 @@
         <v>23</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E26" s="23" t="s">
         <v>22</v>
@@ -9132,7 +9185,7 @@
         <v>24</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E27" s="23" t="s">
         <v>0</v>
@@ -9157,7 +9210,7 @@
         <v>25</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E28" s="23" t="s">
         <v>14</v>
@@ -9182,7 +9235,7 @@
         <v>26</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E29" s="23" t="s">
         <v>0</v>
@@ -9207,7 +9260,7 @@
         <v>27</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E30" s="23" t="s">
         <v>23</v>
@@ -9232,7 +9285,7 @@
         <v>28</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E31" s="23" t="s">
         <v>13</v>
@@ -9257,7 +9310,7 @@
         <v>29</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E32" s="23" t="s">
         <v>0</v>
@@ -9282,7 +9335,7 @@
         <v>30</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E33" s="23" t="s">
         <v>14</v>
@@ -9332,7 +9385,7 @@
         <v>32</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E35" s="23" t="s">
         <v>22</v>
@@ -9357,7 +9410,7 @@
         <v>33</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E36" s="23" t="s">
         <v>22</v>
@@ -9382,7 +9435,7 @@
         <v>34</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E37" s="23" t="s">
         <v>0</v>
@@ -9407,7 +9460,7 @@
         <v>35</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E38" s="23" t="s">
         <v>0</v>
@@ -9432,7 +9485,7 @@
         <v>36</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E39" s="23" t="s">
         <v>0</v>
@@ -9457,7 +9510,7 @@
         <v>37</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E40" s="23" t="s">
         <v>22</v>
@@ -9482,7 +9535,7 @@
         <v>38</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E41" s="23" t="s">
         <v>14</v>
@@ -9507,7 +9560,7 @@
         <v>39</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E42" s="23" t="s">
         <v>23</v>
@@ -9532,7 +9585,7 @@
         <v>40</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E43" s="23" t="s">
         <v>14</v>
@@ -9582,7 +9635,7 @@
         <v>42</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E45" s="23" t="s">
         <v>14</v>
@@ -9632,7 +9685,7 @@
         <v>44</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E47" s="23" t="s">
         <v>22</v>
@@ -9657,7 +9710,7 @@
         <v>45</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E48" s="23" t="s">
         <v>22</v>
@@ -9682,7 +9735,7 @@
         <v>46</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E49" s="23" t="s">
         <v>14</v>
@@ -9707,7 +9760,7 @@
         <v>47</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E50" s="23" t="s">
         <v>14</v>
@@ -9732,7 +9785,7 @@
         <v>48</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E51" s="23" t="s">
         <v>22</v>
@@ -9757,7 +9810,7 @@
         <v>49</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E52" s="23" t="s">
         <v>22</v>
@@ -9782,7 +9835,7 @@
         <v>50</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E53" s="23" t="s">
         <v>0</v>
@@ -9807,7 +9860,7 @@
         <v>51</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E54" s="23" t="s">
         <v>0</v>
@@ -9832,7 +9885,7 @@
         <v>52</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E55" s="23" t="s">
         <v>14</v>
@@ -9857,7 +9910,7 @@
         <v>53</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E56" s="23" t="s">
         <v>0</v>
@@ -9882,7 +9935,7 @@
         <v>54</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E57" s="23" t="s">
         <v>0</v>
@@ -9932,7 +9985,7 @@
         <v>56</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E59" s="23" t="s">
         <v>22</v>
@@ -9957,7 +10010,7 @@
         <v>57</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E60" s="23" t="s">
         <v>22</v>
@@ -9982,7 +10035,7 @@
         <v>58</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E61" s="23" t="s">
         <v>22</v>
@@ -10007,7 +10060,7 @@
         <v>59</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E62" s="19" t="s">
         <v>15</v>
@@ -10032,7 +10085,7 @@
         <v>60</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E63" s="23" t="s">
         <v>14</v>
@@ -10057,7 +10110,7 @@
         <v>61</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E64" s="23" t="s">
         <v>0</v>
@@ -10082,7 +10135,7 @@
         <v>62</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E65" s="23" t="s">
         <v>0</v>
@@ -10107,7 +10160,7 @@
         <v>63</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E66" s="23" t="s">
         <v>13</v>
@@ -10132,7 +10185,7 @@
         <v>64</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E67" s="23" t="s">
         <v>0</v>
@@ -10157,7 +10210,7 @@
         <v>65</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E68" s="23" t="s">
         <v>14</v>
@@ -10182,7 +10235,7 @@
         <v>66</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E69" s="23" t="s">
         <v>0</v>
@@ -10207,7 +10260,7 @@
         <v>67</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E70" s="23" t="s">
         <v>0</v>
@@ -10232,7 +10285,7 @@
         <v>68</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E71" s="23" t="s">
         <v>22</v>
@@ -10257,7 +10310,7 @@
         <v>69</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E72" s="23" t="s">
         <v>0</v>
@@ -10282,7 +10335,7 @@
         <v>70</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E73" s="23" t="s">
         <v>0</v>
@@ -10307,7 +10360,7 @@
         <v>71</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E74" s="19" t="s">
         <v>13</v>
@@ -10332,7 +10385,7 @@
         <v>72</v>
       </c>
       <c r="D75" s="39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E75" s="23" t="s">
         <v>23</v>
@@ -10357,7 +10410,7 @@
         <v>73</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E76" s="23" t="s">
         <v>14</v>
@@ -10382,7 +10435,7 @@
         <v>74</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E77" s="19" t="s">
         <v>15</v>
@@ -10432,7 +10485,7 @@
         <v>76</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E79" s="23" t="s">
         <v>22</v>
@@ -10457,7 +10510,7 @@
         <v>77</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E80" s="23" t="s">
         <v>22</v>
@@ -10482,7 +10535,7 @@
         <v>78</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E81" s="23" t="s">
         <v>0</v>
@@ -10507,7 +10560,7 @@
         <v>79</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E82" s="23" t="s">
         <v>0</v>
@@ -10532,7 +10585,7 @@
         <v>80</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E83" s="23" t="s">
         <v>0</v>
@@ -10557,7 +10610,7 @@
         <v>81</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E84" s="23" t="s">
         <v>0</v>
@@ -10582,7 +10635,7 @@
         <v>82</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E85" s="23" t="s">
         <v>22</v>
@@ -10607,7 +10660,7 @@
         <v>83</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E86" s="23" t="s">
         <v>23</v>
@@ -10632,7 +10685,7 @@
         <v>84</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E87" s="23" t="s">
         <v>0</v>
@@ -10657,7 +10710,7 @@
         <v>85</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E88" s="19" t="s">
         <v>0</v>
@@ -10707,7 +10760,7 @@
         <v>87</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E90" s="19" t="s">
         <v>0</v>
@@ -10757,7 +10810,7 @@
         <v>89</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E92" s="23" t="s">
         <v>22</v>
@@ -10782,7 +10835,7 @@
         <v>90</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E93" s="23" t="s">
         <v>22</v>
@@ -10807,7 +10860,7 @@
         <v>91</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E94" s="19" t="s">
         <v>0</v>
@@ -10832,7 +10885,7 @@
         <v>92</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E95" s="23" t="s">
         <v>14</v>
@@ -10857,7 +10910,7 @@
         <v>93</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E96" s="23" t="s">
         <v>28</v>
@@ -10882,7 +10935,7 @@
         <v>94</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E97" s="19" t="s">
         <v>0</v>
@@ -10907,7 +10960,7 @@
         <v>95</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E98" s="19" t="s">
         <v>0</v>
@@ -10932,7 +10985,7 @@
         <v>96</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E99" s="19" t="s">
         <v>0</v>
@@ -10957,7 +11010,7 @@
         <v>97</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E100" s="23" t="s">
         <v>22</v>
@@ -10984,7 +11037,7 @@
         <v>98</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E101" s="23" t="s">
         <v>28</v>
@@ -11009,7 +11062,7 @@
         <v>99</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E102" s="23" t="s">
         <v>22</v>
@@ -11034,7 +11087,7 @@
         <v>100</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E103" s="19" t="s">
         <v>0</v>
@@ -11059,7 +11112,7 @@
         <v>101</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E104" s="23" t="s">
         <v>28</v>
@@ -11077,14 +11130,22 @@
     </row>
     <row r="105" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="43"/>
-      <c r="B105" s="15"/>
+      <c r="B105" s="15">
+        <v>45135</v>
+      </c>
       <c r="C105" s="52">
         <v>102</v>
       </c>
-      <c r="D105" s="3"/>
-      <c r="E105" s="23"/>
+      <c r="D105" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E105" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F105" s="20"/>
-      <c r="G105" s="21"/>
+      <c r="G105" s="21">
+        <v>-536.29</v>
+      </c>
       <c r="H105" s="21"/>
       <c r="I105" s="21"/>
       <c r="J105" s="22"/>
@@ -11094,14 +11155,22 @@
     </row>
     <row r="106" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="43"/>
-      <c r="B106" s="15"/>
-      <c r="C106" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="D106" s="3"/>
-      <c r="E106" s="23"/>
-      <c r="F106" s="17"/>
-      <c r="G106" s="21"/>
+      <c r="B106" s="15">
+        <v>45139</v>
+      </c>
+      <c r="C106" s="52">
+        <v>103</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E106" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F106" s="20"/>
+      <c r="G106" s="21">
+        <v>-12</v>
+      </c>
       <c r="H106" s="21"/>
       <c r="I106" s="21"/>
       <c r="J106" s="22"/>
@@ -11111,14 +11180,22 @@
     </row>
     <row r="107" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="43"/>
-      <c r="B107" s="15"/>
+      <c r="B107" s="15">
+        <v>45139</v>
+      </c>
       <c r="C107" s="52">
-        <v>103</v>
-      </c>
-      <c r="D107" s="3"/>
-      <c r="E107" s="23"/>
+        <v>104</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E107" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F107" s="17"/>
-      <c r="G107" s="21"/>
+      <c r="G107" s="21">
+        <v>-153.44999999999999</v>
+      </c>
       <c r="H107" s="21"/>
       <c r="I107" s="21"/>
       <c r="J107" s="22"/>
@@ -11128,14 +11205,22 @@
     </row>
     <row r="108" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="43"/>
-      <c r="B108" s="15"/>
+      <c r="B108" s="15">
+        <v>45140</v>
+      </c>
       <c r="C108" s="52">
-        <v>104</v>
-      </c>
-      <c r="D108" s="3"/>
-      <c r="E108" s="23"/>
-      <c r="F108" s="17"/>
-      <c r="G108" s="21"/>
+        <v>105</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E108" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F108" s="20"/>
+      <c r="G108" s="21">
+        <v>-28</v>
+      </c>
       <c r="H108" s="21"/>
       <c r="I108" s="21"/>
       <c r="J108" s="22"/>
@@ -11145,14 +11230,22 @@
     </row>
     <row r="109" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="43"/>
-      <c r="B109" s="15"/>
+      <c r="B109" s="15">
+        <v>45140</v>
+      </c>
       <c r="C109" s="52">
-        <v>105</v>
-      </c>
-      <c r="D109" s="3"/>
-      <c r="E109" s="23"/>
+        <v>106</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E109" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F109" s="20"/>
-      <c r="G109" s="21"/>
+      <c r="G109" s="21">
+        <v>-134</v>
+      </c>
       <c r="H109" s="21"/>
       <c r="I109" s="21"/>
       <c r="J109" s="22"/>
@@ -11162,14 +11255,22 @@
     </row>
     <row r="110" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="43"/>
-      <c r="B110" s="15"/>
+      <c r="B110" s="15">
+        <v>45141</v>
+      </c>
       <c r="C110" s="52">
-        <v>106</v>
-      </c>
-      <c r="D110" s="3"/>
-      <c r="E110" s="23"/>
+        <v>107</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E110" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="F110" s="20"/>
-      <c r="G110" s="21"/>
+      <c r="G110" s="21">
+        <v>-50</v>
+      </c>
       <c r="H110" s="21"/>
       <c r="I110" s="21"/>
       <c r="J110" s="22"/>
@@ -11179,14 +11280,22 @@
     </row>
     <row r="111" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="43"/>
-      <c r="B111" s="15"/>
+      <c r="B111" s="15">
+        <v>45142</v>
+      </c>
       <c r="C111" s="52">
-        <v>107</v>
-      </c>
-      <c r="D111" s="3"/>
-      <c r="E111" s="19"/>
+        <v>108</v>
+      </c>
+      <c r="D111" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="E111" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F111" s="20"/>
-      <c r="G111" s="21"/>
+      <c r="G111" s="21">
+        <v>-376</v>
+      </c>
       <c r="H111" s="21"/>
       <c r="I111" s="21"/>
       <c r="J111" s="22"/>
@@ -11196,14 +11305,22 @@
     </row>
     <row r="112" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="43"/>
-      <c r="B112" s="15"/>
+      <c r="B112" s="15">
+        <v>45148</v>
+      </c>
       <c r="C112" s="52">
-        <v>108</v>
-      </c>
-      <c r="D112" s="39"/>
-      <c r="E112" s="23"/>
+        <v>109</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E112" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F112" s="20"/>
-      <c r="G112" s="21"/>
+      <c r="G112" s="21">
+        <v>-10.23</v>
+      </c>
       <c r="H112" s="21"/>
       <c r="I112" s="21"/>
       <c r="J112" s="22"/>
@@ -11213,14 +11330,22 @@
     </row>
     <row r="113" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="43"/>
-      <c r="B113" s="15"/>
-      <c r="C113" s="52">
-        <v>109</v>
-      </c>
-      <c r="D113" s="3"/>
-      <c r="E113" s="23"/>
+      <c r="B113" s="15">
+        <v>45155</v>
+      </c>
+      <c r="C113" s="16">
+        <v>110</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E113" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F113" s="20"/>
-      <c r="G113" s="21"/>
+      <c r="G113" s="21">
+        <v>-44.41</v>
+      </c>
       <c r="H113" s="21"/>
       <c r="I113" s="21"/>
       <c r="J113" s="22"/>
@@ -11230,14 +11355,22 @@
     </row>
     <row r="114" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="43"/>
-      <c r="B114" s="15"/>
+      <c r="B114" s="15">
+        <v>45170</v>
+      </c>
       <c r="C114" s="16">
-        <v>110</v>
-      </c>
-      <c r="D114" s="3"/>
-      <c r="E114" s="23"/>
+        <v>111</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E114" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F114" s="20"/>
-      <c r="G114" s="21"/>
+      <c r="G114" s="21">
+        <v>-12</v>
+      </c>
       <c r="H114" s="21"/>
       <c r="I114" s="21"/>
       <c r="J114" s="22"/>
@@ -11249,10 +11382,10 @@
       <c r="A115" s="43"/>
       <c r="B115" s="15"/>
       <c r="C115" s="16">
-        <v>111</v>
-      </c>
-      <c r="D115" s="3"/>
-      <c r="E115" s="23"/>
+        <v>112</v>
+      </c>
+      <c r="D115" s="39"/>
+      <c r="E115" s="19"/>
       <c r="F115" s="20"/>
       <c r="G115" s="21"/>
       <c r="H115" s="21"/>
@@ -11265,11 +11398,11 @@
     <row r="116" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="43"/>
       <c r="B116" s="15"/>
-      <c r="C116" s="16">
-        <v>112</v>
+      <c r="C116" s="52">
+        <v>113</v>
       </c>
       <c r="D116" s="39"/>
-      <c r="E116" s="19"/>
+      <c r="E116" s="23"/>
       <c r="F116" s="20"/>
       <c r="G116" s="21"/>
       <c r="H116" s="21"/>
@@ -11283,9 +11416,9 @@
       <c r="A117" s="43"/>
       <c r="B117" s="15"/>
       <c r="C117" s="52">
-        <v>113</v>
-      </c>
-      <c r="D117" s="39"/>
+        <v>114</v>
+      </c>
+      <c r="D117" s="3"/>
       <c r="E117" s="23"/>
       <c r="F117" s="20"/>
       <c r="G117" s="21"/>
@@ -11300,7 +11433,7 @@
       <c r="A118" s="43"/>
       <c r="B118" s="15"/>
       <c r="C118" s="52">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="23"/>
@@ -11317,11 +11450,11 @@
       <c r="A119" s="43"/>
       <c r="B119" s="15"/>
       <c r="C119" s="52">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D119" s="3"/>
       <c r="E119" s="23"/>
-      <c r="F119" s="20"/>
+      <c r="F119" s="17"/>
       <c r="G119" s="21"/>
       <c r="H119" s="21"/>
       <c r="I119" s="21"/>
@@ -11334,7 +11467,7 @@
       <c r="A120" s="43"/>
       <c r="B120" s="15"/>
       <c r="C120" s="52">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D120" s="3"/>
       <c r="E120" s="23"/>
@@ -11351,11 +11484,11 @@
       <c r="A121" s="43"/>
       <c r="B121" s="15"/>
       <c r="C121" s="52">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="23"/>
-      <c r="F121" s="17"/>
+      <c r="F121" s="20"/>
       <c r="G121" s="21"/>
       <c r="H121" s="21"/>
       <c r="I121" s="21"/>
@@ -11368,7 +11501,7 @@
       <c r="A122" s="43"/>
       <c r="B122" s="15"/>
       <c r="C122" s="52">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D122" s="3"/>
       <c r="E122" s="23"/>
@@ -11385,9 +11518,9 @@
       <c r="A123" s="43"/>
       <c r="B123" s="15"/>
       <c r="C123" s="52">
-        <v>119</v>
-      </c>
-      <c r="D123" s="3"/>
+        <v>120</v>
+      </c>
+      <c r="D123" s="39"/>
       <c r="E123" s="23"/>
       <c r="F123" s="20"/>
       <c r="G123" s="21"/>
@@ -11402,9 +11535,9 @@
       <c r="A124" s="43"/>
       <c r="B124" s="15"/>
       <c r="C124" s="52">
-        <v>120</v>
-      </c>
-      <c r="D124" s="39"/>
+        <v>121</v>
+      </c>
+      <c r="D124" s="3"/>
       <c r="E124" s="23"/>
       <c r="F124" s="20"/>
       <c r="G124" s="21"/>
@@ -11419,7 +11552,7 @@
       <c r="A125" s="43"/>
       <c r="B125" s="15"/>
       <c r="C125" s="52">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D125" s="3"/>
       <c r="E125" s="23"/>
@@ -11436,7 +11569,7 @@
       <c r="A126" s="43"/>
       <c r="B126" s="15"/>
       <c r="C126" s="52">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="23"/>
@@ -11453,7 +11586,7 @@
       <c r="A127" s="43"/>
       <c r="B127" s="15"/>
       <c r="C127" s="52">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D127" s="3"/>
       <c r="E127" s="23"/>
@@ -11470,9 +11603,9 @@
       <c r="A128" s="43"/>
       <c r="B128" s="15"/>
       <c r="C128" s="52">
-        <v>124</v>
-      </c>
-      <c r="D128" s="3"/>
+        <v>125</v>
+      </c>
+      <c r="D128" s="39"/>
       <c r="E128" s="23"/>
       <c r="F128" s="20"/>
       <c r="G128" s="21"/>
@@ -11487,7 +11620,7 @@
       <c r="A129" s="43"/>
       <c r="B129" s="15"/>
       <c r="C129" s="52">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D129" s="39"/>
       <c r="E129" s="23"/>
@@ -11504,7 +11637,7 @@
       <c r="A130" s="43"/>
       <c r="B130" s="15"/>
       <c r="C130" s="52">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D130" s="39"/>
       <c r="E130" s="23"/>
@@ -11521,9 +11654,9 @@
       <c r="A131" s="43"/>
       <c r="B131" s="15"/>
       <c r="C131" s="52">
-        <v>127</v>
-      </c>
-      <c r="D131" s="39"/>
+        <v>128</v>
+      </c>
+      <c r="D131" s="3"/>
       <c r="E131" s="23"/>
       <c r="F131" s="20"/>
       <c r="G131" s="21"/>
@@ -11538,11 +11671,11 @@
       <c r="A132" s="43"/>
       <c r="B132" s="15"/>
       <c r="C132" s="52">
-        <v>128</v>
-      </c>
-      <c r="D132" s="3"/>
+        <v>129</v>
+      </c>
+      <c r="D132" s="54"/>
       <c r="E132" s="23"/>
-      <c r="F132" s="20"/>
+      <c r="F132" s="55"/>
       <c r="G132" s="21"/>
       <c r="H132" s="21"/>
       <c r="I132" s="21"/>
@@ -11555,11 +11688,11 @@
       <c r="A133" s="43"/>
       <c r="B133" s="15"/>
       <c r="C133" s="52">
-        <v>129</v>
-      </c>
-      <c r="D133" s="54"/>
+        <v>130</v>
+      </c>
+      <c r="D133" s="3"/>
       <c r="E133" s="23"/>
-      <c r="F133" s="55"/>
+      <c r="F133" s="20"/>
       <c r="G133" s="21"/>
       <c r="H133" s="21"/>
       <c r="I133" s="21"/>
@@ -11572,11 +11705,11 @@
       <c r="A134" s="43"/>
       <c r="B134" s="15"/>
       <c r="C134" s="52">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D134" s="3"/>
       <c r="E134" s="23"/>
-      <c r="F134" s="20"/>
+      <c r="F134" s="17"/>
       <c r="G134" s="21"/>
       <c r="H134" s="21"/>
       <c r="I134" s="21"/>
@@ -11589,7 +11722,7 @@
       <c r="A135" s="43"/>
       <c r="B135" s="15"/>
       <c r="C135" s="52">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D135" s="3"/>
       <c r="E135" s="23"/>
@@ -11606,11 +11739,11 @@
       <c r="A136" s="43"/>
       <c r="B136" s="15"/>
       <c r="C136" s="52">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D136" s="3"/>
       <c r="E136" s="23"/>
-      <c r="F136" s="17"/>
+      <c r="F136" s="20"/>
       <c r="G136" s="21"/>
       <c r="H136" s="21"/>
       <c r="I136" s="21"/>
@@ -11623,7 +11756,7 @@
       <c r="A137" s="43"/>
       <c r="B137" s="15"/>
       <c r="C137" s="52">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D137" s="3"/>
       <c r="E137" s="23"/>
@@ -11640,7 +11773,7 @@
       <c r="A138" s="43"/>
       <c r="B138" s="15"/>
       <c r="C138" s="52">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D138" s="3"/>
       <c r="E138" s="23"/>
@@ -11657,9 +11790,9 @@
       <c r="A139" s="43"/>
       <c r="B139" s="15"/>
       <c r="C139" s="52">
-        <v>135</v>
-      </c>
-      <c r="D139" s="3"/>
+        <v>136</v>
+      </c>
+      <c r="D139" s="39"/>
       <c r="E139" s="23"/>
       <c r="F139" s="20"/>
       <c r="G139" s="21"/>
@@ -11673,10 +11806,10 @@
     <row r="140" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="43"/>
       <c r="B140" s="15"/>
-      <c r="C140" s="52">
-        <v>136</v>
-      </c>
-      <c r="D140" s="39"/>
+      <c r="C140" s="16">
+        <v>137</v>
+      </c>
+      <c r="D140" s="3"/>
       <c r="E140" s="23"/>
       <c r="F140" s="20"/>
       <c r="G140" s="21"/>
@@ -11691,11 +11824,11 @@
       <c r="A141" s="43"/>
       <c r="B141" s="15"/>
       <c r="C141" s="16">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D141" s="3"/>
-      <c r="E141" s="23"/>
-      <c r="F141" s="20"/>
+      <c r="E141" s="19"/>
+      <c r="F141" s="17"/>
       <c r="G141" s="21"/>
       <c r="H141" s="21"/>
       <c r="I141" s="21"/>
@@ -11708,10 +11841,10 @@
       <c r="A142" s="43"/>
       <c r="B142" s="15"/>
       <c r="C142" s="16">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D142" s="3"/>
-      <c r="E142" s="19"/>
+      <c r="E142" s="23"/>
       <c r="F142" s="17"/>
       <c r="G142" s="21"/>
       <c r="H142" s="21"/>
@@ -11725,7 +11858,7 @@
       <c r="A143" s="43"/>
       <c r="B143" s="15"/>
       <c r="C143" s="16">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D143" s="3"/>
       <c r="E143" s="23"/>
@@ -11742,7 +11875,7 @@
       <c r="A144" s="43"/>
       <c r="B144" s="15"/>
       <c r="C144" s="16">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D144" s="3"/>
       <c r="E144" s="23"/>
@@ -11758,12 +11891,12 @@
     <row r="145" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="43"/>
       <c r="B145" s="15"/>
-      <c r="C145" s="16">
-        <v>141</v>
-      </c>
-      <c r="D145" s="3"/>
-      <c r="E145" s="23"/>
-      <c r="F145" s="17"/>
+      <c r="C145" s="52">
+        <v>142</v>
+      </c>
+      <c r="D145" s="39"/>
+      <c r="E145" s="19"/>
+      <c r="F145" s="20"/>
       <c r="G145" s="21"/>
       <c r="H145" s="21"/>
       <c r="I145" s="21"/>
@@ -11776,44 +11909,44 @@
       <c r="A146" s="43"/>
       <c r="B146" s="15"/>
       <c r="C146" s="52">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D146" s="39"/>
       <c r="E146" s="19"/>
       <c r="F146" s="20"/>
-      <c r="G146" s="21"/>
+      <c r="G146" s="20"/>
       <c r="H146" s="21"/>
       <c r="I146" s="21"/>
       <c r="J146" s="22"/>
       <c r="K146" s="4"/>
       <c r="L146" s="2"/>
-      <c r="M146" s="2"/>
     </row>
     <row r="147" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="43"/>
       <c r="B147" s="15"/>
       <c r="C147" s="52">
-        <v>143</v>
-      </c>
-      <c r="D147" s="39"/>
-      <c r="E147" s="19"/>
-      <c r="F147" s="20"/>
-      <c r="G147" s="20"/>
+        <v>144</v>
+      </c>
+      <c r="D147" s="3"/>
+      <c r="E147" s="23"/>
+      <c r="F147" s="17"/>
+      <c r="G147" s="21"/>
       <c r="H147" s="21"/>
       <c r="I147" s="21"/>
       <c r="J147" s="22"/>
       <c r="K147" s="4"/>
       <c r="L147" s="2"/>
+      <c r="M147" s="2"/>
     </row>
     <row r="148" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="43"/>
       <c r="B148" s="15"/>
       <c r="C148" s="52">
-        <v>144</v>
-      </c>
-      <c r="D148" s="3"/>
-      <c r="E148" s="23"/>
-      <c r="F148" s="17"/>
+        <v>145</v>
+      </c>
+      <c r="D148" s="39"/>
+      <c r="E148" s="19"/>
+      <c r="F148" s="20"/>
       <c r="G148" s="21"/>
       <c r="H148" s="21"/>
       <c r="I148" s="21"/>
@@ -11826,10 +11959,10 @@
       <c r="A149" s="43"/>
       <c r="B149" s="15"/>
       <c r="C149" s="52">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D149" s="39"/>
-      <c r="E149" s="19"/>
+      <c r="E149" s="23"/>
       <c r="F149" s="20"/>
       <c r="G149" s="21"/>
       <c r="H149" s="21"/>
@@ -11843,7 +11976,7 @@
       <c r="A150" s="43"/>
       <c r="B150" s="15"/>
       <c r="C150" s="52">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D150" s="39"/>
       <c r="E150" s="23"/>
@@ -11860,7 +11993,7 @@
       <c r="A151" s="43"/>
       <c r="B151" s="15"/>
       <c r="C151" s="52">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D151" s="39"/>
       <c r="E151" s="23"/>
@@ -11877,9 +12010,9 @@
       <c r="A152" s="43"/>
       <c r="B152" s="15"/>
       <c r="C152" s="52">
-        <v>148</v>
-      </c>
-      <c r="D152" s="39"/>
+        <v>149</v>
+      </c>
+      <c r="D152" s="3"/>
       <c r="E152" s="23"/>
       <c r="F152" s="20"/>
       <c r="G152" s="21"/>
@@ -11894,10 +12027,10 @@
       <c r="A153" s="43"/>
       <c r="B153" s="15"/>
       <c r="C153" s="52">
-        <v>149</v>
-      </c>
-      <c r="D153" s="3"/>
-      <c r="E153" s="23"/>
+        <v>150</v>
+      </c>
+      <c r="D153" s="39"/>
+      <c r="E153" s="19"/>
       <c r="F153" s="20"/>
       <c r="G153" s="21"/>
       <c r="H153" s="21"/>
@@ -11911,7 +12044,7 @@
       <c r="A154" s="43"/>
       <c r="B154" s="15"/>
       <c r="C154" s="52">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D154" s="39"/>
       <c r="E154" s="19"/>
@@ -11928,10 +12061,10 @@
       <c r="A155" s="43"/>
       <c r="B155" s="15"/>
       <c r="C155" s="52">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D155" s="39"/>
-      <c r="E155" s="19"/>
+      <c r="E155" s="23"/>
       <c r="F155" s="20"/>
       <c r="G155" s="21"/>
       <c r="H155" s="21"/>
@@ -11945,7 +12078,7 @@
       <c r="A156" s="43"/>
       <c r="B156" s="15"/>
       <c r="C156" s="52">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D156" s="39"/>
       <c r="E156" s="23"/>
@@ -11962,10 +12095,10 @@
       <c r="A157" s="43"/>
       <c r="B157" s="15"/>
       <c r="C157" s="52">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D157" s="39"/>
-      <c r="E157" s="23"/>
+      <c r="E157" s="19"/>
       <c r="F157" s="20"/>
       <c r="G157" s="21"/>
       <c r="H157" s="21"/>
@@ -11979,7 +12112,7 @@
       <c r="A158" s="43"/>
       <c r="B158" s="15"/>
       <c r="C158" s="52">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D158" s="39"/>
       <c r="E158" s="19"/>
@@ -11996,7 +12129,7 @@
       <c r="A159" s="43"/>
       <c r="B159" s="15"/>
       <c r="C159" s="52">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D159" s="39"/>
       <c r="E159" s="19"/>
@@ -12013,10 +12146,10 @@
       <c r="A160" s="43"/>
       <c r="B160" s="15"/>
       <c r="C160" s="52">
-        <v>156</v>
-      </c>
-      <c r="D160" s="39"/>
-      <c r="E160" s="19"/>
+        <v>157</v>
+      </c>
+      <c r="D160" s="3"/>
+      <c r="E160" s="23"/>
       <c r="F160" s="20"/>
       <c r="G160" s="21"/>
       <c r="H160" s="21"/>
@@ -12030,10 +12163,10 @@
       <c r="A161" s="43"/>
       <c r="B161" s="15"/>
       <c r="C161" s="52">
-        <v>157</v>
-      </c>
-      <c r="D161" s="3"/>
-      <c r="E161" s="23"/>
+        <v>158</v>
+      </c>
+      <c r="D161" s="39"/>
+      <c r="E161" s="19"/>
       <c r="F161" s="20"/>
       <c r="G161" s="21"/>
       <c r="H161" s="21"/>
@@ -12047,11 +12180,11 @@
       <c r="A162" s="43"/>
       <c r="B162" s="15"/>
       <c r="C162" s="52">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D162" s="39"/>
       <c r="E162" s="19"/>
-      <c r="F162" s="20"/>
+      <c r="F162" s="21"/>
       <c r="G162" s="21"/>
       <c r="H162" s="21"/>
       <c r="I162" s="21"/>
@@ -12064,11 +12197,11 @@
       <c r="A163" s="43"/>
       <c r="B163" s="15"/>
       <c r="C163" s="52">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D163" s="39"/>
       <c r="E163" s="19"/>
-      <c r="F163" s="21"/>
+      <c r="F163" s="20"/>
       <c r="G163" s="21"/>
       <c r="H163" s="21"/>
       <c r="I163" s="21"/>
@@ -12081,7 +12214,7 @@
       <c r="A164" s="43"/>
       <c r="B164" s="15"/>
       <c r="C164" s="52">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D164" s="39"/>
       <c r="E164" s="19"/>
@@ -12098,7 +12231,7 @@
       <c r="A165" s="43"/>
       <c r="B165" s="15"/>
       <c r="C165" s="52">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D165" s="39"/>
       <c r="E165" s="19"/>
@@ -12114,9 +12247,7 @@
     <row r="166" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="43"/>
       <c r="B166" s="15"/>
-      <c r="C166" s="52">
-        <v>162</v>
-      </c>
+      <c r="C166" s="52"/>
       <c r="D166" s="39"/>
       <c r="E166" s="19"/>
       <c r="F166" s="20"/>
@@ -12181,54 +12312,54 @@
       <c r="E170" s="19"/>
       <c r="F170" s="20"/>
       <c r="G170" s="21"/>
-      <c r="H170" s="21"/>
-      <c r="I170" s="21"/>
-      <c r="J170" s="22"/>
-      <c r="K170" s="4"/>
+      <c r="H170" s="34">
+        <f>SUM(H3:H169)</f>
+        <v>0</v>
+      </c>
+      <c r="I170" s="34">
+        <f>SUM(I3:I169)</f>
+        <v>-163.91</v>
+      </c>
+      <c r="J170" s="47">
+        <f>SUM(J3:J169)</f>
+        <v>0</v>
+      </c>
+      <c r="K170" s="46"/>
       <c r="L170" s="2"/>
       <c r="M170" s="2"/>
+      <c r="IM170"/>
     </row>
     <row r="171" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="43"/>
-      <c r="B171" s="15"/>
-      <c r="C171" s="52"/>
-      <c r="D171" s="39"/>
-      <c r="E171" s="19"/>
-      <c r="F171" s="20"/>
-      <c r="G171" s="21"/>
-      <c r="H171" s="34">
-        <f>SUM(H3:H170)</f>
-        <v>0</v>
-      </c>
-      <c r="I171" s="34">
-        <f>SUM(I3:I170)</f>
-        <v>-163.91</v>
-      </c>
-      <c r="J171" s="47">
-        <f>SUM(J3:J170)</f>
-        <v>0</v>
-      </c>
-      <c r="K171" s="46"/>
+      <c r="A171" s="44"/>
+      <c r="B171" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C171" s="53"/>
+      <c r="D171" s="31"/>
+      <c r="E171" s="32"/>
+      <c r="F171" s="33">
+        <f>SUM(F3:F170)</f>
+        <v>-1509.71</v>
+      </c>
+      <c r="G171" s="34">
+        <f>SUM(G3:G170)</f>
+        <v>-7043.0099999999993</v>
+      </c>
+      <c r="H171" s="18"/>
+      <c r="I171" s="18"/>
+      <c r="J171" s="18"/>
+      <c r="K171" s="2"/>
       <c r="L171" s="2"/>
       <c r="M171" s="2"/>
-      <c r="IM171"/>
     </row>
     <row r="172" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="44"/>
-      <c r="B172" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C172" s="53"/>
-      <c r="D172" s="31"/>
-      <c r="E172" s="32"/>
-      <c r="F172" s="33">
-        <f>SUM(F3:F171)</f>
-        <v>-1509.71</v>
-      </c>
-      <c r="G172" s="34">
-        <f>SUM(G3:G171)</f>
-        <v>-5686.63</v>
-      </c>
+      <c r="B172" s="18"/>
+      <c r="C172" s="18"/>
+      <c r="D172" s="18"/>
+      <c r="E172" s="18"/>
+      <c r="F172" s="18"/>
+      <c r="G172" s="18"/>
       <c r="H172" s="18"/>
       <c r="I172" s="18"/>
       <c r="J172" s="18"/>
@@ -13174,169 +13305,154 @@
       <c r="E235" s="18"/>
       <c r="F235" s="18"/>
       <c r="G235" s="18"/>
-      <c r="H235" s="18"/>
       <c r="I235" s="18"/>
-      <c r="J235" s="18"/>
       <c r="K235" s="2"/>
-      <c r="L235" s="2"/>
       <c r="M235" s="2"/>
     </row>
     <row r="236" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="44"/>
       <c r="B236" s="18"/>
       <c r="C236" s="18"/>
-      <c r="D236" s="18"/>
-      <c r="E236" s="18"/>
-      <c r="F236" s="18"/>
-      <c r="G236" s="18"/>
       <c r="I236" s="18"/>
-      <c r="K236" s="2"/>
-      <c r="M236" s="2"/>
     </row>
     <row r="237" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B237" s="18"/>
-      <c r="C237" s="18"/>
-      <c r="I237" s="18"/>
-    </row>
-    <row r="238" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B238" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:K165" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="B2:K164" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A3:A236 H172:H235 D173:G236 E3:E148">
-    <cfRule type="cellIs" dxfId="40" priority="640" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B124:B129 A3:A235 E3:E147">
+    <cfRule type="cellIs" dxfId="40" priority="458" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B125:B130">
-    <cfRule type="cellIs" dxfId="39" priority="458" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B131">
+    <cfRule type="cellIs" dxfId="39" priority="452" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B132">
-    <cfRule type="cellIs" dxfId="38" priority="452" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B134:B138">
+    <cfRule type="cellIs" dxfId="38" priority="441" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B135:B139">
-    <cfRule type="cellIs" dxfId="37" priority="441" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B152:B154">
+    <cfRule type="cellIs" dxfId="37" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B153:B155">
-    <cfRule type="cellIs" dxfId="36" priority="37" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B160">
+    <cfRule type="cellIs" dxfId="36" priority="410" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B161">
-    <cfRule type="cellIs" dxfId="35" priority="410" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B163:B237">
+    <cfRule type="cellIs" dxfId="35" priority="404" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B164:B238">
-    <cfRule type="cellIs" dxfId="34" priority="404" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B162:C162">
+    <cfRule type="cellIs" dxfId="34" priority="406" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B163:C163">
-    <cfRule type="cellIs" dxfId="33" priority="406" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B155:D157">
+    <cfRule type="cellIs" dxfId="33" priority="418" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B156:D158">
-    <cfRule type="cellIs" dxfId="32" priority="418" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B159:D159">
+    <cfRule type="cellIs" dxfId="32" priority="414" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B160:D160">
-    <cfRule type="cellIs" dxfId="31" priority="414" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B161:D161">
+    <cfRule type="cellIs" dxfId="31" priority="409" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B162:D162">
-    <cfRule type="cellIs" dxfId="30" priority="409" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B158:E158">
+    <cfRule type="cellIs" dxfId="30" priority="415" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B159:E159">
-    <cfRule type="cellIs" dxfId="29" priority="415" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="C112">
+    <cfRule type="cellIs" dxfId="29" priority="479" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C113">
-    <cfRule type="cellIs" dxfId="28" priority="479" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="C122">
+    <cfRule type="cellIs" dxfId="28" priority="596" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C123">
-    <cfRule type="cellIs" dxfId="27" priority="596" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="C132:C135">
+    <cfRule type="cellIs" dxfId="27" priority="448" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C133:C136">
-    <cfRule type="cellIs" dxfId="26" priority="448" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="C146:C147">
+    <cfRule type="cellIs" dxfId="26" priority="428" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C147:C148">
-    <cfRule type="cellIs" dxfId="25" priority="428" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="C152">
+    <cfRule type="cellIs" dxfId="25" priority="425" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C153">
-    <cfRule type="cellIs" dxfId="24" priority="425" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="C111:D111 C124 C127:C128 D128 B130:D130 B139:D139 C145:D145 C148:E148 B150:D151 C153:E153 C154 C163:C236 J171:J234 I171:I236 K172">
+    <cfRule type="cellIs" dxfId="24" priority="688" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C112:D112 C125 C128:C129 D129 B131:D131 B140:D140 C146:D146 C149:E149 B151:D152 C154:E154 C155 C164:C237 J172:J235 I172:I237 K173">
-    <cfRule type="cellIs" dxfId="23" priority="688" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="C129:D129">
+    <cfRule type="cellIs" dxfId="23" priority="456" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C130:D130">
-    <cfRule type="cellIs" dxfId="22" priority="456" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="C149:D149">
+    <cfRule type="cellIs" dxfId="22" priority="427" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C150:D150">
-    <cfRule type="cellIs" dxfId="21" priority="427" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D115:D116">
+    <cfRule type="cellIs" dxfId="21" priority="193" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D116:D117">
-    <cfRule type="cellIs" dxfId="20" priority="193" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D123">
+    <cfRule type="cellIs" dxfId="20" priority="185" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D124">
-    <cfRule type="cellIs" dxfId="19" priority="185" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D146">
+    <cfRule type="cellIs" dxfId="19" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D147">
-    <cfRule type="cellIs" dxfId="18" priority="43" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D162:E172">
+    <cfRule type="cellIs" dxfId="18" priority="403" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D163:E173">
-    <cfRule type="cellIs" dxfId="17" priority="403" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="H171:H234 D172:G235">
+    <cfRule type="cellIs" dxfId="17" priority="640" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E150:E153">
+  <conditionalFormatting sqref="E149:E152">
     <cfRule type="cellIs" dxfId="16" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E155:E158">
+  <conditionalFormatting sqref="E154:E157">
     <cfRule type="cellIs" dxfId="15" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E160:E162">
+  <conditionalFormatting sqref="E159:E161">
     <cfRule type="cellIs" dxfId="14" priority="408" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -13386,42 +13502,42 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F106:F108">
+  <conditionalFormatting sqref="F107">
     <cfRule type="cellIs" dxfId="4" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F120:F121">
+  <conditionalFormatting sqref="F119:F120">
     <cfRule type="cellIs" dxfId="3" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F135:F136">
+  <conditionalFormatting sqref="F134:F135">
     <cfRule type="cellIs" dxfId="2" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F142:F145">
+  <conditionalFormatting sqref="F141:F144">
     <cfRule type="cellIs" dxfId="1" priority="433" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F148">
+  <conditionalFormatting sqref="F147">
     <cfRule type="cellIs" dxfId="0" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E156:E171 E114:E141 E143:E145 E148:E154 E32:E87 E89 E3:E30 E91:E93 E95:E96 E100:E102 E104:E112" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E155:E170 E108:E110 E142:E144 E147:E153 E32:E87 E89 E3:E30 E91:E93 E95:E96 E100:E102 E104 E106 E113:E140" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$M$1:$M$19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E142 E146:E147 E155" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E141 E145:E146 E154" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E31 E113" xr:uid="{00000000-0002-0000-0100-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E31" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>$M$1:$M$20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E88 E90 E94 E97:E99 E103" xr:uid="{2159CF4B-2649-4586-B851-DB145DFC2247}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E88 E90 E94 E97:E99 E103 E105 E107 E111:E112" xr:uid="{2159CF4B-2649-4586-B851-DB145DFC2247}">
       <formula1>$K$1:$K$19</formula1>
     </dataValidation>
   </dataValidations>

--- a/2023/AWO_Einnahmen_Ausgaben_2023.xlsx
+++ b/2023/AWO_Einnahmen_Ausgaben_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7AB475-82F3-4E8D-9BF8-16AA208E7EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E09515-30F1-4328-9A72-90C40B157131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="184">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -544,6 +544,48 @@
   </si>
   <si>
     <t>Ausgaben tzgl Roland</t>
+  </si>
+  <si>
+    <t>Rote Mitnahme Bernd</t>
+  </si>
+  <si>
+    <t>Treff zg Laune 5.9.</t>
+  </si>
+  <si>
+    <t>Ausgaben Wolfgang</t>
+  </si>
+  <si>
+    <t>Ausgaben tzgl</t>
+  </si>
+  <si>
+    <t>tzgl 19.9</t>
+  </si>
+  <si>
+    <t>Ausgabe Häusle</t>
+  </si>
+  <si>
+    <t>Zinsen Kapitalfond</t>
+  </si>
+  <si>
+    <t>Kontoauszug Voba</t>
+  </si>
+  <si>
+    <t>Busreise Bad Wildbad ohne Beleg</t>
+  </si>
+  <si>
+    <t>neuer Beamer</t>
+  </si>
+  <si>
+    <t>neue Fritz Box</t>
+  </si>
+  <si>
+    <t>Matte</t>
+  </si>
+  <si>
+    <t>tzgl 3.10.</t>
+  </si>
+  <si>
+    <t>90er Fr.Natly</t>
   </si>
 </sst>
 </file>
@@ -1207,7 +1249,12 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="72">
+  <dxfs count="73">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -4059,17 +4106,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="68">
+    <format dxfId="69">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="67">
+    <format dxfId="68">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="66">
+    <format dxfId="67">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -4172,17 +4219,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="71">
+    <format dxfId="72">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="70">
+    <format dxfId="71">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="69">
+    <format dxfId="70">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5308,9 +5355,9 @@
   </sheetPr>
   <dimension ref="A1:IK170"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G61" sqref="G61"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6795,14 +6842,22 @@
       <c r="K62" s="2"/>
     </row>
     <row r="63" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="15"/>
+      <c r="A63" s="15">
+        <v>45173</v>
+      </c>
       <c r="B63" s="52">
         <v>60</v>
       </c>
-      <c r="C63" s="39"/>
-      <c r="D63" s="19"/>
+      <c r="C63" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E63" s="20"/>
-      <c r="F63" s="18"/>
+      <c r="F63" s="18">
+        <v>15</v>
+      </c>
       <c r="G63" s="18"/>
       <c r="H63" s="18"/>
       <c r="I63" s="19"/>
@@ -6810,14 +6865,22 @@
       <c r="K63" s="2"/>
     </row>
     <row r="64" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="15"/>
+      <c r="A64" s="15">
+        <v>45175</v>
+      </c>
       <c r="B64" s="52">
         <v>61</v>
       </c>
-      <c r="C64" s="39"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="18"/>
+      <c r="C64" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" s="17"/>
+      <c r="F64" s="18">
+        <v>120</v>
+      </c>
       <c r="G64" s="18"/>
       <c r="H64" s="18"/>
       <c r="I64" s="19"/>
@@ -6825,14 +6888,22 @@
       <c r="K64" s="2"/>
     </row>
     <row r="65" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="15"/>
+      <c r="A65" s="15">
+        <v>45182</v>
+      </c>
       <c r="B65" s="52">
         <v>62</v>
       </c>
-      <c r="C65" s="39"/>
-      <c r="D65" s="19"/>
+      <c r="C65" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E65" s="20"/>
-      <c r="F65" s="18"/>
+      <c r="F65" s="18">
+        <v>20</v>
+      </c>
       <c r="G65" s="18"/>
       <c r="H65" s="18"/>
       <c r="I65" s="19"/>
@@ -6840,14 +6911,22 @@
       <c r="K65" s="2"/>
     </row>
     <row r="66" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="15"/>
+      <c r="A66" s="15">
+        <v>45190</v>
+      </c>
       <c r="B66" s="16">
         <v>63</v>
       </c>
-      <c r="C66" s="16"/>
-      <c r="D66" s="19"/>
+      <c r="C66" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E66" s="17"/>
-      <c r="F66" s="18"/>
+      <c r="F66" s="18">
+        <v>98</v>
+      </c>
       <c r="G66" s="18"/>
       <c r="H66" s="18"/>
       <c r="I66" s="19"/>
@@ -6855,14 +6934,22 @@
       <c r="K66" s="2"/>
     </row>
     <row r="67" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="15"/>
+      <c r="A67" s="15">
+        <v>45196</v>
+      </c>
       <c r="B67" s="52">
         <v>64</v>
       </c>
-      <c r="C67" s="39"/>
-      <c r="D67" s="19"/>
+      <c r="C67" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="D67" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="E67" s="20"/>
-      <c r="F67" s="18"/>
+      <c r="F67" s="18">
+        <v>110</v>
+      </c>
       <c r="G67" s="18"/>
       <c r="H67" s="18"/>
       <c r="I67" s="19"/>
@@ -6870,14 +6957,22 @@
       <c r="K67" s="2"/>
     </row>
     <row r="68" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="15"/>
+      <c r="A68" s="15">
+        <v>45201</v>
+      </c>
       <c r="B68" s="16">
         <v>65</v>
       </c>
-      <c r="C68" s="16"/>
-      <c r="D68" s="19"/>
+      <c r="C68" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>14</v>
+      </c>
       <c r="E68" s="17"/>
-      <c r="F68" s="18"/>
+      <c r="F68" s="18">
+        <v>250</v>
+      </c>
       <c r="G68" s="18"/>
       <c r="H68" s="18"/>
       <c r="I68" s="19"/>
@@ -6885,14 +6980,22 @@
       <c r="K68" s="2"/>
     </row>
     <row r="69" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="15"/>
+      <c r="A69" s="15">
+        <v>45203</v>
+      </c>
       <c r="B69" s="16">
         <v>66</v>
       </c>
-      <c r="C69" s="16"/>
-      <c r="D69" s="19"/>
+      <c r="C69" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E69" s="17"/>
-      <c r="F69" s="18"/>
+      <c r="F69" s="18">
+        <v>120</v>
+      </c>
       <c r="G69" s="18"/>
       <c r="H69" s="18"/>
       <c r="I69" s="19"/>
@@ -7430,7 +7533,7 @@
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
-        <v>13233.670000000004</v>
+        <v>13966.670000000004</v>
       </c>
       <c r="G105" s="28">
         <f>SUM(G3:G104)</f>
@@ -7473,7 +7576,7 @@
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G171</f>
-        <v>6190.6600000000044</v>
+        <v>5812.0000000000055</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H170</f>
@@ -7511,7 +7614,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>9423.0300000000025</v>
+        <v>9044.3700000000063</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -8312,138 +8415,138 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="A92:D92">
-    <cfRule type="cellIs" dxfId="65" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="115" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="64" priority="128" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="129" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:D98">
-    <cfRule type="cellIs" dxfId="63" priority="107" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D15">
-    <cfRule type="cellIs" dxfId="62" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D65">
-    <cfRule type="cellIs" dxfId="61" priority="1" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
-    <cfRule type="cellIs" dxfId="60" priority="143" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D17:D67">
+    <cfRule type="cellIs" dxfId="62" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:G16">
-    <cfRule type="cellIs" dxfId="59" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D68:G81">
-    <cfRule type="cellIs" dxfId="58" priority="129" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D68:G68 D70:G81 E69:G69">
+    <cfRule type="cellIs" dxfId="59" priority="130" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:G91">
-    <cfRule type="cellIs" dxfId="57" priority="115" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="116" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93:G97">
-    <cfRule type="cellIs" dxfId="56" priority="108" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="109" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="55" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="54" priority="159" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="160" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:F20">
-    <cfRule type="cellIs" dxfId="53" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="52" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:F31">
-    <cfRule type="cellIs" dxfId="51" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:G14">
-    <cfRule type="cellIs" dxfId="50" priority="216" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="217" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:G26">
-    <cfRule type="cellIs" dxfId="49" priority="198" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="199" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37:G40">
-    <cfRule type="cellIs" dxfId="48" priority="179" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="180" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:I3 G4:G12 H4:I26 G15 G17:G23 G25 H28:I104 E59:G60 F61 G61:G62 F63:G65 D66:G66 G82 G92 G98 D99:G104 D104:I104 E105:I169 D109">
-    <cfRule type="cellIs" dxfId="47" priority="280" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E3:I3 G4:G12 H4:I26 G15 G17:G23 G25 H28:I104 E59:G60 F61 G61:G62 F63:G63 E66:G66 G82 G92 G98 D99:G104 D104:I104 E105:I169 D109 F65:G65 E64:G64">
+    <cfRule type="cellIs" dxfId="48" priority="281" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="46" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:G24">
-    <cfRule type="cellIs" dxfId="45" priority="201" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="202" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67:G67">
-    <cfRule type="cellIs" dxfId="44" priority="144" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="145" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:G31 E32:G33 G34:G36">
-    <cfRule type="cellIs" dxfId="43" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41:G46 E47:G48 G49:G50 E50:F50 F51:G51 E52:G52 F53:G58">
-    <cfRule type="cellIs" dxfId="42" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:I27">
-    <cfRule type="cellIs" dxfId="41" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D69">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D83:D88 D71:D72 D67" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D83:D88 D71:D72" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D66 D68:D70 D73:D81 D89:D91 D93:D97 D99:D104 D3:D64" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D73:D81 D89:D91 D93:D97 D99:D104 D3:D70" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$K$1:$K$19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D98 D92 D65" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D98 D92" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>$M$1:$M$19</formula1>
     </dataValidation>
   </dataValidations>
@@ -8466,9 +8569,9 @@
   </sheetPr>
   <dimension ref="A1:IM237"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H105" sqref="H105:H114"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11380,14 +11483,22 @@
     </row>
     <row r="115" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="43"/>
-      <c r="B115" s="15"/>
+      <c r="B115" s="15">
+        <v>45173</v>
+      </c>
       <c r="C115" s="16">
         <v>112</v>
       </c>
-      <c r="D115" s="39"/>
-      <c r="E115" s="19"/>
+      <c r="D115" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E115" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F115" s="20"/>
-      <c r="G115" s="21"/>
+      <c r="G115" s="21">
+        <v>-134</v>
+      </c>
       <c r="H115" s="21"/>
       <c r="I115" s="21"/>
       <c r="J115" s="22"/>
@@ -11397,14 +11508,22 @@
     </row>
     <row r="116" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="43"/>
-      <c r="B116" s="15"/>
+      <c r="B116" s="15">
+        <v>45173</v>
+      </c>
       <c r="C116" s="52">
         <v>113</v>
       </c>
-      <c r="D116" s="39"/>
-      <c r="E116" s="23"/>
+      <c r="D116" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E116" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F116" s="20"/>
-      <c r="G116" s="21"/>
+      <c r="G116" s="21">
+        <v>-28</v>
+      </c>
       <c r="H116" s="21"/>
       <c r="I116" s="21"/>
       <c r="J116" s="22"/>
@@ -11414,14 +11533,22 @@
     </row>
     <row r="117" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="43"/>
-      <c r="B117" s="15"/>
+      <c r="B117" s="15">
+        <v>45180</v>
+      </c>
       <c r="C117" s="52">
         <v>114</v>
       </c>
-      <c r="D117" s="3"/>
-      <c r="E117" s="23"/>
+      <c r="D117" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E117" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F117" s="20"/>
-      <c r="G117" s="21"/>
+      <c r="G117" s="21">
+        <v>-18.510000000000002</v>
+      </c>
       <c r="H117" s="21"/>
       <c r="I117" s="21"/>
       <c r="J117" s="22"/>
@@ -11431,14 +11558,22 @@
     </row>
     <row r="118" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="43"/>
-      <c r="B118" s="15"/>
+      <c r="B118" s="15">
+        <v>45187</v>
+      </c>
       <c r="C118" s="52">
         <v>115</v>
       </c>
-      <c r="D118" s="3"/>
-      <c r="E118" s="23"/>
+      <c r="D118" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E118" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F118" s="20"/>
-      <c r="G118" s="21"/>
+      <c r="G118" s="21">
+        <v>-45.9</v>
+      </c>
       <c r="H118" s="21"/>
       <c r="I118" s="21"/>
       <c r="J118" s="22"/>
@@ -11448,14 +11583,22 @@
     </row>
     <row r="119" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="43"/>
-      <c r="B119" s="15"/>
+      <c r="B119" s="15">
+        <v>45187</v>
+      </c>
       <c r="C119" s="52">
         <v>116</v>
       </c>
-      <c r="D119" s="3"/>
-      <c r="E119" s="23"/>
+      <c r="D119" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E119" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="F119" s="17"/>
-      <c r="G119" s="21"/>
+      <c r="G119" s="21">
+        <v>-47.33</v>
+      </c>
       <c r="H119" s="21"/>
       <c r="I119" s="21"/>
       <c r="J119" s="22"/>
@@ -11465,14 +11608,22 @@
     </row>
     <row r="120" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="43"/>
-      <c r="B120" s="15"/>
+      <c r="B120" s="15">
+        <v>45190</v>
+      </c>
       <c r="C120" s="52">
         <v>117</v>
       </c>
-      <c r="D120" s="3"/>
-      <c r="E120" s="23"/>
+      <c r="D120" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E120" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F120" s="17"/>
-      <c r="G120" s="21"/>
+      <c r="G120" s="21">
+        <v>-11.96</v>
+      </c>
       <c r="H120" s="21"/>
       <c r="I120" s="21"/>
       <c r="J120" s="22"/>
@@ -11482,14 +11633,22 @@
     </row>
     <row r="121" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="43"/>
-      <c r="B121" s="15"/>
+      <c r="B121" s="15">
+        <v>45195</v>
+      </c>
       <c r="C121" s="52">
         <v>118</v>
       </c>
-      <c r="D121" s="3"/>
-      <c r="E121" s="23"/>
+      <c r="D121" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E121" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F121" s="20"/>
-      <c r="G121" s="21"/>
+      <c r="G121" s="21">
+        <v>-35.51</v>
+      </c>
       <c r="H121" s="21"/>
       <c r="I121" s="21"/>
       <c r="J121" s="22"/>
@@ -11499,14 +11658,22 @@
     </row>
     <row r="122" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="43"/>
-      <c r="B122" s="15"/>
+      <c r="B122" s="15">
+        <v>45198</v>
+      </c>
       <c r="C122" s="52">
         <v>119</v>
       </c>
-      <c r="D122" s="3"/>
-      <c r="E122" s="23"/>
+      <c r="D122" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E122" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F122" s="20"/>
-      <c r="G122" s="21"/>
+      <c r="G122" s="21">
+        <v>-0.85</v>
+      </c>
       <c r="H122" s="21"/>
       <c r="I122" s="21"/>
       <c r="J122" s="22"/>
@@ -11516,14 +11683,22 @@
     </row>
     <row r="123" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="43"/>
-      <c r="B123" s="15"/>
+      <c r="B123" s="15">
+        <v>45201</v>
+      </c>
       <c r="C123" s="52">
         <v>120</v>
       </c>
-      <c r="D123" s="39"/>
-      <c r="E123" s="23"/>
+      <c r="D123" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E123" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F123" s="20"/>
-      <c r="G123" s="21"/>
+      <c r="G123" s="21">
+        <v>-12</v>
+      </c>
       <c r="H123" s="21"/>
       <c r="I123" s="21"/>
       <c r="J123" s="22"/>
@@ -11533,14 +11708,22 @@
     </row>
     <row r="124" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="43"/>
-      <c r="B124" s="15"/>
+      <c r="B124" s="15">
+        <v>45201</v>
+      </c>
       <c r="C124" s="52">
         <v>121</v>
       </c>
-      <c r="D124" s="3"/>
-      <c r="E124" s="23"/>
+      <c r="D124" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E124" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F124" s="20"/>
-      <c r="G124" s="21"/>
+      <c r="G124" s="21">
+        <v>-25.57</v>
+      </c>
       <c r="H124" s="21"/>
       <c r="I124" s="21"/>
       <c r="J124" s="22"/>
@@ -11550,14 +11733,22 @@
     </row>
     <row r="125" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="43"/>
-      <c r="B125" s="15"/>
+      <c r="B125" s="15">
+        <v>45203</v>
+      </c>
       <c r="C125" s="52">
         <v>122</v>
       </c>
-      <c r="D125" s="3"/>
-      <c r="E125" s="23"/>
+      <c r="D125" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E125" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F125" s="20"/>
-      <c r="G125" s="21"/>
+      <c r="G125" s="21">
+        <v>-440.95</v>
+      </c>
       <c r="H125" s="21"/>
       <c r="I125" s="21"/>
       <c r="J125" s="22"/>
@@ -11567,14 +11758,22 @@
     </row>
     <row r="126" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="43"/>
-      <c r="B126" s="15"/>
+      <c r="B126" s="15">
+        <v>45203</v>
+      </c>
       <c r="C126" s="52">
         <v>123</v>
       </c>
-      <c r="D126" s="3"/>
-      <c r="E126" s="23"/>
+      <c r="D126" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E126" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F126" s="20"/>
-      <c r="G126" s="21"/>
+      <c r="G126" s="21">
+        <v>-86.48</v>
+      </c>
       <c r="H126" s="21"/>
       <c r="I126" s="21"/>
       <c r="J126" s="22"/>
@@ -11584,14 +11783,22 @@
     </row>
     <row r="127" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="43"/>
-      <c r="B127" s="15"/>
+      <c r="B127" s="15">
+        <v>45203</v>
+      </c>
       <c r="C127" s="52">
         <v>124</v>
       </c>
-      <c r="D127" s="3"/>
-      <c r="E127" s="23"/>
+      <c r="D127" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E127" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F127" s="20"/>
-      <c r="G127" s="21"/>
+      <c r="G127" s="21">
+        <v>-134</v>
+      </c>
       <c r="H127" s="21"/>
       <c r="I127" s="21"/>
       <c r="J127" s="22"/>
@@ -11601,14 +11808,22 @@
     </row>
     <row r="128" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="43"/>
-      <c r="B128" s="15"/>
+      <c r="B128" s="15">
+        <v>45203</v>
+      </c>
       <c r="C128" s="52">
         <v>125</v>
       </c>
-      <c r="D128" s="39"/>
-      <c r="E128" s="23"/>
+      <c r="D128" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E128" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F128" s="20"/>
-      <c r="G128" s="21"/>
+      <c r="G128" s="21">
+        <v>-28</v>
+      </c>
       <c r="H128" s="21"/>
       <c r="I128" s="21"/>
       <c r="J128" s="22"/>
@@ -11618,14 +11833,22 @@
     </row>
     <row r="129" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="43"/>
-      <c r="B129" s="15"/>
+      <c r="B129" s="15">
+        <v>45203</v>
+      </c>
       <c r="C129" s="52">
         <v>126</v>
       </c>
-      <c r="D129" s="39"/>
-      <c r="E129" s="23"/>
+      <c r="D129" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="E129" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F129" s="20"/>
-      <c r="G129" s="21"/>
+      <c r="G129" s="21">
+        <v>-19.7</v>
+      </c>
       <c r="H129" s="21"/>
       <c r="I129" s="21"/>
       <c r="J129" s="22"/>
@@ -11635,14 +11858,22 @@
     </row>
     <row r="130" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="43"/>
-      <c r="B130" s="15"/>
+      <c r="B130" s="15">
+        <v>45210</v>
+      </c>
       <c r="C130" s="52">
         <v>127</v>
       </c>
-      <c r="D130" s="39"/>
-      <c r="E130" s="23"/>
+      <c r="D130" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="E130" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F130" s="20"/>
-      <c r="G130" s="21"/>
+      <c r="G130" s="21">
+        <v>-16.920000000000002</v>
+      </c>
       <c r="H130" s="21"/>
       <c r="I130" s="21"/>
       <c r="J130" s="22"/>
@@ -11652,14 +11883,22 @@
     </row>
     <row r="131" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="43"/>
-      <c r="B131" s="15"/>
+      <c r="B131" s="15">
+        <v>45211</v>
+      </c>
       <c r="C131" s="52">
         <v>128</v>
       </c>
-      <c r="D131" s="3"/>
-      <c r="E131" s="23"/>
+      <c r="D131" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E131" s="23" t="s">
+        <v>23</v>
+      </c>
       <c r="F131" s="20"/>
-      <c r="G131" s="21"/>
+      <c r="G131" s="21">
+        <v>-25.98</v>
+      </c>
       <c r="H131" s="21"/>
       <c r="I131" s="21"/>
       <c r="J131" s="22"/>
@@ -12343,7 +12582,7 @@
       </c>
       <c r="G171" s="34">
         <f>SUM(G3:G170)</f>
-        <v>-7043.0099999999993</v>
+        <v>-8154.6699999999983</v>
       </c>
       <c r="H171" s="18"/>
       <c r="I171" s="18"/>
@@ -13322,213 +13561,203 @@
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B124:B129 A3:A235 E3:E147">
-    <cfRule type="cellIs" dxfId="40" priority="458" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B131">
-    <cfRule type="cellIs" dxfId="39" priority="452" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="452" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134:B138">
-    <cfRule type="cellIs" dxfId="38" priority="441" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="441" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B152:B154">
-    <cfRule type="cellIs" dxfId="37" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B160">
-    <cfRule type="cellIs" dxfId="36" priority="410" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="410" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163:B237">
-    <cfRule type="cellIs" dxfId="35" priority="404" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="404" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162:C162">
-    <cfRule type="cellIs" dxfId="34" priority="406" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="406" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B155:D157">
-    <cfRule type="cellIs" dxfId="33" priority="418" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="418" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159:D159">
-    <cfRule type="cellIs" dxfId="32" priority="414" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="414" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B161:D161">
-    <cfRule type="cellIs" dxfId="31" priority="409" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="409" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B158:E158">
-    <cfRule type="cellIs" dxfId="30" priority="415" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="415" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C112">
-    <cfRule type="cellIs" dxfId="29" priority="479" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="479" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C122">
-    <cfRule type="cellIs" dxfId="28" priority="596" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="596" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C132:C135">
-    <cfRule type="cellIs" dxfId="27" priority="448" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="448" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C146:C147">
-    <cfRule type="cellIs" dxfId="26" priority="428" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="428" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C152">
-    <cfRule type="cellIs" dxfId="25" priority="425" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="425" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C111:D111 C124 C127:C128 D128 B130:D130 B139:D139 C145:D145 C148:E148 B150:D151 C153:E153 C154 C163:C236 J171:J234 I171:I236 K172">
-    <cfRule type="cellIs" dxfId="24" priority="688" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="C111:D111 C124 C127:C128 B130:D130 B139:D139 C145:D145 C148:E148 B150:D151 C153:E153 C154 C163:C236 J171:J234 I171:I236 K172">
+    <cfRule type="cellIs" dxfId="26" priority="688" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C129:D129">
-    <cfRule type="cellIs" dxfId="23" priority="456" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="456" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C149:D149">
-    <cfRule type="cellIs" dxfId="22" priority="427" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D115:D116">
-    <cfRule type="cellIs" dxfId="21" priority="193" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D123">
-    <cfRule type="cellIs" dxfId="20" priority="185" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="427" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D146">
-    <cfRule type="cellIs" dxfId="19" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D162:E172">
-    <cfRule type="cellIs" dxfId="18" priority="403" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="403" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:A235 B125:B129 E3:E147">
+    <cfRule type="cellIs" dxfId="19" priority="458" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E149:E152">
+    <cfRule type="cellIs" dxfId="18" priority="40" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E154:E157">
+    <cfRule type="cellIs" dxfId="17" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E159:E161">
+    <cfRule type="cellIs" dxfId="16" priority="408" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="cellIs" dxfId="15" priority="572" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
+    <cfRule type="cellIs" dxfId="14" priority="168" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
+    <cfRule type="cellIs" dxfId="13" priority="166" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="cellIs" dxfId="12" priority="556" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44:F45">
+    <cfRule type="cellIs" dxfId="11" priority="370" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F59">
+    <cfRule type="cellIs" dxfId="10" priority="144" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F62:F64">
+    <cfRule type="cellIs" dxfId="9" priority="349" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F87">
+    <cfRule type="cellIs" dxfId="8" priority="117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F96:F97">
+    <cfRule type="cellIs" dxfId="7" priority="101" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F107">
+    <cfRule type="cellIs" dxfId="6" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F119:F120">
+    <cfRule type="cellIs" dxfId="5" priority="70" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F134:F135">
+    <cfRule type="cellIs" dxfId="4" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F141:F144">
+    <cfRule type="cellIs" dxfId="3" priority="433" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F147">
+    <cfRule type="cellIs" dxfId="2" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H171:H234 D172:G235">
-    <cfRule type="cellIs" dxfId="17" priority="640" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E149:E152">
-    <cfRule type="cellIs" dxfId="16" priority="40" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E154:E157">
-    <cfRule type="cellIs" dxfId="15" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E159:E161">
-    <cfRule type="cellIs" dxfId="14" priority="408" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="13" priority="572" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
-    <cfRule type="cellIs" dxfId="12" priority="168" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="11" priority="166" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="10" priority="556" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F44:F45">
-    <cfRule type="cellIs" dxfId="9" priority="370" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F59">
-    <cfRule type="cellIs" dxfId="8" priority="144" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F62:F64">
-    <cfRule type="cellIs" dxfId="7" priority="349" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F87">
-    <cfRule type="cellIs" dxfId="6" priority="117" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F96:F97">
-    <cfRule type="cellIs" dxfId="5" priority="101" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F107">
-    <cfRule type="cellIs" dxfId="4" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F119:F120">
-    <cfRule type="cellIs" dxfId="3" priority="70" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F134:F135">
-    <cfRule type="cellIs" dxfId="2" priority="53" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F141:F144">
-    <cfRule type="cellIs" dxfId="1" priority="433" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F147">
-    <cfRule type="cellIs" dxfId="0" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="640" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E155:E170 E108:E110 E142:E144 E147:E153 E32:E87 E89 E3:E30 E91:E93 E95:E96 E100:E102 E104 E106 E113:E140" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E155:E170 E108:E110 E142:E144 E147:E153 E32:E87 E89 E3:E30 E91:E93 E95:E96 E100:E102 E104 E106 E113:E116 E118:E119 E122:E124 E127:E128 E131:E140" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$M$1:$M$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E141 E145:E146 E154" xr:uid="{00000000-0002-0000-0100-000001000000}">
@@ -13537,7 +13766,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E31" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>$M$1:$M$20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E88 E90 E94 E97:E99 E103 E105 E107 E111:E112" xr:uid="{2159CF4B-2649-4586-B851-DB145DFC2247}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E88 E90 E94 E97:E99 E103 E105 E107 E111:E112 E117 E120:E121 E125:E126 E129:E130" xr:uid="{2159CF4B-2649-4586-B851-DB145DFC2247}">
       <formula1>$K$1:$K$19</formula1>
     </dataValidation>
   </dataValidations>

--- a/2023/AWO_Einnahmen_Ausgaben_2023.xlsx
+++ b/2023/AWO_Einnahmen_Ausgaben_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E09515-30F1-4328-9A72-90C40B157131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EC9308-A4EB-464E-9F5F-8BE943931597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="188">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -586,6 +586,18 @@
   </si>
   <si>
     <t>90er Fr.Natly</t>
+  </si>
+  <si>
+    <t>Barkasse auflösen</t>
+  </si>
+  <si>
+    <t>Awo Zweitung</t>
+  </si>
+  <si>
+    <t>Rückzahlung alter Beamer</t>
+  </si>
+  <si>
+    <t>Freenet</t>
   </si>
 </sst>
 </file>
@@ -1249,17 +1261,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="73">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="71">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -4106,17 +4108,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="69">
+    <format dxfId="67">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="68">
+    <format dxfId="66">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="67">
+    <format dxfId="65">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -4219,17 +4221,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="72">
+    <format dxfId="70">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="71">
+    <format dxfId="69">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="70">
+    <format dxfId="68">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5355,9 +5357,9 @@
   </sheetPr>
   <dimension ref="A1:IK170"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A70" sqref="A70"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F107" sqref="F107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7003,14 +7005,22 @@
       <c r="K69" s="2"/>
     </row>
     <row r="70" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="15"/>
+      <c r="A70" s="15">
+        <v>45211</v>
+      </c>
       <c r="B70" s="16">
         <v>67</v>
       </c>
-      <c r="C70" s="16"/>
-      <c r="D70" s="19"/>
+      <c r="C70" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="D70" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="E70" s="17"/>
-      <c r="F70" s="18"/>
+      <c r="F70" s="18">
+        <v>6.5</v>
+      </c>
       <c r="G70" s="18"/>
       <c r="H70" s="18"/>
       <c r="I70" s="19"/>
@@ -7018,14 +7028,22 @@
       <c r="K70" s="2"/>
     </row>
     <row r="71" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="15"/>
+      <c r="A71" s="15">
+        <v>45215</v>
+      </c>
       <c r="B71" s="16">
         <v>68</v>
       </c>
-      <c r="C71" s="3"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="18"/>
+      <c r="C71" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E71" s="20"/>
+      <c r="F71" s="18">
+        <v>25</v>
+      </c>
       <c r="G71" s="18"/>
       <c r="H71" s="18"/>
       <c r="I71" s="19"/>
@@ -7033,14 +7051,22 @@
       <c r="K71" s="2"/>
     </row>
     <row r="72" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="15"/>
+      <c r="A72" s="15">
+        <v>45216</v>
+      </c>
       <c r="B72" s="16">
         <v>69</v>
       </c>
-      <c r="C72" s="3"/>
-      <c r="D72" s="19"/>
+      <c r="C72" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D72" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E72" s="17"/>
-      <c r="F72" s="18"/>
+      <c r="F72" s="18">
+        <v>271.55</v>
+      </c>
       <c r="G72" s="18"/>
       <c r="H72" s="18"/>
       <c r="I72" s="19"/>
@@ -7048,14 +7074,22 @@
       <c r="K72" s="2"/>
     </row>
     <row r="73" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="15"/>
+      <c r="A73" s="15">
+        <v>45217</v>
+      </c>
       <c r="B73" s="16">
         <v>70</v>
       </c>
-      <c r="C73" s="3"/>
-      <c r="D73" s="19"/>
+      <c r="C73" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="D73" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E73" s="17"/>
-      <c r="F73" s="18"/>
+      <c r="F73" s="18">
+        <v>106</v>
+      </c>
       <c r="G73" s="18"/>
       <c r="H73" s="18"/>
       <c r="I73" s="19"/>
@@ -7533,7 +7567,7 @@
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
-        <v>13966.670000000004</v>
+        <v>14375.720000000003</v>
       </c>
       <c r="G105" s="28">
         <f>SUM(G3:G104)</f>
@@ -7572,11 +7606,11 @@
       <c r="D107" s="48"/>
       <c r="E107" s="28">
         <f>E105+Ausgaben!F171</f>
-        <v>6.5000000000002274</v>
+        <v>0</v>
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G171</f>
-        <v>5812.0000000000055</v>
+        <v>5988.5100000000039</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H170</f>
@@ -7614,7 +7648,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>9044.3700000000063</v>
+        <v>9214.3800000000028</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -8415,135 +8449,140 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="A92:D92">
-    <cfRule type="cellIs" dxfId="66" priority="115" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="119" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="65" priority="129" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="133" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:D98">
-    <cfRule type="cellIs" dxfId="64" priority="108" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="112" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D15">
-    <cfRule type="cellIs" dxfId="63" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D67">
-    <cfRule type="cellIs" dxfId="62" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D70:D72">
+    <cfRule type="cellIs" dxfId="59" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:G16">
-    <cfRule type="cellIs" dxfId="60" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D68:G68 D70:G81 E69:G69">
-    <cfRule type="cellIs" dxfId="59" priority="130" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D68:G69 E70:G70 E72:G72 D73:G81">
+    <cfRule type="cellIs" dxfId="57" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:G91">
-    <cfRule type="cellIs" dxfId="58" priority="116" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="120" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93:G97">
-    <cfRule type="cellIs" dxfId="57" priority="109" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="113" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="56" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="55" priority="160" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="164" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:F20">
-    <cfRule type="cellIs" dxfId="54" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="53" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:F31">
-    <cfRule type="cellIs" dxfId="52" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:G14">
-    <cfRule type="cellIs" dxfId="51" priority="217" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="221" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:G26">
-    <cfRule type="cellIs" dxfId="50" priority="199" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="203" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37:G40">
-    <cfRule type="cellIs" dxfId="49" priority="180" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="184" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:I3 G4:G12 H4:I26 G15 G17:G23 G25 H28:I104 E59:G60 F61 G61:G62 F63:G63 E66:G66 G82 G92 G98 D99:G104 D104:I104 E105:I169 D109 F65:G65 E64:G64">
-    <cfRule type="cellIs" dxfId="48" priority="281" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E3:I3 G4:G12 H4:I26 G15 G17:G23 G25 H28:I104 E59:G60 F61 G61:G62 F63:G63 E64:G64 F65:G65 E66:G66 G82 G92 G98 D99:G104 D104:I104 E105:I169 D109">
+    <cfRule type="cellIs" dxfId="46" priority="285" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="47" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:G24">
-    <cfRule type="cellIs" dxfId="46" priority="202" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="206" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67:G67">
-    <cfRule type="cellIs" dxfId="45" priority="145" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="149" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F71:G71">
+    <cfRule type="cellIs" dxfId="42" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:G31 E32:G33 G34:G36">
-    <cfRule type="cellIs" dxfId="44" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41:G46 E47:G48 G49:G50 E50:F50 F51:G51 E52:G52 F53:G58">
-    <cfRule type="cellIs" dxfId="43" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:I27">
-    <cfRule type="cellIs" dxfId="42" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D69">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D83:D88 D71:D72" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D83:D88" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D73:D81 D89:D91 D93:D97 D99:D104 D3:D70" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D89:D91 D93:D97 D99:D104 D3:D81" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$K$1:$K$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D98 D92" xr:uid="{00000000-0002-0000-0000-000003000000}">
@@ -8569,9 +8608,9 @@
   </sheetPr>
   <dimension ref="A1:IM237"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B132" sqref="B132"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B138" sqref="B138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11908,13 +11947,21 @@
     </row>
     <row r="132" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="43"/>
-      <c r="B132" s="15"/>
+      <c r="B132" s="15">
+        <v>45211</v>
+      </c>
       <c r="C132" s="52">
         <v>129</v>
       </c>
-      <c r="D132" s="54"/>
-      <c r="E132" s="23"/>
-      <c r="F132" s="55"/>
+      <c r="D132" s="54" t="s">
+        <v>184</v>
+      </c>
+      <c r="E132" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F132" s="55">
+        <v>-6.5</v>
+      </c>
       <c r="G132" s="21"/>
       <c r="H132" s="21"/>
       <c r="I132" s="21"/>
@@ -11925,14 +11972,22 @@
     </row>
     <row r="133" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="43"/>
-      <c r="B133" s="15"/>
+      <c r="B133" s="15">
+        <v>45211</v>
+      </c>
       <c r="C133" s="52">
         <v>130</v>
       </c>
-      <c r="D133" s="3"/>
-      <c r="E133" s="23"/>
+      <c r="D133" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E133" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="F133" s="20"/>
-      <c r="G133" s="21"/>
+      <c r="G133" s="21">
+        <v>-102</v>
+      </c>
       <c r="H133" s="21"/>
       <c r="I133" s="21"/>
       <c r="J133" s="22"/>
@@ -11942,14 +11997,22 @@
     </row>
     <row r="134" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="43"/>
-      <c r="B134" s="15"/>
+      <c r="B134" s="15">
+        <v>45215</v>
+      </c>
       <c r="C134" s="52">
         <v>131</v>
       </c>
-      <c r="D134" s="3"/>
-      <c r="E134" s="23"/>
+      <c r="D134" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E134" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F134" s="17"/>
-      <c r="G134" s="21"/>
+      <c r="G134" s="21">
+        <v>-18.36</v>
+      </c>
       <c r="H134" s="21"/>
       <c r="I134" s="21"/>
       <c r="J134" s="22"/>
@@ -11959,14 +12022,22 @@
     </row>
     <row r="135" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="43"/>
-      <c r="B135" s="15"/>
+      <c r="B135" s="15">
+        <v>45217</v>
+      </c>
       <c r="C135" s="52">
         <v>132</v>
       </c>
-      <c r="D135" s="3"/>
-      <c r="E135" s="23"/>
+      <c r="D135" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E135" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F135" s="17"/>
-      <c r="G135" s="21"/>
+      <c r="G135" s="21">
+        <v>-45.9</v>
+      </c>
       <c r="H135" s="21"/>
       <c r="I135" s="21"/>
       <c r="J135" s="22"/>
@@ -11976,14 +12047,22 @@
     </row>
     <row r="136" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="43"/>
-      <c r="B136" s="15"/>
+      <c r="B136" s="15">
+        <v>45222</v>
+      </c>
       <c r="C136" s="52">
         <v>133</v>
       </c>
-      <c r="D136" s="3"/>
-      <c r="E136" s="23"/>
+      <c r="D136" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E136" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F136" s="20"/>
-      <c r="G136" s="21"/>
+      <c r="G136" s="21">
+        <v>-54.28</v>
+      </c>
       <c r="H136" s="21"/>
       <c r="I136" s="21"/>
       <c r="J136" s="22"/>
@@ -11993,14 +12072,22 @@
     </row>
     <row r="137" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="43"/>
-      <c r="B137" s="15"/>
+      <c r="B137" s="15">
+        <v>45232</v>
+      </c>
       <c r="C137" s="52">
         <v>134</v>
       </c>
-      <c r="D137" s="3"/>
-      <c r="E137" s="23"/>
+      <c r="D137" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E137" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F137" s="20"/>
-      <c r="G137" s="21"/>
+      <c r="G137" s="21">
+        <v>-12</v>
+      </c>
       <c r="H137" s="21"/>
       <c r="I137" s="21"/>
       <c r="J137" s="22"/>
@@ -12578,11 +12665,11 @@
       <c r="E171" s="32"/>
       <c r="F171" s="33">
         <f>SUM(F3:F170)</f>
-        <v>-1509.71</v>
+        <v>-1516.21</v>
       </c>
       <c r="G171" s="34">
         <f>SUM(G3:G170)</f>
-        <v>-8154.6699999999983</v>
+        <v>-8387.2099999999991</v>
       </c>
       <c r="H171" s="18"/>
       <c r="I171" s="18"/>
@@ -13561,198 +13648,198 @@
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B131">
-    <cfRule type="cellIs" dxfId="41" priority="452" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B131:B133">
+    <cfRule type="cellIs" dxfId="38" priority="452" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B134:B138">
-    <cfRule type="cellIs" dxfId="40" priority="441" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B135:B138">
+    <cfRule type="cellIs" dxfId="37" priority="441" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B152:B154">
-    <cfRule type="cellIs" dxfId="39" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B160">
-    <cfRule type="cellIs" dxfId="38" priority="410" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="410" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163:B237">
-    <cfRule type="cellIs" dxfId="37" priority="404" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="404" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162:C162">
-    <cfRule type="cellIs" dxfId="36" priority="406" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="406" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B155:D157">
-    <cfRule type="cellIs" dxfId="35" priority="418" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="418" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159:D159">
-    <cfRule type="cellIs" dxfId="34" priority="414" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="414" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B161:D161">
-    <cfRule type="cellIs" dxfId="33" priority="409" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="409" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B158:E158">
-    <cfRule type="cellIs" dxfId="32" priority="415" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="415" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C112">
-    <cfRule type="cellIs" dxfId="31" priority="479" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="479" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C122">
-    <cfRule type="cellIs" dxfId="30" priority="596" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="596" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C132:C135">
-    <cfRule type="cellIs" dxfId="29" priority="448" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="448" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C146:C147">
-    <cfRule type="cellIs" dxfId="28" priority="428" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="428" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C152">
-    <cfRule type="cellIs" dxfId="27" priority="425" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="425" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C111:D111 C124 C127:C128 B130:D130 B139:D139 C145:D145 C148:E148 B150:D151 C153:E153 C154 C163:C236 J171:J234 I171:I236 K172">
-    <cfRule type="cellIs" dxfId="26" priority="688" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="688" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C129:D129">
-    <cfRule type="cellIs" dxfId="25" priority="456" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="456" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C149:D149">
-    <cfRule type="cellIs" dxfId="24" priority="427" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="427" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D146">
-    <cfRule type="cellIs" dxfId="21" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D162:E172">
-    <cfRule type="cellIs" dxfId="20" priority="403" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="403" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A235 B125:B129 E3:E147">
-    <cfRule type="cellIs" dxfId="19" priority="458" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="458" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E149:E152">
-    <cfRule type="cellIs" dxfId="18" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E154:E157">
-    <cfRule type="cellIs" dxfId="17" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E159:E161">
-    <cfRule type="cellIs" dxfId="16" priority="408" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="408" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="15" priority="572" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="572" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="cellIs" dxfId="14" priority="168" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="168" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="13" priority="166" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="166" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="12" priority="556" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="556" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44:F45">
-    <cfRule type="cellIs" dxfId="11" priority="370" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="370" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="cellIs" dxfId="10" priority="144" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="144" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62:F64">
-    <cfRule type="cellIs" dxfId="9" priority="349" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="349" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F87">
-    <cfRule type="cellIs" dxfId="8" priority="117" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F96:F97">
-    <cfRule type="cellIs" dxfId="7" priority="101" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="101" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F107">
-    <cfRule type="cellIs" dxfId="6" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F119:F120">
-    <cfRule type="cellIs" dxfId="5" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F134:F135">
-    <cfRule type="cellIs" dxfId="4" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F141:F144">
-    <cfRule type="cellIs" dxfId="3" priority="433" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="433" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F147">
-    <cfRule type="cellIs" dxfId="2" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H171:H234 D172:G235">
-    <cfRule type="cellIs" dxfId="1" priority="640" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="640" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2023/AWO_Einnahmen_Ausgaben_2023.xlsx
+++ b/2023/AWO_Einnahmen_Ausgaben_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EC9308-A4EB-464E-9F5F-8BE943931597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6A886F-96F9-4EC6-911A-C34D74C15C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="193">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -598,6 +598,21 @@
   </si>
   <si>
     <t>Freenet</t>
+  </si>
+  <si>
+    <t>tzgl 17.10.</t>
+  </si>
+  <si>
+    <t>tzgl 3.11.</t>
+  </si>
+  <si>
+    <t>Spende Heinrich Kuti</t>
+  </si>
+  <si>
+    <t>Kuchenspenden B.Mühmel</t>
+  </si>
+  <si>
+    <t>Kuchenspenden K.Heißwolf</t>
   </si>
 </sst>
 </file>
@@ -5358,8 +5373,8 @@
   <dimension ref="A1:IK170"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F107" sqref="F107"/>
+      <pane ySplit="2" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7081,7 +7096,7 @@
         <v>70</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D73" s="19" t="s">
         <v>0</v>
@@ -7097,14 +7112,22 @@
       <c r="K73" s="2"/>
     </row>
     <row r="74" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="15"/>
+      <c r="A74" s="15">
+        <v>45233</v>
+      </c>
       <c r="B74" s="16">
         <v>71</v>
       </c>
-      <c r="C74" s="16"/>
-      <c r="D74" s="19"/>
+      <c r="C74" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="D74" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E74" s="17"/>
-      <c r="F74" s="18"/>
+      <c r="F74" s="18">
+        <v>116</v>
+      </c>
       <c r="G74" s="18"/>
       <c r="H74" s="18"/>
       <c r="I74" s="19"/>
@@ -7112,14 +7135,22 @@
       <c r="K74" s="2"/>
     </row>
     <row r="75" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="15"/>
+      <c r="A75" s="15">
+        <v>45239</v>
+      </c>
       <c r="B75" s="16">
         <v>72</v>
       </c>
-      <c r="C75" s="16"/>
-      <c r="D75" s="19"/>
+      <c r="C75" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="D75" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="E75" s="17"/>
-      <c r="F75" s="18"/>
+      <c r="F75" s="18">
+        <v>50</v>
+      </c>
       <c r="G75" s="18"/>
       <c r="H75" s="18"/>
       <c r="I75" s="19"/>
@@ -7127,14 +7158,22 @@
       <c r="K75" s="2"/>
     </row>
     <row r="76" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="15"/>
+      <c r="A76" s="15">
+        <v>45240</v>
+      </c>
       <c r="B76" s="16">
         <v>73</v>
       </c>
-      <c r="C76" s="16"/>
-      <c r="D76" s="19"/>
+      <c r="C76" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D76" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="E76" s="17"/>
-      <c r="F76" s="18"/>
+      <c r="F76" s="18">
+        <v>200</v>
+      </c>
       <c r="G76" s="18"/>
       <c r="H76" s="18"/>
       <c r="I76" s="19"/>
@@ -7142,14 +7181,22 @@
       <c r="K76" s="2"/>
     </row>
     <row r="77" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="15"/>
+      <c r="A77" s="15">
+        <v>45240</v>
+      </c>
       <c r="B77" s="16">
         <v>74</v>
       </c>
-      <c r="C77" s="16"/>
-      <c r="D77" s="19"/>
+      <c r="C77" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="D77" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="E77" s="17"/>
-      <c r="F77" s="18"/>
+      <c r="F77" s="18">
+        <v>0</v>
+      </c>
       <c r="G77" s="18"/>
       <c r="H77" s="18"/>
       <c r="I77" s="19"/>
@@ -7157,14 +7204,22 @@
       <c r="K77" s="2"/>
     </row>
     <row r="78" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="15"/>
+      <c r="A78" s="15">
+        <v>45240</v>
+      </c>
       <c r="B78" s="16">
         <v>75</v>
       </c>
-      <c r="C78" s="16"/>
-      <c r="D78" s="19"/>
+      <c r="C78" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="D78" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="E78" s="17"/>
-      <c r="F78" s="18"/>
+      <c r="F78" s="18">
+        <v>0</v>
+      </c>
       <c r="G78" s="18"/>
       <c r="H78" s="18"/>
       <c r="I78" s="19"/>
@@ -7567,7 +7622,7 @@
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
-        <v>14375.720000000003</v>
+        <v>14741.720000000003</v>
       </c>
       <c r="G105" s="28">
         <f>SUM(G3:G104)</f>
@@ -7610,7 +7665,7 @@
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G171</f>
-        <v>5988.5100000000039</v>
+        <v>6354.5100000000039</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H170</f>
@@ -7648,7 +7703,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>9214.3800000000028</v>
+        <v>9580.3800000000028</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -13748,7 +13803,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:A235 B125:B129 E3:E147">
+  <conditionalFormatting sqref="E3:E147 A3:A235 B125:B129">
     <cfRule type="cellIs" dxfId="18" priority="458" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/2023/AWO_Einnahmen_Ausgaben_2023.xlsx
+++ b/2023/AWO_Einnahmen_Ausgaben_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6A886F-96F9-4EC6-911A-C34D74C15C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C430A46-6411-4385-B7B1-6CD4EDA8360A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -603,9 +603,6 @@
     <t>tzgl 17.10.</t>
   </si>
   <si>
-    <t>tzgl 3.11.</t>
-  </si>
-  <si>
     <t>Spende Heinrich Kuti</t>
   </si>
   <si>
@@ -613,6 +610,9 @@
   </si>
   <si>
     <t>Kuchenspenden K.Heißwolf</t>
+  </si>
+  <si>
+    <t>tzgl 31.10.</t>
   </si>
 </sst>
 </file>
@@ -5374,7 +5374,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C79" sqref="C79"/>
+      <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7119,7 +7119,7 @@
         <v>71</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D74" s="19" t="s">
         <v>0</v>
@@ -7142,7 +7142,7 @@
         <v>72</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D75" s="19" t="s">
         <v>13</v>
@@ -7188,7 +7188,7 @@
         <v>74</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D77" s="19" t="s">
         <v>13</v>
@@ -7211,7 +7211,7 @@
         <v>75</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D78" s="19" t="s">
         <v>13</v>

--- a/2023/AWO_Einnahmen_Ausgaben_2023.xlsx
+++ b/2023/AWO_Einnahmen_Ausgaben_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C430A46-6411-4385-B7B1-6CD4EDA8360A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F30B83-14F2-4350-84CF-6B220EE606E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="197">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -613,6 +613,18 @@
   </si>
   <si>
     <t>tzgl 31.10.</t>
+  </si>
+  <si>
+    <t>dnt</t>
+  </si>
+  <si>
+    <t>tzgl 14.11.</t>
+  </si>
+  <si>
+    <t>spd</t>
+  </si>
+  <si>
+    <t>Schreiner Bader Schubladenreparatur</t>
   </si>
 </sst>
 </file>
@@ -1276,7 +1288,12 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="71">
+  <dxfs count="72">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -4123,17 +4140,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="67">
+    <format dxfId="68">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="66">
+    <format dxfId="67">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="65">
+    <format dxfId="66">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -4236,17 +4253,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="70">
+    <format dxfId="71">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="69">
+    <format dxfId="70">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="68">
+    <format dxfId="69">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5374,7 +5391,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
+      <selection pane="bottomLeft" activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7231,7 +7248,9 @@
       <c r="B79" s="16">
         <v>76</v>
       </c>
-      <c r="C79" s="39"/>
+      <c r="C79" s="39" t="s">
+        <v>193</v>
+      </c>
       <c r="D79" s="19"/>
       <c r="E79" s="17"/>
       <c r="F79" s="18"/>
@@ -7246,7 +7265,9 @@
       <c r="B80" s="16">
         <v>77</v>
       </c>
-      <c r="C80" s="16"/>
+      <c r="C80" s="16" t="s">
+        <v>194</v>
+      </c>
       <c r="D80" s="19"/>
       <c r="E80" s="17"/>
       <c r="F80" s="18"/>
@@ -7261,7 +7282,9 @@
       <c r="B81" s="16">
         <v>78</v>
       </c>
-      <c r="C81" s="16"/>
+      <c r="C81" s="16" t="s">
+        <v>195</v>
+      </c>
       <c r="D81" s="19"/>
       <c r="E81" s="17"/>
       <c r="F81" s="18"/>
@@ -7272,13 +7295,22 @@
       <c r="K81" s="2"/>
     </row>
     <row r="82" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="15"/>
+      <c r="A82" s="15">
+        <v>45247</v>
+      </c>
       <c r="B82" s="52">
         <v>79</v>
       </c>
-      <c r="C82" s="54"/>
+      <c r="C82" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="D82" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="E82" s="55"/>
-      <c r="F82" s="21"/>
+      <c r="F82" s="21">
+        <v>0</v>
+      </c>
       <c r="G82" s="18"/>
       <c r="H82" s="18"/>
       <c r="I82" s="19"/>
@@ -8504,132 +8536,137 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="A92:D92">
-    <cfRule type="cellIs" dxfId="64" priority="119" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="120" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="63" priority="133" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="134" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:D98">
-    <cfRule type="cellIs" dxfId="62" priority="112" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="113" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D15">
-    <cfRule type="cellIs" dxfId="61" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D67">
-    <cfRule type="cellIs" dxfId="60" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70:D72">
-    <cfRule type="cellIs" dxfId="59" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:G16">
-    <cfRule type="cellIs" dxfId="58" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68:G69 E70:G70 E72:G72 D73:G81">
-    <cfRule type="cellIs" dxfId="57" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:G91">
-    <cfRule type="cellIs" dxfId="56" priority="120" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="121" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93:G97">
-    <cfRule type="cellIs" dxfId="55" priority="113" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="54" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="53" priority="164" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="165" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:F20">
-    <cfRule type="cellIs" dxfId="52" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="51" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:F31">
-    <cfRule type="cellIs" dxfId="50" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:G14">
-    <cfRule type="cellIs" dxfId="49" priority="221" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="222" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:G26">
-    <cfRule type="cellIs" dxfId="48" priority="203" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="204" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37:G40">
-    <cfRule type="cellIs" dxfId="47" priority="184" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="185" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:I3 G4:G12 H4:I26 G15 G17:G23 G25 H28:I104 E59:G60 F61 G61:G62 F63:G63 E64:G64 F65:G65 E66:G66 G82 G92 G98 D99:G104 D104:I104 E105:I169 D109">
-    <cfRule type="cellIs" dxfId="46" priority="285" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="286" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="45" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:G24">
-    <cfRule type="cellIs" dxfId="44" priority="206" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="207" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67:G67">
-    <cfRule type="cellIs" dxfId="43" priority="149" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="150" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71:G71">
-    <cfRule type="cellIs" dxfId="42" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:G31 E32:G33 G34:G36">
-    <cfRule type="cellIs" dxfId="41" priority="60" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41:G46 E47:G48 G49:G50 E50:F50 F51:G51 E52:G52 F53:G58">
-    <cfRule type="cellIs" dxfId="40" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:I27">
-    <cfRule type="cellIs" dxfId="39" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="71" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D82">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8637,7 +8674,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D83:D88" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D89:D91 D93:D97 D99:D104 D3:D81" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D89:D91 D93:D97 D99:D104 D3:D82" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$K$1:$K$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D98 D92" xr:uid="{00000000-0002-0000-0000-000003000000}">
@@ -13704,197 +13741,197 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="B131:B133">
-    <cfRule type="cellIs" dxfId="38" priority="452" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="452" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B135:B138">
-    <cfRule type="cellIs" dxfId="37" priority="441" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="441" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B152:B154">
-    <cfRule type="cellIs" dxfId="36" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B160">
-    <cfRule type="cellIs" dxfId="35" priority="410" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="410" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163:B237">
-    <cfRule type="cellIs" dxfId="34" priority="404" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="404" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162:C162">
-    <cfRule type="cellIs" dxfId="33" priority="406" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="406" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B155:D157">
-    <cfRule type="cellIs" dxfId="32" priority="418" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="418" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159:D159">
-    <cfRule type="cellIs" dxfId="31" priority="414" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="414" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B161:D161">
-    <cfRule type="cellIs" dxfId="30" priority="409" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="409" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B158:E158">
-    <cfRule type="cellIs" dxfId="29" priority="415" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="415" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C112">
-    <cfRule type="cellIs" dxfId="28" priority="479" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="479" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C122">
-    <cfRule type="cellIs" dxfId="27" priority="596" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="596" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C132:C135">
-    <cfRule type="cellIs" dxfId="26" priority="448" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="448" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C146:C147">
-    <cfRule type="cellIs" dxfId="25" priority="428" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="428" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C152">
-    <cfRule type="cellIs" dxfId="24" priority="425" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="425" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C111:D111 C124 C127:C128 B130:D130 B139:D139 C145:D145 C148:E148 B150:D151 C153:E153 C154 C163:C236 J171:J234 I171:I236 K172">
-    <cfRule type="cellIs" dxfId="23" priority="688" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="688" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C129:D129">
-    <cfRule type="cellIs" dxfId="22" priority="456" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="456" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C149:D149">
-    <cfRule type="cellIs" dxfId="21" priority="427" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="427" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D146">
-    <cfRule type="cellIs" dxfId="20" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D162:E172">
-    <cfRule type="cellIs" dxfId="19" priority="403" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="403" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E147 A3:A235 B125:B129">
-    <cfRule type="cellIs" dxfId="18" priority="458" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="458" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E149:E152">
-    <cfRule type="cellIs" dxfId="17" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="40" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E154:E157">
-    <cfRule type="cellIs" dxfId="16" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E159:E161">
-    <cfRule type="cellIs" dxfId="15" priority="408" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="408" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="14" priority="572" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="572" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="cellIs" dxfId="13" priority="168" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="168" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="12" priority="166" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="166" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="11" priority="556" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="556" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44:F45">
-    <cfRule type="cellIs" dxfId="10" priority="370" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="370" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="cellIs" dxfId="9" priority="144" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="144" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62:F64">
-    <cfRule type="cellIs" dxfId="8" priority="349" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="349" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F87">
-    <cfRule type="cellIs" dxfId="7" priority="117" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F96:F97">
-    <cfRule type="cellIs" dxfId="6" priority="101" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="101" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F107">
-    <cfRule type="cellIs" dxfId="5" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F119:F120">
-    <cfRule type="cellIs" dxfId="4" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="70" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F134:F135">
-    <cfRule type="cellIs" dxfId="3" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F141:F144">
-    <cfRule type="cellIs" dxfId="2" priority="433" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="433" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F147">
-    <cfRule type="cellIs" dxfId="1" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="46" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H171:H234 D172:G235">
-    <cfRule type="cellIs" dxfId="0" priority="640" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="640" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2023/AWO_Einnahmen_Ausgaben_2023.xlsx
+++ b/2023/AWO_Einnahmen_Ausgaben_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F30B83-14F2-4350-84CF-6B220EE606E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E28FD21-FCF4-4F43-9B52-2AE363841014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="202">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -615,9 +615,6 @@
     <t>tzgl 31.10.</t>
   </si>
   <si>
-    <t>dnt</t>
-  </si>
-  <si>
     <t>tzgl 14.11.</t>
   </si>
   <si>
@@ -625,6 +622,24 @@
   </si>
   <si>
     <t>Schreiner Bader Schubladenreparatur</t>
+  </si>
+  <si>
+    <t>tzgl Roland</t>
+  </si>
+  <si>
+    <t>Fahrtgeld Roland</t>
+  </si>
+  <si>
+    <t>Lichterkette</t>
+  </si>
+  <si>
+    <t>Miete DNT</t>
+  </si>
+  <si>
+    <t>Taschen Weichnachtspäckle</t>
+  </si>
+  <si>
+    <t>Schoki Päckle</t>
   </si>
 </sst>
 </file>
@@ -1288,7 +1303,12 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="72">
+  <dxfs count="73">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -4140,17 +4160,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="68">
+    <format dxfId="69">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="67">
+    <format dxfId="68">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="66">
+    <format dxfId="67">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -4253,17 +4273,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="71">
+    <format dxfId="72">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="70">
+    <format dxfId="71">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="69">
+    <format dxfId="70">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5390,8 +5410,8 @@
   <dimension ref="A1:IK170"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A82" sqref="A82"/>
+      <pane ySplit="2" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7244,16 +7264,22 @@
       <c r="K78" s="2"/>
     </row>
     <row r="79" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="15"/>
+      <c r="A79" s="15">
+        <v>45243</v>
+      </c>
       <c r="B79" s="16">
         <v>76</v>
       </c>
       <c r="C79" s="39" t="s">
-        <v>193</v>
-      </c>
-      <c r="D79" s="19"/>
+        <v>199</v>
+      </c>
+      <c r="D79" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E79" s="17"/>
-      <c r="F79" s="18"/>
+      <c r="F79" s="18">
+        <v>95</v>
+      </c>
       <c r="G79" s="18"/>
       <c r="H79" s="18"/>
       <c r="I79" s="19"/>
@@ -7261,16 +7287,22 @@
       <c r="K79" s="2"/>
     </row>
     <row r="80" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="15"/>
+      <c r="A80" s="15">
+        <v>45245</v>
+      </c>
       <c r="B80" s="16">
         <v>77</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="D80" s="19"/>
+        <v>193</v>
+      </c>
+      <c r="D80" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E80" s="17"/>
-      <c r="F80" s="18"/>
+      <c r="F80" s="18">
+        <v>94.2</v>
+      </c>
       <c r="G80" s="18"/>
       <c r="H80" s="18"/>
       <c r="I80" s="19"/>
@@ -7278,16 +7310,22 @@
       <c r="K80" s="2"/>
     </row>
     <row r="81" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="15"/>
+      <c r="A81" s="15">
+        <v>45246</v>
+      </c>
       <c r="B81" s="16">
         <v>78</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="D81" s="19"/>
+        <v>194</v>
+      </c>
+      <c r="D81" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E81" s="17"/>
-      <c r="F81" s="18"/>
+      <c r="F81" s="18">
+        <v>20</v>
+      </c>
       <c r="G81" s="18"/>
       <c r="H81" s="18"/>
       <c r="I81" s="19"/>
@@ -7302,7 +7340,7 @@
         <v>79</v>
       </c>
       <c r="C82" s="54" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D82" s="19" t="s">
         <v>13</v>
@@ -7654,7 +7692,7 @@
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
-        <v>14741.720000000003</v>
+        <v>14950.920000000004</v>
       </c>
       <c r="G105" s="28">
         <f>SUM(G3:G104)</f>
@@ -7697,7 +7735,7 @@
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G171</f>
-        <v>6354.5100000000039</v>
+        <v>5653.8900000000049</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H170</f>
@@ -7735,7 +7773,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>9580.3800000000028</v>
+        <v>8879.7600000000057</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -8536,32 +8574,37 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="A92:D92">
-    <cfRule type="cellIs" dxfId="65" priority="120" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="120" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="64" priority="134" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="134" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:D98">
-    <cfRule type="cellIs" dxfId="63" priority="113" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="113" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D15">
-    <cfRule type="cellIs" dxfId="62" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D67">
-    <cfRule type="cellIs" dxfId="61" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70:D72">
-    <cfRule type="cellIs" dxfId="60" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D82">
+    <cfRule type="cellIs" dxfId="60" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8665,11 +8708,6 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D82">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D83:D88" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$M$1:$M$18</formula1>
@@ -8701,8 +8739,8 @@
   <dimension ref="A1:IM237"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B138" sqref="B138"/>
+      <pane ySplit="2" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E146" sqref="E146:G146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12189,14 +12227,22 @@
     </row>
     <row r="138" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="43"/>
-      <c r="B138" s="15"/>
+      <c r="B138" s="15">
+        <v>45233</v>
+      </c>
       <c r="C138" s="52">
         <v>135</v>
       </c>
-      <c r="D138" s="3"/>
-      <c r="E138" s="23"/>
+      <c r="D138" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E138" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F138" s="20"/>
-      <c r="G138" s="21"/>
+      <c r="G138" s="21">
+        <v>-28</v>
+      </c>
       <c r="H138" s="21"/>
       <c r="I138" s="21"/>
       <c r="J138" s="22"/>
@@ -12206,14 +12252,22 @@
     </row>
     <row r="139" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="43"/>
-      <c r="B139" s="15"/>
+      <c r="B139" s="15">
+        <v>45233</v>
+      </c>
       <c r="C139" s="52">
         <v>136</v>
       </c>
-      <c r="D139" s="39"/>
-      <c r="E139" s="23"/>
+      <c r="D139" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E139" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F139" s="20"/>
-      <c r="G139" s="21"/>
+      <c r="G139" s="21">
+        <v>-134</v>
+      </c>
       <c r="H139" s="21"/>
       <c r="I139" s="21"/>
       <c r="J139" s="22"/>
@@ -12223,14 +12277,22 @@
     </row>
     <row r="140" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="43"/>
-      <c r="B140" s="15"/>
+      <c r="B140" s="15">
+        <v>45238</v>
+      </c>
       <c r="C140" s="16">
         <v>137</v>
       </c>
-      <c r="D140" s="3"/>
-      <c r="E140" s="23"/>
+      <c r="D140" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E140" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F140" s="20"/>
-      <c r="G140" s="21"/>
+      <c r="G140" s="21">
+        <v>-32.65</v>
+      </c>
       <c r="H140" s="21"/>
       <c r="I140" s="21"/>
       <c r="J140" s="22"/>
@@ -12240,14 +12302,22 @@
     </row>
     <row r="141" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="43"/>
-      <c r="B141" s="15"/>
+      <c r="B141" s="15">
+        <v>45239</v>
+      </c>
       <c r="C141" s="16">
         <v>138</v>
       </c>
-      <c r="D141" s="3"/>
-      <c r="E141" s="19"/>
-      <c r="F141" s="17"/>
-      <c r="G141" s="21"/>
+      <c r="D141" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E141" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F141" s="20"/>
+      <c r="G141" s="21">
+        <v>-200</v>
+      </c>
       <c r="H141" s="21"/>
       <c r="I141" s="21"/>
       <c r="J141" s="22"/>
@@ -12257,14 +12327,22 @@
     </row>
     <row r="142" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="43"/>
-      <c r="B142" s="15"/>
+      <c r="B142" s="15">
+        <v>45240</v>
+      </c>
       <c r="C142" s="16">
         <v>139</v>
       </c>
-      <c r="D142" s="3"/>
-      <c r="E142" s="23"/>
+      <c r="D142" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E142" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F142" s="17"/>
-      <c r="G142" s="21"/>
+      <c r="G142" s="21">
+        <v>-134.5</v>
+      </c>
       <c r="H142" s="21"/>
       <c r="I142" s="21"/>
       <c r="J142" s="22"/>
@@ -12274,14 +12352,22 @@
     </row>
     <row r="143" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="43"/>
-      <c r="B143" s="15"/>
+      <c r="B143" s="15">
+        <v>45243</v>
+      </c>
       <c r="C143" s="16">
         <v>140</v>
       </c>
-      <c r="D143" s="3"/>
-      <c r="E143" s="23"/>
+      <c r="D143" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E143" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="F143" s="17"/>
-      <c r="G143" s="21"/>
+      <c r="G143" s="21">
+        <v>-172.6</v>
+      </c>
       <c r="H143" s="21"/>
       <c r="I143" s="21"/>
       <c r="J143" s="22"/>
@@ -12291,14 +12377,22 @@
     </row>
     <row r="144" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="43"/>
-      <c r="B144" s="15"/>
+      <c r="B144" s="15">
+        <v>45244</v>
+      </c>
       <c r="C144" s="16">
         <v>141</v>
       </c>
-      <c r="D144" s="3"/>
-      <c r="E144" s="23"/>
+      <c r="D144" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E144" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F144" s="17"/>
-      <c r="G144" s="21"/>
+      <c r="G144" s="21">
+        <v>-57.17</v>
+      </c>
       <c r="H144" s="21"/>
       <c r="I144" s="21"/>
       <c r="J144" s="22"/>
@@ -12308,14 +12402,22 @@
     </row>
     <row r="145" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="43"/>
-      <c r="B145" s="15"/>
+      <c r="B145" s="15">
+        <v>45245</v>
+      </c>
       <c r="C145" s="52">
         <v>142</v>
       </c>
-      <c r="D145" s="39"/>
-      <c r="E145" s="19"/>
+      <c r="D145" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="E145" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="F145" s="20"/>
-      <c r="G145" s="21"/>
+      <c r="G145" s="21">
+        <v>-105</v>
+      </c>
       <c r="H145" s="21"/>
       <c r="I145" s="21"/>
       <c r="J145" s="22"/>
@@ -12325,14 +12427,22 @@
     </row>
     <row r="146" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="43"/>
-      <c r="B146" s="15"/>
+      <c r="B146" s="15">
+        <v>45247</v>
+      </c>
       <c r="C146" s="52">
         <v>143</v>
       </c>
-      <c r="D146" s="39"/>
-      <c r="E146" s="19"/>
-      <c r="F146" s="20"/>
-      <c r="G146" s="20"/>
+      <c r="D146" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="E146" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F146" s="17"/>
+      <c r="G146" s="21">
+        <v>-45.9</v>
+      </c>
       <c r="H146" s="21"/>
       <c r="I146" s="21"/>
       <c r="J146" s="22"/>
@@ -12761,7 +12871,7 @@
       </c>
       <c r="G171" s="34">
         <f>SUM(G3:G170)</f>
-        <v>-8387.2099999999991</v>
+        <v>-9297.0299999999988</v>
       </c>
       <c r="H171" s="18"/>
       <c r="I171" s="18"/>
@@ -13741,211 +13851,216 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="B131:B133">
-    <cfRule type="cellIs" dxfId="39" priority="452" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="453" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B135:B138">
-    <cfRule type="cellIs" dxfId="38" priority="441" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B135:B139">
+    <cfRule type="cellIs" dxfId="38" priority="442" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B152:B154">
-    <cfRule type="cellIs" dxfId="37" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B160">
-    <cfRule type="cellIs" dxfId="36" priority="410" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="411" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163:B237">
-    <cfRule type="cellIs" dxfId="35" priority="404" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="405" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162:C162">
-    <cfRule type="cellIs" dxfId="34" priority="406" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="407" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B155:D157">
-    <cfRule type="cellIs" dxfId="33" priority="418" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="419" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159:D159">
-    <cfRule type="cellIs" dxfId="32" priority="414" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="415" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B161:D161">
-    <cfRule type="cellIs" dxfId="31" priority="409" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="410" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B158:E158">
-    <cfRule type="cellIs" dxfId="30" priority="415" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="416" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C112">
-    <cfRule type="cellIs" dxfId="29" priority="479" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="480" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C122">
-    <cfRule type="cellIs" dxfId="28" priority="596" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="597" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C132:C135">
-    <cfRule type="cellIs" dxfId="27" priority="448" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="449" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C146:C147">
-    <cfRule type="cellIs" dxfId="26" priority="428" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="429" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C152">
-    <cfRule type="cellIs" dxfId="25" priority="425" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="426" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C111:D111 C124 C127:C128 B130:D130 B139:D139 C145:D145 C148:E148 B150:D151 C153:E153 C154 C163:C236 J171:J234 I171:I236 K172">
-    <cfRule type="cellIs" dxfId="24" priority="688" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="C111:D111 C124 C127:C128 B130:D130 C139 C145:D145 C148:E148 B150:D151 C153:E153 C154 C163:C236 J171:J234 I171:I236 K172">
+    <cfRule type="cellIs" dxfId="24" priority="689" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C129:D129">
-    <cfRule type="cellIs" dxfId="23" priority="456" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="457" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C149:D149">
-    <cfRule type="cellIs" dxfId="22" priority="427" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="428" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D146">
-    <cfRule type="cellIs" dxfId="21" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D162:E172">
-    <cfRule type="cellIs" dxfId="20" priority="403" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="404" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E147 A3:A235 B125:B129">
-    <cfRule type="cellIs" dxfId="19" priority="458" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="A3:A235 B125:B129 E3:E147">
+    <cfRule type="cellIs" dxfId="19" priority="459" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E149:E152">
-    <cfRule type="cellIs" dxfId="18" priority="40" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E154:E157">
-    <cfRule type="cellIs" dxfId="17" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E159:E161">
-    <cfRule type="cellIs" dxfId="16" priority="408" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="409" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="15" priority="572" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="573" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="cellIs" dxfId="14" priority="168" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="169" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="13" priority="166" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="167" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="12" priority="556" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="557" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44:F45">
-    <cfRule type="cellIs" dxfId="11" priority="370" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="371" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="cellIs" dxfId="10" priority="144" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="145" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62:F64">
-    <cfRule type="cellIs" dxfId="9" priority="349" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="350" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F87">
-    <cfRule type="cellIs" dxfId="8" priority="117" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="118" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F96:F97">
-    <cfRule type="cellIs" dxfId="7" priority="101" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F107">
-    <cfRule type="cellIs" dxfId="6" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F119:F120">
-    <cfRule type="cellIs" dxfId="5" priority="70" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F134:F135">
-    <cfRule type="cellIs" dxfId="4" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F141:F144">
-    <cfRule type="cellIs" dxfId="3" priority="433" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F142:F144">
+    <cfRule type="cellIs" dxfId="3" priority="434" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F147">
-    <cfRule type="cellIs" dxfId="2" priority="46" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="47" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H171:H234 D172:G235">
-    <cfRule type="cellIs" dxfId="1" priority="640" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="641" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F146">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E155:E170 E108:E110 E142:E144 E147:E153 E32:E87 E89 E3:E30 E91:E93 E95:E96 E100:E102 E104 E106 E113:E116 E118:E119 E122:E124 E127:E128 E131:E140" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E155:E170 E108:E110 E131:E139 E32:E87 E89 E3:E30 E91:E93 E95:E96 E100:E102 E104 E106 E113:E116 E118:E119 E122:E124 E127:E128 E141 E143 E145:E153" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$M$1:$M$19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E141 E145:E146 E154" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E154" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>$M$1:$M$18</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E31" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>$M$1:$M$20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E88 E90 E94 E97:E99 E103 E105 E107 E111:E112 E117 E120:E121 E125:E126 E129:E130" xr:uid="{2159CF4B-2649-4586-B851-DB145DFC2247}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E88 E90 E94 E97:E99 E103 E105 E107 E111:E112 E117 E120:E121 E125:E126 E129:E130 E140 E142 E144" xr:uid="{2159CF4B-2649-4586-B851-DB145DFC2247}">
       <formula1>$K$1:$K$19</formula1>
     </dataValidation>
   </dataValidations>

--- a/2023/AWO_Einnahmen_Ausgaben_2023.xlsx
+++ b/2023/AWO_Einnahmen_Ausgaben_2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E28FD21-FCF4-4F43-9B52-2AE363841014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A3F179-6F7E-48BC-AF01-A483BE6C34B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="210">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -640,6 +640,30 @@
   </si>
   <si>
     <t>Schoki Päckle</t>
+  </si>
+  <si>
+    <t>Spende Bücherstube</t>
+  </si>
+  <si>
+    <t>Spende Haka</t>
+  </si>
+  <si>
+    <t>Spende Doris</t>
+  </si>
+  <si>
+    <t>Tzgl Roland</t>
+  </si>
+  <si>
+    <t>Ausgaben Roland</t>
+  </si>
+  <si>
+    <t>Getränke FWV</t>
+  </si>
+  <si>
+    <t>Getränke SPD</t>
+  </si>
+  <si>
+    <t>tzgl 28.11.</t>
   </si>
 </sst>
 </file>
@@ -1303,7 +1327,32 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="73">
+  <dxfs count="78">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -4160,17 +4209,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="69">
+    <format dxfId="74">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="68">
+    <format dxfId="73">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="67">
+    <format dxfId="72">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -4273,17 +4322,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="72">
+    <format dxfId="77">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="71">
+    <format dxfId="76">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="70">
+    <format dxfId="75">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5410,8 +5459,8 @@
   <dimension ref="A1:IK170"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F82" sqref="F82"/>
+      <pane ySplit="2" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7356,14 +7405,22 @@
       <c r="K82" s="2"/>
     </row>
     <row r="83" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="15"/>
+      <c r="A83" s="15">
+        <v>45258</v>
+      </c>
       <c r="B83" s="16">
         <v>80</v>
       </c>
-      <c r="C83" s="3"/>
-      <c r="D83" s="19"/>
+      <c r="C83" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D83" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="E83" s="17"/>
-      <c r="F83" s="18"/>
+      <c r="F83" s="18">
+        <v>0</v>
+      </c>
       <c r="G83" s="18"/>
       <c r="H83" s="18"/>
       <c r="I83" s="19"/>
@@ -7371,14 +7428,22 @@
       <c r="K83" s="2"/>
     </row>
     <row r="84" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="15"/>
+      <c r="A84" s="15">
+        <v>45259</v>
+      </c>
       <c r="B84" s="16">
         <v>81</v>
       </c>
-      <c r="C84" s="3"/>
-      <c r="D84" s="19"/>
+      <c r="C84" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D84" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E84" s="17"/>
-      <c r="F84" s="18"/>
+      <c r="F84" s="18">
+        <v>36</v>
+      </c>
       <c r="G84" s="18"/>
       <c r="H84" s="18"/>
       <c r="I84" s="19"/>
@@ -7386,14 +7451,22 @@
       <c r="K84" s="2"/>
     </row>
     <row r="85" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="15"/>
+      <c r="A85" s="15">
+        <v>45259</v>
+      </c>
       <c r="B85" s="16">
         <v>82</v>
       </c>
-      <c r="C85" s="3"/>
-      <c r="D85" s="19"/>
+      <c r="C85" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D85" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E85" s="17"/>
-      <c r="F85" s="18"/>
+      <c r="F85" s="18">
+        <v>21</v>
+      </c>
       <c r="G85" s="18"/>
       <c r="H85" s="18"/>
       <c r="I85" s="19"/>
@@ -7401,14 +7474,22 @@
       <c r="K85" s="2"/>
     </row>
     <row r="86" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="15"/>
+      <c r="A86" s="15">
+        <v>45259</v>
+      </c>
       <c r="B86" s="16">
         <v>83</v>
       </c>
-      <c r="C86" s="3"/>
-      <c r="D86" s="19"/>
+      <c r="C86" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D86" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E86" s="17"/>
-      <c r="F86" s="18"/>
+      <c r="F86" s="18">
+        <v>8</v>
+      </c>
       <c r="G86" s="18"/>
       <c r="H86" s="18"/>
       <c r="I86" s="19"/>
@@ -7416,14 +7497,22 @@
       <c r="K86" s="2"/>
     </row>
     <row r="87" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="15"/>
+      <c r="A87" s="15">
+        <v>45259</v>
+      </c>
       <c r="B87" s="16">
         <v>84</v>
       </c>
-      <c r="C87" s="3"/>
-      <c r="D87" s="19"/>
+      <c r="C87" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="D87" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E87" s="17"/>
-      <c r="F87" s="18"/>
+      <c r="F87" s="18">
+        <v>110</v>
+      </c>
       <c r="G87" s="18"/>
       <c r="H87" s="18"/>
       <c r="I87" s="19"/>
@@ -7431,14 +7520,22 @@
       <c r="K87" s="2"/>
     </row>
     <row r="88" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="15"/>
+      <c r="A88" s="15">
+        <v>45260</v>
+      </c>
       <c r="B88" s="16">
         <v>85</v>
       </c>
-      <c r="C88" s="3"/>
-      <c r="D88" s="19"/>
+      <c r="C88" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D88" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E88" s="17"/>
-      <c r="F88" s="18"/>
+      <c r="F88" s="18">
+        <v>20</v>
+      </c>
       <c r="G88" s="18"/>
       <c r="H88" s="18"/>
       <c r="I88" s="19"/>
@@ -7461,14 +7558,22 @@
       <c r="K89" s="2"/>
     </row>
     <row r="90" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="15"/>
+      <c r="A90" s="15">
+        <v>45265</v>
+      </c>
       <c r="B90" s="16">
         <v>87</v>
       </c>
-      <c r="C90" s="16"/>
-      <c r="D90" s="19"/>
+      <c r="C90" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D90" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="E90" s="17"/>
-      <c r="F90" s="18"/>
+      <c r="F90" s="18">
+        <v>0</v>
+      </c>
       <c r="G90" s="18"/>
       <c r="H90" s="18"/>
       <c r="I90" s="19"/>
@@ -7476,14 +7581,22 @@
       <c r="K90" s="2"/>
     </row>
     <row r="91" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="15"/>
+      <c r="A91" s="15">
+        <v>45267</v>
+      </c>
       <c r="B91" s="16">
         <v>88</v>
       </c>
-      <c r="C91" s="16"/>
-      <c r="D91" s="19"/>
+      <c r="C91" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D91" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="E91" s="17"/>
-      <c r="F91" s="18"/>
+      <c r="F91" s="18">
+        <v>50</v>
+      </c>
       <c r="G91" s="18"/>
       <c r="H91" s="18"/>
       <c r="I91" s="19"/>
@@ -7692,7 +7805,7 @@
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
-        <v>14950.920000000004</v>
+        <v>15195.920000000004</v>
       </c>
       <c r="G105" s="28">
         <f>SUM(G3:G104)</f>
@@ -7735,7 +7848,7 @@
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G171</f>
-        <v>5653.8900000000049</v>
+        <v>5804.600000000004</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H170</f>
@@ -7773,7 +7886,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>8879.7600000000057</v>
+        <v>9030.4700000000048</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -8574,145 +8687,167 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="A92:D92">
-    <cfRule type="cellIs" dxfId="66" priority="120" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="126" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="65" priority="134" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="140" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:D98">
-    <cfRule type="cellIs" dxfId="64" priority="113" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="119" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D15">
-    <cfRule type="cellIs" dxfId="63" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D67">
-    <cfRule type="cellIs" dxfId="62" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70:D72">
-    <cfRule type="cellIs" dxfId="61" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D82">
-    <cfRule type="cellIs" dxfId="60" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:G16">
-    <cfRule type="cellIs" dxfId="59" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68:G69 E70:G70 E72:G72 D73:G81">
-    <cfRule type="cellIs" dxfId="58" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D83:G91">
-    <cfRule type="cellIs" dxfId="57" priority="121" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D89:G89 E90:G91 E83:G86 G87:G88">
+    <cfRule type="cellIs" dxfId="62" priority="127" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93:G97">
-    <cfRule type="cellIs" dxfId="56" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="120" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="55" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="54" priority="165" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="171" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:F20">
-    <cfRule type="cellIs" dxfId="53" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="52" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:F31">
-    <cfRule type="cellIs" dxfId="51" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:G14">
-    <cfRule type="cellIs" dxfId="50" priority="222" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="228" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:G26">
-    <cfRule type="cellIs" dxfId="49" priority="204" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="210" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37:G40">
-    <cfRule type="cellIs" dxfId="48" priority="185" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="191" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:I3 G4:G12 H4:I26 G15 G17:G23 G25 H28:I104 E59:G60 F61 G61:G62 F63:G63 E64:G64 F65:G65 E66:G66 G82 G92 G98 D99:G104 D104:I104 E105:I169 D109">
-    <cfRule type="cellIs" dxfId="47" priority="286" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="292" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="46" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:G24">
-    <cfRule type="cellIs" dxfId="45" priority="207" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="213" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67:G67">
-    <cfRule type="cellIs" dxfId="44" priority="150" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="156" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71:G71">
-    <cfRule type="cellIs" dxfId="43" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:G31 E32:G33 G34:G36">
-    <cfRule type="cellIs" dxfId="42" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41:G46 E47:G48 G49:G50 E50:F50 F51:G51 E52:G52 F53:G58">
-    <cfRule type="cellIs" dxfId="41" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:I27">
-    <cfRule type="cellIs" dxfId="40" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D83:D88" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>$M$1:$M$18</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D89:D91 D93:D97 D99:D104 D3:D82" xr:uid="{00000000-0002-0000-0000-000001000000}">
+  <conditionalFormatting sqref="D83">
+    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D84:D86">
+    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D90:D91">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D87:F87">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D88:F88">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D93:D97 D99:D104 D3:D91" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$K$1:$K$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D98 D92" xr:uid="{00000000-0002-0000-0000-000003000000}">
@@ -8740,7 +8875,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E146" sqref="E146:G146"/>
+      <selection pane="bottomLeft" activeCell="D151" sqref="D151:G151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12451,14 +12586,22 @@
     </row>
     <row r="147" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="43"/>
-      <c r="B147" s="15"/>
+      <c r="B147" s="15">
+        <v>45251</v>
+      </c>
       <c r="C147" s="52">
         <v>144</v>
       </c>
-      <c r="D147" s="3"/>
-      <c r="E147" s="23"/>
+      <c r="D147" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E147" s="23" t="s">
+        <v>20</v>
+      </c>
       <c r="F147" s="17"/>
-      <c r="G147" s="21"/>
+      <c r="G147" s="21">
+        <v>-27.04</v>
+      </c>
       <c r="H147" s="21"/>
       <c r="I147" s="21"/>
       <c r="J147" s="22"/>
@@ -12468,14 +12611,22 @@
     </row>
     <row r="148" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="43"/>
-      <c r="B148" s="15"/>
+      <c r="B148" s="15">
+        <v>45254</v>
+      </c>
       <c r="C148" s="52">
         <v>145</v>
       </c>
-      <c r="D148" s="39"/>
-      <c r="E148" s="19"/>
+      <c r="D148" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="E148" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F148" s="20"/>
-      <c r="G148" s="21"/>
+      <c r="G148" s="21">
+        <v>-13.58</v>
+      </c>
       <c r="H148" s="21"/>
       <c r="I148" s="21"/>
       <c r="J148" s="22"/>
@@ -12485,14 +12636,22 @@
     </row>
     <row r="149" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="43"/>
-      <c r="B149" s="15"/>
+      <c r="B149" s="15">
+        <v>45259</v>
+      </c>
       <c r="C149" s="52">
         <v>146</v>
       </c>
-      <c r="D149" s="39"/>
-      <c r="E149" s="23"/>
+      <c r="D149" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="E149" s="23" t="s">
+        <v>20</v>
+      </c>
       <c r="F149" s="20"/>
-      <c r="G149" s="21"/>
+      <c r="G149" s="21">
+        <v>-19.2</v>
+      </c>
       <c r="H149" s="21"/>
       <c r="I149" s="21"/>
       <c r="J149" s="22"/>
@@ -12502,14 +12661,22 @@
     </row>
     <row r="150" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="43"/>
-      <c r="B150" s="15"/>
+      <c r="B150" s="15">
+        <v>45259</v>
+      </c>
       <c r="C150" s="52">
         <v>147</v>
       </c>
-      <c r="D150" s="39"/>
-      <c r="E150" s="23"/>
+      <c r="D150" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="E150" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F150" s="20"/>
-      <c r="G150" s="21"/>
+      <c r="G150" s="21">
+        <v>-22.47</v>
+      </c>
       <c r="H150" s="21"/>
       <c r="I150" s="21"/>
       <c r="J150" s="22"/>
@@ -12519,14 +12686,22 @@
     </row>
     <row r="151" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="43"/>
-      <c r="B151" s="15"/>
+      <c r="B151" s="15">
+        <v>45261</v>
+      </c>
       <c r="C151" s="52">
         <v>148</v>
       </c>
-      <c r="D151" s="39"/>
-      <c r="E151" s="23"/>
+      <c r="D151" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E151" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F151" s="20"/>
-      <c r="G151" s="21"/>
+      <c r="G151" s="21">
+        <v>-12</v>
+      </c>
       <c r="H151" s="21"/>
       <c r="I151" s="21"/>
       <c r="J151" s="22"/>
@@ -12871,7 +13046,7 @@
       </c>
       <c r="G171" s="34">
         <f>SUM(G3:G170)</f>
-        <v>-9297.0299999999988</v>
+        <v>-9391.32</v>
       </c>
       <c r="H171" s="18"/>
       <c r="I171" s="18"/>
@@ -13851,207 +14026,202 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="B131:B133">
-    <cfRule type="cellIs" dxfId="39" priority="453" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="453" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B135:B139">
-    <cfRule type="cellIs" dxfId="38" priority="442" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="442" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B152:B154">
-    <cfRule type="cellIs" dxfId="37" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B160">
-    <cfRule type="cellIs" dxfId="36" priority="411" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="411" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163:B237">
-    <cfRule type="cellIs" dxfId="35" priority="405" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="405" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162:C162">
-    <cfRule type="cellIs" dxfId="34" priority="407" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="407" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B155:D157">
-    <cfRule type="cellIs" dxfId="33" priority="419" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="419" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159:D159">
-    <cfRule type="cellIs" dxfId="32" priority="415" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="415" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B161:D161">
-    <cfRule type="cellIs" dxfId="31" priority="410" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="410" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B158:E158">
-    <cfRule type="cellIs" dxfId="30" priority="416" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="416" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C112">
-    <cfRule type="cellIs" dxfId="29" priority="480" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="480" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C122">
-    <cfRule type="cellIs" dxfId="28" priority="597" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="597" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C132:C135">
-    <cfRule type="cellIs" dxfId="27" priority="449" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="449" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C146:C147">
-    <cfRule type="cellIs" dxfId="26" priority="429" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="429" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C152">
-    <cfRule type="cellIs" dxfId="25" priority="426" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="426" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C111:D111 C124 C127:C128 B130:D130 C139 C145:D145 C148:E148 B150:D151 C153:E153 C154 C163:C236 J171:J234 I171:I236 K172">
-    <cfRule type="cellIs" dxfId="24" priority="689" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="C111:D111 C124 C127:C128 B130:D130 C139 C145:D145 C148:D148 C153:E153 C154 C163:C236 J171:J234 I171:I236 K172 B151:C151 C150:D150">
+    <cfRule type="cellIs" dxfId="29" priority="689" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C129:D129">
-    <cfRule type="cellIs" dxfId="23" priority="457" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="457" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C149:D149">
-    <cfRule type="cellIs" dxfId="22" priority="428" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="428" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D146">
-    <cfRule type="cellIs" dxfId="21" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D162:E172">
-    <cfRule type="cellIs" dxfId="20" priority="404" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="404" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:A235 B125:B129 E3:E147">
-    <cfRule type="cellIs" dxfId="19" priority="459" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="A3:A235 B125:B129 E3:E151">
+    <cfRule type="cellIs" dxfId="24" priority="459" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E149:E152">
-    <cfRule type="cellIs" dxfId="18" priority="41" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E152">
+    <cfRule type="cellIs" dxfId="23" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E154:E157">
-    <cfRule type="cellIs" dxfId="17" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E159:E161">
-    <cfRule type="cellIs" dxfId="16" priority="409" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="409" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="15" priority="573" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="573" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="cellIs" dxfId="14" priority="169" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="169" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="13" priority="167" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="167" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="12" priority="557" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="557" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44:F45">
-    <cfRule type="cellIs" dxfId="11" priority="371" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="371" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="cellIs" dxfId="10" priority="145" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="145" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62:F64">
-    <cfRule type="cellIs" dxfId="9" priority="350" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="350" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F87">
-    <cfRule type="cellIs" dxfId="8" priority="118" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="118" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F96:F97">
-    <cfRule type="cellIs" dxfId="7" priority="102" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="102" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F107">
-    <cfRule type="cellIs" dxfId="6" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F119:F120">
-    <cfRule type="cellIs" dxfId="5" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="71" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F134:F135">
-    <cfRule type="cellIs" dxfId="4" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F142:F144">
-    <cfRule type="cellIs" dxfId="3" priority="434" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="434" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F147">
-    <cfRule type="cellIs" dxfId="2" priority="47" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F146:F147">
+    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H171:H234 D172:G235">
-    <cfRule type="cellIs" dxfId="1" priority="641" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F146">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="641" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E155:E170 E108:E110 E131:E139 E32:E87 E89 E3:E30 E91:E93 E95:E96 E100:E102 E104 E106 E113:E116 E118:E119 E122:E124 E127:E128 E141 E143 E145:E153" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E155:E170 E108:E110 E131:E139 E32:E87 E89 E3:E30 E91:E93 E95:E96 E100:E102 E104 E106 E113:E116 E118:E119 E122:E124 E127:E128 E141 E143 E145:E147 E149 E151:E153" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$M$1:$M$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E154" xr:uid="{00000000-0002-0000-0100-000001000000}">
@@ -14060,7 +14230,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E31" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>$M$1:$M$20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E88 E90 E94 E97:E99 E103 E105 E107 E111:E112 E117 E120:E121 E125:E126 E129:E130 E140 E142 E144" xr:uid="{2159CF4B-2649-4586-B851-DB145DFC2247}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E88 E90 E94 E97:E99 E103 E105 E107 E111:E112 E117 E120:E121 E125:E126 E129:E130 E140 E142 E144 E148 E150" xr:uid="{2159CF4B-2649-4586-B851-DB145DFC2247}">
       <formula1>$K$1:$K$19</formula1>
     </dataValidation>
   </dataValidations>

--- a/2023/AWO_Einnahmen_Ausgaben_2023.xlsx
+++ b/2023/AWO_Einnahmen_Ausgaben_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A3F179-6F7E-48BC-AF01-A483BE6C34B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D3B903-2CFF-47E1-8C1C-FF94B0A633A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="213">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -664,6 +664,15 @@
   </si>
   <si>
     <t>tzgl 28.11.</t>
+  </si>
+  <si>
+    <t>Getraenke W.Markt</t>
+  </si>
+  <si>
+    <t>tzgl Getraenke</t>
+  </si>
+  <si>
+    <t>Stollen Wpäckle</t>
   </si>
 </sst>
 </file>
@@ -1327,27 +1336,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="78">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="74">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -4209,17 +4198,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="74">
+    <format dxfId="70">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="73">
+    <format dxfId="69">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="72">
+    <format dxfId="68">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -4322,17 +4311,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="77">
+    <format dxfId="73">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="76">
+    <format dxfId="72">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="75">
+    <format dxfId="71">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5458,9 +5447,9 @@
   </sheetPr>
   <dimension ref="A1:IK170"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F89" sqref="F89"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7543,14 +7532,22 @@
       <c r="K88" s="2"/>
     </row>
     <row r="89" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="15"/>
+      <c r="A89" s="15">
+        <v>45265</v>
+      </c>
       <c r="B89" s="16">
         <v>86</v>
       </c>
-      <c r="C89" s="16"/>
-      <c r="D89" s="19"/>
+      <c r="C89" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D89" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="E89" s="17"/>
-      <c r="F89" s="18"/>
+      <c r="F89" s="18">
+        <v>0</v>
+      </c>
       <c r="G89" s="18"/>
       <c r="H89" s="18"/>
       <c r="I89" s="19"/>
@@ -7559,20 +7556,20 @@
     </row>
     <row r="90" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="15">
-        <v>45265</v>
+        <v>45267</v>
       </c>
       <c r="B90" s="16">
         <v>87</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D90" s="19" t="s">
         <v>13</v>
       </c>
       <c r="E90" s="17"/>
       <c r="F90" s="18">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G90" s="18"/>
       <c r="H90" s="18"/>
@@ -7581,22 +7578,14 @@
       <c r="K90" s="2"/>
     </row>
     <row r="91" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="15">
-        <v>45267</v>
-      </c>
+      <c r="A91" s="15"/>
       <c r="B91" s="16">
         <v>88</v>
       </c>
-      <c r="C91" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D91" s="19" t="s">
-        <v>13</v>
-      </c>
+      <c r="C91" s="3"/>
+      <c r="D91" s="19"/>
       <c r="E91" s="17"/>
-      <c r="F91" s="18">
-        <v>50</v>
-      </c>
+      <c r="F91" s="18"/>
       <c r="G91" s="18"/>
       <c r="H91" s="18"/>
       <c r="I91" s="19"/>
@@ -7848,7 +7837,7 @@
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G171</f>
-        <v>5804.600000000004</v>
+        <v>5277.3900000000031</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H170</f>
@@ -7886,7 +7875,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>9030.4700000000048</v>
+        <v>8503.2600000000039</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -8687,162 +8676,142 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="A92:D92">
-    <cfRule type="cellIs" dxfId="71" priority="126" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="126" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="70" priority="140" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="140" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:D98">
-    <cfRule type="cellIs" dxfId="69" priority="119" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="119" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D15">
-    <cfRule type="cellIs" dxfId="68" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D67">
-    <cfRule type="cellIs" dxfId="67" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70:D72">
-    <cfRule type="cellIs" dxfId="66" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D82">
-    <cfRule type="cellIs" dxfId="65" priority="7" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D82:D86">
+    <cfRule type="cellIs" dxfId="61" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:G16">
-    <cfRule type="cellIs" dxfId="64" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68:G69 E70:G70 E72:G72 D73:G81">
-    <cfRule type="cellIs" dxfId="63" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D89:G89 E90:G91 E83:G86 G87:G88">
-    <cfRule type="cellIs" dxfId="62" priority="127" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D87:G91">
+    <cfRule type="cellIs" dxfId="58" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93:G97">
-    <cfRule type="cellIs" dxfId="61" priority="120" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="120" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="60" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="59" priority="171" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="171" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:F20">
-    <cfRule type="cellIs" dxfId="58" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="57" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:F31">
-    <cfRule type="cellIs" dxfId="56" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:G14">
-    <cfRule type="cellIs" dxfId="55" priority="228" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="228" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:G26">
-    <cfRule type="cellIs" dxfId="54" priority="210" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="210" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37:G40">
-    <cfRule type="cellIs" dxfId="53" priority="191" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="191" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83:G86">
+    <cfRule type="cellIs" dxfId="48" priority="127" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:I3 G4:G12 H4:I26 G15 G17:G23 G25 H28:I104 E59:G60 F61 G61:G62 F63:G63 E64:G64 F65:G65 E66:G66 G82 G92 G98 D99:G104 D104:I104 E105:I169 D109">
-    <cfRule type="cellIs" dxfId="52" priority="292" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="292" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="51" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:G24">
-    <cfRule type="cellIs" dxfId="50" priority="213" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="213" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67:G67">
-    <cfRule type="cellIs" dxfId="49" priority="156" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="156" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71:G71">
-    <cfRule type="cellIs" dxfId="48" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:G31 E32:G33 G34:G36">
-    <cfRule type="cellIs" dxfId="47" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41:G46 E47:G48 G49:G50 E50:F50 F51:G51 E52:G52 F53:G58">
-    <cfRule type="cellIs" dxfId="46" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:I27">
-    <cfRule type="cellIs" dxfId="45" priority="77" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D83">
-    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D84:D86">
-    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D90:D91">
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D87:F87">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D88:F88">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8873,9 +8842,9 @@
   </sheetPr>
   <dimension ref="A1:IM237"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D151" sqref="D151:G151"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G157" sqref="G157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12711,14 +12680,22 @@
     </row>
     <row r="152" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="43"/>
-      <c r="B152" s="15"/>
+      <c r="B152" s="15">
+        <v>45261</v>
+      </c>
       <c r="C152" s="52">
         <v>149</v>
       </c>
-      <c r="D152" s="3"/>
-      <c r="E152" s="23"/>
+      <c r="D152" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E152" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F152" s="20"/>
-      <c r="G152" s="21"/>
+      <c r="G152" s="21">
+        <v>-68.36</v>
+      </c>
       <c r="H152" s="21"/>
       <c r="I152" s="21"/>
       <c r="J152" s="22"/>
@@ -12728,14 +12705,22 @@
     </row>
     <row r="153" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="43"/>
-      <c r="B153" s="15"/>
+      <c r="B153" s="15">
+        <v>45264</v>
+      </c>
       <c r="C153" s="52">
         <v>150</v>
       </c>
-      <c r="D153" s="39"/>
-      <c r="E153" s="19"/>
+      <c r="D153" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E153" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F153" s="20"/>
-      <c r="G153" s="21"/>
+      <c r="G153" s="21">
+        <v>-134</v>
+      </c>
       <c r="H153" s="21"/>
       <c r="I153" s="21"/>
       <c r="J153" s="22"/>
@@ -12745,14 +12730,22 @@
     </row>
     <row r="154" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="43"/>
-      <c r="B154" s="15"/>
+      <c r="B154" s="15">
+        <v>45264</v>
+      </c>
       <c r="C154" s="52">
         <v>151</v>
       </c>
-      <c r="D154" s="39"/>
-      <c r="E154" s="19"/>
+      <c r="D154" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E154" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F154" s="20"/>
-      <c r="G154" s="21"/>
+      <c r="G154" s="21">
+        <v>-28</v>
+      </c>
       <c r="H154" s="21"/>
       <c r="I154" s="21"/>
       <c r="J154" s="22"/>
@@ -12762,14 +12755,22 @@
     </row>
     <row r="155" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="43"/>
-      <c r="B155" s="15"/>
+      <c r="B155" s="15">
+        <v>45267</v>
+      </c>
       <c r="C155" s="52">
         <v>152</v>
       </c>
-      <c r="D155" s="39"/>
-      <c r="E155" s="23"/>
+      <c r="D155" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="E155" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F155" s="20"/>
-      <c r="G155" s="21"/>
+      <c r="G155" s="21">
+        <v>-37.6</v>
+      </c>
       <c r="H155" s="21"/>
       <c r="I155" s="21"/>
       <c r="J155" s="22"/>
@@ -12779,14 +12780,22 @@
     </row>
     <row r="156" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="43"/>
-      <c r="B156" s="15"/>
+      <c r="B156" s="15">
+        <v>45271</v>
+      </c>
       <c r="C156" s="52">
         <v>153</v>
       </c>
-      <c r="D156" s="39"/>
-      <c r="E156" s="23"/>
+      <c r="D156" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="E156" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="F156" s="20"/>
-      <c r="G156" s="21"/>
+      <c r="G156" s="21">
+        <v>-259.25</v>
+      </c>
       <c r="H156" s="21"/>
       <c r="I156" s="21"/>
       <c r="J156" s="22"/>
@@ -13046,7 +13055,7 @@
       </c>
       <c r="G171" s="34">
         <f>SUM(G3:G170)</f>
-        <v>-9391.32</v>
+        <v>-9918.5300000000007</v>
       </c>
       <c r="H171" s="18"/>
       <c r="I171" s="18"/>
@@ -14025,212 +14034,214 @@
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
+  <conditionalFormatting sqref="A3:A235 B125:B129">
+    <cfRule type="cellIs" dxfId="39" priority="460" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B131:B133">
-    <cfRule type="cellIs" dxfId="44" priority="453" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="454" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B135:B139">
-    <cfRule type="cellIs" dxfId="43" priority="442" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="443" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B152:B154">
-    <cfRule type="cellIs" dxfId="42" priority="38" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B153:B154">
+    <cfRule type="cellIs" dxfId="36" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B160">
-    <cfRule type="cellIs" dxfId="41" priority="411" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="412" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163:B237">
-    <cfRule type="cellIs" dxfId="40" priority="405" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="406" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162:C162">
-    <cfRule type="cellIs" dxfId="39" priority="407" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="408" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B155:D157">
-    <cfRule type="cellIs" dxfId="38" priority="419" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="420" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159:D159">
-    <cfRule type="cellIs" dxfId="37" priority="415" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="416" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B161:D161">
-    <cfRule type="cellIs" dxfId="36" priority="410" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="411" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B158:E158">
-    <cfRule type="cellIs" dxfId="35" priority="416" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="417" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C112">
-    <cfRule type="cellIs" dxfId="34" priority="480" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="481" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C122">
-    <cfRule type="cellIs" dxfId="33" priority="597" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="598" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C132:C135">
-    <cfRule type="cellIs" dxfId="32" priority="449" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="450" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C146:C147">
-    <cfRule type="cellIs" dxfId="31" priority="429" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="430" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C152">
-    <cfRule type="cellIs" dxfId="30" priority="426" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="427" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C111:D111 C124 C127:C128 B130:D130 C139 C145:D145 C148:D148 C153:E153 C154 C163:C236 J171:J234 I171:I236 K172 B151:C151 C150:D150">
-    <cfRule type="cellIs" dxfId="29" priority="689" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="C111:D111 C124 C127:C128 B130:D130 C139 C145:D145 B151:C151 C153:C154 C163:C236 J171:J234 I171:I236 K172">
+    <cfRule type="cellIs" dxfId="23" priority="690" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C129:D129">
-    <cfRule type="cellIs" dxfId="28" priority="457" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="458" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C149:D149">
-    <cfRule type="cellIs" dxfId="27" priority="428" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="C148:D150">
+    <cfRule type="cellIs" dxfId="21" priority="429" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D146">
-    <cfRule type="cellIs" dxfId="26" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D162:E172">
-    <cfRule type="cellIs" dxfId="25" priority="404" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="405" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:A235 B125:B129 E3:E151">
-    <cfRule type="cellIs" dxfId="24" priority="459" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E3:E156">
+    <cfRule type="cellIs" dxfId="0" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E152">
-    <cfRule type="cellIs" dxfId="23" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E154:E157">
-    <cfRule type="cellIs" dxfId="22" priority="36" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E157">
+    <cfRule type="cellIs" dxfId="18" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E159:E161">
-    <cfRule type="cellIs" dxfId="21" priority="409" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="410" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="20" priority="573" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="574" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="cellIs" dxfId="19" priority="169" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="170" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="18" priority="167" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="168" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="17" priority="557" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="558" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44:F45">
-    <cfRule type="cellIs" dxfId="16" priority="371" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="372" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="cellIs" dxfId="15" priority="145" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="146" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62:F64">
-    <cfRule type="cellIs" dxfId="14" priority="350" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="351" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F87">
-    <cfRule type="cellIs" dxfId="13" priority="118" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="119" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F96:F97">
-    <cfRule type="cellIs" dxfId="12" priority="102" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F107">
-    <cfRule type="cellIs" dxfId="11" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F119:F120">
-    <cfRule type="cellIs" dxfId="10" priority="71" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F134:F135">
-    <cfRule type="cellIs" dxfId="9" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F142:F144">
-    <cfRule type="cellIs" dxfId="8" priority="434" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="435" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F146:F147">
-    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H171:H234 D172:G235">
-    <cfRule type="cellIs" dxfId="6" priority="641" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="642" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E155:E170 E108:E110 E131:E139 E32:E87 E89 E3:E30 E91:E93 E95:E96 E100:E102 E104 E106 E113:E116 E118:E119 E122:E124 E127:E128 E141 E143 E145:E147 E149 E151:E153" xr:uid="{00000000-0002-0000-0100-000000000000}">
+  <conditionalFormatting sqref="B152">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E151 E108:E110 E131:E139 E32:E87 E89 E3:E30 E91:E93 E95:E96 E100:E102 E104 E106 E113:E116 E118:E119 E122:E124 E127:E128 E141 E143 E145:E147 E149 E153:E154 E156:E170" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$M$1:$M$19</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E154" xr:uid="{00000000-0002-0000-0100-000001000000}">
-      <formula1>$M$1:$M$18</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E31" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>$M$1:$M$20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E88 E90 E94 E97:E99 E103 E105 E107 E111:E112 E117 E120:E121 E125:E126 E129:E130 E140 E142 E144 E148 E150" xr:uid="{2159CF4B-2649-4586-B851-DB145DFC2247}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E88 E90 E94 E97:E99 E103 E105 E107 E111:E112 E117 E120:E121 E125:E126 E129:E130 E140 E142 E144 E148 E150 E152 E155" xr:uid="{2159CF4B-2649-4586-B851-DB145DFC2247}">
       <formula1>$K$1:$K$19</formula1>
     </dataValidation>
   </dataValidations>

--- a/2023/AWO_Einnahmen_Ausgaben_2023.xlsx
+++ b/2023/AWO_Einnahmen_Ausgaben_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D3B903-2CFF-47E1-8C1C-FF94B0A633A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F438E8F1-E682-4A6C-AE12-A5B1A2663B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="217">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -673,6 +673,18 @@
   </si>
   <si>
     <t>Stollen Wpäckle</t>
+  </si>
+  <si>
+    <t>Indivhilfe 1</t>
+  </si>
+  <si>
+    <t>tzgl 12.12.</t>
+  </si>
+  <si>
+    <t>Indivhilfe 2</t>
+  </si>
+  <si>
+    <t>Indivhilfe 3</t>
   </si>
 </sst>
 </file>
@@ -1336,7 +1348,22 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="74">
+  <dxfs count="77">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -4198,17 +4225,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="70">
+    <format dxfId="73">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="69">
+    <format dxfId="72">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="68">
+    <format dxfId="71">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -4311,17 +4338,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="73">
+    <format dxfId="76">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="72">
+    <format dxfId="75">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="71">
+    <format dxfId="74">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5447,9 +5474,9 @@
   </sheetPr>
   <dimension ref="A1:IK170"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A91" sqref="A91"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F107" sqref="F107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7578,14 +7605,22 @@
       <c r="K90" s="2"/>
     </row>
     <row r="91" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="15"/>
+      <c r="A91" s="15">
+        <v>45273</v>
+      </c>
       <c r="B91" s="16">
         <v>88</v>
       </c>
-      <c r="C91" s="3"/>
-      <c r="D91" s="19"/>
+      <c r="C91" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D91" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E91" s="17"/>
-      <c r="F91" s="18"/>
+      <c r="F91" s="18">
+        <v>108</v>
+      </c>
       <c r="G91" s="18"/>
       <c r="H91" s="18"/>
       <c r="I91" s="19"/>
@@ -7794,7 +7829,7 @@
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
-        <v>15195.920000000004</v>
+        <v>15303.920000000004</v>
       </c>
       <c r="G105" s="28">
         <f>SUM(G3:G104)</f>
@@ -7837,7 +7872,7 @@
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G171</f>
-        <v>5277.3900000000031</v>
+        <v>5022.7800000000025</v>
       </c>
       <c r="G107" s="28">
         <f>G105+Ausgaben!H170</f>
@@ -7875,7 +7910,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>8503.2600000000039</v>
+        <v>8248.6500000000033</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -8676,142 +8711,142 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="A92:D92">
-    <cfRule type="cellIs" dxfId="67" priority="126" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="126" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="66" priority="140" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="140" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:D98">
-    <cfRule type="cellIs" dxfId="65" priority="119" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="119" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D15">
-    <cfRule type="cellIs" dxfId="64" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D67">
-    <cfRule type="cellIs" dxfId="63" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70:D72">
-    <cfRule type="cellIs" dxfId="62" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D82:D86">
-    <cfRule type="cellIs" dxfId="61" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:G16">
-    <cfRule type="cellIs" dxfId="60" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68:G69 E70:G70 E72:G72 D73:G81">
-    <cfRule type="cellIs" dxfId="59" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87:G91">
-    <cfRule type="cellIs" dxfId="58" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93:G97">
-    <cfRule type="cellIs" dxfId="57" priority="120" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="120" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="56" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="55" priority="171" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="171" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:F20">
-    <cfRule type="cellIs" dxfId="54" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="53" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:F31">
-    <cfRule type="cellIs" dxfId="52" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:G14">
-    <cfRule type="cellIs" dxfId="51" priority="228" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="228" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:G26">
-    <cfRule type="cellIs" dxfId="50" priority="210" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="210" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37:G40">
-    <cfRule type="cellIs" dxfId="49" priority="191" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="191" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83:G86">
-    <cfRule type="cellIs" dxfId="48" priority="127" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="127" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:I3 G4:G12 H4:I26 G15 G17:G23 G25 H28:I104 E59:G60 F61 G61:G62 F63:G63 E64:G64 F65:G65 E66:G66 G82 G92 G98 D99:G104 D104:I104 E105:I169 D109">
-    <cfRule type="cellIs" dxfId="47" priority="292" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="292" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="46" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:G24">
-    <cfRule type="cellIs" dxfId="45" priority="213" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="213" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67:G67">
-    <cfRule type="cellIs" dxfId="44" priority="156" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="156" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71:G71">
-    <cfRule type="cellIs" dxfId="43" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:G31 E32:G33 G34:G36">
-    <cfRule type="cellIs" dxfId="42" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="67" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41:G46 E47:G48 G49:G50 E50:F50 F51:G51 E52:G52 F53:G58">
-    <cfRule type="cellIs" dxfId="41" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:I27">
-    <cfRule type="cellIs" dxfId="40" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8842,9 +8877,9 @@
   </sheetPr>
   <dimension ref="A1:IM237"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G157" sqref="G157"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G171" sqref="G171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12805,14 +12840,22 @@
     </row>
     <row r="157" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="43"/>
-      <c r="B157" s="15"/>
+      <c r="B157" s="15">
+        <v>45272</v>
+      </c>
       <c r="C157" s="52">
         <v>154</v>
       </c>
-      <c r="D157" s="39"/>
-      <c r="E157" s="19"/>
+      <c r="D157" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="E157" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F157" s="20"/>
-      <c r="G157" s="21"/>
+      <c r="G157" s="21">
+        <v>-36.840000000000003</v>
+      </c>
       <c r="H157" s="21"/>
       <c r="I157" s="21"/>
       <c r="J157" s="22"/>
@@ -12822,14 +12865,22 @@
     </row>
     <row r="158" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="43"/>
-      <c r="B158" s="15"/>
+      <c r="B158" s="15">
+        <v>45273</v>
+      </c>
       <c r="C158" s="52">
         <v>155</v>
       </c>
-      <c r="D158" s="39"/>
-      <c r="E158" s="19"/>
+      <c r="D158" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="E158" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="F158" s="20"/>
-      <c r="G158" s="21"/>
+      <c r="G158" s="21">
+        <v>-90</v>
+      </c>
       <c r="H158" s="21"/>
       <c r="I158" s="21"/>
       <c r="J158" s="22"/>
@@ -12839,14 +12890,22 @@
     </row>
     <row r="159" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="43"/>
-      <c r="B159" s="15"/>
+      <c r="B159" s="15">
+        <v>45273</v>
+      </c>
       <c r="C159" s="52">
         <v>156</v>
       </c>
-      <c r="D159" s="39"/>
-      <c r="E159" s="19"/>
+      <c r="D159" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="E159" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F159" s="20"/>
-      <c r="G159" s="21"/>
+      <c r="G159" s="21">
+        <v>-9.8699999999999992</v>
+      </c>
       <c r="H159" s="21"/>
       <c r="I159" s="21"/>
       <c r="J159" s="22"/>
@@ -12856,14 +12915,22 @@
     </row>
     <row r="160" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="43"/>
-      <c r="B160" s="15"/>
+      <c r="B160" s="15">
+        <v>45273</v>
+      </c>
       <c r="C160" s="52">
         <v>157</v>
       </c>
-      <c r="D160" s="3"/>
-      <c r="E160" s="23"/>
+      <c r="D160" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="E160" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="F160" s="20"/>
-      <c r="G160" s="21"/>
+      <c r="G160" s="21">
+        <v>-90</v>
+      </c>
       <c r="H160" s="21"/>
       <c r="I160" s="21"/>
       <c r="J160" s="22"/>
@@ -12873,14 +12940,22 @@
     </row>
     <row r="161" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="43"/>
-      <c r="B161" s="15"/>
+      <c r="B161" s="15">
+        <v>45274</v>
+      </c>
       <c r="C161" s="52">
         <v>158</v>
       </c>
-      <c r="D161" s="39"/>
-      <c r="E161" s="19"/>
+      <c r="D161" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="E161" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="F161" s="20"/>
-      <c r="G161" s="21"/>
+      <c r="G161" s="21">
+        <v>-90</v>
+      </c>
       <c r="H161" s="21"/>
       <c r="I161" s="21"/>
       <c r="J161" s="22"/>
@@ -12890,14 +12965,22 @@
     </row>
     <row r="162" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="43"/>
-      <c r="B162" s="15"/>
+      <c r="B162" s="15">
+        <v>45275</v>
+      </c>
       <c r="C162" s="52">
         <v>159</v>
       </c>
-      <c r="D162" s="39"/>
-      <c r="E162" s="19"/>
+      <c r="D162" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="E162" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F162" s="21"/>
-      <c r="G162" s="21"/>
+      <c r="G162" s="21">
+        <v>-45.9</v>
+      </c>
       <c r="H162" s="21"/>
       <c r="I162" s="21"/>
       <c r="J162" s="22"/>
@@ -13055,7 +13138,7 @@
       </c>
       <c r="G171" s="34">
         <f>SUM(G3:G170)</f>
-        <v>-9918.5300000000007</v>
+        <v>-10281.140000000001</v>
       </c>
       <c r="H171" s="18"/>
       <c r="I171" s="18"/>
@@ -14035,213 +14118,218 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A235 B125:B129">
-    <cfRule type="cellIs" dxfId="39" priority="460" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="466" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:B133">
-    <cfRule type="cellIs" dxfId="38" priority="454" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="460" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B135:B139">
-    <cfRule type="cellIs" dxfId="37" priority="443" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B153:B154">
-    <cfRule type="cellIs" dxfId="36" priority="39" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B160">
-    <cfRule type="cellIs" dxfId="35" priority="412" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="449" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163:B237">
-    <cfRule type="cellIs" dxfId="34" priority="406" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="412" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B151:C154">
+    <cfRule type="cellIs" dxfId="37" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162:C162">
-    <cfRule type="cellIs" dxfId="33" priority="408" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="414" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B155:D157">
-    <cfRule type="cellIs" dxfId="32" priority="420" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="426" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B159:D159">
-    <cfRule type="cellIs" dxfId="31" priority="416" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="C159">
+    <cfRule type="cellIs" dxfId="34" priority="422" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B161:D161">
-    <cfRule type="cellIs" dxfId="30" priority="411" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B161:C161">
+    <cfRule type="cellIs" dxfId="33" priority="417" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B158:E158">
-    <cfRule type="cellIs" dxfId="29" priority="417" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="423" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C112">
-    <cfRule type="cellIs" dxfId="28" priority="481" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="487" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C122">
-    <cfRule type="cellIs" dxfId="27" priority="598" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="604" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C132:C135">
-    <cfRule type="cellIs" dxfId="26" priority="450" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="456" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C146:C147">
-    <cfRule type="cellIs" dxfId="25" priority="430" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="436" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C152">
-    <cfRule type="cellIs" dxfId="24" priority="427" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C111:D111 C124 C127:C128 B130:D130 C139 C145:D145 B151:C151 C153:C154 C163:C236 J171:J234 I171:I236 K172">
-    <cfRule type="cellIs" dxfId="23" priority="690" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="C111:D111 C124 C127:C128 B130:D130 C139 C145:D145 C163:C236 J171:J234 I171:I236 K172">
+    <cfRule type="cellIs" dxfId="27" priority="696" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C129:D129">
-    <cfRule type="cellIs" dxfId="22" priority="458" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="464" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148:D150">
-    <cfRule type="cellIs" dxfId="21" priority="429" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="435" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D146">
-    <cfRule type="cellIs" dxfId="20" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D162:E172">
-    <cfRule type="cellIs" dxfId="19" priority="405" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D163:E172 D162">
+    <cfRule type="cellIs" dxfId="23" priority="411" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E156">
-    <cfRule type="cellIs" dxfId="0" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E157">
-    <cfRule type="cellIs" dxfId="18" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E159:E161">
-    <cfRule type="cellIs" dxfId="17" priority="410" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E3:E157">
+    <cfRule type="cellIs" dxfId="22" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="16" priority="574" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="580" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="cellIs" dxfId="15" priority="170" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="176" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="14" priority="168" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="174" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="13" priority="558" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="564" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44:F45">
-    <cfRule type="cellIs" dxfId="12" priority="372" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="378" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="cellIs" dxfId="11" priority="146" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="152" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62:F64">
-    <cfRule type="cellIs" dxfId="10" priority="351" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="357" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F87">
-    <cfRule type="cellIs" dxfId="9" priority="119" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="125" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F96:F97">
-    <cfRule type="cellIs" dxfId="8" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="109" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F107">
-    <cfRule type="cellIs" dxfId="7" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F119:F120">
-    <cfRule type="cellIs" dxfId="6" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="78" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F134:F135">
-    <cfRule type="cellIs" dxfId="5" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F142:F144">
-    <cfRule type="cellIs" dxfId="4" priority="435" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="441" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F146:F147">
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H171:H234 D172:G235">
-    <cfRule type="cellIs" dxfId="2" priority="642" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="648" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B152">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B159:B160">
+    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D159">
+    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E159">
+    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D160:E160">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D161:E161">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E162">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E151 E108:E110 E131:E139 E32:E87 E89 E3:E30 E91:E93 E95:E96 E100:E102 E104 E106 E113:E116 E118:E119 E122:E124 E127:E128 E141 E143 E145:E147 E149 E153:E154 E156:E170" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E151 E108:E110 E131:E139 E32:E87 E89 E3:E30 E91:E93 E95:E96 E100:E102 E104 E106 E113:E116 E118:E119 E122:E124 E127:E128 E141 E143 E145:E147 E149 E153:E154 E156 E158 E160:E170" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$M$1:$M$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E31" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>$M$1:$M$20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E88 E90 E94 E97:E99 E103 E105 E107 E111:E112 E117 E120:E121 E125:E126 E129:E130 E140 E142 E144 E148 E150 E152 E155" xr:uid="{2159CF4B-2649-4586-B851-DB145DFC2247}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E88 E90 E94 E97:E99 E103 E105 E107 E111:E112 E117 E120:E121 E125:E126 E129:E130 E140 E142 E144 E148 E150 E152 E155 E157 E159" xr:uid="{2159CF4B-2649-4586-B851-DB145DFC2247}">
       <formula1>$K$1:$K$19</formula1>
     </dataValidation>
   </dataValidations>

--- a/2023/AWO_Einnahmen_Ausgaben_2023.xlsx
+++ b/2023/AWO_Einnahmen_Ausgaben_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F438E8F1-E682-4A6C-AE12-A5B1A2663B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CEF6E8-560A-4BD6-885B-6FF93BD462F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="222">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -685,6 +685,21 @@
   </si>
   <si>
     <t>Indivhilfe 3</t>
+  </si>
+  <si>
+    <t>Orangenspende Früchtelädle</t>
+  </si>
+  <si>
+    <t>Spende Fr.Odendahl</t>
+  </si>
+  <si>
+    <t>Tombola</t>
+  </si>
+  <si>
+    <t>Versteigerung</t>
+  </si>
+  <si>
+    <t>Spenden Weihnachtsfeier</t>
   </si>
 </sst>
 </file>
@@ -1348,12 +1363,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="77">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="76">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -4225,17 +4235,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="73">
+    <format dxfId="72">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="72">
+    <format dxfId="71">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="71">
+    <format dxfId="70">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -4338,17 +4348,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="76">
+    <format dxfId="75">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="75">
+    <format dxfId="74">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="74">
+    <format dxfId="73">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5475,8 +5485,8 @@
   <dimension ref="A1:IK170"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F107" sqref="F107"/>
+      <pane ySplit="2" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7628,14 +7638,22 @@
       <c r="K91" s="2"/>
     </row>
     <row r="92" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="15"/>
+      <c r="A92" s="15">
+        <v>45277</v>
+      </c>
       <c r="B92" s="52">
         <v>89</v>
       </c>
-      <c r="C92" s="39"/>
-      <c r="D92" s="19"/>
-      <c r="E92" s="21"/>
-      <c r="F92" s="21"/>
+      <c r="C92" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="D92" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E92" s="17"/>
+      <c r="F92" s="18">
+        <v>0</v>
+      </c>
       <c r="G92" s="18"/>
       <c r="H92" s="18"/>
       <c r="I92" s="19"/>
@@ -7643,13 +7661,21 @@
       <c r="K92" s="2"/>
     </row>
     <row r="93" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="15"/>
+      <c r="A93" s="15">
+        <v>45277</v>
+      </c>
       <c r="B93" s="16">
         <v>90</v>
       </c>
-      <c r="C93" s="16"/>
-      <c r="D93" s="19"/>
-      <c r="E93" s="17"/>
+      <c r="C93" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="D93" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" s="17">
+        <v>50</v>
+      </c>
       <c r="F93" s="18"/>
       <c r="G93" s="18"/>
       <c r="H93" s="18"/>
@@ -7658,13 +7684,21 @@
       <c r="K93" s="2"/>
     </row>
     <row r="94" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="15"/>
+      <c r="A94" s="15">
+        <v>45277</v>
+      </c>
       <c r="B94" s="16">
         <v>91</v>
       </c>
-      <c r="C94" s="16"/>
-      <c r="D94" s="19"/>
-      <c r="E94" s="17"/>
+      <c r="C94" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="D94" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E94" s="17">
+        <v>498</v>
+      </c>
       <c r="F94" s="18"/>
       <c r="G94" s="18"/>
       <c r="H94" s="18"/>
@@ -7673,13 +7707,21 @@
       <c r="K94" s="2"/>
     </row>
     <row r="95" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="15"/>
+      <c r="A95" s="15">
+        <v>45277</v>
+      </c>
       <c r="B95" s="16">
         <v>92</v>
       </c>
-      <c r="C95" s="16"/>
-      <c r="D95" s="19"/>
-      <c r="E95" s="17"/>
+      <c r="C95" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="D95" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E95" s="17">
+        <v>100</v>
+      </c>
       <c r="F95" s="18"/>
       <c r="G95" s="18"/>
       <c r="H95" s="18"/>
@@ -7688,13 +7730,21 @@
       <c r="K95" s="2"/>
     </row>
     <row r="96" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="15"/>
+      <c r="A96" s="15">
+        <v>45277</v>
+      </c>
       <c r="B96" s="16">
         <v>93</v>
       </c>
-      <c r="C96" s="16"/>
-      <c r="D96" s="19"/>
-      <c r="E96" s="17"/>
+      <c r="C96" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="D96" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E96" s="17">
+        <v>238</v>
+      </c>
       <c r="F96" s="18"/>
       <c r="G96" s="18"/>
       <c r="H96" s="18"/>
@@ -7825,7 +7875,7 @@
       <c r="D105" s="26"/>
       <c r="E105" s="27">
         <f>SUM(E3:E104)</f>
-        <v>1516.2100000000003</v>
+        <v>2402.21</v>
       </c>
       <c r="F105" s="28">
         <f>SUM(F3:F104)</f>
@@ -7868,7 +7918,7 @@
       <c r="D107" s="48"/>
       <c r="E107" s="28">
         <f>E105+Ausgaben!F171</f>
-        <v>0</v>
+        <v>886</v>
       </c>
       <c r="F107" s="28">
         <f>F105+Ausgaben!G171</f>
@@ -7910,7 +7960,7 @@
       <c r="C109" s="24"/>
       <c r="D109" s="29">
         <f>SUM(E107:I107)</f>
-        <v>8248.6500000000033</v>
+        <v>9134.6500000000033</v>
       </c>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
@@ -8710,151 +8760,186 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A92:D92">
-    <cfRule type="cellIs" dxfId="70" priority="126" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="A92:C92">
+    <cfRule type="cellIs" dxfId="69" priority="133" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="69" priority="140" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="147" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:D98">
-    <cfRule type="cellIs" dxfId="68" priority="119" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="126" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D15">
-    <cfRule type="cellIs" dxfId="67" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D67">
-    <cfRule type="cellIs" dxfId="66" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70:D72">
-    <cfRule type="cellIs" dxfId="65" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D82:D86">
-    <cfRule type="cellIs" dxfId="64" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:G16">
-    <cfRule type="cellIs" dxfId="63" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68:G69 E70:G70 E72:G72 D73:G81">
-    <cfRule type="cellIs" dxfId="62" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D87:G91">
-    <cfRule type="cellIs" dxfId="61" priority="1" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D87:G88 D90:G91 E89:G89">
+    <cfRule type="cellIs" dxfId="60" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D93:G97">
-    <cfRule type="cellIs" dxfId="60" priority="120" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D97:G97 G93 E94:G96">
+    <cfRule type="cellIs" dxfId="59" priority="127" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="59" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="58" priority="171" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="178" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:F20">
-    <cfRule type="cellIs" dxfId="57" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="56" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:F31">
-    <cfRule type="cellIs" dxfId="55" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:G14">
-    <cfRule type="cellIs" dxfId="54" priority="228" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="235" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:G26">
-    <cfRule type="cellIs" dxfId="53" priority="210" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="217" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37:G40">
-    <cfRule type="cellIs" dxfId="52" priority="191" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="198" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83:G86">
-    <cfRule type="cellIs" dxfId="51" priority="127" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="134" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:I3 G4:G12 H4:I26 G15 G17:G23 G25 H28:I104 E59:G60 F61 G61:G62 F63:G63 E64:G64 F65:G65 E66:G66 G82 G92 G98 D99:G104 D104:I104 E105:I169 D109">
-    <cfRule type="cellIs" dxfId="50" priority="292" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="299" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="49" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="32" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:G24">
-    <cfRule type="cellIs" dxfId="48" priority="213" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="220" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67:G67">
-    <cfRule type="cellIs" dxfId="47" priority="156" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="163" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71:G71">
-    <cfRule type="cellIs" dxfId="46" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:G31 E32:G33 G34:G36">
-    <cfRule type="cellIs" dxfId="45" priority="67" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="74" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41:G46 E47:G48 G49:G50 E50:F50 F51:G51 E52:G52 F53:G58">
-    <cfRule type="cellIs" dxfId="44" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:I27">
-    <cfRule type="cellIs" dxfId="43" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92:F92">
+    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93:F93">
+    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A93:A96">
+    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D92">
+    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D89">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D93">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D94:D96">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D93:D97 D99:D104 D3:D91" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D99:D104 D3:D97" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$K$1:$K$19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D98 D92" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D98" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>$M$1:$M$19</formula1>
     </dataValidation>
   </dataValidations>
@@ -14118,87 +14203,87 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A235 B125:B129">
-    <cfRule type="cellIs" dxfId="42" priority="466" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="466" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:B133">
-    <cfRule type="cellIs" dxfId="41" priority="460" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="460" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B135:B139">
-    <cfRule type="cellIs" dxfId="40" priority="449" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="449" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B159:B160">
+    <cfRule type="cellIs" dxfId="38" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B163:B237">
-    <cfRule type="cellIs" dxfId="38" priority="412" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="412" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B151:C154">
-    <cfRule type="cellIs" dxfId="37" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B162:C162">
-    <cfRule type="cellIs" dxfId="36" priority="414" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B161:C162">
+    <cfRule type="cellIs" dxfId="35" priority="414" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B155:D157">
-    <cfRule type="cellIs" dxfId="35" priority="426" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C159">
-    <cfRule type="cellIs" dxfId="34" priority="422" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B161:C161">
-    <cfRule type="cellIs" dxfId="33" priority="417" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="426" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B158:E158">
-    <cfRule type="cellIs" dxfId="32" priority="423" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="423" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C112">
-    <cfRule type="cellIs" dxfId="31" priority="487" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="487" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C122">
-    <cfRule type="cellIs" dxfId="30" priority="604" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="604" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C132:C135">
-    <cfRule type="cellIs" dxfId="29" priority="456" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="456" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C146:C147">
-    <cfRule type="cellIs" dxfId="28" priority="436" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="436" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C111:D111 C124 C127:C128 B130:D130 C139 C145:D145 C163:C236 J171:J234 I171:I236 K172">
-    <cfRule type="cellIs" dxfId="27" priority="696" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="696" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C129:D129">
-    <cfRule type="cellIs" dxfId="26" priority="464" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="464" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148:D150">
-    <cfRule type="cellIs" dxfId="25" priority="435" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="435" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C159:E159">
+    <cfRule type="cellIs" dxfId="25" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14207,8 +14292,8 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D163:E172 D162">
-    <cfRule type="cellIs" dxfId="23" priority="411" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D160:E172">
+    <cfRule type="cellIs" dxfId="23" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14218,107 +14303,77 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="20" priority="580" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="580" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="cellIs" dxfId="19" priority="176" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="176" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="18" priority="174" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="174" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="17" priority="564" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="564" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44:F45">
-    <cfRule type="cellIs" dxfId="16" priority="378" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="378" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="cellIs" dxfId="15" priority="152" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="152" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62:F64">
-    <cfRule type="cellIs" dxfId="14" priority="357" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="357" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F87">
-    <cfRule type="cellIs" dxfId="13" priority="125" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="125" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F96:F97">
-    <cfRule type="cellIs" dxfId="12" priority="109" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="109" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F107">
-    <cfRule type="cellIs" dxfId="11" priority="95" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F119:F120">
-    <cfRule type="cellIs" dxfId="10" priority="78" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="78" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F134:F135">
-    <cfRule type="cellIs" dxfId="9" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F142:F144">
-    <cfRule type="cellIs" dxfId="8" priority="441" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="441" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F146:F147">
-    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H171:H234 D172:G235">
-    <cfRule type="cellIs" dxfId="6" priority="648" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B159:B160">
-    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D159">
-    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E159">
-    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D160:E160">
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D161:E161">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E162">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="648" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2023/AWO_Einnahmen_Ausgaben_2023.xlsx
+++ b/2023/AWO_Einnahmen_Ausgaben_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CEF6E8-560A-4BD6-885B-6FF93BD462F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DE925E-A823-440F-8AF6-266A320E831A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -20,8 +20,8 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Ausgaben!$B$2:$K$164</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Einnahmen!$A$2:$I$100</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Ausgaben!$A$1:$J$170</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Einnahmen!$A$1:$I$109</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Ausgaben!$A$1:$J$173</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Einnahmen!$A$1:$I$114</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="233">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -700,6 +700,39 @@
   </si>
   <si>
     <t>Spenden Weihnachtsfeier</t>
+  </si>
+  <si>
+    <t>Spende B.Wildner Rabattaktion Wmarkt</t>
+  </si>
+  <si>
+    <t>Einnahmen Wmarkt Aussen</t>
+  </si>
+  <si>
+    <t>Einnahmen Wmarkt Innen</t>
+  </si>
+  <si>
+    <t>Awo Kaffee Wfeier</t>
+  </si>
+  <si>
+    <t>Metallhandwerk</t>
+  </si>
+  <si>
+    <t>SPD JHV</t>
+  </si>
+  <si>
+    <t>August Glühwein</t>
+  </si>
+  <si>
+    <t>Glühweinkocher</t>
+  </si>
+  <si>
+    <t>Gluehwein Restflaschenverkauf</t>
+  </si>
+  <si>
+    <t>Musikerheim Kosten</t>
+  </si>
+  <si>
+    <t>Bargeld auf Konto</t>
   </si>
 </sst>
 </file>
@@ -1363,17 +1396,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="76">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="74">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1894,7 +1917,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Bernd Wild" refreshedDate="44931.461712037039" createdVersion="4" refreshedVersion="8" minRefreshableVersion="3" recordCount="102" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="D2:I104" sheet="Einnahmen"/>
+    <worksheetSource ref="D2:I109" sheet="Einnahmen"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Zweck II" numFmtId="0">
@@ -4235,17 +4258,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="72">
+    <format dxfId="70">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="71">
+    <format dxfId="69">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="70">
+    <format dxfId="68">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -4348,17 +4371,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="75">
+    <format dxfId="73">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="74">
+    <format dxfId="72">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="73">
+    <format dxfId="71">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5482,11 +5505,11 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:IK170"/>
+  <dimension ref="A1:IK175"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D93" sqref="D93"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7753,14 +7776,22 @@
       <c r="K96" s="2"/>
     </row>
     <row r="97" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="15"/>
+      <c r="A97" s="15">
+        <v>45278</v>
+      </c>
       <c r="B97" s="16">
         <v>94</v>
       </c>
-      <c r="C97" s="16"/>
-      <c r="D97" s="19"/>
+      <c r="C97" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="D97" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E97" s="17"/>
-      <c r="F97" s="18"/>
+      <c r="F97" s="18">
+        <v>50</v>
+      </c>
       <c r="G97" s="18"/>
       <c r="H97" s="18"/>
       <c r="I97" s="19"/>
@@ -7768,14 +7799,22 @@
       <c r="K97" s="2"/>
     </row>
     <row r="98" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="15"/>
+      <c r="A98" s="15">
+        <v>45278</v>
+      </c>
       <c r="B98" s="16">
         <v>95</v>
       </c>
-      <c r="C98" s="39"/>
-      <c r="D98" s="19"/>
+      <c r="C98" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D98" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E98" s="21"/>
-      <c r="F98" s="21"/>
+      <c r="F98" s="21">
+        <v>264.5</v>
+      </c>
       <c r="G98" s="18"/>
       <c r="H98" s="18"/>
       <c r="I98" s="19"/>
@@ -7783,14 +7822,22 @@
       <c r="K98" s="2"/>
     </row>
     <row r="99" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="15"/>
+      <c r="A99" s="15">
+        <v>45278</v>
+      </c>
       <c r="B99" s="16">
         <v>96</v>
       </c>
-      <c r="C99" s="16"/>
-      <c r="D99" s="19"/>
+      <c r="C99" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D99" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E99" s="17"/>
-      <c r="F99" s="18"/>
+      <c r="F99" s="18">
+        <v>130</v>
+      </c>
       <c r="G99" s="18"/>
       <c r="H99" s="18"/>
       <c r="I99" s="19"/>
@@ -7798,14 +7845,22 @@
       <c r="K99" s="2"/>
     </row>
     <row r="100" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="15"/>
+      <c r="A100" s="15">
+        <v>45278</v>
+      </c>
       <c r="B100" s="16">
         <v>97</v>
       </c>
-      <c r="C100" s="16"/>
-      <c r="D100" s="19"/>
+      <c r="C100" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D100" s="19" t="s">
+        <v>27</v>
+      </c>
       <c r="E100" s="17"/>
-      <c r="F100" s="18"/>
+      <c r="F100" s="18">
+        <v>7.25</v>
+      </c>
       <c r="G100" s="18"/>
       <c r="H100" s="18"/>
       <c r="I100" s="19"/>
@@ -7813,12 +7868,22 @@
       <c r="K100" s="2"/>
     </row>
     <row r="101" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="15"/>
-      <c r="B101" s="16"/>
-      <c r="C101" s="16"/>
-      <c r="D101" s="19"/>
+      <c r="A101" s="15">
+        <v>45280</v>
+      </c>
+      <c r="B101" s="16">
+        <v>98</v>
+      </c>
+      <c r="C101" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="D101" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E101" s="17"/>
-      <c r="F101" s="18"/>
+      <c r="F101" s="18">
+        <v>20</v>
+      </c>
       <c r="G101" s="18"/>
       <c r="H101" s="18"/>
       <c r="I101" s="19"/>
@@ -7826,12 +7891,22 @@
       <c r="K101" s="2"/>
     </row>
     <row r="102" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="15"/>
-      <c r="B102" s="16"/>
-      <c r="C102" s="16"/>
-      <c r="D102" s="19"/>
+      <c r="A102" s="15">
+        <v>45281</v>
+      </c>
+      <c r="B102" s="16">
+        <v>99</v>
+      </c>
+      <c r="C102" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D102" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E102" s="17"/>
-      <c r="F102" s="18"/>
+      <c r="F102" s="18">
+        <v>24</v>
+      </c>
       <c r="G102" s="18"/>
       <c r="H102" s="18"/>
       <c r="I102" s="19"/>
@@ -7839,12 +7914,22 @@
       <c r="K102" s="2"/>
     </row>
     <row r="103" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="15"/>
-      <c r="B103" s="16"/>
-      <c r="C103" s="16"/>
-      <c r="D103" s="19"/>
+      <c r="A103" s="15">
+        <v>45282</v>
+      </c>
+      <c r="B103" s="16">
+        <v>100</v>
+      </c>
+      <c r="C103" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="D103" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="E103" s="17"/>
-      <c r="F103" s="18"/>
+      <c r="F103" s="18">
+        <v>800</v>
+      </c>
       <c r="G103" s="18"/>
       <c r="H103" s="18"/>
       <c r="I103" s="19"/>
@@ -7852,184 +7937,202 @@
       <c r="K103" s="2"/>
     </row>
     <row r="104" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="15"/>
-      <c r="B104" s="16"/>
-      <c r="C104" s="16"/>
-      <c r="D104" s="19"/>
+      <c r="A104" s="15">
+        <v>45287</v>
+      </c>
+      <c r="B104" s="16">
+        <v>101</v>
+      </c>
+      <c r="C104" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D104" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="E104" s="17"/>
-      <c r="F104" s="18"/>
+      <c r="F104" s="18">
+        <v>10</v>
+      </c>
       <c r="G104" s="18"/>
       <c r="H104" s="18"/>
       <c r="I104" s="19"/>
-      <c r="J104" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="J104" s="2"/>
       <c r="K104" s="2"/>
     </row>
     <row r="105" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B105" s="25"/>
-      <c r="C105" s="25"/>
-      <c r="D105" s="26"/>
-      <c r="E105" s="27">
-        <f>SUM(E3:E104)</f>
-        <v>2402.21</v>
-      </c>
-      <c r="F105" s="28">
-        <f>SUM(F3:F104)</f>
-        <v>15303.920000000004</v>
-      </c>
-      <c r="G105" s="28">
-        <f>SUM(G3:G104)</f>
-        <v>2000.5</v>
-      </c>
-      <c r="H105" s="28">
-        <f>SUM(H3:H104)</f>
-        <v>440.04</v>
-      </c>
-      <c r="I105" s="29">
-        <f>SUM(I3:I104)</f>
-        <v>949.24</v>
-      </c>
+      <c r="A105" s="15">
+        <v>45287</v>
+      </c>
+      <c r="B105" s="16">
+        <v>102</v>
+      </c>
+      <c r="C105" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="D105" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E105" s="17"/>
+      <c r="F105" s="18">
+        <v>86</v>
+      </c>
+      <c r="G105" s="18"/>
+      <c r="H105" s="18"/>
+      <c r="I105" s="19"/>
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
     </row>
     <row r="106" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="35"/>
-      <c r="B106" s="35"/>
-      <c r="C106" s="35"/>
-      <c r="D106" s="35"/>
-      <c r="E106" s="36"/>
-      <c r="F106" s="36"/>
-      <c r="G106" s="36"/>
-      <c r="H106" s="36"/>
-      <c r="I106" s="36"/>
+      <c r="A106" s="15"/>
+      <c r="B106" s="16"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="19"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="18"/>
+      <c r="G106" s="18"/>
+      <c r="H106" s="18"/>
+      <c r="I106" s="19"/>
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
     </row>
     <row r="107" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B107" s="25"/>
-      <c r="C107" s="25"/>
-      <c r="D107" s="48"/>
-      <c r="E107" s="28">
-        <f>E105+Ausgaben!F171</f>
-        <v>886</v>
-      </c>
-      <c r="F107" s="28">
-        <f>F105+Ausgaben!G171</f>
-        <v>5022.7800000000025</v>
-      </c>
-      <c r="G107" s="28">
-        <f>G105+Ausgaben!H170</f>
-        <v>2000.5</v>
-      </c>
-      <c r="H107" s="28">
-        <f>H105+Ausgaben!I170</f>
-        <v>276.13</v>
-      </c>
-      <c r="I107" s="29">
-        <f>I105+Ausgaben!J170</f>
-        <v>949.24</v>
-      </c>
+      <c r="A107" s="15"/>
+      <c r="B107" s="16"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="19"/>
+      <c r="E107" s="17"/>
+      <c r="F107" s="18"/>
+      <c r="G107" s="18"/>
+      <c r="H107" s="18"/>
+      <c r="I107" s="19"/>
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
     </row>
     <row r="108" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="37"/>
-      <c r="B108" s="37"/>
-      <c r="C108" s="37"/>
-      <c r="D108" s="37"/>
-      <c r="E108" s="13"/>
-      <c r="F108" s="13"/>
-      <c r="G108" s="13"/>
-      <c r="H108" s="13"/>
-      <c r="I108" s="13"/>
+      <c r="A108" s="15"/>
+      <c r="B108" s="16"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="19"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="18"/>
+      <c r="G108" s="18"/>
+      <c r="H108" s="18"/>
+      <c r="I108" s="19"/>
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
     </row>
     <row r="109" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B109" s="5"/>
-      <c r="C109" s="24"/>
-      <c r="D109" s="29">
-        <f>SUM(E107:I107)</f>
-        <v>9134.6500000000033</v>
-      </c>
+      <c r="A109" s="15"/>
+      <c r="B109" s="16"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="19"/>
       <c r="E109" s="17"/>
       <c r="F109" s="18"/>
       <c r="G109" s="18"/>
       <c r="H109" s="18"/>
-      <c r="I109" s="18"/>
-      <c r="J109" s="2"/>
+      <c r="I109" s="19"/>
+      <c r="J109" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="K109" s="2"/>
     </row>
     <row r="110" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="38"/>
-      <c r="B110" s="38"/>
-      <c r="C110" s="38"/>
-      <c r="D110" s="38"/>
-      <c r="E110" s="18"/>
-      <c r="F110" s="18"/>
-      <c r="G110" s="18"/>
-      <c r="H110" s="18"/>
-      <c r="I110" s="18"/>
+      <c r="A110" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B110" s="25"/>
+      <c r="C110" s="25"/>
+      <c r="D110" s="26"/>
+      <c r="E110" s="27">
+        <f>SUM(E3:E109)</f>
+        <v>2402.21</v>
+      </c>
+      <c r="F110" s="28">
+        <f>SUM(F3:F109)</f>
+        <v>16695.670000000006</v>
+      </c>
+      <c r="G110" s="28">
+        <f>SUM(G3:G109)</f>
+        <v>2000.5</v>
+      </c>
+      <c r="H110" s="28">
+        <f>SUM(H3:H109)</f>
+        <v>440.04</v>
+      </c>
+      <c r="I110" s="29">
+        <f>SUM(I3:I109)</f>
+        <v>949.24</v>
+      </c>
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
     </row>
     <row r="111" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E111" s="18"/>
-      <c r="F111" s="18"/>
-      <c r="G111" s="18"/>
-      <c r="H111" s="18"/>
-      <c r="I111" s="18"/>
+      <c r="A111" s="35"/>
+      <c r="B111" s="35"/>
+      <c r="C111" s="35"/>
+      <c r="D111" s="35"/>
+      <c r="E111" s="36"/>
+      <c r="F111" s="36"/>
+      <c r="G111" s="36"/>
+      <c r="H111" s="36"/>
+      <c r="I111" s="36"/>
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
     </row>
     <row r="112" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="18"/>
-      <c r="F112" s="18"/>
-      <c r="G112" s="18"/>
-      <c r="H112" s="18"/>
-      <c r="I112" s="18"/>
+      <c r="A112" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B112" s="25"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="48"/>
+      <c r="E112" s="28">
+        <f>E110+Ausgaben!F174</f>
+        <v>0</v>
+      </c>
+      <c r="F112" s="28">
+        <f>F110+Ausgaben!G174</f>
+        <v>5120.0200000000041</v>
+      </c>
+      <c r="G112" s="28">
+        <f>G110+Ausgaben!H174</f>
+        <v>2000.5</v>
+      </c>
+      <c r="H112" s="28">
+        <f>H110+Ausgaben!I174</f>
+        <v>276.13</v>
+      </c>
+      <c r="I112" s="29">
+        <f>I110+Ausgaben!J174</f>
+        <v>949.24</v>
+      </c>
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
     </row>
     <row r="113" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="2"/>
-      <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="18"/>
-      <c r="F113" s="18"/>
-      <c r="G113" s="18"/>
-      <c r="H113" s="18"/>
-      <c r="I113" s="18"/>
+      <c r="A113" s="37"/>
+      <c r="B113" s="37"/>
+      <c r="C113" s="37"/>
+      <c r="D113" s="37"/>
+      <c r="E113" s="13"/>
+      <c r="F113" s="13"/>
+      <c r="G113" s="13"/>
+      <c r="H113" s="13"/>
+      <c r="I113" s="13"/>
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
     </row>
     <row r="114" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="2"/>
-      <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="18"/>
+      <c r="A114" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B114" s="5"/>
+      <c r="C114" s="24"/>
+      <c r="D114" s="29">
+        <f>SUM(E112:I112)</f>
+        <v>8345.8900000000049</v>
+      </c>
+      <c r="E114" s="17"/>
       <c r="F114" s="18"/>
       <c r="G114" s="18"/>
       <c r="H114" s="18"/>
@@ -8038,10 +8141,10 @@
       <c r="K114" s="2"/>
     </row>
     <row r="115" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="2"/>
-      <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
+      <c r="A115" s="38"/>
+      <c r="B115" s="38"/>
+      <c r="C115" s="38"/>
+      <c r="D115" s="38"/>
       <c r="E115" s="18"/>
       <c r="F115" s="18"/>
       <c r="G115" s="18"/>
@@ -8054,7 +8157,9 @@
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
+      <c r="D116" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="E116" s="18"/>
       <c r="F116" s="18"/>
       <c r="G116" s="18"/>
@@ -8752,195 +8857,237 @@
       <c r="J169" s="2"/>
       <c r="K169" s="2"/>
     </row>
-    <row r="170" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="2"/>
+      <c r="B170" s="2"/>
+      <c r="C170" s="2"/>
+      <c r="D170" s="2"/>
+      <c r="E170" s="18"/>
+      <c r="F170" s="18"/>
+      <c r="G170" s="18"/>
+      <c r="H170" s="18"/>
+      <c r="I170" s="18"/>
+      <c r="J170" s="2"/>
       <c r="K170" s="2"/>
+    </row>
+    <row r="171" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="2"/>
+      <c r="B171" s="2"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2"/>
+      <c r="E171" s="18"/>
+      <c r="F171" s="18"/>
+      <c r="G171" s="18"/>
+      <c r="H171" s="18"/>
+      <c r="I171" s="18"/>
+      <c r="J171" s="2"/>
+      <c r="K171" s="2"/>
+    </row>
+    <row r="172" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="2"/>
+      <c r="B172" s="2"/>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2"/>
+      <c r="E172" s="18"/>
+      <c r="F172" s="18"/>
+      <c r="G172" s="18"/>
+      <c r="H172" s="18"/>
+      <c r="I172" s="18"/>
+      <c r="J172" s="2"/>
+      <c r="K172" s="2"/>
+    </row>
+    <row r="173" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="2"/>
+      <c r="B173" s="2"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2"/>
+      <c r="E173" s="18"/>
+      <c r="F173" s="18"/>
+      <c r="G173" s="18"/>
+      <c r="H173" s="18"/>
+      <c r="I173" s="18"/>
+      <c r="J173" s="2"/>
+      <c r="K173" s="2"/>
+    </row>
+    <row r="174" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="2"/>
+      <c r="B174" s="2"/>
+      <c r="C174" s="2"/>
+      <c r="D174" s="2"/>
+      <c r="E174" s="18"/>
+      <c r="F174" s="18"/>
+      <c r="G174" s="18"/>
+      <c r="H174" s="18"/>
+      <c r="I174" s="18"/>
+      <c r="J174" s="2"/>
+      <c r="K174" s="2"/>
+    </row>
+    <row r="175" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K175" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:I100" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
+  <conditionalFormatting sqref="A93:A96">
+    <cfRule type="cellIs" dxfId="67" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A92:C92">
-    <cfRule type="cellIs" dxfId="69" priority="133" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="136" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="68" priority="147" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="150" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C98:D98">
-    <cfRule type="cellIs" dxfId="67" priority="126" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="C98:C99">
+    <cfRule type="cellIs" dxfId="64" priority="129" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D15">
-    <cfRule type="cellIs" dxfId="66" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D67">
-    <cfRule type="cellIs" dxfId="65" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70:D72">
-    <cfRule type="cellIs" dxfId="64" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D82:D86">
-    <cfRule type="cellIs" dxfId="63" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:G16">
-    <cfRule type="cellIs" dxfId="62" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68:G69 E70:G70 E72:G72 D73:G81">
-    <cfRule type="cellIs" dxfId="61" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D87:G88 D90:G91 E89:G89">
-    <cfRule type="cellIs" dxfId="60" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D97:G97 G93 E94:G96">
-    <cfRule type="cellIs" dxfId="59" priority="127" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D87:G97">
+    <cfRule type="cellIs" dxfId="57" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="58" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="57" priority="178" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="181" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:F20">
-    <cfRule type="cellIs" dxfId="56" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="55" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:F31">
-    <cfRule type="cellIs" dxfId="54" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:G14">
-    <cfRule type="cellIs" dxfId="53" priority="235" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="238" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:G26">
-    <cfRule type="cellIs" dxfId="52" priority="217" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="220" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37:G40">
-    <cfRule type="cellIs" dxfId="51" priority="198" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="201" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83:G86">
-    <cfRule type="cellIs" dxfId="50" priority="134" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="137" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:I3 G4:G12 H4:I26 G15 G17:G23 G25 H28:I104 E59:G60 F61 G61:G62 F63:G63 E64:G64 F65:G65 E66:G66 G82 G92 G98 D99:G104 D104:I104 E105:I169 D109">
-    <cfRule type="cellIs" dxfId="49" priority="299" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E3:I3 G4:G12 H4:I26 G15 G17:G23 G25 H28:I109 E59:G60 F61 G61:G62 F63:G63 E64:G64 F65:G65 E66:G66 G82 G98 D100:G100 D109:I109 E110:I174 D114 E99:G99 D103:G103 E101:G102 E104:G104 D105:G109">
+    <cfRule type="cellIs" dxfId="47" priority="302" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="48" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:G24">
-    <cfRule type="cellIs" dxfId="47" priority="220" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="223" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67:G67">
-    <cfRule type="cellIs" dxfId="46" priority="163" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="166" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71:G71">
-    <cfRule type="cellIs" dxfId="45" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:G31 E32:G33 G34:G36">
-    <cfRule type="cellIs" dxfId="44" priority="74" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41:G46 E47:G48 G49:G50 E50:F50 F51:G51 E52:G52 F53:G58">
-    <cfRule type="cellIs" dxfId="43" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:I27">
-    <cfRule type="cellIs" dxfId="42" priority="84" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E92:F92">
-    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D98:D99">
+    <cfRule type="cellIs" dxfId="39" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E93:F93">
-    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D101:D102">
+    <cfRule type="cellIs" dxfId="38" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A93:A96">
-    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D104">
+    <cfRule type="cellIs" dxfId="37" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D92">
-    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D89">
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D93">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D94:D96">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D99:D104 D3:D97" xr:uid="{00000000-0002-0000-0000-000001000000}">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D109" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$K$1:$K$19</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D98" xr:uid="{00000000-0002-0000-0000-000003000000}">
-      <formula1>$M$1:$M$19</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
@@ -8950,7 +9097,7 @@
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="117" max="18" man="1"/>
+    <brk id="122" max="18" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -8960,11 +9107,11 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:IM237"/>
+  <dimension ref="A1:IM240"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G171" sqref="G171"/>
+      <selection pane="bottomLeft" activeCell="A170" sqref="A170:XFD170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13075,14 +13222,22 @@
     </row>
     <row r="163" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="43"/>
-      <c r="B163" s="15"/>
+      <c r="B163" s="15">
+        <v>45279</v>
+      </c>
       <c r="C163" s="52">
         <v>160</v>
       </c>
-      <c r="D163" s="39"/>
-      <c r="E163" s="19"/>
+      <c r="D163" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="E163" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="F163" s="20"/>
-      <c r="G163" s="21"/>
+      <c r="G163" s="21">
+        <v>-478</v>
+      </c>
       <c r="H163" s="21"/>
       <c r="I163" s="21"/>
       <c r="J163" s="22"/>
@@ -13092,14 +13247,22 @@
     </row>
     <row r="164" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="43"/>
-      <c r="B164" s="15"/>
+      <c r="B164" s="15">
+        <v>45279</v>
+      </c>
       <c r="C164" s="52">
         <v>161</v>
       </c>
-      <c r="D164" s="39"/>
-      <c r="E164" s="19"/>
+      <c r="D164" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="E164" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="F164" s="20"/>
-      <c r="G164" s="21"/>
+      <c r="G164" s="21">
+        <v>-98.41</v>
+      </c>
       <c r="H164" s="21"/>
       <c r="I164" s="21"/>
       <c r="J164" s="22"/>
@@ -13109,14 +13272,22 @@
     </row>
     <row r="165" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="43"/>
-      <c r="B165" s="15"/>
+      <c r="B165" s="15">
+        <v>45280</v>
+      </c>
       <c r="C165" s="52">
         <v>162</v>
       </c>
-      <c r="D165" s="39"/>
-      <c r="E165" s="19"/>
+      <c r="D165" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="E165" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F165" s="20"/>
-      <c r="G165" s="21"/>
+      <c r="G165" s="21">
+        <v>-50.12</v>
+      </c>
       <c r="H165" s="21"/>
       <c r="I165" s="21"/>
       <c r="J165" s="22"/>
@@ -13126,12 +13297,22 @@
     </row>
     <row r="166" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="43"/>
-      <c r="B166" s="15"/>
-      <c r="C166" s="52"/>
-      <c r="D166" s="39"/>
-      <c r="E166" s="19"/>
+      <c r="B166" s="15">
+        <v>45280</v>
+      </c>
+      <c r="C166" s="52">
+        <v>163</v>
+      </c>
+      <c r="D166" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="E166" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="F166" s="20"/>
-      <c r="G166" s="21"/>
+      <c r="G166" s="21">
+        <v>-99.98</v>
+      </c>
       <c r="H166" s="21"/>
       <c r="I166" s="21"/>
       <c r="J166" s="22"/>
@@ -13141,12 +13322,22 @@
     </row>
     <row r="167" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="43"/>
-      <c r="B167" s="15"/>
-      <c r="C167" s="52"/>
-      <c r="D167" s="39"/>
-      <c r="E167" s="19"/>
+      <c r="B167" s="15">
+        <v>45282</v>
+      </c>
+      <c r="C167" s="52">
+        <v>164</v>
+      </c>
+      <c r="D167" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="E167" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="F167" s="20"/>
-      <c r="G167" s="21"/>
+      <c r="G167" s="21">
+        <v>-568</v>
+      </c>
       <c r="H167" s="21"/>
       <c r="I167" s="21"/>
       <c r="J167" s="22"/>
@@ -13156,11 +13347,21 @@
     </row>
     <row r="168" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="43"/>
-      <c r="B168" s="15"/>
-      <c r="C168" s="52"/>
-      <c r="D168" s="39"/>
-      <c r="E168" s="19"/>
-      <c r="F168" s="20"/>
+      <c r="B168" s="15">
+        <v>45282</v>
+      </c>
+      <c r="C168" s="52">
+        <v>165</v>
+      </c>
+      <c r="D168" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="E168" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F168" s="20">
+        <v>-800</v>
+      </c>
       <c r="G168" s="21"/>
       <c r="H168" s="21"/>
       <c r="I168" s="21"/>
@@ -13171,11 +13372,21 @@
     </row>
     <row r="169" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="43"/>
-      <c r="B169" s="15"/>
-      <c r="C169" s="52"/>
-      <c r="D169" s="39"/>
-      <c r="E169" s="19"/>
-      <c r="F169" s="20"/>
+      <c r="B169" s="15">
+        <v>45287</v>
+      </c>
+      <c r="C169" s="52">
+        <v>166</v>
+      </c>
+      <c r="D169" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="E169" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F169" s="20">
+        <v>-86</v>
+      </c>
       <c r="G169" s="21"/>
       <c r="H169" s="21"/>
       <c r="I169" s="21"/>
@@ -13188,91 +13399,91 @@
       <c r="A170" s="43"/>
       <c r="B170" s="15"/>
       <c r="C170" s="52"/>
-      <c r="D170" s="39"/>
+      <c r="D170" s="16"/>
       <c r="E170" s="19"/>
       <c r="F170" s="20"/>
       <c r="G170" s="21"/>
-      <c r="H170" s="34">
-        <f>SUM(H3:H169)</f>
-        <v>0</v>
-      </c>
-      <c r="I170" s="34">
-        <f>SUM(I3:I169)</f>
-        <v>-163.91</v>
-      </c>
-      <c r="J170" s="47">
-        <f>SUM(J3:J169)</f>
-        <v>0</v>
-      </c>
+      <c r="H170" s="21"/>
+      <c r="I170" s="21"/>
+      <c r="J170" s="22"/>
       <c r="K170" s="46"/>
       <c r="L170" s="2"/>
       <c r="M170" s="2"/>
-      <c r="IM170"/>
     </row>
     <row r="171" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="44"/>
-      <c r="B171" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C171" s="53"/>
-      <c r="D171" s="31"/>
-      <c r="E171" s="32"/>
-      <c r="F171" s="33">
-        <f>SUM(F3:F170)</f>
-        <v>-1516.21</v>
-      </c>
-      <c r="G171" s="34">
-        <f>SUM(G3:G170)</f>
-        <v>-10281.140000000001</v>
-      </c>
-      <c r="H171" s="18"/>
-      <c r="I171" s="18"/>
-      <c r="J171" s="18"/>
-      <c r="K171" s="2"/>
+      <c r="A171" s="43"/>
+      <c r="B171" s="15"/>
+      <c r="C171" s="52"/>
+      <c r="D171" s="16"/>
+      <c r="E171" s="19"/>
+      <c r="F171" s="20"/>
+      <c r="G171" s="21"/>
+      <c r="H171" s="21"/>
+      <c r="I171" s="21"/>
+      <c r="J171" s="22"/>
+      <c r="K171" s="46"/>
       <c r="L171" s="2"/>
       <c r="M171" s="2"/>
     </row>
     <row r="172" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="44"/>
-      <c r="B172" s="18"/>
-      <c r="C172" s="18"/>
-      <c r="D172" s="18"/>
-      <c r="E172" s="18"/>
-      <c r="F172" s="18"/>
-      <c r="G172" s="18"/>
-      <c r="H172" s="18"/>
-      <c r="I172" s="18"/>
-      <c r="J172" s="18"/>
-      <c r="K172" s="2"/>
+      <c r="A172" s="43"/>
+      <c r="B172" s="15"/>
+      <c r="C172" s="52"/>
+      <c r="D172" s="16"/>
+      <c r="E172" s="19"/>
+      <c r="F172" s="20"/>
+      <c r="G172" s="21"/>
+      <c r="H172" s="21"/>
+      <c r="I172" s="21"/>
+      <c r="J172" s="22"/>
+      <c r="K172" s="46"/>
       <c r="L172" s="2"/>
       <c r="M172" s="2"/>
     </row>
     <row r="173" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="44"/>
-      <c r="B173" s="18"/>
-      <c r="C173" s="18"/>
-      <c r="D173" s="18"/>
-      <c r="E173" s="18"/>
-      <c r="F173" s="18"/>
-      <c r="G173" s="18"/>
-      <c r="H173" s="18"/>
-      <c r="I173" s="18"/>
-      <c r="J173" s="18"/>
-      <c r="K173" s="2"/>
+      <c r="A173" s="43"/>
+      <c r="B173" s="15"/>
+      <c r="C173" s="52"/>
+      <c r="D173" s="39"/>
+      <c r="E173" s="19"/>
+      <c r="F173" s="20"/>
+      <c r="G173" s="21"/>
+      <c r="H173" s="21"/>
+      <c r="I173" s="21"/>
+      <c r="J173" s="22"/>
+      <c r="K173" s="46"/>
       <c r="L173" s="2"/>
       <c r="M173" s="2"/>
+      <c r="IM173"/>
     </row>
     <row r="174" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="44"/>
-      <c r="B174" s="18"/>
-      <c r="C174" s="18"/>
-      <c r="D174" s="18"/>
-      <c r="E174" s="18"/>
-      <c r="F174" s="18"/>
-      <c r="G174" s="18"/>
-      <c r="H174" s="18"/>
-      <c r="I174" s="18"/>
-      <c r="J174" s="18"/>
+      <c r="B174" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C174" s="53"/>
+      <c r="D174" s="31"/>
+      <c r="E174" s="32"/>
+      <c r="F174" s="33">
+        <f>SUM(F3:F173)</f>
+        <v>-2402.21</v>
+      </c>
+      <c r="G174" s="34">
+        <f>SUM(G3:G173)</f>
+        <v>-11575.650000000001</v>
+      </c>
+      <c r="H174" s="34">
+        <f>SUM(H3:H173)</f>
+        <v>0</v>
+      </c>
+      <c r="I174" s="34">
+        <f>SUM(I3:I173)</f>
+        <v>-163.91</v>
+      </c>
+      <c r="J174" s="47">
+        <f>SUM(J3:J173)</f>
+        <v>0</v>
+      </c>
       <c r="K174" s="2"/>
       <c r="L174" s="2"/>
       <c r="M174" s="2"/>
@@ -14185,206 +14396,264 @@
       <c r="E235" s="18"/>
       <c r="F235" s="18"/>
       <c r="G235" s="18"/>
+      <c r="H235" s="18"/>
       <c r="I235" s="18"/>
+      <c r="J235" s="18"/>
       <c r="K235" s="2"/>
+      <c r="L235" s="2"/>
       <c r="M235" s="2"/>
     </row>
     <row r="236" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="44"/>
       <c r="B236" s="18"/>
       <c r="C236" s="18"/>
+      <c r="D236" s="18"/>
+      <c r="E236" s="18"/>
+      <c r="F236" s="18"/>
+      <c r="G236" s="18"/>
+      <c r="H236" s="18"/>
       <c r="I236" s="18"/>
+      <c r="J236" s="18"/>
+      <c r="K236" s="2"/>
+      <c r="L236" s="2"/>
+      <c r="M236" s="2"/>
     </row>
     <row r="237" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="44"/>
       <c r="B237" s="18"/>
+      <c r="C237" s="18"/>
+      <c r="D237" s="18"/>
+      <c r="E237" s="18"/>
+      <c r="F237" s="18"/>
+      <c r="G237" s="18"/>
+      <c r="H237" s="18"/>
+      <c r="I237" s="18"/>
+      <c r="J237" s="18"/>
+      <c r="K237" s="2"/>
+      <c r="L237" s="2"/>
+      <c r="M237" s="2"/>
+    </row>
+    <row r="238" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="44"/>
+      <c r="B238" s="18"/>
+      <c r="C238" s="18"/>
+      <c r="D238" s="18"/>
+      <c r="E238" s="18"/>
+      <c r="F238" s="18"/>
+      <c r="G238" s="18"/>
+      <c r="H238" s="18"/>
+      <c r="I238" s="18"/>
+      <c r="J238" s="18"/>
+      <c r="K238" s="2"/>
+      <c r="M238" s="2"/>
+    </row>
+    <row r="239" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B239" s="18"/>
+      <c r="C239" s="18"/>
+      <c r="I239" s="18"/>
+    </row>
+    <row r="240" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B240" s="18"/>
+      <c r="I240" s="18"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:K164" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A3:A235 B125:B129">
-    <cfRule type="cellIs" dxfId="41" priority="466" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="A3:A238 B125:B129">
+    <cfRule type="cellIs" dxfId="36" priority="468" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:B133">
-    <cfRule type="cellIs" dxfId="40" priority="460" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="462" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B135:B139">
-    <cfRule type="cellIs" dxfId="39" priority="449" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="451" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159:B160">
-    <cfRule type="cellIs" dxfId="38" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B163:B237">
-    <cfRule type="cellIs" dxfId="37" priority="412" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B163:B240">
+    <cfRule type="cellIs" dxfId="32" priority="414" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B151:C154">
-    <cfRule type="cellIs" dxfId="36" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B161:C162">
-    <cfRule type="cellIs" dxfId="35" priority="414" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="416" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B155:D157">
-    <cfRule type="cellIs" dxfId="34" priority="426" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="428" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B158:E158">
-    <cfRule type="cellIs" dxfId="33" priority="423" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="425" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C112">
-    <cfRule type="cellIs" dxfId="32" priority="487" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="489" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C122">
-    <cfRule type="cellIs" dxfId="31" priority="604" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="606" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C132:C135">
-    <cfRule type="cellIs" dxfId="30" priority="456" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="458" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C146:C147">
-    <cfRule type="cellIs" dxfId="29" priority="436" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="438" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C111:D111 C124 C127:C128 B130:D130 C139 C145:D145 C163:C236 J171:J234 I171:I236 K172">
-    <cfRule type="cellIs" dxfId="28" priority="696" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="C111:D111 C124 C127:C128 B130:D130 C139 C145:D145 C163:C239 J175:J238 I175:I240 K175">
+    <cfRule type="cellIs" dxfId="23" priority="698" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C129:D129">
-    <cfRule type="cellIs" dxfId="27" priority="464" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="466" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148:D150">
-    <cfRule type="cellIs" dxfId="26" priority="435" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="437" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C159:E159">
-    <cfRule type="cellIs" dxfId="25" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D146">
-    <cfRule type="cellIs" dxfId="24" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D160:E172">
-    <cfRule type="cellIs" dxfId="23" priority="1" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D160:E163 D164:D166 D167:E167 D173:E175 E168:E172">
+    <cfRule type="cellIs" dxfId="18" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E157">
-    <cfRule type="cellIs" dxfId="22" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="21" priority="580" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="582" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="cellIs" dxfId="20" priority="176" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="178" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="19" priority="174" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="176" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="18" priority="564" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="566" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44:F45">
-    <cfRule type="cellIs" dxfId="17" priority="378" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="380" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="cellIs" dxfId="16" priority="152" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="154" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62:F64">
-    <cfRule type="cellIs" dxfId="15" priority="357" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="359" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F87">
-    <cfRule type="cellIs" dxfId="14" priority="125" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="127" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F96:F97">
-    <cfRule type="cellIs" dxfId="13" priority="109" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="111" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F107">
-    <cfRule type="cellIs" dxfId="12" priority="95" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F119:F120">
-    <cfRule type="cellIs" dxfId="11" priority="78" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F134:F135">
-    <cfRule type="cellIs" dxfId="10" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F142:F144">
-    <cfRule type="cellIs" dxfId="9" priority="441" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="443" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F146:F147">
-    <cfRule type="cellIs" dxfId="8" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H171:H234 D172:G235">
-    <cfRule type="cellIs" dxfId="7" priority="648" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D175:H238">
+    <cfRule type="cellIs" dxfId="2" priority="650" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E164">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E165:E166">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E151 E108:E110 E131:E139 E32:E87 E89 E3:E30 E91:E93 E95:E96 E100:E102 E104 E106 E113:E116 E118:E119 E122:E124 E127:E128 E141 E143 E145:E147 E149 E153:E154 E156 E158 E160:E170" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E151 E108:E110 E131:E139 E32:E87 E89 E3:E30 E91:E93 E95:E96 E100:E102 E104 E106 E113:E116 E118:E119 E122:E124 E127:E128 E141 E143 E145:E147 E149 E153:E154 E156 E158 E160:E164 E167:E173" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$M$1:$M$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E31" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>$M$1:$M$20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E88 E90 E94 E97:E99 E103 E105 E107 E111:E112 E117 E120:E121 E125:E126 E129:E130 E140 E142 E144 E148 E150 E152 E155 E157 E159" xr:uid="{2159CF4B-2649-4586-B851-DB145DFC2247}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E88 E90 E94 E97:E99 E103 E105 E107 E111:E112 E117 E120:E121 E125:E126 E129:E130 E140 E142 E144 E148 E150 E152 E155 E157 E159 E165:E166" xr:uid="{2159CF4B-2649-4586-B851-DB145DFC2247}">
       <formula1>$K$1:$K$19</formula1>
     </dataValidation>
   </dataValidations>

--- a/2023/AWO_Einnahmen_Ausgaben_2023.xlsx
+++ b/2023/AWO_Einnahmen_Ausgaben_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DE925E-A823-440F-8AF6-266A320E831A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303BB0D2-E3CE-46C8-A49F-0783652AAF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="Gesamt" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Ausgaben!$B$2:$K$164</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Ausgaben!$B$2:$K$165</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Einnahmen!$A$2:$I$100</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Ausgaben!$A$1:$J$173</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Ausgaben!$A$1:$J$174</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Einnahmen!$A$1:$I$114</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="236">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -733,6 +733,15 @@
   </si>
   <si>
     <t>Bargeld auf Konto</t>
+  </si>
+  <si>
+    <t>Abschluss 2023 von Bank</t>
+  </si>
+  <si>
+    <t>102b</t>
+  </si>
+  <si>
+    <t>KSK Gebühren</t>
   </si>
 </sst>
 </file>
@@ -1396,22 +1405,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="74">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="71">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1962,7 +1956,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Bernd Wild" refreshedDate="44931.461712384262" createdVersion="4" refreshedVersion="8" minRefreshableVersion="3" recordCount="168" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="E2:J169" sheet="Ausgaben"/>
+    <worksheetSource ref="E2:J170" sheet="Ausgaben"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Zweck II" numFmtId="0">
@@ -4258,17 +4252,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="70">
+    <format dxfId="67">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="69">
+    <format dxfId="66">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="68">
+    <format dxfId="65">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -4371,17 +4365,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="73">
+    <format dxfId="70">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="72">
+    <format dxfId="69">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="71">
+    <format dxfId="68">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5507,9 +5501,9 @@
   </sheetPr>
   <dimension ref="A1:IK175"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C105" sqref="C105"/>
+      <selection pane="bottomLeft" activeCell="F107" sqref="F107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7983,12 +7977,22 @@
       <c r="K105" s="2"/>
     </row>
     <row r="106" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="15"/>
-      <c r="B106" s="16"/>
-      <c r="C106" s="16"/>
-      <c r="D106" s="19"/>
+      <c r="A106" s="15">
+        <v>45289</v>
+      </c>
+      <c r="B106" s="16">
+        <v>103</v>
+      </c>
+      <c r="C106" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="D106" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="E106" s="17"/>
-      <c r="F106" s="18"/>
+      <c r="F106" s="18">
+        <v>8.5</v>
+      </c>
       <c r="G106" s="18"/>
       <c r="H106" s="18"/>
       <c r="I106" s="19"/>
@@ -8049,7 +8053,7 @@
       </c>
       <c r="F110" s="28">
         <f>SUM(F3:F109)</f>
-        <v>16695.670000000006</v>
+        <v>16704.170000000006</v>
       </c>
       <c r="G110" s="28">
         <f>SUM(G3:G109)</f>
@@ -8087,23 +8091,23 @@
       <c r="C112" s="25"/>
       <c r="D112" s="48"/>
       <c r="E112" s="28">
-        <f>E110+Ausgaben!F174</f>
+        <f>E110+Ausgaben!F175</f>
         <v>0</v>
       </c>
       <c r="F112" s="28">
-        <f>F110+Ausgaben!G174</f>
-        <v>5120.0200000000041</v>
+        <f>F110+Ausgaben!G175</f>
+        <v>5128.5200000000041</v>
       </c>
       <c r="G112" s="28">
-        <f>G110+Ausgaben!H174</f>
+        <f>G110+Ausgaben!H175</f>
         <v>2000.5</v>
       </c>
       <c r="H112" s="28">
-        <f>H110+Ausgaben!I174</f>
-        <v>276.13</v>
+        <f>H110+Ausgaben!I175</f>
+        <v>274.78000000000003</v>
       </c>
       <c r="I112" s="29">
-        <f>I110+Ausgaben!J174</f>
+        <f>I110+Ausgaben!J175</f>
         <v>949.24</v>
       </c>
       <c r="J112" s="2"/>
@@ -8130,7 +8134,7 @@
       <c r="C114" s="24"/>
       <c r="D114" s="29">
         <f>SUM(E112:I112)</f>
-        <v>8345.8900000000049</v>
+        <v>8353.0400000000045</v>
       </c>
       <c r="E114" s="17"/>
       <c r="F114" s="18"/>
@@ -8931,157 +8935,147 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="A93:A96">
-    <cfRule type="cellIs" dxfId="67" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:C92">
-    <cfRule type="cellIs" dxfId="66" priority="136" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="136" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="65" priority="150" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="150" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C98:C99">
-    <cfRule type="cellIs" dxfId="64" priority="129" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="C98:D99">
+    <cfRule type="cellIs" dxfId="61" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D15">
-    <cfRule type="cellIs" dxfId="63" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D67">
-    <cfRule type="cellIs" dxfId="62" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70:D72">
-    <cfRule type="cellIs" dxfId="61" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D82:D86">
-    <cfRule type="cellIs" dxfId="60" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:G16">
-    <cfRule type="cellIs" dxfId="59" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68:G69 E70:G70 E72:G72 D73:G81">
-    <cfRule type="cellIs" dxfId="58" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87:G97">
-    <cfRule type="cellIs" dxfId="57" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D100:G109">
+    <cfRule type="cellIs" dxfId="53" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="56" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="55" priority="181" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="181" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:F20">
-    <cfRule type="cellIs" dxfId="54" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="53" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:F31">
-    <cfRule type="cellIs" dxfId="52" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:G14">
-    <cfRule type="cellIs" dxfId="51" priority="238" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="238" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:G26">
-    <cfRule type="cellIs" dxfId="50" priority="220" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="220" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37:G40">
-    <cfRule type="cellIs" dxfId="49" priority="201" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="201" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83:G86">
-    <cfRule type="cellIs" dxfId="48" priority="137" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="137" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:I3 G4:G12 H4:I26 G15 G17:G23 G25 H28:I109 E59:G60 F61 G61:G62 F63:G63 E64:G64 F65:G65 E66:G66 G82 G98 D100:G100 D109:I109 E110:I174 D114 E99:G99 D103:G103 E101:G102 E104:G104 D105:G109">
-    <cfRule type="cellIs" dxfId="47" priority="302" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E3:I3 G4:G12 H4:I26 G15 G17:G23 G25 H28:I109 E59:G60 F61 G61:G62 F63:G63 E64:G64 F65:G65 E66:G66 G82 G98 E99:G99 D109:I109 E110:I174 D114">
+    <cfRule type="cellIs" dxfId="43" priority="302" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="46" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:G24">
-    <cfRule type="cellIs" dxfId="45" priority="223" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="223" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67:G67">
-    <cfRule type="cellIs" dxfId="44" priority="166" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="166" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71:G71">
-    <cfRule type="cellIs" dxfId="43" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:G31 E32:G33 G34:G36">
-    <cfRule type="cellIs" dxfId="42" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41:G46 E47:G48 G49:G50 E50:F50 F51:G51 E52:G52 F53:G58">
-    <cfRule type="cellIs" dxfId="41" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:I27">
-    <cfRule type="cellIs" dxfId="40" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D98:D99">
-    <cfRule type="cellIs" dxfId="39" priority="3" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D101:D102">
-    <cfRule type="cellIs" dxfId="38" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D104">
-    <cfRule type="cellIs" dxfId="37" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9107,11 +9101,11 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:IM240"/>
+  <dimension ref="A1:IM241"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A170" sqref="A170:XFD170"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I107" sqref="I107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11801,21 +11795,21 @@
       <c r="B106" s="15">
         <v>45139</v>
       </c>
-      <c r="C106" s="52">
-        <v>103</v>
+      <c r="C106" s="52" t="s">
+        <v>234</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>21</v>
+        <v>235</v>
       </c>
       <c r="E106" s="23" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F106" s="20"/>
-      <c r="G106" s="21">
-        <v>-12</v>
-      </c>
+      <c r="G106" s="21"/>
       <c r="H106" s="21"/>
-      <c r="I106" s="21"/>
+      <c r="I106" s="21">
+        <v>-1.35</v>
+      </c>
       <c r="J106" s="22"/>
       <c r="K106" s="4"/>
       <c r="L106" s="2"/>
@@ -11827,17 +11821,17 @@
         <v>45139</v>
       </c>
       <c r="C107" s="52">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E107" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F107" s="17"/>
+        <v>21</v>
+      </c>
+      <c r="E107" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F107" s="20"/>
       <c r="G107" s="21">
-        <v>-153.44999999999999</v>
+        <v>-12</v>
       </c>
       <c r="H107" s="21"/>
       <c r="I107" s="21"/>
@@ -11849,20 +11843,20 @@
     <row r="108" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="43"/>
       <c r="B108" s="15">
-        <v>45140</v>
+        <v>45139</v>
       </c>
       <c r="C108" s="52">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E108" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F108" s="20"/>
+        <v>164</v>
+      </c>
+      <c r="E108" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F108" s="17"/>
       <c r="G108" s="21">
-        <v>-28</v>
+        <v>-153.44999999999999</v>
       </c>
       <c r="H108" s="21"/>
       <c r="I108" s="21"/>
@@ -11877,7 +11871,7 @@
         <v>45140</v>
       </c>
       <c r="C109" s="52">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>51</v>
@@ -11887,7 +11881,7 @@
       </c>
       <c r="F109" s="20"/>
       <c r="G109" s="21">
-        <v>-134</v>
+        <v>-28</v>
       </c>
       <c r="H109" s="21"/>
       <c r="I109" s="21"/>
@@ -11899,20 +11893,20 @@
     <row r="110" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="43"/>
       <c r="B110" s="15">
-        <v>45141</v>
+        <v>45140</v>
       </c>
       <c r="C110" s="52">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E110" s="19" t="s">
-        <v>13</v>
+        <v>51</v>
+      </c>
+      <c r="E110" s="23" t="s">
+        <v>22</v>
       </c>
       <c r="F110" s="20"/>
       <c r="G110" s="21">
-        <v>-50</v>
+        <v>-134</v>
       </c>
       <c r="H110" s="21"/>
       <c r="I110" s="21"/>
@@ -11924,20 +11918,20 @@
     <row r="111" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="43"/>
       <c r="B111" s="15">
-        <v>45142</v>
+        <v>45141</v>
       </c>
       <c r="C111" s="52">
-        <v>108</v>
-      </c>
-      <c r="D111" s="39" t="s">
-        <v>167</v>
+        <v>107</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="E111" s="19" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F111" s="20"/>
       <c r="G111" s="21">
-        <v>-376</v>
+        <v>-50</v>
       </c>
       <c r="H111" s="21"/>
       <c r="I111" s="21"/>
@@ -11949,20 +11943,20 @@
     <row r="112" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="43"/>
       <c r="B112" s="15">
-        <v>45148</v>
+        <v>45142</v>
       </c>
       <c r="C112" s="52">
-        <v>109</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>169</v>
+        <v>108</v>
+      </c>
+      <c r="D112" s="39" t="s">
+        <v>167</v>
       </c>
       <c r="E112" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F112" s="20"/>
       <c r="G112" s="21">
-        <v>-10.23</v>
+        <v>-376</v>
       </c>
       <c r="H112" s="21"/>
       <c r="I112" s="21"/>
@@ -11974,20 +11968,20 @@
     <row r="113" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="43"/>
       <c r="B113" s="15">
-        <v>45155</v>
-      </c>
-      <c r="C113" s="16">
-        <v>110</v>
+        <v>45148</v>
+      </c>
+      <c r="C113" s="52">
+        <v>109</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E113" s="23" t="s">
-        <v>22</v>
+        <v>169</v>
+      </c>
+      <c r="E113" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="F113" s="20"/>
       <c r="G113" s="21">
-        <v>-44.41</v>
+        <v>-10.23</v>
       </c>
       <c r="H113" s="21"/>
       <c r="I113" s="21"/>
@@ -11999,20 +11993,20 @@
     <row r="114" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="43"/>
       <c r="B114" s="15">
-        <v>45170</v>
+        <v>45155</v>
       </c>
       <c r="C114" s="16">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="E114" s="23" t="s">
         <v>22</v>
       </c>
       <c r="F114" s="20"/>
       <c r="G114" s="21">
-        <v>-12</v>
+        <v>-44.41</v>
       </c>
       <c r="H114" s="21"/>
       <c r="I114" s="21"/>
@@ -12024,20 +12018,20 @@
     <row r="115" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="43"/>
       <c r="B115" s="15">
-        <v>45173</v>
+        <v>45170</v>
       </c>
       <c r="C115" s="16">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="E115" s="23" t="s">
         <v>22</v>
       </c>
       <c r="F115" s="20"/>
       <c r="G115" s="21">
-        <v>-134</v>
+        <v>-12</v>
       </c>
       <c r="H115" s="21"/>
       <c r="I115" s="21"/>
@@ -12051,8 +12045,8 @@
       <c r="B116" s="15">
         <v>45173</v>
       </c>
-      <c r="C116" s="52">
-        <v>113</v>
+      <c r="C116" s="16">
+        <v>112</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>51</v>
@@ -12062,7 +12056,7 @@
       </c>
       <c r="F116" s="20"/>
       <c r="G116" s="21">
-        <v>-28</v>
+        <v>-134</v>
       </c>
       <c r="H116" s="21"/>
       <c r="I116" s="21"/>
@@ -12074,20 +12068,20 @@
     <row r="117" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="43"/>
       <c r="B117" s="15">
-        <v>45180</v>
+        <v>45173</v>
       </c>
       <c r="C117" s="52">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E117" s="19" t="s">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="E117" s="23" t="s">
+        <v>22</v>
       </c>
       <c r="F117" s="20"/>
       <c r="G117" s="21">
-        <v>-18.510000000000002</v>
+        <v>-28</v>
       </c>
       <c r="H117" s="21"/>
       <c r="I117" s="21"/>
@@ -12099,20 +12093,20 @@
     <row r="118" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="43"/>
       <c r="B118" s="15">
-        <v>45187</v>
+        <v>45180</v>
       </c>
       <c r="C118" s="52">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E118" s="23" t="s">
-        <v>22</v>
+        <v>138</v>
+      </c>
+      <c r="E118" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="F118" s="20"/>
       <c r="G118" s="21">
-        <v>-45.9</v>
+        <v>-18.510000000000002</v>
       </c>
       <c r="H118" s="21"/>
       <c r="I118" s="21"/>
@@ -12127,17 +12121,17 @@
         <v>45187</v>
       </c>
       <c r="C119" s="52">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>172</v>
+        <v>56</v>
       </c>
       <c r="E119" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F119" s="17"/>
+        <v>22</v>
+      </c>
+      <c r="F119" s="20"/>
       <c r="G119" s="21">
-        <v>-47.33</v>
+        <v>-45.9</v>
       </c>
       <c r="H119" s="21"/>
       <c r="I119" s="21"/>
@@ -12149,20 +12143,20 @@
     <row r="120" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="43"/>
       <c r="B120" s="15">
-        <v>45190</v>
+        <v>45187</v>
       </c>
       <c r="C120" s="52">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E120" s="19" t="s">
-        <v>0</v>
+        <v>172</v>
+      </c>
+      <c r="E120" s="23" t="s">
+        <v>14</v>
       </c>
       <c r="F120" s="17"/>
       <c r="G120" s="21">
-        <v>-11.96</v>
+        <v>-47.33</v>
       </c>
       <c r="H120" s="21"/>
       <c r="I120" s="21"/>
@@ -12174,20 +12168,20 @@
     <row r="121" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="43"/>
       <c r="B121" s="15">
-        <v>45195</v>
+        <v>45190</v>
       </c>
       <c r="C121" s="52">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E121" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="F121" s="20"/>
+      <c r="F121" s="17"/>
       <c r="G121" s="21">
-        <v>-35.51</v>
+        <v>-11.96</v>
       </c>
       <c r="H121" s="21"/>
       <c r="I121" s="21"/>
@@ -12199,20 +12193,20 @@
     <row r="122" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="43"/>
       <c r="B122" s="15">
-        <v>45198</v>
+        <v>45195</v>
       </c>
       <c r="C122" s="52">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E122" s="23" t="s">
-        <v>22</v>
+        <v>175</v>
+      </c>
+      <c r="E122" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="F122" s="20"/>
       <c r="G122" s="21">
-        <v>-0.85</v>
+        <v>-35.51</v>
       </c>
       <c r="H122" s="21"/>
       <c r="I122" s="21"/>
@@ -12224,20 +12218,20 @@
     <row r="123" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="43"/>
       <c r="B123" s="15">
-        <v>45201</v>
+        <v>45198</v>
       </c>
       <c r="C123" s="52">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>21</v>
+        <v>177</v>
       </c>
       <c r="E123" s="23" t="s">
         <v>22</v>
       </c>
       <c r="F123" s="20"/>
       <c r="G123" s="21">
-        <v>-12</v>
+        <v>-0.85</v>
       </c>
       <c r="H123" s="21"/>
       <c r="I123" s="21"/>
@@ -12252,17 +12246,17 @@
         <v>45201</v>
       </c>
       <c r="C124" s="52">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="E124" s="23" t="s">
         <v>22</v>
       </c>
       <c r="F124" s="20"/>
       <c r="G124" s="21">
-        <v>-25.57</v>
+        <v>-12</v>
       </c>
       <c r="H124" s="21"/>
       <c r="I124" s="21"/>
@@ -12274,20 +12268,20 @@
     <row r="125" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="43"/>
       <c r="B125" s="15">
-        <v>45203</v>
+        <v>45201</v>
       </c>
       <c r="C125" s="52">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E125" s="19" t="s">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="E125" s="23" t="s">
+        <v>22</v>
       </c>
       <c r="F125" s="20"/>
       <c r="G125" s="21">
-        <v>-440.95</v>
+        <v>-25.57</v>
       </c>
       <c r="H125" s="21"/>
       <c r="I125" s="21"/>
@@ -12302,17 +12296,17 @@
         <v>45203</v>
       </c>
       <c r="C126" s="52">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E126" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F126" s="20"/>
       <c r="G126" s="21">
-        <v>-86.48</v>
+        <v>-440.95</v>
       </c>
       <c r="H126" s="21"/>
       <c r="I126" s="21"/>
@@ -12327,17 +12321,17 @@
         <v>45203</v>
       </c>
       <c r="C127" s="52">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E127" s="23" t="s">
-        <v>22</v>
+        <v>180</v>
+      </c>
+      <c r="E127" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="F127" s="20"/>
       <c r="G127" s="21">
-        <v>-134</v>
+        <v>-86.48</v>
       </c>
       <c r="H127" s="21"/>
       <c r="I127" s="21"/>
@@ -12352,7 +12346,7 @@
         <v>45203</v>
       </c>
       <c r="C128" s="52">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>51</v>
@@ -12362,7 +12356,7 @@
       </c>
       <c r="F128" s="20"/>
       <c r="G128" s="21">
-        <v>-28</v>
+        <v>-134</v>
       </c>
       <c r="H128" s="21"/>
       <c r="I128" s="21"/>
@@ -12377,17 +12371,17 @@
         <v>45203</v>
       </c>
       <c r="C129" s="52">
-        <v>126</v>
-      </c>
-      <c r="D129" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="E129" s="19" t="s">
-        <v>0</v>
+        <v>125</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E129" s="23" t="s">
+        <v>22</v>
       </c>
       <c r="F129" s="20"/>
       <c r="G129" s="21">
-        <v>-19.7</v>
+        <v>-28</v>
       </c>
       <c r="H129" s="21"/>
       <c r="I129" s="21"/>
@@ -12399,20 +12393,20 @@
     <row r="130" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="43"/>
       <c r="B130" s="15">
-        <v>45210</v>
+        <v>45203</v>
       </c>
       <c r="C130" s="52">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D130" s="39" t="s">
-        <v>138</v>
+        <v>181</v>
       </c>
       <c r="E130" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F130" s="20"/>
       <c r="G130" s="21">
-        <v>-16.920000000000002</v>
+        <v>-19.7</v>
       </c>
       <c r="H130" s="21"/>
       <c r="I130" s="21"/>
@@ -12424,20 +12418,20 @@
     <row r="131" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="43"/>
       <c r="B131" s="15">
-        <v>45211</v>
+        <v>45210</v>
       </c>
       <c r="C131" s="52">
-        <v>128</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E131" s="23" t="s">
-        <v>23</v>
+        <v>127</v>
+      </c>
+      <c r="D131" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="E131" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="F131" s="20"/>
       <c r="G131" s="21">
-        <v>-25.98</v>
+        <v>-16.920000000000002</v>
       </c>
       <c r="H131" s="21"/>
       <c r="I131" s="21"/>
@@ -12452,18 +12446,18 @@
         <v>45211</v>
       </c>
       <c r="C132" s="52">
-        <v>129</v>
-      </c>
-      <c r="D132" s="54" t="s">
-        <v>184</v>
+        <v>128</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="E132" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F132" s="55">
-        <v>-6.5</v>
-      </c>
-      <c r="G132" s="21"/>
+        <v>23</v>
+      </c>
+      <c r="F132" s="20"/>
+      <c r="G132" s="21">
+        <v>-25.98</v>
+      </c>
       <c r="H132" s="21"/>
       <c r="I132" s="21"/>
       <c r="J132" s="22"/>
@@ -12477,18 +12471,18 @@
         <v>45211</v>
       </c>
       <c r="C133" s="52">
-        <v>130</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>185</v>
+        <v>129</v>
+      </c>
+      <c r="D133" s="54" t="s">
+        <v>184</v>
       </c>
       <c r="E133" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F133" s="20"/>
-      <c r="G133" s="21">
-        <v>-102</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="F133" s="55">
+        <v>-6.5</v>
+      </c>
+      <c r="G133" s="21"/>
       <c r="H133" s="21"/>
       <c r="I133" s="21"/>
       <c r="J133" s="22"/>
@@ -12499,20 +12493,20 @@
     <row r="134" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="43"/>
       <c r="B134" s="15">
-        <v>45215</v>
+        <v>45211</v>
       </c>
       <c r="C134" s="52">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>55</v>
+        <v>185</v>
       </c>
       <c r="E134" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F134" s="17"/>
+        <v>14</v>
+      </c>
+      <c r="F134" s="20"/>
       <c r="G134" s="21">
-        <v>-18.36</v>
+        <v>-102</v>
       </c>
       <c r="H134" s="21"/>
       <c r="I134" s="21"/>
@@ -12524,20 +12518,20 @@
     <row r="135" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="43"/>
       <c r="B135" s="15">
-        <v>45217</v>
+        <v>45215</v>
       </c>
       <c r="C135" s="52">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E135" s="23" t="s">
         <v>22</v>
       </c>
       <c r="F135" s="17"/>
       <c r="G135" s="21">
-        <v>-45.9</v>
+        <v>-18.36</v>
       </c>
       <c r="H135" s="21"/>
       <c r="I135" s="21"/>
@@ -12549,20 +12543,20 @@
     <row r="136" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="43"/>
       <c r="B136" s="15">
-        <v>45222</v>
+        <v>45217</v>
       </c>
       <c r="C136" s="52">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>187</v>
+        <v>56</v>
       </c>
       <c r="E136" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="F136" s="20"/>
+      <c r="F136" s="17"/>
       <c r="G136" s="21">
-        <v>-54.28</v>
+        <v>-45.9</v>
       </c>
       <c r="H136" s="21"/>
       <c r="I136" s="21"/>
@@ -12574,20 +12568,20 @@
     <row r="137" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="43"/>
       <c r="B137" s="15">
-        <v>45232</v>
+        <v>45222</v>
       </c>
       <c r="C137" s="52">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>21</v>
+        <v>187</v>
       </c>
       <c r="E137" s="23" t="s">
         <v>22</v>
       </c>
       <c r="F137" s="20"/>
       <c r="G137" s="21">
-        <v>-12</v>
+        <v>-54.28</v>
       </c>
       <c r="H137" s="21"/>
       <c r="I137" s="21"/>
@@ -12599,20 +12593,20 @@
     <row r="138" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="43"/>
       <c r="B138" s="15">
-        <v>45233</v>
+        <v>45232</v>
       </c>
       <c r="C138" s="52">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="E138" s="23" t="s">
         <v>22</v>
       </c>
       <c r="F138" s="20"/>
       <c r="G138" s="21">
-        <v>-28</v>
+        <v>-12</v>
       </c>
       <c r="H138" s="21"/>
       <c r="I138" s="21"/>
@@ -12627,7 +12621,7 @@
         <v>45233</v>
       </c>
       <c r="C139" s="52">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>51</v>
@@ -12637,7 +12631,7 @@
       </c>
       <c r="F139" s="20"/>
       <c r="G139" s="21">
-        <v>-134</v>
+        <v>-28</v>
       </c>
       <c r="H139" s="21"/>
       <c r="I139" s="21"/>
@@ -12649,20 +12643,20 @@
     <row r="140" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="43"/>
       <c r="B140" s="15">
-        <v>45238</v>
-      </c>
-      <c r="C140" s="16">
-        <v>137</v>
+        <v>45233</v>
+      </c>
+      <c r="C140" s="52">
+        <v>136</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E140" s="19" t="s">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="E140" s="23" t="s">
+        <v>22</v>
       </c>
       <c r="F140" s="20"/>
       <c r="G140" s="21">
-        <v>-32.65</v>
+        <v>-134</v>
       </c>
       <c r="H140" s="21"/>
       <c r="I140" s="21"/>
@@ -12674,20 +12668,20 @@
     <row r="141" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="43"/>
       <c r="B141" s="15">
-        <v>45239</v>
+        <v>45238</v>
       </c>
       <c r="C141" s="16">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E141" s="23" t="s">
-        <v>14</v>
+        <v>196</v>
+      </c>
+      <c r="E141" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="F141" s="20"/>
       <c r="G141" s="21">
-        <v>-200</v>
+        <v>-32.65</v>
       </c>
       <c r="H141" s="21"/>
       <c r="I141" s="21"/>
@@ -12699,20 +12693,20 @@
     <row r="142" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="43"/>
       <c r="B142" s="15">
-        <v>45240</v>
+        <v>45239</v>
       </c>
       <c r="C142" s="16">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E142" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F142" s="17"/>
+        <v>197</v>
+      </c>
+      <c r="E142" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F142" s="20"/>
       <c r="G142" s="21">
-        <v>-134.5</v>
+        <v>-200</v>
       </c>
       <c r="H142" s="21"/>
       <c r="I142" s="21"/>
@@ -12724,20 +12718,20 @@
     <row r="143" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="43"/>
       <c r="B143" s="15">
-        <v>45243</v>
+        <v>45240</v>
       </c>
       <c r="C143" s="16">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="E143" s="23" t="s">
-        <v>14</v>
+        <v>198</v>
+      </c>
+      <c r="E143" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="F143" s="17"/>
       <c r="G143" s="21">
-        <v>-172.6</v>
+        <v>-134.5</v>
       </c>
       <c r="H143" s="21"/>
       <c r="I143" s="21"/>
@@ -12749,20 +12743,20 @@
     <row r="144" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="43"/>
       <c r="B144" s="15">
-        <v>45244</v>
+        <v>45243</v>
       </c>
       <c r="C144" s="16">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E144" s="19" t="s">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E144" s="23" t="s">
+        <v>14</v>
       </c>
       <c r="F144" s="17"/>
       <c r="G144" s="21">
-        <v>-57.17</v>
+        <v>-172.6</v>
       </c>
       <c r="H144" s="21"/>
       <c r="I144" s="21"/>
@@ -12774,20 +12768,20 @@
     <row r="145" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="43"/>
       <c r="B145" s="15">
-        <v>45245</v>
-      </c>
-      <c r="C145" s="52">
-        <v>142</v>
-      </c>
-      <c r="D145" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="E145" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F145" s="20"/>
+        <v>45244</v>
+      </c>
+      <c r="C145" s="16">
+        <v>141</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E145" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F145" s="17"/>
       <c r="G145" s="21">
-        <v>-105</v>
+        <v>-57.17</v>
       </c>
       <c r="H145" s="21"/>
       <c r="I145" s="21"/>
@@ -12799,69 +12793,69 @@
     <row r="146" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="43"/>
       <c r="B146" s="15">
-        <v>45247</v>
+        <v>45245</v>
       </c>
       <c r="C146" s="52">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D146" s="39" t="s">
-        <v>56</v>
+        <v>201</v>
       </c>
       <c r="E146" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F146" s="17"/>
+        <v>14</v>
+      </c>
+      <c r="F146" s="20"/>
       <c r="G146" s="21">
-        <v>-45.9</v>
+        <v>-105</v>
       </c>
       <c r="H146" s="21"/>
       <c r="I146" s="21"/>
       <c r="J146" s="22"/>
       <c r="K146" s="4"/>
       <c r="L146" s="2"/>
+      <c r="M146" s="2"/>
     </row>
     <row r="147" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="43"/>
       <c r="B147" s="15">
-        <v>45251</v>
+        <v>45247</v>
       </c>
       <c r="C147" s="52">
-        <v>144</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>172</v>
+        <v>143</v>
+      </c>
+      <c r="D147" s="39" t="s">
+        <v>56</v>
       </c>
       <c r="E147" s="23" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F147" s="17"/>
       <c r="G147" s="21">
-        <v>-27.04</v>
+        <v>-45.9</v>
       </c>
       <c r="H147" s="21"/>
       <c r="I147" s="21"/>
       <c r="J147" s="22"/>
       <c r="K147" s="4"/>
       <c r="L147" s="2"/>
-      <c r="M147" s="2"/>
     </row>
     <row r="148" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="43"/>
       <c r="B148" s="15">
-        <v>45254</v>
+        <v>45251</v>
       </c>
       <c r="C148" s="52">
-        <v>145</v>
-      </c>
-      <c r="D148" s="39" t="s">
-        <v>205</v>
-      </c>
-      <c r="E148" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F148" s="20"/>
+        <v>144</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E148" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F148" s="17"/>
       <c r="G148" s="21">
-        <v>-13.58</v>
+        <v>-27.04</v>
       </c>
       <c r="H148" s="21"/>
       <c r="I148" s="21"/>
@@ -12873,20 +12867,20 @@
     <row r="149" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="43"/>
       <c r="B149" s="15">
-        <v>45259</v>
+        <v>45254</v>
       </c>
       <c r="C149" s="52">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D149" s="39" t="s">
-        <v>206</v>
-      </c>
-      <c r="E149" s="23" t="s">
-        <v>20</v>
+        <v>205</v>
+      </c>
+      <c r="E149" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="F149" s="20"/>
       <c r="G149" s="21">
-        <v>-19.2</v>
+        <v>-13.58</v>
       </c>
       <c r="H149" s="21"/>
       <c r="I149" s="21"/>
@@ -12901,17 +12895,17 @@
         <v>45259</v>
       </c>
       <c r="C150" s="52">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D150" s="39" t="s">
-        <v>205</v>
-      </c>
-      <c r="E150" s="19" t="s">
-        <v>0</v>
+        <v>206</v>
+      </c>
+      <c r="E150" s="23" t="s">
+        <v>20</v>
       </c>
       <c r="F150" s="20"/>
       <c r="G150" s="21">
-        <v>-22.47</v>
+        <v>-19.2</v>
       </c>
       <c r="H150" s="21"/>
       <c r="I150" s="21"/>
@@ -12923,20 +12917,20 @@
     <row r="151" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="43"/>
       <c r="B151" s="15">
-        <v>45261</v>
+        <v>45259</v>
       </c>
       <c r="C151" s="52">
-        <v>148</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E151" s="23" t="s">
-        <v>22</v>
+        <v>147</v>
+      </c>
+      <c r="D151" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="E151" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="F151" s="20"/>
       <c r="G151" s="21">
-        <v>-12</v>
+        <v>-22.47</v>
       </c>
       <c r="H151" s="21"/>
       <c r="I151" s="21"/>
@@ -12951,17 +12945,17 @@
         <v>45261</v>
       </c>
       <c r="C152" s="52">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E152" s="19" t="s">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="E152" s="23" t="s">
+        <v>22</v>
       </c>
       <c r="F152" s="20"/>
       <c r="G152" s="21">
-        <v>-68.36</v>
+        <v>-12</v>
       </c>
       <c r="H152" s="21"/>
       <c r="I152" s="21"/>
@@ -12973,20 +12967,20 @@
     <row r="153" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="43"/>
       <c r="B153" s="15">
-        <v>45264</v>
+        <v>45261</v>
       </c>
       <c r="C153" s="52">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E153" s="23" t="s">
-        <v>22</v>
+        <v>210</v>
+      </c>
+      <c r="E153" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="F153" s="20"/>
       <c r="G153" s="21">
-        <v>-134</v>
+        <v>-68.36</v>
       </c>
       <c r="H153" s="21"/>
       <c r="I153" s="21"/>
@@ -13001,7 +12995,7 @@
         <v>45264</v>
       </c>
       <c r="C154" s="52">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>51</v>
@@ -13011,7 +13005,7 @@
       </c>
       <c r="F154" s="20"/>
       <c r="G154" s="21">
-        <v>-28</v>
+        <v>-134</v>
       </c>
       <c r="H154" s="21"/>
       <c r="I154" s="21"/>
@@ -13023,20 +13017,20 @@
     <row r="155" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="43"/>
       <c r="B155" s="15">
-        <v>45267</v>
+        <v>45264</v>
       </c>
       <c r="C155" s="52">
-        <v>152</v>
-      </c>
-      <c r="D155" s="39" t="s">
-        <v>211</v>
-      </c>
-      <c r="E155" s="19" t="s">
-        <v>0</v>
+        <v>151</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E155" s="23" t="s">
+        <v>22</v>
       </c>
       <c r="F155" s="20"/>
       <c r="G155" s="21">
-        <v>-37.6</v>
+        <v>-28</v>
       </c>
       <c r="H155" s="21"/>
       <c r="I155" s="21"/>
@@ -13048,20 +13042,20 @@
     <row r="156" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="43"/>
       <c r="B156" s="15">
-        <v>45271</v>
+        <v>45267</v>
       </c>
       <c r="C156" s="52">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D156" s="39" t="s">
-        <v>212</v>
-      </c>
-      <c r="E156" s="23" t="s">
-        <v>14</v>
+        <v>211</v>
+      </c>
+      <c r="E156" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="F156" s="20"/>
       <c r="G156" s="21">
-        <v>-259.25</v>
+        <v>-37.6</v>
       </c>
       <c r="H156" s="21"/>
       <c r="I156" s="21"/>
@@ -13073,20 +13067,20 @@
     <row r="157" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="43"/>
       <c r="B157" s="15">
-        <v>45272</v>
+        <v>45271</v>
       </c>
       <c r="C157" s="52">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D157" s="39" t="s">
-        <v>211</v>
-      </c>
-      <c r="E157" s="19" t="s">
-        <v>0</v>
+        <v>212</v>
+      </c>
+      <c r="E157" s="23" t="s">
+        <v>14</v>
       </c>
       <c r="F157" s="20"/>
       <c r="G157" s="21">
-        <v>-36.840000000000003</v>
+        <v>-259.25</v>
       </c>
       <c r="H157" s="21"/>
       <c r="I157" s="21"/>
@@ -13098,20 +13092,20 @@
     <row r="158" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="43"/>
       <c r="B158" s="15">
-        <v>45273</v>
+        <v>45272</v>
       </c>
       <c r="C158" s="52">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D158" s="39" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E158" s="19" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F158" s="20"/>
       <c r="G158" s="21">
-        <v>-90</v>
+        <v>-36.840000000000003</v>
       </c>
       <c r="H158" s="21"/>
       <c r="I158" s="21"/>
@@ -13126,17 +13120,17 @@
         <v>45273</v>
       </c>
       <c r="C159" s="52">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D159" s="39" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E159" s="19" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F159" s="20"/>
       <c r="G159" s="21">
-        <v>-9.8699999999999992</v>
+        <v>-90</v>
       </c>
       <c r="H159" s="21"/>
       <c r="I159" s="21"/>
@@ -13151,17 +13145,17 @@
         <v>45273</v>
       </c>
       <c r="C160" s="52">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D160" s="39" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E160" s="19" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F160" s="20"/>
       <c r="G160" s="21">
-        <v>-90</v>
+        <v>-9.8699999999999992</v>
       </c>
       <c r="H160" s="21"/>
       <c r="I160" s="21"/>
@@ -13173,13 +13167,13 @@
     <row r="161" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="43"/>
       <c r="B161" s="15">
-        <v>45274</v>
+        <v>45273</v>
       </c>
       <c r="C161" s="52">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D161" s="39" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E161" s="19" t="s">
         <v>13</v>
@@ -13198,20 +13192,20 @@
     <row r="162" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="43"/>
       <c r="B162" s="15">
-        <v>45275</v>
+        <v>45274</v>
       </c>
       <c r="C162" s="52">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D162" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="E162" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F162" s="21"/>
+        <v>216</v>
+      </c>
+      <c r="E162" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F162" s="20"/>
       <c r="G162" s="21">
-        <v>-45.9</v>
+        <v>-90</v>
       </c>
       <c r="H162" s="21"/>
       <c r="I162" s="21"/>
@@ -13223,20 +13217,20 @@
     <row r="163" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="43"/>
       <c r="B163" s="15">
-        <v>45279</v>
+        <v>45275</v>
       </c>
       <c r="C163" s="52">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D163" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="E163" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F163" s="20"/>
+        <v>56</v>
+      </c>
+      <c r="E163" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F163" s="21"/>
       <c r="G163" s="21">
-        <v>-478</v>
+        <v>-45.9</v>
       </c>
       <c r="H163" s="21"/>
       <c r="I163" s="21"/>
@@ -13251,17 +13245,17 @@
         <v>45279</v>
       </c>
       <c r="C164" s="52">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D164" s="39" t="s">
-        <v>226</v>
-      </c>
-      <c r="E164" s="23" t="s">
-        <v>22</v>
+        <v>225</v>
+      </c>
+      <c r="E164" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="F164" s="20"/>
       <c r="G164" s="21">
-        <v>-98.41</v>
+        <v>-478</v>
       </c>
       <c r="H164" s="21"/>
       <c r="I164" s="21"/>
@@ -13273,20 +13267,20 @@
     <row r="165" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="43"/>
       <c r="B165" s="15">
-        <v>45280</v>
+        <v>45279</v>
       </c>
       <c r="C165" s="52">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D165" s="39" t="s">
-        <v>228</v>
-      </c>
-      <c r="E165" s="19" t="s">
-        <v>0</v>
+        <v>226</v>
+      </c>
+      <c r="E165" s="23" t="s">
+        <v>22</v>
       </c>
       <c r="F165" s="20"/>
       <c r="G165" s="21">
-        <v>-50.12</v>
+        <v>-98.41</v>
       </c>
       <c r="H165" s="21"/>
       <c r="I165" s="21"/>
@@ -13301,17 +13295,17 @@
         <v>45280</v>
       </c>
       <c r="C166" s="52">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D166" s="39" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E166" s="19" t="s">
         <v>0</v>
       </c>
       <c r="F166" s="20"/>
       <c r="G166" s="21">
-        <v>-99.98</v>
+        <v>-50.12</v>
       </c>
       <c r="H166" s="21"/>
       <c r="I166" s="21"/>
@@ -13323,20 +13317,20 @@
     <row r="167" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="43"/>
       <c r="B167" s="15">
-        <v>45282</v>
+        <v>45280</v>
       </c>
       <c r="C167" s="52">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D167" s="39" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E167" s="19" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F167" s="20"/>
       <c r="G167" s="21">
-        <v>-568</v>
+        <v>-99.98</v>
       </c>
       <c r="H167" s="21"/>
       <c r="I167" s="21"/>
@@ -13351,18 +13345,18 @@
         <v>45282</v>
       </c>
       <c r="C168" s="52">
-        <v>165</v>
-      </c>
-      <c r="D168" s="16" t="s">
-        <v>232</v>
+        <v>164</v>
+      </c>
+      <c r="D168" s="39" t="s">
+        <v>231</v>
       </c>
       <c r="E168" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F168" s="20">
-        <v>-800</v>
-      </c>
-      <c r="G168" s="21"/>
+        <v>19</v>
+      </c>
+      <c r="F168" s="20"/>
+      <c r="G168" s="21">
+        <v>-568</v>
+      </c>
       <c r="H168" s="21"/>
       <c r="I168" s="21"/>
       <c r="J168" s="22"/>
@@ -13373,10 +13367,10 @@
     <row r="169" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="43"/>
       <c r="B169" s="15">
-        <v>45287</v>
+        <v>45282</v>
       </c>
       <c r="C169" s="52">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D169" s="16" t="s">
         <v>232</v>
@@ -13385,7 +13379,7 @@
         <v>28</v>
       </c>
       <c r="F169" s="20">
-        <v>-86</v>
+        <v>-800</v>
       </c>
       <c r="G169" s="21"/>
       <c r="H169" s="21"/>
@@ -13397,16 +13391,26 @@
     </row>
     <row r="170" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="43"/>
-      <c r="B170" s="15"/>
-      <c r="C170" s="52"/>
-      <c r="D170" s="16"/>
-      <c r="E170" s="19"/>
-      <c r="F170" s="20"/>
+      <c r="B170" s="15">
+        <v>45287</v>
+      </c>
+      <c r="C170" s="52">
+        <v>166</v>
+      </c>
+      <c r="D170" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="E170" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F170" s="20">
+        <v>-86</v>
+      </c>
       <c r="G170" s="21"/>
       <c r="H170" s="21"/>
       <c r="I170" s="21"/>
       <c r="J170" s="22"/>
-      <c r="K170" s="46"/>
+      <c r="K170" s="4"/>
       <c r="L170" s="2"/>
       <c r="M170" s="2"/>
     </row>
@@ -13444,7 +13448,7 @@
       <c r="A173" s="43"/>
       <c r="B173" s="15"/>
       <c r="C173" s="52"/>
-      <c r="D173" s="39"/>
+      <c r="D173" s="16"/>
       <c r="E173" s="19"/>
       <c r="F173" s="20"/>
       <c r="G173" s="21"/>
@@ -13454,51 +13458,51 @@
       <c r="K173" s="46"/>
       <c r="L173" s="2"/>
       <c r="M173" s="2"/>
-      <c r="IM173"/>
     </row>
     <row r="174" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="44"/>
-      <c r="B174" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C174" s="53"/>
-      <c r="D174" s="31"/>
-      <c r="E174" s="32"/>
-      <c r="F174" s="33">
-        <f>SUM(F3:F173)</f>
-        <v>-2402.21</v>
-      </c>
-      <c r="G174" s="34">
-        <f>SUM(G3:G173)</f>
-        <v>-11575.650000000001</v>
-      </c>
-      <c r="H174" s="34">
-        <f>SUM(H3:H173)</f>
-        <v>0</v>
-      </c>
-      <c r="I174" s="34">
-        <f>SUM(I3:I173)</f>
-        <v>-163.91</v>
-      </c>
-      <c r="J174" s="47">
-        <f>SUM(J3:J173)</f>
-        <v>0</v>
-      </c>
-      <c r="K174" s="2"/>
+      <c r="A174" s="43"/>
+      <c r="B174" s="15"/>
+      <c r="C174" s="52"/>
+      <c r="D174" s="39"/>
+      <c r="E174" s="19"/>
+      <c r="F174" s="20"/>
+      <c r="G174" s="21"/>
+      <c r="H174" s="21"/>
+      <c r="I174" s="21"/>
+      <c r="J174" s="22"/>
+      <c r="K174" s="46"/>
       <c r="L174" s="2"/>
       <c r="M174" s="2"/>
+      <c r="IM174"/>
     </row>
     <row r="175" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="44"/>
-      <c r="B175" s="18"/>
-      <c r="C175" s="18"/>
-      <c r="D175" s="18"/>
-      <c r="E175" s="18"/>
-      <c r="F175" s="18"/>
-      <c r="G175" s="18"/>
-      <c r="H175" s="18"/>
-      <c r="I175" s="18"/>
-      <c r="J175" s="18"/>
+      <c r="B175" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C175" s="53"/>
+      <c r="D175" s="31"/>
+      <c r="E175" s="32"/>
+      <c r="F175" s="33">
+        <f>SUM(F3:F174)</f>
+        <v>-2402.21</v>
+      </c>
+      <c r="G175" s="34">
+        <f>SUM(G3:G174)</f>
+        <v>-11575.650000000001</v>
+      </c>
+      <c r="H175" s="34">
+        <f>SUM(H3:H174)</f>
+        <v>0</v>
+      </c>
+      <c r="I175" s="34">
+        <f>SUM(I3:I174)</f>
+        <v>-165.26</v>
+      </c>
+      <c r="J175" s="47">
+        <f>SUM(J3:J174)</f>
+        <v>0</v>
+      </c>
       <c r="K175" s="2"/>
       <c r="L175" s="2"/>
       <c r="M175" s="2"/>
@@ -14445,215 +14449,225 @@
       <c r="I238" s="18"/>
       <c r="J238" s="18"/>
       <c r="K238" s="2"/>
+      <c r="L238" s="2"/>
       <c r="M238" s="2"/>
     </row>
     <row r="239" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="44"/>
       <c r="B239" s="18"/>
       <c r="C239" s="18"/>
+      <c r="D239" s="18"/>
+      <c r="E239" s="18"/>
+      <c r="F239" s="18"/>
+      <c r="G239" s="18"/>
+      <c r="H239" s="18"/>
       <c r="I239" s="18"/>
+      <c r="J239" s="18"/>
+      <c r="K239" s="2"/>
+      <c r="M239" s="2"/>
     </row>
     <row r="240" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B240" s="18"/>
+      <c r="C240" s="18"/>
       <c r="I240" s="18"/>
     </row>
+    <row r="241" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B241" s="18"/>
+      <c r="I241" s="18"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B2:K164" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="B2:K165" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A3:A238 B125:B129">
-    <cfRule type="cellIs" dxfId="36" priority="468" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="A3:A239 B126:B130">
+    <cfRule type="cellIs" dxfId="35" priority="468" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B131:B133">
-    <cfRule type="cellIs" dxfId="35" priority="462" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B132:B134">
+    <cfRule type="cellIs" dxfId="34" priority="462" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B135:B139">
-    <cfRule type="cellIs" dxfId="34" priority="451" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B136:B140">
+    <cfRule type="cellIs" dxfId="33" priority="451" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B159:B160">
-    <cfRule type="cellIs" dxfId="33" priority="8" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B160:B161">
+    <cfRule type="cellIs" dxfId="32" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B163:B240">
-    <cfRule type="cellIs" dxfId="32" priority="414" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B164:B241">
+    <cfRule type="cellIs" dxfId="31" priority="414" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B151:C154">
-    <cfRule type="cellIs" dxfId="31" priority="9" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B152:C155">
+    <cfRule type="cellIs" dxfId="30" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B161:C162">
-    <cfRule type="cellIs" dxfId="30" priority="416" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B162:C163">
+    <cfRule type="cellIs" dxfId="29" priority="416" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B155:D157">
-    <cfRule type="cellIs" dxfId="29" priority="428" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B156:D158">
+    <cfRule type="cellIs" dxfId="28" priority="428" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B158:E158">
-    <cfRule type="cellIs" dxfId="28" priority="425" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="B159:E159">
+    <cfRule type="cellIs" dxfId="27" priority="425" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C112">
-    <cfRule type="cellIs" dxfId="27" priority="489" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="C113">
+    <cfRule type="cellIs" dxfId="26" priority="489" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C122">
-    <cfRule type="cellIs" dxfId="26" priority="606" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="C123">
+    <cfRule type="cellIs" dxfId="25" priority="606" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C132:C135">
-    <cfRule type="cellIs" dxfId="25" priority="458" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="C133:C136">
+    <cfRule type="cellIs" dxfId="24" priority="458" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C146:C147">
-    <cfRule type="cellIs" dxfId="24" priority="438" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="C147:C148">
+    <cfRule type="cellIs" dxfId="23" priority="438" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C111:D111 C124 C127:C128 B130:D130 C139 C145:D145 C163:C239 J175:J238 I175:I240 K175">
-    <cfRule type="cellIs" dxfId="23" priority="698" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="C112:D112 C125 C128:C129 B131:D131 C140 C146:D146 C164:C240 K176 J176:J239 I176:I241">
+    <cfRule type="cellIs" dxfId="22" priority="698" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C129:D129">
-    <cfRule type="cellIs" dxfId="22" priority="466" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="C130:D130">
+    <cfRule type="cellIs" dxfId="21" priority="466" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C148:D150">
-    <cfRule type="cellIs" dxfId="21" priority="437" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="C149:D151">
+    <cfRule type="cellIs" dxfId="20" priority="437" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C159:E159">
-    <cfRule type="cellIs" dxfId="20" priority="6" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="C160:E160">
+    <cfRule type="cellIs" dxfId="19" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D146">
-    <cfRule type="cellIs" dxfId="19" priority="53" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D147">
+    <cfRule type="cellIs" dxfId="18" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D160:E163 D164:D166 D167:E167 D173:E175 E168:E172">
-    <cfRule type="cellIs" dxfId="18" priority="3" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D161:E168">
+    <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E157">
-    <cfRule type="cellIs" dxfId="17" priority="45" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D176:H239">
+    <cfRule type="cellIs" dxfId="16" priority="650" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E158">
+    <cfRule type="cellIs" dxfId="15" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E169:E173 D174:E176">
+    <cfRule type="cellIs" dxfId="14" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="16" priority="582" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="582" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="cellIs" dxfId="15" priority="178" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="178" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="14" priority="176" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="176" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="13" priority="566" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="566" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44:F45">
-    <cfRule type="cellIs" dxfId="12" priority="380" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="380" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="cellIs" dxfId="11" priority="154" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="154" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62:F64">
-    <cfRule type="cellIs" dxfId="10" priority="359" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="359" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F87">
-    <cfRule type="cellIs" dxfId="9" priority="127" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="127" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F96:F97">
-    <cfRule type="cellIs" dxfId="8" priority="111" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="111" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F107">
-    <cfRule type="cellIs" dxfId="7" priority="97" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F108">
+    <cfRule type="cellIs" dxfId="4" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F119:F120">
-    <cfRule type="cellIs" dxfId="6" priority="80" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F120:F121">
+    <cfRule type="cellIs" dxfId="3" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F134:F135">
-    <cfRule type="cellIs" dxfId="5" priority="63" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F135:F136">
+    <cfRule type="cellIs" dxfId="2" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F142:F144">
-    <cfRule type="cellIs" dxfId="4" priority="443" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F143:F145">
+    <cfRule type="cellIs" dxfId="1" priority="443" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F146:F147">
-    <cfRule type="cellIs" dxfId="3" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D175:H238">
-    <cfRule type="cellIs" dxfId="2" priority="650" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E164">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E165:E166">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="F147:F148">
+    <cfRule type="cellIs" dxfId="0" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E151 E108:E110 E131:E139 E32:E87 E89 E3:E30 E91:E93 E95:E96 E100:E102 E104 E106 E113:E116 E118:E119 E122:E124 E127:E128 E141 E143 E145:E147 E149 E153:E154 E156 E158 E160:E164 E167:E173" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E152 E109:E111 E132:E140 E32:E87 E89 E3:E30 E91:E93 E95:E96 E100:E102 E104 E106:E107 E114:E117 E119:E120 E123:E125 E128:E129 E142 E144 E146:E148 E150 E154:E155 E157 E159 E161:E165 E168:E174" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$M$1:$M$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E31" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>$M$1:$M$20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E88 E90 E94 E97:E99 E103 E105 E107 E111:E112 E117 E120:E121 E125:E126 E129:E130 E140 E142 E144 E148 E150 E152 E155 E157 E159 E165:E166" xr:uid="{2159CF4B-2649-4586-B851-DB145DFC2247}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E88 E90 E94 E97:E99 E103 E166:E167 E108 E112:E113 E118 E121:E122 E126:E127 E130:E131 E141 E143 E145 E149 E151 E153 E156 E158 E160 E105" xr:uid="{2159CF4B-2649-4586-B851-DB145DFC2247}">
       <formula1>$K$1:$K$19</formula1>
     </dataValidation>
   </dataValidations>

--- a/2023/AWO_Einnahmen_Ausgaben_2023.xlsx
+++ b/2023/AWO_Einnahmen_Ausgaben_2023.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepo\AWO\trunk\2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopFiles\AWO\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303BB0D2-E3CE-46C8-A49F-0783652AAF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0517C2C-FB2D-4B8E-BF2C-A4A653C7E5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,9 +19,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Ausgaben!$B$2:$K$165</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Einnahmen!$A$2:$I$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Einnahmen!$A$2:$I$101</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Ausgaben!$A$1:$J$174</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Einnahmen!$A$1:$I$114</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Einnahmen!$A$1:$I$115</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="238">
   <si>
     <t>T. z. g. Laune</t>
   </si>
@@ -742,6 +742,12 @@
   </si>
   <si>
     <t>KSK Gebühren</t>
+  </si>
+  <si>
+    <t>1a</t>
+  </si>
+  <si>
+    <t>KSK Zinsen</t>
   </si>
 </sst>
 </file>
@@ -1911,7 +1917,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Bernd Wild" refreshedDate="44931.461712037039" createdVersion="4" refreshedVersion="8" minRefreshableVersion="3" recordCount="102" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="D2:I109" sheet="Einnahmen"/>
+    <worksheetSource ref="D2:I110" sheet="Einnahmen"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Zweck II" numFmtId="0">
@@ -4170,22 +4176,23 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B16:G25" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
-      <items count="12">
+      <items count="13">
         <item h="1" x="1"/>
-        <item m="1" x="9"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item m="1" x="11"/>
+        <item x="0"/>
         <item x="3"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item m="1" x="10"/>
+        <item h="1" x="9"/>
         <item x="5"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item h="1" x="0"/>
-        <item m="1" x="10"/>
-        <item x="7"/>
-        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4198,12 +4205,12 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="8">
+  <rowItems count="9">
+    <i>
+      <x v="1"/>
+    </i>
     <i>
       <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
     </i>
     <i>
       <x v="4"/>
@@ -4215,10 +4222,13 @@
       <x v="6"/>
     </i>
     <i>
-      <x v="9"/>
+      <x v="7"/>
     </i>
     <i>
-      <x v="10"/>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="11"/>
     </i>
     <i t="grand">
       <x/>
@@ -4279,23 +4289,22 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B16:G25" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
-      <items count="13">
+      <items count="12">
         <item h="1" x="1"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="4"/>
         <item x="6"/>
+        <item x="8"/>
+        <item h="1" x="0"/>
+        <item m="1" x="10"/>
+        <item x="7"/>
         <item x="2"/>
-        <item m="1" x="11"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item x="4"/>
-        <item x="7"/>
-        <item m="1" x="10"/>
-        <item h="1" x="9"/>
-        <item x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4308,12 +4317,12 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="9">
+  <rowItems count="8">
     <i>
-      <x v="1"/>
+      <x v="2"/>
     </i>
     <i>
-      <x v="2"/>
+      <x v="3"/>
     </i>
     <i>
       <x v="4"/>
@@ -4325,13 +4334,10 @@
       <x v="6"/>
     </i>
     <i>
-      <x v="7"/>
+      <x v="9"/>
     </i>
     <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="11"/>
+      <x v="10"/>
     </i>
     <i t="grand">
       <x/>
@@ -5499,11 +5505,11 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:IK175"/>
+  <dimension ref="A1:IK176"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F107" sqref="F107"/>
+      <pane ySplit="2" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I97" sqref="I97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5626,52 +5632,50 @@
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
-        <v>44935</v>
-      </c>
-      <c r="B5" s="52">
-        <v>2</v>
+        <v>44928</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>236</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>46</v>
+        <v>237</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E5" s="20"/>
-      <c r="F5" s="21">
-        <v>7</v>
-      </c>
+      <c r="F5" s="21"/>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
-      <c r="I5" s="19"/>
+      <c r="I5" s="19">
+        <v>0.01</v>
+      </c>
       <c r="J5" s="2"/>
-      <c r="K5" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
-        <v>44937</v>
+        <v>44935</v>
       </c>
       <c r="B6" s="52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E6" s="20"/>
       <c r="F6" s="21">
-        <v>5.22</v>
+        <v>7</v>
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
       <c r="I6" s="19"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5679,124 +5683,124 @@
         <v>44937</v>
       </c>
       <c r="B7" s="52">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="21">
-        <v>115</v>
+        <v>5.22</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
       <c r="I7" s="19"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
-        <v>44951</v>
+        <v>44937</v>
       </c>
       <c r="B8" s="52">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>0</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="21">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
       <c r="I8" s="19"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
-        <v>44957</v>
+        <v>44951</v>
       </c>
       <c r="B9" s="52">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="21">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
       <c r="I9" s="19"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
-        <v>44958</v>
+        <v>44957</v>
       </c>
       <c r="B10" s="52">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="21">
-        <v>340.83</v>
+        <v>200</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
       <c r="I10" s="19"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
-        <v>44965</v>
+        <v>44958</v>
       </c>
       <c r="B11" s="52">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="21">
-        <v>100</v>
+        <v>340.83</v>
       </c>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
       <c r="I11" s="19"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5804,99 +5808,99 @@
         <v>44965</v>
       </c>
       <c r="B12" s="52">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="21">
-        <v>970</v>
+        <v>100</v>
       </c>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
       <c r="I12" s="19"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15">
-        <v>44971</v>
+        <v>44965</v>
       </c>
       <c r="B13" s="52">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="18">
-        <v>52.44</v>
+        <v>13</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="21">
+        <v>970</v>
       </c>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
       <c r="I13" s="19"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
-        <v>44972</v>
+        <v>44971</v>
       </c>
       <c r="B14" s="52">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="18">
-        <v>20</v>
+        <v>52.44</v>
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
       <c r="I14" s="19"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15">
-        <v>44979</v>
+        <v>44972</v>
       </c>
       <c r="B15" s="52">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="21">
-        <v>210</v>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18">
+        <v>20</v>
       </c>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
       <c r="I15" s="19"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5904,24 +5908,24 @@
         <v>44979</v>
       </c>
       <c r="B16" s="52">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="18">
-        <v>20</v>
+        <v>80</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="21">
+        <v>210</v>
       </c>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
       <c r="I16" s="19"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5929,15 +5933,15 @@
         <v>44979</v>
       </c>
       <c r="B17" s="52">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D17" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="20"/>
+      <c r="E17" s="17"/>
       <c r="F17" s="18">
         <v>20</v>
       </c>
@@ -5946,57 +5950,57 @@
       <c r="I17" s="19"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
-        <v>44986</v>
+        <v>44979</v>
       </c>
       <c r="B18" s="52">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="50" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="20"/>
-      <c r="F18" s="21">
-        <v>450</v>
+      <c r="F18" s="18">
+        <v>20</v>
       </c>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
       <c r="I18" s="19"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
-        <v>44991</v>
+        <v>44986</v>
       </c>
       <c r="B19" s="52">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="21">
-        <v>12</v>
+        <v>450</v>
       </c>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="19"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6004,40 +6008,42 @@
         <v>44991</v>
       </c>
       <c r="B20" s="52">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="18">
-        <v>20</v>
+      <c r="E20" s="20"/>
+      <c r="F20" s="21">
+        <v>12</v>
       </c>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
       <c r="I20" s="19"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
+      <c r="K20" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="21" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
-        <v>44993</v>
+        <v>44991</v>
       </c>
       <c r="B21" s="52">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="21">
-        <v>115</v>
+      <c r="E21" s="17"/>
+      <c r="F21" s="18">
+        <v>20</v>
       </c>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
@@ -6047,20 +6053,20 @@
     </row>
     <row r="22" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15">
-        <v>45008</v>
+        <v>44993</v>
       </c>
       <c r="B22" s="52">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>0</v>
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="21">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
@@ -6070,21 +6076,21 @@
     </row>
     <row r="23" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15">
-        <v>45011</v>
+        <v>45008</v>
       </c>
       <c r="B23" s="52">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="17">
-        <v>40</v>
-      </c>
-      <c r="F23" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="20"/>
+      <c r="F23" s="21">
+        <v>85</v>
+      </c>
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
       <c r="I23" s="19"/>
@@ -6096,18 +6102,18 @@
         <v>45011</v>
       </c>
       <c r="B24" s="52">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D24" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="20">
-        <v>75</v>
-      </c>
-      <c r="F24" s="18"/>
+      <c r="E24" s="17">
+        <v>40</v>
+      </c>
+      <c r="F24" s="21"/>
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
       <c r="I24" s="19"/>
@@ -6116,21 +6122,21 @@
     </row>
     <row r="25" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15">
-        <v>45021</v>
+        <v>45011</v>
       </c>
       <c r="B25" s="52">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="21">
-        <v>120</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E25" s="20">
+        <v>75</v>
+      </c>
+      <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
       <c r="I25" s="19"/>
@@ -6139,20 +6145,20 @@
     </row>
     <row r="26" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
-        <v>45034</v>
+        <v>45021</v>
       </c>
       <c r="B26" s="52">
-        <v>23</v>
-      </c>
-      <c r="C26" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="18">
-        <v>10</v>
+        <v>22</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="20"/>
+      <c r="F26" s="21">
+        <v>120</v>
       </c>
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
@@ -6162,20 +6168,20 @@
     </row>
     <row r="27" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15">
-        <v>45035</v>
-      </c>
-      <c r="B27" s="16">
-        <v>24</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="21">
-        <v>100</v>
+        <v>45034</v>
+      </c>
+      <c r="B27" s="52">
+        <v>23</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="17"/>
+      <c r="F27" s="18">
+        <v>10</v>
       </c>
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
@@ -6185,20 +6191,20 @@
     </row>
     <row r="28" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15">
-        <v>45037</v>
+        <v>45035</v>
       </c>
       <c r="B28" s="16">
-        <v>25</v>
-      </c>
-      <c r="C28" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="D28" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="18">
-        <v>30</v>
+        <v>24</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="20"/>
+      <c r="F28" s="21">
+        <v>100</v>
       </c>
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
@@ -6211,17 +6217,17 @@
         <v>45037</v>
       </c>
       <c r="B29" s="16">
-        <v>26</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="21">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="17"/>
+      <c r="F29" s="18">
+        <v>30</v>
       </c>
       <c r="G29" s="18"/>
       <c r="H29" s="18"/>
@@ -6231,20 +6237,20 @@
     </row>
     <row r="30" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15">
-        <v>45040</v>
+        <v>45037</v>
       </c>
       <c r="B30" s="16">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="D30" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E30" s="17"/>
-      <c r="F30" s="18">
-        <v>60</v>
+      <c r="E30" s="20"/>
+      <c r="F30" s="21">
+        <v>16</v>
       </c>
       <c r="G30" s="18"/>
       <c r="H30" s="18"/>
@@ -6254,20 +6260,20 @@
     </row>
     <row r="31" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="15">
-        <v>45048</v>
+        <v>45040</v>
       </c>
       <c r="B31" s="16">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D31" s="19" t="s">
         <v>0</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="18">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
@@ -6280,17 +6286,17 @@
         <v>45048</v>
       </c>
       <c r="B32" s="16">
-        <v>29</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>107</v>
+        <v>28</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E32" s="17"/>
       <c r="F32" s="18">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
@@ -6303,17 +6309,17 @@
         <v>45048</v>
       </c>
       <c r="B33" s="16">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E33" s="17"/>
       <c r="F33" s="18">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="G33" s="18"/>
       <c r="H33" s="18"/>
@@ -6323,20 +6329,20 @@
     </row>
     <row r="34" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="15">
-        <v>45049</v>
+        <v>45048</v>
       </c>
       <c r="B34" s="16">
-        <v>31</v>
-      </c>
-      <c r="C34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="17"/>
+      <c r="F34" s="18">
         <v>110</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E34" s="20"/>
-      <c r="F34" s="21">
-        <v>94</v>
       </c>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
@@ -6346,20 +6352,20 @@
     </row>
     <row r="35" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="15">
-        <v>45055</v>
+        <v>45049</v>
       </c>
       <c r="B35" s="16">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="21">
-        <v>2.1800000000000002</v>
+        <v>94</v>
       </c>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
@@ -6369,20 +6375,20 @@
     </row>
     <row r="36" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="15">
-        <v>45063</v>
+        <v>45055</v>
       </c>
       <c r="B36" s="16">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="21">
-        <v>80</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
@@ -6392,20 +6398,20 @@
     </row>
     <row r="37" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15">
-        <v>45065</v>
+        <v>45063</v>
       </c>
       <c r="B37" s="16">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D37" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E37" s="17"/>
-      <c r="F37" s="18">
-        <v>14.5</v>
+      <c r="E37" s="20"/>
+      <c r="F37" s="21">
+        <v>80</v>
       </c>
       <c r="G37" s="18"/>
       <c r="H37" s="18"/>
@@ -6415,20 +6421,20 @@
     </row>
     <row r="38" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="15">
-        <v>45071</v>
-      </c>
-      <c r="B38" s="52">
-        <v>35</v>
-      </c>
-      <c r="C38" s="39" t="s">
-        <v>126</v>
+        <v>45065</v>
+      </c>
+      <c r="B38" s="16">
+        <v>34</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E38" s="17"/>
       <c r="F38" s="18">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="G38" s="18"/>
       <c r="H38" s="18"/>
@@ -6440,11 +6446,11 @@
       <c r="A39" s="15">
         <v>45071</v>
       </c>
-      <c r="B39" s="16">
-        <v>36</v>
+      <c r="B39" s="52">
+        <v>35</v>
       </c>
       <c r="C39" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D39" s="19" t="s">
         <v>13</v>
@@ -6464,10 +6470,10 @@
         <v>45071</v>
       </c>
       <c r="B40" s="16">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C40" s="39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D40" s="19" t="s">
         <v>13</v>
@@ -6487,16 +6493,16 @@
         <v>45071</v>
       </c>
       <c r="B41" s="16">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C41" s="39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="20"/>
-      <c r="F41" s="21">
+      <c r="E41" s="17"/>
+      <c r="F41" s="18">
         <v>0</v>
       </c>
       <c r="G41" s="18"/>
@@ -6507,20 +6513,20 @@
     </row>
     <row r="42" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="15">
-        <v>45076</v>
-      </c>
-      <c r="B42" s="52">
-        <v>39</v>
+        <v>45071</v>
+      </c>
+      <c r="B42" s="16">
+        <v>38</v>
       </c>
       <c r="C42" s="39" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E42" s="20"/>
       <c r="F42" s="21">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G42" s="18"/>
       <c r="H42" s="18"/>
@@ -6532,18 +6538,18 @@
       <c r="A43" s="15">
         <v>45076</v>
       </c>
-      <c r="B43" s="16">
-        <v>40</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>132</v>
+      <c r="B43" s="52">
+        <v>39</v>
+      </c>
+      <c r="C43" s="39" t="s">
+        <v>131</v>
       </c>
       <c r="D43" s="19" t="s">
         <v>14</v>
       </c>
       <c r="E43" s="20"/>
       <c r="F43" s="21">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G43" s="18"/>
       <c r="H43" s="18"/>
@@ -6553,20 +6559,20 @@
     </row>
     <row r="44" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="15">
-        <v>45079</v>
+        <v>45076</v>
       </c>
       <c r="B44" s="16">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E44" s="20"/>
       <c r="F44" s="21">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G44" s="18"/>
       <c r="H44" s="18"/>
@@ -6576,20 +6582,20 @@
     </row>
     <row r="45" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="15">
-        <v>45084</v>
+        <v>45079</v>
       </c>
       <c r="B45" s="16">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="19" t="s">
         <v>0</v>
       </c>
       <c r="E45" s="20"/>
       <c r="F45" s="21">
-        <v>185</v>
+        <v>70</v>
       </c>
       <c r="G45" s="18"/>
       <c r="H45" s="18"/>
@@ -6599,20 +6605,20 @@
     </row>
     <row r="46" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="15">
-        <v>45091</v>
+        <v>45084</v>
       </c>
       <c r="B46" s="16">
-        <v>43</v>
-      </c>
-      <c r="C46" s="39" t="s">
-        <v>139</v>
+        <v>42</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="D46" s="19" t="s">
         <v>0</v>
       </c>
       <c r="E46" s="20"/>
       <c r="F46" s="21">
-        <v>25</v>
+        <v>185</v>
       </c>
       <c r="G46" s="18"/>
       <c r="H46" s="18"/>
@@ -6622,20 +6628,20 @@
     </row>
     <row r="47" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="15">
-        <v>45092</v>
+        <v>45091</v>
       </c>
       <c r="B47" s="16">
-        <v>44</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>140</v>
+        <v>43</v>
+      </c>
+      <c r="C47" s="39" t="s">
+        <v>139</v>
       </c>
       <c r="D47" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E47" s="17"/>
-      <c r="F47" s="18">
-        <v>87</v>
+      <c r="E47" s="20"/>
+      <c r="F47" s="21">
+        <v>25</v>
       </c>
       <c r="G47" s="18"/>
       <c r="H47" s="18"/>
@@ -6645,20 +6651,20 @@
     </row>
     <row r="48" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="15">
-        <v>45097</v>
+        <v>45092</v>
       </c>
       <c r="B48" s="16">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E48" s="17"/>
       <c r="F48" s="18">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="G48" s="18"/>
       <c r="H48" s="18"/>
@@ -6668,20 +6674,20 @@
     </row>
     <row r="49" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="15">
-        <v>45100</v>
+        <v>45097</v>
       </c>
       <c r="B49" s="16">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E49" s="20"/>
-      <c r="F49" s="21">
-        <v>2.1800000000000002</v>
+        <v>13</v>
+      </c>
+      <c r="E49" s="17"/>
+      <c r="F49" s="18">
+        <v>30</v>
       </c>
       <c r="G49" s="18"/>
       <c r="H49" s="18"/>
@@ -6691,20 +6697,20 @@
     </row>
     <row r="50" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="15">
-        <v>45105</v>
+        <v>45100</v>
       </c>
       <c r="B50" s="16">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>145</v>
+        <v>53</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E50" s="17"/>
-      <c r="F50" s="18">
-        <v>83</v>
+        <v>14</v>
+      </c>
+      <c r="E50" s="20"/>
+      <c r="F50" s="21">
+        <v>2.1800000000000002</v>
       </c>
       <c r="G50" s="18"/>
       <c r="H50" s="18"/>
@@ -6714,21 +6720,21 @@
     </row>
     <row r="51" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="15">
-        <v>45119</v>
+        <v>45105</v>
       </c>
       <c r="B51" s="16">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E51" s="20">
-        <v>100</v>
-      </c>
-      <c r="F51" s="18"/>
+        <v>0</v>
+      </c>
+      <c r="E51" s="17"/>
+      <c r="F51" s="18">
+        <v>83</v>
+      </c>
       <c r="G51" s="18"/>
       <c r="H51" s="18"/>
       <c r="I51" s="19"/>
@@ -6740,18 +6746,18 @@
         <v>45119</v>
       </c>
       <c r="B52" s="16">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E52" s="17"/>
-      <c r="F52" s="18">
-        <v>82</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="E52" s="20">
+        <v>100</v>
+      </c>
+      <c r="F52" s="18"/>
       <c r="G52" s="18"/>
       <c r="H52" s="18"/>
       <c r="I52" s="19"/>
@@ -6760,21 +6766,21 @@
     </row>
     <row r="53" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="15">
-        <v>45120</v>
+        <v>45119</v>
       </c>
       <c r="B53" s="16">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D53" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E53" s="17">
-        <v>9.5</v>
-      </c>
-      <c r="F53" s="18"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="18">
+        <v>82</v>
+      </c>
       <c r="G53" s="18"/>
       <c r="H53" s="18"/>
       <c r="I53" s="19"/>
@@ -6783,19 +6789,19 @@
     </row>
     <row r="54" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="15">
-        <v>45124</v>
+        <v>45120</v>
       </c>
       <c r="B54" s="16">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D54" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E54" s="20">
-        <v>1268.2</v>
+      <c r="E54" s="17">
+        <v>9.5</v>
       </c>
       <c r="F54" s="18"/>
       <c r="G54" s="18"/>
@@ -6809,18 +6815,18 @@
         <v>45124</v>
       </c>
       <c r="B55" s="16">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E55" s="20"/>
-      <c r="F55" s="18">
-        <v>1380</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E55" s="20">
+        <v>1268.2</v>
+      </c>
+      <c r="F55" s="18"/>
       <c r="G55" s="18"/>
       <c r="H55" s="18"/>
       <c r="I55" s="19"/>
@@ -6829,20 +6835,20 @@
     </row>
     <row r="56" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="15">
-        <v>45126</v>
+        <v>45124</v>
       </c>
       <c r="B56" s="16">
-        <v>53</v>
-      </c>
-      <c r="C56" s="39" t="s">
-        <v>159</v>
+        <v>52</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E56" s="20"/>
       <c r="F56" s="18">
-        <v>50</v>
+        <v>1380</v>
       </c>
       <c r="G56" s="18"/>
       <c r="H56" s="18"/>
@@ -6855,17 +6861,17 @@
         <v>45126</v>
       </c>
       <c r="B57" s="16">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C57" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E57" s="20"/>
       <c r="F57" s="18">
-        <v>1282.3800000000001</v>
+        <v>50</v>
       </c>
       <c r="G57" s="18"/>
       <c r="H57" s="18"/>
@@ -6875,20 +6881,20 @@
     </row>
     <row r="58" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="15">
-        <v>45128</v>
+        <v>45126</v>
       </c>
       <c r="B58" s="16">
-        <v>55</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>158</v>
+        <v>54</v>
+      </c>
+      <c r="C58" s="39" t="s">
+        <v>160</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E58" s="20"/>
       <c r="F58" s="18">
-        <v>129.71</v>
+        <v>1282.3800000000001</v>
       </c>
       <c r="G58" s="18"/>
       <c r="H58" s="18"/>
@@ -6898,20 +6904,20 @@
     </row>
     <row r="59" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="15">
-        <v>45134</v>
+        <v>45128</v>
       </c>
       <c r="B59" s="16">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E59" s="17"/>
+        <v>28</v>
+      </c>
+      <c r="E59" s="20"/>
       <c r="F59" s="18">
-        <v>95</v>
+        <v>129.71</v>
       </c>
       <c r="G59" s="18"/>
       <c r="H59" s="18"/>
@@ -6921,20 +6927,20 @@
     </row>
     <row r="60" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="15">
-        <v>45140</v>
+        <v>45134</v>
       </c>
       <c r="B60" s="16">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E60" s="17"/>
       <c r="F60" s="18">
-        <v>334.19</v>
+        <v>95</v>
       </c>
       <c r="G60" s="18"/>
       <c r="H60" s="18"/>
@@ -6944,19 +6950,20 @@
     </row>
     <row r="61" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="15">
-        <v>45145</v>
-      </c>
-      <c r="B61" s="52">
-        <v>58</v>
-      </c>
-      <c r="C61" s="39" t="s">
-        <v>168</v>
+        <v>45140</v>
+      </c>
+      <c r="B61" s="16">
+        <v>57</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F61" s="17">
-        <v>57.8</v>
+        <v>13</v>
+      </c>
+      <c r="E61" s="17"/>
+      <c r="F61" s="18">
+        <v>334.19</v>
       </c>
       <c r="G61" s="18"/>
       <c r="H61" s="18"/>
@@ -6966,20 +6973,19 @@
     </row>
     <row r="62" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="15">
-        <v>45154</v>
+        <v>45145</v>
       </c>
       <c r="B62" s="52">
-        <v>59</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>151</v>
+        <v>58</v>
+      </c>
+      <c r="C62" s="39" t="s">
+        <v>168</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E62" s="20"/>
-      <c r="F62" s="21">
-        <v>45</v>
+        <v>0</v>
+      </c>
+      <c r="F62" s="17">
+        <v>57.8</v>
       </c>
       <c r="G62" s="18"/>
       <c r="H62" s="18"/>
@@ -6989,20 +6995,20 @@
     </row>
     <row r="63" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="15">
-        <v>45173</v>
+        <v>45154</v>
       </c>
       <c r="B63" s="52">
-        <v>60</v>
-      </c>
-      <c r="C63" s="39" t="s">
-        <v>170</v>
+        <v>59</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E63" s="20"/>
-      <c r="F63" s="18">
-        <v>15</v>
+      <c r="F63" s="21">
+        <v>45</v>
       </c>
       <c r="G63" s="18"/>
       <c r="H63" s="18"/>
@@ -7012,20 +7018,20 @@
     </row>
     <row r="64" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="15">
-        <v>45175</v>
+        <v>45173</v>
       </c>
       <c r="B64" s="52">
-        <v>61</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>171</v>
+        <v>60</v>
+      </c>
+      <c r="C64" s="39" t="s">
+        <v>170</v>
       </c>
       <c r="D64" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E64" s="17"/>
+      <c r="E64" s="20"/>
       <c r="F64" s="18">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="G64" s="18"/>
       <c r="H64" s="18"/>
@@ -7035,20 +7041,20 @@
     </row>
     <row r="65" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="15">
-        <v>45182</v>
+        <v>45175</v>
       </c>
       <c r="B65" s="52">
-        <v>62</v>
-      </c>
-      <c r="C65" s="39" t="s">
-        <v>139</v>
+        <v>61</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="D65" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E65" s="20"/>
+      <c r="E65" s="17"/>
       <c r="F65" s="18">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="G65" s="18"/>
       <c r="H65" s="18"/>
@@ -7058,20 +7064,20 @@
     </row>
     <row r="66" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="15">
-        <v>45190</v>
-      </c>
-      <c r="B66" s="16">
-        <v>63</v>
-      </c>
-      <c r="C66" s="16" t="s">
-        <v>174</v>
+        <v>45182</v>
+      </c>
+      <c r="B66" s="52">
+        <v>62</v>
+      </c>
+      <c r="C66" s="39" t="s">
+        <v>139</v>
       </c>
       <c r="D66" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E66" s="17"/>
+      <c r="E66" s="20"/>
       <c r="F66" s="18">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="G66" s="18"/>
       <c r="H66" s="18"/>
@@ -7081,20 +7087,20 @@
     </row>
     <row r="67" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="15">
-        <v>45196</v>
-      </c>
-      <c r="B67" s="52">
-        <v>64</v>
-      </c>
-      <c r="C67" s="39" t="s">
-        <v>176</v>
+        <v>45190</v>
+      </c>
+      <c r="B67" s="16">
+        <v>63</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>174</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E67" s="20"/>
+        <v>0</v>
+      </c>
+      <c r="E67" s="17"/>
       <c r="F67" s="18">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="G67" s="18"/>
       <c r="H67" s="18"/>
@@ -7104,20 +7110,20 @@
     </row>
     <row r="68" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="15">
-        <v>45201</v>
-      </c>
-      <c r="B68" s="16">
-        <v>65</v>
-      </c>
-      <c r="C68" s="16" t="s">
-        <v>178</v>
+        <v>45196</v>
+      </c>
+      <c r="B68" s="52">
+        <v>64</v>
+      </c>
+      <c r="C68" s="39" t="s">
+        <v>176</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E68" s="17"/>
+        <v>25</v>
+      </c>
+      <c r="E68" s="20"/>
       <c r="F68" s="18">
-        <v>250</v>
+        <v>110</v>
       </c>
       <c r="G68" s="18"/>
       <c r="H68" s="18"/>
@@ -7127,20 +7133,20 @@
     </row>
     <row r="69" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="15">
-        <v>45203</v>
+        <v>45201</v>
       </c>
       <c r="B69" s="16">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E69" s="17"/>
       <c r="F69" s="18">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="G69" s="18"/>
       <c r="H69" s="18"/>
@@ -7150,20 +7156,20 @@
     </row>
     <row r="70" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="15">
-        <v>45211</v>
+        <v>45203</v>
       </c>
       <c r="B70" s="16">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E70" s="17"/>
       <c r="F70" s="18">
-        <v>6.5</v>
+        <v>120</v>
       </c>
       <c r="G70" s="18"/>
       <c r="H70" s="18"/>
@@ -7173,20 +7179,20 @@
     </row>
     <row r="71" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="15">
-        <v>45215</v>
+        <v>45211</v>
       </c>
       <c r="B71" s="16">
-        <v>68</v>
-      </c>
-      <c r="C71" s="39" t="s">
-        <v>139</v>
+        <v>67</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>184</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E71" s="20"/>
+        <v>28</v>
+      </c>
+      <c r="E71" s="17"/>
       <c r="F71" s="18">
-        <v>25</v>
+        <v>6.5</v>
       </c>
       <c r="G71" s="18"/>
       <c r="H71" s="18"/>
@@ -7196,20 +7202,20 @@
     </row>
     <row r="72" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="15">
-        <v>45216</v>
+        <v>45215</v>
       </c>
       <c r="B72" s="16">
-        <v>69</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>186</v>
+        <v>68</v>
+      </c>
+      <c r="C72" s="39" t="s">
+        <v>139</v>
       </c>
       <c r="D72" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E72" s="17"/>
+      <c r="E72" s="20"/>
       <c r="F72" s="18">
-        <v>271.55</v>
+        <v>25</v>
       </c>
       <c r="G72" s="18"/>
       <c r="H72" s="18"/>
@@ -7219,20 +7225,20 @@
     </row>
     <row r="73" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="15">
-        <v>45217</v>
+        <v>45216</v>
       </c>
       <c r="B73" s="16">
-        <v>70</v>
-      </c>
-      <c r="C73" s="16" t="s">
-        <v>188</v>
+        <v>69</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="D73" s="19" t="s">
         <v>0</v>
       </c>
       <c r="E73" s="17"/>
       <c r="F73" s="18">
-        <v>106</v>
+        <v>271.55</v>
       </c>
       <c r="G73" s="18"/>
       <c r="H73" s="18"/>
@@ -7242,20 +7248,20 @@
     </row>
     <row r="74" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="15">
-        <v>45233</v>
+        <v>45217</v>
       </c>
       <c r="B74" s="16">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D74" s="19" t="s">
         <v>0</v>
       </c>
       <c r="E74" s="17"/>
       <c r="F74" s="18">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="G74" s="18"/>
       <c r="H74" s="18"/>
@@ -7265,20 +7271,20 @@
     </row>
     <row r="75" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="15">
-        <v>45239</v>
+        <v>45233</v>
       </c>
       <c r="B75" s="16">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D75" s="19" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E75" s="17"/>
       <c r="F75" s="18">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="G75" s="18"/>
       <c r="H75" s="18"/>
@@ -7288,20 +7294,20 @@
     </row>
     <row r="76" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="15">
-        <v>45240</v>
+        <v>45239</v>
       </c>
       <c r="B76" s="16">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
       <c r="D76" s="19" t="s">
         <v>13</v>
       </c>
       <c r="E76" s="17"/>
       <c r="F76" s="18">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="G76" s="18"/>
       <c r="H76" s="18"/>
@@ -7314,17 +7320,17 @@
         <v>45240</v>
       </c>
       <c r="B77" s="16">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="D77" s="19" t="s">
         <v>13</v>
       </c>
       <c r="E77" s="17"/>
       <c r="F77" s="18">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G77" s="18"/>
       <c r="H77" s="18"/>
@@ -7337,10 +7343,10 @@
         <v>45240</v>
       </c>
       <c r="B78" s="16">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D78" s="19" t="s">
         <v>13</v>
@@ -7357,20 +7363,20 @@
     </row>
     <row r="79" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="15">
-        <v>45243</v>
+        <v>45240</v>
       </c>
       <c r="B79" s="16">
-        <v>76</v>
-      </c>
-      <c r="C79" s="39" t="s">
-        <v>199</v>
+        <v>75</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>191</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E79" s="17"/>
       <c r="F79" s="18">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="G79" s="18"/>
       <c r="H79" s="18"/>
@@ -7380,20 +7386,20 @@
     </row>
     <row r="80" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="15">
-        <v>45245</v>
+        <v>45243</v>
       </c>
       <c r="B80" s="16">
-        <v>77</v>
-      </c>
-      <c r="C80" s="16" t="s">
-        <v>193</v>
+        <v>76</v>
+      </c>
+      <c r="C80" s="39" t="s">
+        <v>199</v>
       </c>
       <c r="D80" s="19" t="s">
         <v>0</v>
       </c>
       <c r="E80" s="17"/>
       <c r="F80" s="18">
-        <v>94.2</v>
+        <v>95</v>
       </c>
       <c r="G80" s="18"/>
       <c r="H80" s="18"/>
@@ -7403,20 +7409,20 @@
     </row>
     <row r="81" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="15">
-        <v>45246</v>
+        <v>45245</v>
       </c>
       <c r="B81" s="16">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D81" s="19" t="s">
         <v>0</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="18">
-        <v>20</v>
+        <v>94.2</v>
       </c>
       <c r="G81" s="18"/>
       <c r="H81" s="18"/>
@@ -7426,20 +7432,20 @@
     </row>
     <row r="82" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="15">
-        <v>45247</v>
-      </c>
-      <c r="B82" s="52">
-        <v>79</v>
-      </c>
-      <c r="C82" s="54" t="s">
-        <v>195</v>
+        <v>45246</v>
+      </c>
+      <c r="B82" s="16">
+        <v>78</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>194</v>
       </c>
       <c r="D82" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E82" s="55"/>
-      <c r="F82" s="21">
         <v>0</v>
+      </c>
+      <c r="E82" s="17"/>
+      <c r="F82" s="18">
+        <v>20</v>
       </c>
       <c r="G82" s="18"/>
       <c r="H82" s="18"/>
@@ -7449,19 +7455,19 @@
     </row>
     <row r="83" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="15">
-        <v>45258</v>
-      </c>
-      <c r="B83" s="16">
-        <v>80</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>202</v>
+        <v>45247</v>
+      </c>
+      <c r="B83" s="52">
+        <v>79</v>
+      </c>
+      <c r="C83" s="54" t="s">
+        <v>195</v>
       </c>
       <c r="D83" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E83" s="17"/>
-      <c r="F83" s="18">
+      <c r="E83" s="55"/>
+      <c r="F83" s="21">
         <v>0</v>
       </c>
       <c r="G83" s="18"/>
@@ -7472,20 +7478,20 @@
     </row>
     <row r="84" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="15">
-        <v>45259</v>
+        <v>45258</v>
       </c>
       <c r="B84" s="16">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D84" s="19" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E84" s="17"/>
       <c r="F84" s="18">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G84" s="18"/>
       <c r="H84" s="18"/>
@@ -7498,17 +7504,17 @@
         <v>45259</v>
       </c>
       <c r="B85" s="16">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D85" s="19" t="s">
         <v>0</v>
       </c>
       <c r="E85" s="17"/>
       <c r="F85" s="18">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G85" s="18"/>
       <c r="H85" s="18"/>
@@ -7521,7 +7527,7 @@
         <v>45259</v>
       </c>
       <c r="B86" s="16">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>208</v>
@@ -7531,7 +7537,7 @@
       </c>
       <c r="E86" s="17"/>
       <c r="F86" s="18">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="G86" s="18"/>
       <c r="H86" s="18"/>
@@ -7544,17 +7550,17 @@
         <v>45259</v>
       </c>
       <c r="B87" s="16">
-        <v>84</v>
-      </c>
-      <c r="C87" s="16" t="s">
-        <v>209</v>
+        <v>83</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="D87" s="19" t="s">
         <v>0</v>
       </c>
       <c r="E87" s="17"/>
       <c r="F87" s="18">
-        <v>110</v>
+        <v>8</v>
       </c>
       <c r="G87" s="18"/>
       <c r="H87" s="18"/>
@@ -7564,20 +7570,20 @@
     </row>
     <row r="88" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="15">
-        <v>45260</v>
+        <v>45259</v>
       </c>
       <c r="B88" s="16">
-        <v>85</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>199</v>
+        <v>84</v>
+      </c>
+      <c r="C88" s="16" t="s">
+        <v>209</v>
       </c>
       <c r="D88" s="19" t="s">
         <v>0</v>
       </c>
       <c r="E88" s="17"/>
       <c r="F88" s="18">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="G88" s="18"/>
       <c r="H88" s="18"/>
@@ -7587,20 +7593,20 @@
     </row>
     <row r="89" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="15">
-        <v>45265</v>
+        <v>45260</v>
       </c>
       <c r="B89" s="16">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D89" s="19" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E89" s="17"/>
       <c r="F89" s="18">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G89" s="18"/>
       <c r="H89" s="18"/>
@@ -7610,20 +7616,20 @@
     </row>
     <row r="90" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="15">
-        <v>45267</v>
+        <v>45265</v>
       </c>
       <c r="B90" s="16">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D90" s="19" t="s">
         <v>13</v>
       </c>
       <c r="E90" s="17"/>
       <c r="F90" s="18">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G90" s="18"/>
       <c r="H90" s="18"/>
@@ -7633,20 +7639,20 @@
     </row>
     <row r="91" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="15">
-        <v>45273</v>
+        <v>45267</v>
       </c>
       <c r="B91" s="16">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E91" s="17"/>
       <c r="F91" s="18">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="G91" s="18"/>
       <c r="H91" s="18"/>
@@ -7656,20 +7662,20 @@
     </row>
     <row r="92" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="15">
-        <v>45277</v>
-      </c>
-      <c r="B92" s="52">
-        <v>89</v>
-      </c>
-      <c r="C92" s="39" t="s">
-        <v>217</v>
+        <v>45273</v>
+      </c>
+      <c r="B92" s="16">
+        <v>88</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>214</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E92" s="17"/>
       <c r="F92" s="18">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="G92" s="18"/>
       <c r="H92" s="18"/>
@@ -7681,19 +7687,19 @@
       <c r="A93" s="15">
         <v>45277</v>
       </c>
-      <c r="B93" s="16">
-        <v>90</v>
-      </c>
-      <c r="C93" s="16" t="s">
-        <v>218</v>
+      <c r="B93" s="52">
+        <v>89</v>
+      </c>
+      <c r="C93" s="39" t="s">
+        <v>217</v>
       </c>
       <c r="D93" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E93" s="17">
-        <v>50</v>
-      </c>
-      <c r="F93" s="18"/>
+        <v>19</v>
+      </c>
+      <c r="E93" s="17"/>
+      <c r="F93" s="18">
+        <v>0</v>
+      </c>
       <c r="G93" s="18"/>
       <c r="H93" s="18"/>
       <c r="I93" s="19"/>
@@ -7705,16 +7711,16 @@
         <v>45277</v>
       </c>
       <c r="B94" s="16">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D94" s="19" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E94" s="17">
-        <v>498</v>
+        <v>50</v>
       </c>
       <c r="F94" s="18"/>
       <c r="G94" s="18"/>
@@ -7728,16 +7734,16 @@
         <v>45277</v>
       </c>
       <c r="B95" s="16">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D95" s="19" t="s">
         <v>19</v>
       </c>
       <c r="E95" s="17">
-        <v>100</v>
+        <v>498</v>
       </c>
       <c r="F95" s="18"/>
       <c r="G95" s="18"/>
@@ -7751,16 +7757,16 @@
         <v>45277</v>
       </c>
       <c r="B96" s="16">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E96" s="17">
-        <v>238</v>
+        <v>100</v>
       </c>
       <c r="F96" s="18"/>
       <c r="G96" s="18"/>
@@ -7771,21 +7777,21 @@
     </row>
     <row r="97" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="15">
-        <v>45278</v>
+        <v>45277</v>
       </c>
       <c r="B97" s="16">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E97" s="17"/>
-      <c r="F97" s="18">
-        <v>50</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E97" s="17">
+        <v>238</v>
+      </c>
+      <c r="F97" s="18"/>
       <c r="G97" s="18"/>
       <c r="H97" s="18"/>
       <c r="I97" s="19"/>
@@ -7797,17 +7803,17 @@
         <v>45278</v>
       </c>
       <c r="B98" s="16">
-        <v>95</v>
-      </c>
-      <c r="C98" s="39" t="s">
-        <v>223</v>
+        <v>94</v>
+      </c>
+      <c r="C98" s="16" t="s">
+        <v>222</v>
       </c>
       <c r="D98" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E98" s="21"/>
-      <c r="F98" s="21">
-        <v>264.5</v>
+      <c r="E98" s="17"/>
+      <c r="F98" s="18">
+        <v>50</v>
       </c>
       <c r="G98" s="18"/>
       <c r="H98" s="18"/>
@@ -7820,17 +7826,17 @@
         <v>45278</v>
       </c>
       <c r="B99" s="16">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C99" s="39" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D99" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E99" s="17"/>
-      <c r="F99" s="18">
-        <v>130</v>
+      <c r="E99" s="21"/>
+      <c r="F99" s="21">
+        <v>264.5</v>
       </c>
       <c r="G99" s="18"/>
       <c r="H99" s="18"/>
@@ -7843,17 +7849,17 @@
         <v>45278</v>
       </c>
       <c r="B100" s="16">
-        <v>97</v>
-      </c>
-      <c r="C100" s="16" t="s">
-        <v>53</v>
+        <v>96</v>
+      </c>
+      <c r="C100" s="39" t="s">
+        <v>224</v>
       </c>
       <c r="D100" s="19" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E100" s="17"/>
       <c r="F100" s="18">
-        <v>7.25</v>
+        <v>130</v>
       </c>
       <c r="G100" s="18"/>
       <c r="H100" s="18"/>
@@ -7863,20 +7869,20 @@
     </row>
     <row r="101" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="15">
-        <v>45280</v>
+        <v>45278</v>
       </c>
       <c r="B101" s="16">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="D101" s="19" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E101" s="17"/>
       <c r="F101" s="18">
-        <v>20</v>
+        <v>7.25</v>
       </c>
       <c r="G101" s="18"/>
       <c r="H101" s="18"/>
@@ -7886,20 +7892,20 @@
     </row>
     <row r="102" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="15">
-        <v>45281</v>
+        <v>45280</v>
       </c>
       <c r="B102" s="16">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D102" s="19" t="s">
         <v>0</v>
       </c>
       <c r="E102" s="17"/>
       <c r="F102" s="18">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G102" s="18"/>
       <c r="H102" s="18"/>
@@ -7909,20 +7915,20 @@
     </row>
     <row r="103" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="15">
-        <v>45282</v>
+        <v>45281</v>
       </c>
       <c r="B103" s="16">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D103" s="19" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E103" s="17"/>
       <c r="F103" s="18">
-        <v>800</v>
+        <v>24</v>
       </c>
       <c r="G103" s="18"/>
       <c r="H103" s="18"/>
@@ -7932,20 +7938,20 @@
     </row>
     <row r="104" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="15">
-        <v>45287</v>
+        <v>45282</v>
       </c>
       <c r="B104" s="16">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D104" s="19" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E104" s="17"/>
       <c r="F104" s="18">
-        <v>10</v>
+        <v>800</v>
       </c>
       <c r="G104" s="18"/>
       <c r="H104" s="18"/>
@@ -7958,17 +7964,17 @@
         <v>45287</v>
       </c>
       <c r="B105" s="16">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D105" s="19" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E105" s="17"/>
       <c r="F105" s="18">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="G105" s="18"/>
       <c r="H105" s="18"/>
@@ -7978,20 +7984,20 @@
     </row>
     <row r="106" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="15">
-        <v>45289</v>
+        <v>45287</v>
       </c>
       <c r="B106" s="16">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D106" s="19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E106" s="17"/>
       <c r="F106" s="18">
-        <v>8.5</v>
+        <v>86</v>
       </c>
       <c r="G106" s="18"/>
       <c r="H106" s="18"/>
@@ -8000,12 +8006,22 @@
       <c r="K106" s="2"/>
     </row>
     <row r="107" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="15"/>
-      <c r="B107" s="16"/>
-      <c r="C107" s="16"/>
-      <c r="D107" s="19"/>
+      <c r="A107" s="15">
+        <v>45289</v>
+      </c>
+      <c r="B107" s="16">
+        <v>103</v>
+      </c>
+      <c r="C107" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="D107" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="E107" s="17"/>
-      <c r="F107" s="18"/>
+      <c r="F107" s="18">
+        <v>8.5</v>
+      </c>
       <c r="G107" s="18"/>
       <c r="H107" s="18"/>
       <c r="I107" s="19"/>
@@ -8035,121 +8051,121 @@
       <c r="G109" s="18"/>
       <c r="H109" s="18"/>
       <c r="I109" s="19"/>
-      <c r="J109" s="2" t="s">
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
+    </row>
+    <row r="110" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="15"/>
+      <c r="B110" s="16"/>
+      <c r="C110" s="16"/>
+      <c r="D110" s="19"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="18"/>
+      <c r="G110" s="18"/>
+      <c r="H110" s="18"/>
+      <c r="I110" s="19"/>
+      <c r="J110" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K109" s="2"/>
-    </row>
-    <row r="110" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="24" t="s">
+      <c r="K110" s="2"/>
+    </row>
+    <row r="111" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B110" s="25"/>
-      <c r="C110" s="25"/>
-      <c r="D110" s="26"/>
-      <c r="E110" s="27">
-        <f>SUM(E3:E109)</f>
+      <c r="B111" s="25"/>
+      <c r="C111" s="25"/>
+      <c r="D111" s="26"/>
+      <c r="E111" s="27">
+        <f>SUM(E3:E110)</f>
         <v>2402.21</v>
       </c>
-      <c r="F110" s="28">
-        <f>SUM(F3:F109)</f>
+      <c r="F111" s="28">
+        <f>SUM(F3:F110)</f>
         <v>16704.170000000006</v>
       </c>
-      <c r="G110" s="28">
-        <f>SUM(G3:G109)</f>
+      <c r="G111" s="28">
+        <f>SUM(G3:G110)</f>
         <v>2000.5</v>
       </c>
-      <c r="H110" s="28">
-        <f>SUM(H3:H109)</f>
+      <c r="H111" s="28">
+        <f>SUM(H3:H110)</f>
         <v>440.04</v>
       </c>
-      <c r="I110" s="29">
-        <f>SUM(I3:I109)</f>
-        <v>949.24</v>
-      </c>
-      <c r="J110" s="2"/>
-      <c r="K110" s="2"/>
-    </row>
-    <row r="111" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="35"/>
-      <c r="B111" s="35"/>
-      <c r="C111" s="35"/>
-      <c r="D111" s="35"/>
-      <c r="E111" s="36"/>
-      <c r="F111" s="36"/>
-      <c r="G111" s="36"/>
-      <c r="H111" s="36"/>
-      <c r="I111" s="36"/>
+      <c r="I111" s="29">
+        <f>SUM(I3:I110)</f>
+        <v>949.25</v>
+      </c>
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
     </row>
     <row r="112" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B112" s="25"/>
-      <c r="C112" s="25"/>
-      <c r="D112" s="48"/>
-      <c r="E112" s="28">
-        <f>E110+Ausgaben!F175</f>
-        <v>0</v>
-      </c>
-      <c r="F112" s="28">
-        <f>F110+Ausgaben!G175</f>
-        <v>5128.5200000000041</v>
-      </c>
-      <c r="G112" s="28">
-        <f>G110+Ausgaben!H175</f>
-        <v>2000.5</v>
-      </c>
-      <c r="H112" s="28">
-        <f>H110+Ausgaben!I175</f>
-        <v>274.78000000000003</v>
-      </c>
-      <c r="I112" s="29">
-        <f>I110+Ausgaben!J175</f>
-        <v>949.24</v>
-      </c>
+      <c r="A112" s="35"/>
+      <c r="B112" s="35"/>
+      <c r="C112" s="35"/>
+      <c r="D112" s="35"/>
+      <c r="E112" s="36"/>
+      <c r="F112" s="36"/>
+      <c r="G112" s="36"/>
+      <c r="H112" s="36"/>
+      <c r="I112" s="36"/>
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
     </row>
     <row r="113" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="37"/>
-      <c r="B113" s="37"/>
-      <c r="C113" s="37"/>
-      <c r="D113" s="37"/>
-      <c r="E113" s="13"/>
-      <c r="F113" s="13"/>
-      <c r="G113" s="13"/>
-      <c r="H113" s="13"/>
-      <c r="I113" s="13"/>
+      <c r="A113" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B113" s="25"/>
+      <c r="C113" s="25"/>
+      <c r="D113" s="48"/>
+      <c r="E113" s="28">
+        <f>E111+Ausgaben!F175</f>
+        <v>0</v>
+      </c>
+      <c r="F113" s="28">
+        <f>F111+Ausgaben!G175</f>
+        <v>5128.5200000000041</v>
+      </c>
+      <c r="G113" s="28">
+        <f>G111+Ausgaben!H175</f>
+        <v>2000.5</v>
+      </c>
+      <c r="H113" s="28">
+        <f>H111+Ausgaben!I175</f>
+        <v>274.78000000000003</v>
+      </c>
+      <c r="I113" s="29">
+        <f>I111+Ausgaben!J175</f>
+        <v>949.25</v>
+      </c>
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
     </row>
     <row r="114" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B114" s="5"/>
-      <c r="C114" s="24"/>
-      <c r="D114" s="29">
-        <f>SUM(E112:I112)</f>
-        <v>8353.0400000000045</v>
-      </c>
-      <c r="E114" s="17"/>
-      <c r="F114" s="18"/>
-      <c r="G114" s="18"/>
-      <c r="H114" s="18"/>
-      <c r="I114" s="18"/>
+      <c r="A114" s="37"/>
+      <c r="B114" s="37"/>
+      <c r="C114" s="37"/>
+      <c r="D114" s="37"/>
+      <c r="E114" s="13"/>
+      <c r="F114" s="13"/>
+      <c r="G114" s="13"/>
+      <c r="H114" s="13"/>
+      <c r="I114" s="13"/>
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
     </row>
     <row r="115" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="38"/>
-      <c r="B115" s="38"/>
-      <c r="C115" s="38"/>
-      <c r="D115" s="38"/>
-      <c r="E115" s="18"/>
+      <c r="A115" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B115" s="5"/>
+      <c r="C115" s="24"/>
+      <c r="D115" s="29">
+        <f>SUM(E113:I113)</f>
+        <v>8353.0500000000029</v>
+      </c>
+      <c r="E115" s="17"/>
       <c r="F115" s="18"/>
       <c r="G115" s="18"/>
       <c r="H115" s="18"/>
@@ -8158,12 +8174,10 @@
       <c r="K115" s="2"/>
     </row>
     <row r="116" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="2"/>
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="A116" s="38"/>
+      <c r="B116" s="38"/>
+      <c r="C116" s="38"/>
+      <c r="D116" s="38"/>
       <c r="E116" s="18"/>
       <c r="F116" s="18"/>
       <c r="G116" s="18"/>
@@ -8176,7 +8190,9 @@
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
+      <c r="D117" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="E117" s="18"/>
       <c r="F117" s="18"/>
       <c r="G117" s="18"/>
@@ -8926,162 +8942,175 @@
       <c r="J174" s="2"/>
       <c r="K174" s="2"/>
     </row>
-    <row r="175" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="2"/>
+      <c r="B175" s="2"/>
+      <c r="C175" s="2"/>
+      <c r="D175" s="2"/>
+      <c r="E175" s="18"/>
+      <c r="F175" s="18"/>
+      <c r="G175" s="18"/>
+      <c r="H175" s="18"/>
+      <c r="I175" s="18"/>
+      <c r="J175" s="2"/>
       <c r="K175" s="2"/>
     </row>
+    <row r="176" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K176" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:I100" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:I101" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A93:A96">
+  <conditionalFormatting sqref="A94:A97">
     <cfRule type="cellIs" dxfId="64" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A92:C92">
+  <conditionalFormatting sqref="A93:C93">
     <cfRule type="cellIs" dxfId="63" priority="136" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B82">
+  <conditionalFormatting sqref="B83">
     <cfRule type="cellIs" dxfId="62" priority="150" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C98:D99">
+  <conditionalFormatting sqref="C99:D100">
     <cfRule type="cellIs" dxfId="61" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D15">
+  <conditionalFormatting sqref="D4:D16">
     <cfRule type="cellIs" dxfId="60" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D67">
+  <conditionalFormatting sqref="D18:D68">
     <cfRule type="cellIs" dxfId="59" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D70:D72">
+  <conditionalFormatting sqref="D71:D73">
     <cfRule type="cellIs" dxfId="58" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D82:D86">
+  <conditionalFormatting sqref="D83:D87">
     <cfRule type="cellIs" dxfId="57" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16:G16">
+  <conditionalFormatting sqref="D17:G17">
     <cfRule type="cellIs" dxfId="56" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D68:G69 E70:G70 E72:G72 D73:G81">
+  <conditionalFormatting sqref="D69:G70 E71:G71 E73:G73 D74:G82">
     <cfRule type="cellIs" dxfId="55" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D87:G97">
+  <conditionalFormatting sqref="D88:G98">
     <cfRule type="cellIs" dxfId="54" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D100:G109">
+  <conditionalFormatting sqref="D101:G110">
     <cfRule type="cellIs" dxfId="53" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
+  <conditionalFormatting sqref="E24">
     <cfRule type="cellIs" dxfId="52" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
+  <conditionalFormatting sqref="E54">
     <cfRule type="cellIs" dxfId="51" priority="181" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E20:F20">
+  <conditionalFormatting sqref="E21:F21">
     <cfRule type="cellIs" dxfId="50" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28:F28">
+  <conditionalFormatting sqref="E29:F29">
     <cfRule type="cellIs" dxfId="49" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30:F31">
+  <conditionalFormatting sqref="E31:F32">
     <cfRule type="cellIs" dxfId="48" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E13:G14">
+  <conditionalFormatting sqref="E14:G15">
     <cfRule type="cellIs" dxfId="47" priority="238" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26:G26">
+  <conditionalFormatting sqref="E27:G27">
     <cfRule type="cellIs" dxfId="46" priority="220" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E37:G40">
+  <conditionalFormatting sqref="E38:G41">
     <cfRule type="cellIs" dxfId="45" priority="201" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E83:G86">
+  <conditionalFormatting sqref="E84:G87">
     <cfRule type="cellIs" dxfId="44" priority="137" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:I3 G4:G12 H4:I26 G15 G17:G23 G25 H28:I109 E59:G60 F61 G61:G62 F63:G63 E64:G64 F65:G65 E66:G66 G82 G98 E99:G99 D109:I109 E110:I174 D114">
+  <conditionalFormatting sqref="E3:I3 G4:G13 H4:I27 G16 G18:G24 G26 H29:I110 E60:G61 F62 G62:G63 F64:G64 E65:G65 F66:G66 E67:G67 G83 G99 E100:G100 D110:I110 E111:I175 D115">
     <cfRule type="cellIs" dxfId="43" priority="302" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
+  <conditionalFormatting sqref="F18">
     <cfRule type="cellIs" dxfId="42" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24:G24">
+  <conditionalFormatting sqref="F25:G25">
     <cfRule type="cellIs" dxfId="41" priority="223" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F67:G67">
+  <conditionalFormatting sqref="F68:G68">
     <cfRule type="cellIs" dxfId="40" priority="166" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F71:G71">
+  <conditionalFormatting sqref="F72:G72">
     <cfRule type="cellIs" dxfId="39" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28:G31 E32:G33 G34:G36">
+  <conditionalFormatting sqref="G29:G32 E33:G34 G35:G37">
     <cfRule type="cellIs" dxfId="38" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G41:G46 E47:G48 G49:G50 E50:F50 F51:G51 E52:G52 F53:G58">
+  <conditionalFormatting sqref="G42:G47 E48:G49 G50:G51 E51:F51 F52:G52 E53:G53 F54:G59">
     <cfRule type="cellIs" dxfId="37" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27:I27">
+  <conditionalFormatting sqref="G28:I28">
     <cfRule type="cellIs" dxfId="36" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D109" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>$K$1:$K$19</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D110" xr:uid="{00000000-0002-0000-0000-000001000000}">
+      <formula1>$K$1:$K$20</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
@@ -9091,7 +9120,7 @@
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="122" max="18" man="1"/>
+    <brk id="123" max="18" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>

--- a/2023/AWO_Einnahmen_Ausgaben_2023.xlsx
+++ b/2023/AWO_Einnahmen_Ausgaben_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopFiles\AWO\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0517C2C-FB2D-4B8E-BF2C-A4A653C7E5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBA35AC-AE9B-4B24-8DEB-49D69DF5F7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Einnahmen" sheetId="4" r:id="rId1"/>
@@ -18,15 +18,15 @@
     <sheet name="Gesamt" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Ausgaben!$B$2:$K$165</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Einnahmen!$A$2:$I$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Ausgaben!$B$2:$K$170</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Einnahmen!$A$2:$I$107</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Ausgaben!$A$1:$J$174</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Einnahmen!$A$1:$I$115</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
-    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="21" r:id="rId4"/>
+    <pivotCache cacheId="25" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -1411,7 +1411,295 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="71">
+  <dxfs count="89">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1915,83 +2203,39 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Bernd Wild" refreshedDate="44931.461712037039" createdVersion="4" refreshedVersion="8" minRefreshableVersion="3" recordCount="102" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="D2:I110" sheet="Einnahmen"/>
-  </cacheSource>
-  <cacheFields count="6">
-    <cacheField name="Zweck II" numFmtId="0">
-      <sharedItems containsBlank="1" count="11">
-        <m/>
-        <s v="Bar- &amp; Kontobew."/>
-        <s v="Mitgliedsbeitr. BV"/>
-        <s v="Nebenkosten"/>
-        <s v="Spenden"/>
-        <s v="Sonstiges"/>
-        <s v="T. z. g. Laune"/>
-        <s v="Zinsen"/>
-        <s v="Weihnachtsfeier"/>
-        <s v="Beiträge an OV" u="1"/>
-        <s v="70erFeier" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Barkasse" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="3" maxValue="586.79999999999995"/>
-    </cacheField>
-    <cacheField name="VOBA_x000a_630041008" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="4.3499999999999996" maxValue="5997.02"/>
-    </cacheField>
-    <cacheField name="VOBA TgK 630041601" numFmtId="165">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="2000.5" maxValue="2000.5"/>
-    </cacheField>
-    <cacheField name="KSK_x000a_2029223" numFmtId="165">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="608.47" maxValue="608.47"/>
-    </cacheField>
-    <cacheField name="KSK SpB 3001734183" numFmtId="165">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.01" maxValue="949.23"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Bernd Wild" refreshedDate="44931.461712384262" createdVersion="4" refreshedVersion="8" minRefreshableVersion="3" recordCount="168" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Bernd Wild" refreshedDate="45318.474550578707" createdVersion="4" refreshedVersion="8" minRefreshableVersion="3" recordCount="168" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="E2:J170" sheet="Ausgaben"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Zweck II" numFmtId="0">
-      <sharedItems containsBlank="1" count="12">
+      <sharedItems containsBlank="1" count="13">
+        <s v="Sonstiges"/>
+        <s v="Spenden"/>
         <s v="Nebenkosten"/>
+        <s v="T. z. g. Laune"/>
+        <s v="Jubiläen"/>
+        <s v="Büromaterial"/>
         <s v="Bar- &amp; Kontobew."/>
-        <s v="Jubiläen"/>
-        <s v="Sonstiges"/>
-        <s v="T. z. g. Laune"/>
         <s v="Portoauslagen"/>
-        <s v="Büromaterial"/>
         <s v="Weihnachtsfeier"/>
-        <s v="Spenden"/>
-        <m/>
+        <s v="Versicherung" u="1"/>
+        <m u="1"/>
         <s v="70erFeier" u="1"/>
         <s v="Miete" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Barkasse" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-785" maxValue="-22.09"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-1380" maxValue="-6.5"/>
     </cacheField>
     <cacheField name="VOBA_x000a_630041008" numFmtId="166">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-675.5" maxValue="-3.3"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-568" maxValue="-0.85"/>
     </cacheField>
     <cacheField name="VOBA TgK 630041601" numFmtId="166">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="KSK_x000a_2029223" numFmtId="166">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-167.43" maxValue="-0.5"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-163.41" maxValue="-0.5"/>
     </cacheField>
     <cacheField name="KSK SpB 3001734183" numFmtId="166">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
@@ -2005,20 +2249,65 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Bernd Wild" refreshedDate="45318.474550925923" createdVersion="4" refreshedVersion="8" minRefreshableVersion="3" recordCount="108" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="D2:I110" sheet="Einnahmen"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="Zweck II" numFmtId="0">
+      <sharedItems containsBlank="1" count="11">
+        <m/>
+        <s v="Spenden"/>
+        <s v="Zinsen"/>
+        <s v="T. z. g. Laune"/>
+        <s v="Sonstiges"/>
+        <s v="Nebenkosten"/>
+        <s v="Bar- &amp; Kontobew."/>
+        <s v="Beiträge an OV"/>
+        <s v="Weihnachtsfeier"/>
+        <s v="Mitgliedsbeitr. BV" u="1"/>
+        <s v="70erFeier" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Barkasse" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="9.5" maxValue="1268.2"/>
+    </cacheField>
+    <cacheField name="VOBA_x000a_630041008" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="5456.2400000000052"/>
+    </cacheField>
+    <cacheField name="VOBA TgK 630041601" numFmtId="165">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="2000.5" maxValue="2000.5"/>
+    </cacheField>
+    <cacheField name="KSK_x000a_2029223" numFmtId="165">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="440.04" maxValue="440.04"/>
+    </cacheField>
+    <cacheField name="KSK SpB 3001734183" numFmtId="165">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.01" maxValue="949.24"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="102">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="168">
   <r>
     <x v="0"/>
-    <n v="322.39999999999998"/>
-    <n v="5997.02"/>
-    <n v="2000.5"/>
-    <n v="608.47"/>
-    <n v="949.23"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="-163.41"/>
+    <m/>
   </r>
   <r>
     <x v="1"/>
     <m/>
-    <n v="200"/>
+    <n v="-75"/>
     <m/>
     <m/>
     <m/>
@@ -2026,7 +2315,23 @@
   <r>
     <x v="2"/>
     <m/>
-    <n v="18.71"/>
+    <n v="-39.06"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="-22"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="-111"/>
     <m/>
     <m/>
     <m/>
@@ -2034,7 +2339,23 @@
   <r>
     <x v="3"/>
     <m/>
-    <n v="119.3"/>
+    <n v="-9.9600000000000009"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="-18.36"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="-41.72"/>
     <m/>
     <m/>
     <m/>
@@ -2042,7 +2363,407 @@
   <r>
     <x v="4"/>
     <m/>
-    <n v="800"/>
+    <n v="-30"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="-8.49"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="-12"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="-32"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="-171.49"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="-12"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="-0.5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="-22"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="-11.81"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="-26.26"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+    <n v="-563.20000000000005"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="-3.38"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+    <n v="-8.5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+    <n v="-20"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="-41.72"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="-43.86"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="-30"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+    <n v="-20"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="-19.649999999999999"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <m/>
+    <n v="-25"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="-300"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="-23.2"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+    <n v="-50"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="-12"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="-134"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="-28"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="-47.12"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="-20.61"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="-13.39"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="-41.72"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+    <n v="-65"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <m/>
+    <n v="-260"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+    <n v="-11.31"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="-25.57"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+    <n v="-144.30000000000001"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="-12"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="-28"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="-134"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+    <n v="-71.59"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+    <n v="-37.4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="-18.36"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="-41.72"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="-56.1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="-5.94"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+    <n v="-80"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="-87.97"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="-2.9"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="-12"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="-123.15"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="-134"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="-28"/>
     <m/>
     <m/>
     <m/>
@@ -2050,7 +2771,271 @@
   <r>
     <x v="5"/>
     <m/>
-    <n v="4.3499999999999996"/>
+    <n v="-77.959999999999994"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+    <n v="-60.5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="-44.64"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="-13.75"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="-120"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="-120"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+    <n v="-27.36"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="-79.900000000000006"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="-9.3000000000000007"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="-41.72"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="-99.99"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="-11.99"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="-40"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <m/>
+    <n v="-20"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+    <n v="-293.93"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <m/>
+    <n v="-70.540000000000006"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="-12"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="-134"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="-28"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="-9.67"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="-5.04"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="-52.46"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="-57.56"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="-41.72"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <m/>
+    <n v="-20"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="-13.58"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="-38.18"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="-25.57"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="-17.940000000000001"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="-12"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="-134"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="-28"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="-127.7"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+    <n v="-45"/>
     <m/>
     <m/>
     <m/>
@@ -2058,7 +3043,287 @@
   <r>
     <x v="6"/>
     <m/>
-    <n v="112"/>
+    <n v="-100"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="-3.72"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="-9.5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="-1.69"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="-18.36"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="-1380"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="-41.72"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="-109.83"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="-129.71"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="-536.29"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="-1.35"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="-12"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="-153.44999999999999"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="-28"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="-134"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="-50"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="-376"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="-10.23"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="-44.41"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="-12"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="-134"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="-28"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="-18.510000000000002"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="-45.9"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+    <n v="-47.33"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="-11.96"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="-35.51"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="-0.85"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="-12"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="-25.57"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="-440.95"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="-86.48"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="-134"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="-28"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="-19.7"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="-16.920000000000002"/>
     <m/>
     <m/>
     <m/>
@@ -2066,30 +3331,302 @@
   <r>
     <x v="4"/>
     <m/>
-    <n v="30"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <m/>
-    <n v="450"/>
+    <n v="-25.98"/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
     <x v="6"/>
-    <m/>
-    <n v="102"/>
+    <n v="-6.5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+    <n v="-102"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="-18.36"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="-45.9"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="-54.28"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="-12"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="-28"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="-134"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="-32.65"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+    <n v="-200"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="-134.5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+    <n v="-172.6"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="-57.17"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+    <n v="-105"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="-45.9"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <m/>
+    <n v="-27.04"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="-13.58"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <m/>
+    <n v="-19.2"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="-22.47"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="-12"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="-68.36"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="-134"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="-28"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="-37.6"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+    <n v="-259.25"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="-36.840000000000003"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="-90"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="-9.8699999999999992"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="-90"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="-90"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="-45.9"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <n v="-478"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="-98.41"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="-50.12"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="-99.98"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <n v="-568"/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
     <x v="6"/>
-    <n v="3"/>
+    <n v="-800"/>
     <m/>
     <m/>
     <m/>
@@ -2097,727 +3634,7 @@
   </r>
   <r>
     <x v="6"/>
-    <m/>
-    <n v="60"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="6"/>
-    <m/>
-    <n v="80"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="114"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="6"/>
-    <m/>
-    <n v="80"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="6"/>
-    <m/>
-    <n v="79"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="20"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="6"/>
-    <m/>
-    <n v="108.6"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="6"/>
-    <m/>
-    <n v="85.5"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="54.4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="6"/>
-    <m/>
-    <n v="120"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="6"/>
-    <m/>
-    <n v="17.5"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="1355.03"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="7"/>
-    <m/>
-    <n v="110"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="6"/>
-    <m/>
-    <n v="78"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="6"/>
-    <m/>
-    <n v="100"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="6"/>
-    <m/>
-    <n v="120"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="6"/>
-    <m/>
-    <n v="90"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="586.79999999999995"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <m/>
-    <n v="785"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="6"/>
-    <m/>
-    <n v="11.5"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="6"/>
-    <m/>
-    <n v="15"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="6"/>
-    <m/>
-    <n v="80"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="6"/>
-    <m/>
-    <n v="120"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <m/>
-    <n v="300"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <m/>
-    <n v="40"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <m/>
-    <n v="100"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
-    <m/>
-    <n v="79"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="6"/>
-    <m/>
-    <n v="15"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="6"/>
-    <m/>
-    <n v="12"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="6"/>
-    <m/>
-    <n v="80"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="6"/>
-    <m/>
-    <n v="80"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="6"/>
-    <m/>
-    <n v="20"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="6"/>
-    <m/>
-    <n v="80"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="150"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="50"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="50"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="50"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="200"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="105.9"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="474"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <m/>
-    <n v="20"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <m/>
-    <n v="300"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <m/>
-    <n v="530"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <m/>
-    <n v="330"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <m/>
-    <n v="10"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <m/>
-    <n v="50"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="6"/>
-    <m/>
-    <n v="12"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <m/>
-    <n v="219.9"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="6"/>
-    <m/>
-    <n v="20"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <m/>
-    <n v="100"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="0.01"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
+    <n v="-86"/>
     <m/>
     <m/>
     <m/>
@@ -2827,26 +3644,850 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="168">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="108">
   <r>
     <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="-167.43"/>
+    <n v="23.510000000000218"/>
+    <n v="5456.2400000000052"/>
+    <n v="2000.5"/>
+    <n v="440.04"/>
+    <n v="949.24"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="100"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0.01"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="7"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <m/>
+    <n v="5.22"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="115"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="100"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="200"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <m/>
+    <n v="340.83"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="100"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="970"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <m/>
+    <n v="52.44"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="20"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="210"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="20"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="20"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="450"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="12"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="20"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="115"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="85"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="40"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="75"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="120"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="10"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="100"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="30"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="16"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="60"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="25"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="85"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <m/>
+    <n v="110"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="94"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <m/>
+    <n v="2.1800000000000002"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="80"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="14.5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <m/>
+    <n v="100"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <m/>
+    <n v="50"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="70"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="185"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="25"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="87"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="30"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <m/>
+    <n v="2.1800000000000002"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="83"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="100"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="82"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="9.5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1268.2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <m/>
+    <n v="1380"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="50"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <m/>
+    <n v="1282.3800000000001"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <m/>
+    <n v="129.71"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="95"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="334.19"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="57.8"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <m/>
+    <n v="45"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="15"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="120"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="20"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="98"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="110"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <m/>
+    <n v="250"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="120"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <m/>
+    <n v="6.5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="25"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="271.55"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="106"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="116"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="50"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="200"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="95"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="94.2"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="20"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="36"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="21"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="8"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="110"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="20"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <n v="50"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="108"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="50"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="498"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="100"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="238"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="50"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="264.5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="130"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <m/>
+    <n v="7.25"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="20"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="24"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <m/>
+    <n v="800"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <n v="10"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <m/>
+    <n v="86"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <n v="8.5"/>
+    <m/>
+    <m/>
     <m/>
   </r>
   <r>
     <x v="0"/>
     <m/>
-    <n v="-33.590000000000003"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="-200"/>
     <m/>
     <m/>
     <m/>
@@ -2855,1317 +4496,13 @@
   <r>
     <x v="0"/>
     <m/>
-    <n v="-34"/>
+    <m/>
     <m/>
     <m/>
     <m/>
   </r>
   <r>
     <x v="0"/>
-    <m/>
-    <n v="-150"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <n v="-12"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <n v="-18.36"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <n v="-21.72"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-25"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-10"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <n v="-12"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <n v="-99.82"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-20"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <n v="-33.86"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-50"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <n v="-141"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <n v="-20"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <n v="-12"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-24.8"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <n v="-41.72"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <n v="-21.94"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <m/>
-    <n v="-9.1300000000000008"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <n v="-39.020000000000003"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <n v="-12"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <n v="-141"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <n v="-20"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <m/>
-    <n v="-19.8"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
-    <m/>
-    <n v="-25.5"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <m/>
-    <n v="-38.42"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <m/>
-    <n v="-31.92"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-72.95"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <n v="-18.36"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <m/>
-    <n v="-11.3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <n v="-41.72"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-8.91"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-200"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-58.51"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-44.55"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-128.5"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <n v="-12"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <n v="-20"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <n v="-141"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <m/>
-    <n v="-10.64"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-268.05"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-111"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <n v="-41.72"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-9.99"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-29.97"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <m/>
-    <n v="-36"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <m/>
-    <n v="-4.95"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-25"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <m/>
-    <n v="-100"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-51.4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <n v="-12"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <n v="-141"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <n v="-20"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <m/>
-    <n v="-7.6"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-26.34"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-46.41"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-5.98"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <m/>
-    <n v="-5.98"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-13.99"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <n v="-41.72"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <m/>
-    <n v="-20.12"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-47"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-26"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="-40"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-13.32"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-55"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <m/>
-    <n v="-17.55"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="6"/>
-    <m/>
-    <n v="-20.99"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <m/>
-    <n v="-3.8"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <n v="-39.020000000000003"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <n v="-12"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-63.9"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <n v="-20"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <n v="-111"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <n v="-18.36"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <n v="-41.72"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <n v="-100.48"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <n v="-12"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <m/>
-    <n v="-4.95"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <n v="-20"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <n v="-111"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <m/>
-    <n v="-317.49"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <m/>
-    <n v="-11.97"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="-22.09"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <n v="-41.72"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <m/>
-    <n v="-15.63"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-26.78"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <m/>
-    <n v="-25.23"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <n v="-12"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <n v="-111"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <n v="-20"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <n v="-41.72"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="-30"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="-785"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <m/>
-    <n v="-400.02"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-5"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="6"/>
-    <m/>
-    <n v="-15.73"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-108"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <n v="-39.020000000000003"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="-0.5"/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <n v="-111"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <n v="-22"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <n v="-12"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <m/>
-    <n v="-40.159999999999997"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="6"/>
-    <m/>
-    <n v="-12.8"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <m/>
-    <n v="-369.44"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <n v="-18.36"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-30.5"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <n v="-41.72"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <n v="-36"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <m/>
-    <n v="-7.2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <m/>
-    <n v="-28.15"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-29.5"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <n v="-22"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <n v="-111"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <m/>
-    <n v="-7.99"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <n v="-12"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <n v="-25"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <n v="-89.11"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <n v="-4.5999999999999996"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="7"/>
-    <m/>
-    <n v="-23.4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <n v="-41.72"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <m/>
-    <n v="-18.149999999999999"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="7"/>
-    <m/>
-    <n v="-103.2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="7"/>
-    <m/>
-    <n v="-67"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="7"/>
-    <m/>
-    <n v="-71.400000000000006"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="8"/>
-    <m/>
-    <n v="-150"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <n v="-12"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <n v="-111"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <n v="-22"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="7"/>
-    <m/>
-    <n v="-113.68"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <m/>
-    <n v="-4.49"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="6"/>
-    <m/>
-    <n v="-42.07"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <m/>
-    <n v="-21.69"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <m/>
-    <n v="-16.899999999999999"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <m/>
-    <n v="-150"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="7"/>
-    <m/>
-    <n v="-3.3"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="7"/>
-    <m/>
-    <n v="-34.92"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="7"/>
-    <m/>
-    <n v="-10"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="-530"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="-330"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="7"/>
-    <m/>
-    <n v="-49.5"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="8"/>
-    <m/>
-    <n v="-150"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="7"/>
-    <m/>
-    <n v="-371.2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <n v="-41.72"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <m/>
-    <n v="-9.15"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="4"/>
-    <m/>
-    <n v="-14.99"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="8"/>
-    <m/>
-    <n v="-75"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="-219.9"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="7"/>
-    <m/>
-    <n v="-675.5"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="-0.5"/>
-    <m/>
-  </r>
-  <r>
-    <x v="9"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="9"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="9"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="9"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="9"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="9"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="9"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="9"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="9"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="9"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="9"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="9"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="9"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="9"/>
     <m/>
     <m/>
     <m/>
@@ -4176,23 +4513,133 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item h="1" x="6"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item h="1" x="0"/>
+        <item m="1" x="10"/>
+        <item x="2"/>
+        <item m="1" x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="Summe von Barkasse" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Summe von VOBA" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Summe von VOBA TgK 630041601" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Summe von KSK" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="85">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="84">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="83">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B16:G25" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item h="1" x="1"/>
-        <item x="6"/>
+      <items count="14">
+        <item h="1" x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item m="1" x="12"/>
         <item x="2"/>
-        <item m="1" x="11"/>
         <item x="0"/>
+        <item x="1"/>
         <item x="3"/>
         <item x="8"/>
-        <item x="4"/>
+        <item m="1" x="11"/>
+        <item h="1" m="1" x="10"/>
         <item x="7"/>
-        <item m="1" x="10"/>
-        <item h="1" x="9"/>
-        <item x="5"/>
+        <item h="1" m="1" x="9"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4262,126 +4709,17 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="67">
+    <format dxfId="88">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="66">
+    <format dxfId="87">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="65">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="12">
-        <item h="1" x="1"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item h="1" x="0"/>
-        <item m="1" x="10"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </colItems>
-  <dataFields count="5">
-    <dataField name="Summe von Barkasse" fld="1" baseField="0" baseItem="0"/>
-    <dataField name="Summe von VOBA" fld="2" baseField="0" baseItem="0"/>
-    <dataField name="Summe von VOBA TgK 630041601" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Summe von KSK" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="70">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="69">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="68">
+    <format dxfId="86">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5502,14 +5840,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:IK176"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I97" sqref="I97"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4:I107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6741,7 +7079,7 @@
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
     </row>
-    <row r="52" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="15">
         <v>45119</v>
       </c>
@@ -6833,7 +7171,7 @@
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
     </row>
-    <row r="56" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="15">
         <v>45124</v>
       </c>
@@ -6902,7 +7240,7 @@
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
     </row>
-    <row r="59" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="15">
         <v>45128</v>
       </c>
@@ -7177,7 +7515,7 @@
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
     </row>
-    <row r="71" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="15">
         <v>45211</v>
       </c>
@@ -7936,7 +8274,7 @@
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
     </row>
-    <row r="104" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="15">
         <v>45282</v>
       </c>
@@ -7982,7 +8320,7 @@
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
     </row>
-    <row r="106" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="15">
         <v>45287</v>
       </c>
@@ -8959,152 +9297,164 @@
       <c r="K176" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I101" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:I107" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters blank="1">
+        <filter val="Beiträge an OV"/>
+        <filter val="Nebenkosten"/>
+        <filter val="Sonstiges"/>
+        <filter val="Spenden"/>
+        <filter val="T. z. g. Laune"/>
+        <filter val="Weihnachtsfeier"/>
+        <filter val="Zinsen"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="A94:A97">
-    <cfRule type="cellIs" dxfId="64" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93:C93">
-    <cfRule type="cellIs" dxfId="63" priority="136" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="136" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83">
-    <cfRule type="cellIs" dxfId="62" priority="150" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="150" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C99:D100">
-    <cfRule type="cellIs" dxfId="61" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D16">
-    <cfRule type="cellIs" dxfId="60" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:D68">
-    <cfRule type="cellIs" dxfId="59" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71:D73">
-    <cfRule type="cellIs" dxfId="58" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:D87">
-    <cfRule type="cellIs" dxfId="57" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:G17">
-    <cfRule type="cellIs" dxfId="56" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:G70 E71:G71 E73:G73 D74:G82">
-    <cfRule type="cellIs" dxfId="55" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88:G98">
-    <cfRule type="cellIs" dxfId="54" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D101:G110">
-    <cfRule type="cellIs" dxfId="53" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="52" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="51" priority="181" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="181" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21:F21">
-    <cfRule type="cellIs" dxfId="50" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="cellIs" dxfId="49" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:F32">
-    <cfRule type="cellIs" dxfId="48" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:G15">
-    <cfRule type="cellIs" dxfId="47" priority="238" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="238" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:G27">
-    <cfRule type="cellIs" dxfId="46" priority="220" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="220" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38:G41">
-    <cfRule type="cellIs" dxfId="45" priority="201" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="201" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84:G87">
-    <cfRule type="cellIs" dxfId="44" priority="137" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="137" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:I3 G4:G13 H4:I27 G16 G18:G24 G26 H29:I110 E60:G61 F62 G62:G63 F64:G64 E65:G65 F66:G66 E67:G67 G83 G99 E100:G100 D110:I110 E111:I175 D115">
-    <cfRule type="cellIs" dxfId="43" priority="302" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="302" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="42" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25:G25">
-    <cfRule type="cellIs" dxfId="41" priority="223" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="223" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F68:G68">
-    <cfRule type="cellIs" dxfId="40" priority="166" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="166" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F72:G72">
-    <cfRule type="cellIs" dxfId="39" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:G32 E33:G34 G35:G37">
-    <cfRule type="cellIs" dxfId="38" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42:G47 E48:G49 G50:G51 E51:F51 F52:G52 E53:G53 F54:G59">
-    <cfRule type="cellIs" dxfId="37" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:I28">
-    <cfRule type="cellIs" dxfId="36" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9127,14 +9477,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:IM241"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I107" sqref="I107"/>
+      <pane ySplit="2" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3:J171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9220,7 +9570,7 @@
         <v>48</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
@@ -11567,7 +11917,7 @@
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
     </row>
-    <row r="96" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="43"/>
       <c r="B96" s="15">
         <v>45119</v>
@@ -11694,7 +12044,7 @@
       <c r="IL100"/>
       <c r="IM100"/>
     </row>
-    <row r="101" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:247" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="43"/>
       <c r="B101" s="15">
         <v>45124</v>
@@ -11769,7 +12119,7 @@
       <c r="L103" s="2"/>
       <c r="M103" s="2"/>
     </row>
-    <row r="104" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:247" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="43"/>
       <c r="B104" s="15">
         <v>45128</v>
@@ -12494,7 +12844,7 @@
       <c r="L132" s="2"/>
       <c r="M132" s="2"/>
     </row>
-    <row r="133" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="43"/>
       <c r="B133" s="15">
         <v>45211</v>
@@ -13393,7 +13743,7 @@
       <c r="L168" s="2"/>
       <c r="M168" s="2"/>
     </row>
-    <row r="169" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:247" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="43"/>
       <c r="B169" s="15">
         <v>45282</v>
@@ -13418,7 +13768,7 @@
       <c r="L169" s="2"/>
       <c r="M169" s="2"/>
     </row>
-    <row r="170" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:247" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="43"/>
       <c r="B170" s="15">
         <v>45287</v>
@@ -14505,192 +14855,206 @@
       <c r="I241" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:K165" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="B2:K170" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Büromaterial"/>
+        <filter val="Jubiläen"/>
+        <filter val="Nebenkosten"/>
+        <filter val="Portoauslagen"/>
+        <filter val="Sonstiges"/>
+        <filter val="Spenden"/>
+        <filter val="T. z. g. Laune"/>
+        <filter val="Versicherung"/>
+        <filter val="Weihnachtsfeier"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A239 B126:B130">
-    <cfRule type="cellIs" dxfId="35" priority="468" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="468" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B132:B134">
-    <cfRule type="cellIs" dxfId="34" priority="462" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="462" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136:B140">
-    <cfRule type="cellIs" dxfId="33" priority="451" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="451" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B160:B161">
-    <cfRule type="cellIs" dxfId="32" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B164:B241">
-    <cfRule type="cellIs" dxfId="31" priority="414" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="414" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B152:C155">
-    <cfRule type="cellIs" dxfId="30" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162:C163">
-    <cfRule type="cellIs" dxfId="29" priority="416" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="416" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156:D158">
-    <cfRule type="cellIs" dxfId="28" priority="428" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="428" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159:E159">
-    <cfRule type="cellIs" dxfId="27" priority="425" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="425" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C113">
-    <cfRule type="cellIs" dxfId="26" priority="489" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="489" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C123">
-    <cfRule type="cellIs" dxfId="25" priority="606" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="606" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C133:C136">
-    <cfRule type="cellIs" dxfId="24" priority="458" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="458" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C147:C148">
-    <cfRule type="cellIs" dxfId="23" priority="438" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="438" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C112:D112 C125 C128:C129 B131:D131 C140 C146:D146 C164:C240 K176 J176:J239 I176:I241">
-    <cfRule type="cellIs" dxfId="22" priority="698" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="698" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C130:D130">
-    <cfRule type="cellIs" dxfId="21" priority="466" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="466" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C149:D151">
-    <cfRule type="cellIs" dxfId="20" priority="437" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="437" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C160:E160">
-    <cfRule type="cellIs" dxfId="19" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D147">
-    <cfRule type="cellIs" dxfId="18" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D161:E168">
-    <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D176:H239">
-    <cfRule type="cellIs" dxfId="16" priority="650" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="650" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E158">
-    <cfRule type="cellIs" dxfId="15" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E169:E173 D174:E176">
-    <cfRule type="cellIs" dxfId="14" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="13" priority="582" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="582" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="cellIs" dxfId="12" priority="178" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="178" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="11" priority="176" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="176" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="10" priority="566" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="566" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44:F45">
-    <cfRule type="cellIs" dxfId="9" priority="380" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="380" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="cellIs" dxfId="8" priority="154" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="154" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62:F64">
-    <cfRule type="cellIs" dxfId="7" priority="359" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="359" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F87">
-    <cfRule type="cellIs" dxfId="6" priority="127" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="127" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F96:F97">
-    <cfRule type="cellIs" dxfId="5" priority="111" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="111" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F108">
-    <cfRule type="cellIs" dxfId="4" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F120:F121">
-    <cfRule type="cellIs" dxfId="3" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F135:F136">
-    <cfRule type="cellIs" dxfId="2" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F143:F145">
-    <cfRule type="cellIs" dxfId="1" priority="443" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="443" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F147:F148">
-    <cfRule type="cellIs" dxfId="0" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E152 E109:E111 E132:E140 E32:E87 E89 E3:E30 E91:E93 E95:E96 E100:E102 E104 E106:E107 E114:E117 E119:E120 E123:E125 E128:E129 E142 E144 E146:E148 E150 E154:E155 E157 E159 E161:E165 E168:E174" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E152 E109:E111 E132:E140 E32:E87 E89 E168:E174 E91:E93 E95:E96 E100:E102 E104 E106:E107 E114:E117 E119:E120 E123:E125 E128:E129 E142 E144 E146:E148 E150 E154:E155 E157 E159 E161:E165 E3:E30" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$M$1:$M$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E31" xr:uid="{00000000-0002-0000-0100-000004000000}">
@@ -14716,8 +15080,8 @@
   </sheetPr>
   <dimension ref="A1:IV281"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25:I25"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -14871,21 +15235,21 @@
     <row r="4" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
       <c r="B4" s="68" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C4" s="74"/>
       <c r="D4" s="75">
-        <v>119.3</v>
+        <v>1334.63</v>
       </c>
       <c r="E4" s="75"/>
       <c r="F4" s="75"/>
       <c r="G4" s="76"/>
       <c r="H4" s="61">
         <f t="shared" ref="H4:H9" si="0">SUM(C4:G4)</f>
-        <v>119.3</v>
+        <v>1334.63</v>
       </c>
       <c r="I4" s="62" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J4"/>
       <c r="K4"/>
@@ -14946,21 +15310,21 @@
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
       <c r="B5" s="66" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C5" s="77"/>
       <c r="D5" s="58">
-        <v>83.35</v>
+        <v>393.27</v>
       </c>
       <c r="E5" s="58"/>
       <c r="F5" s="58"/>
       <c r="G5" s="78"/>
       <c r="H5" s="61">
         <f t="shared" si="0"/>
-        <v>83.35</v>
+        <v>393.27</v>
       </c>
       <c r="I5" s="62" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J5"/>
       <c r="K5"/>
@@ -15021,23 +15385,21 @@
     <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
       <c r="B6" s="66" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="77">
-        <v>644.29999999999995</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C6" s="77"/>
       <c r="D6" s="58">
-        <v>2200</v>
+        <v>519.57999999999993</v>
       </c>
       <c r="E6" s="58"/>
       <c r="F6" s="58"/>
       <c r="G6" s="78"/>
       <c r="H6" s="61">
         <f t="shared" si="0"/>
-        <v>2844.3</v>
+        <v>519.57999999999993</v>
       </c>
       <c r="I6" s="62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J6"/>
       <c r="K6"/>
@@ -15098,23 +15460,23 @@
     <row r="7" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
       <c r="B7" s="66" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C7" s="77">
-        <v>589.79999999999995</v>
+        <v>403</v>
       </c>
       <c r="D7" s="58">
-        <v>1778.1</v>
+        <v>2599.19</v>
       </c>
       <c r="E7" s="58"/>
       <c r="F7" s="58"/>
       <c r="G7" s="78"/>
       <c r="H7" s="61">
         <f t="shared" si="0"/>
-        <v>2367.8999999999996</v>
+        <v>3002.19</v>
       </c>
       <c r="I7" s="62" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J7"/>
       <c r="K7"/>
@@ -15175,21 +15537,23 @@
     <row r="8" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="65"/>
       <c r="B8" s="66" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C8" s="77">
-        <v>474</v>
-      </c>
-      <c r="D8" s="58"/>
+        <v>1277.7</v>
+      </c>
+      <c r="D8" s="58">
+        <v>3880.55</v>
+      </c>
       <c r="E8" s="58"/>
       <c r="F8" s="58"/>
       <c r="G8" s="78"/>
       <c r="H8" s="61">
         <f t="shared" si="0"/>
-        <v>474</v>
+        <v>5158.25</v>
       </c>
       <c r="I8" s="62" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="J8"/>
       <c r="K8"/>
@@ -15250,23 +15614,23 @@
     <row r="9" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="65"/>
       <c r="B9" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="77"/>
+        <v>19</v>
+      </c>
+      <c r="C9" s="77">
+        <v>598</v>
+      </c>
       <c r="D9" s="58">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="E9" s="58"/>
       <c r="F9" s="58"/>
-      <c r="G9" s="78">
-        <v>0.01</v>
-      </c>
+      <c r="G9" s="78"/>
       <c r="H9" s="61">
         <f t="shared" si="0"/>
-        <v>110.01</v>
+        <v>598</v>
       </c>
       <c r="I9" s="62" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J9"/>
       <c r="K9"/>
@@ -15327,21 +15691,23 @@
     <row r="10" spans="1:64" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="45"/>
       <c r="B10" s="69" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="77"/>
       <c r="D10" s="58">
-        <v>1373.74</v>
+        <v>118.5</v>
       </c>
       <c r="E10" s="58"/>
       <c r="F10" s="58"/>
-      <c r="G10" s="78"/>
+      <c r="G10" s="78">
+        <v>0.01</v>
+      </c>
       <c r="H10" s="61">
         <f t="shared" ref="H10" si="1">SUM(C10:G10)</f>
-        <v>1373.74</v>
+        <v>118.51</v>
       </c>
       <c r="I10" s="62" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J10"/>
       <c r="K10"/>
@@ -15405,10 +15771,10 @@
         <v>40</v>
       </c>
       <c r="C11" s="79">
-        <v>1708.1</v>
+        <v>2278.6999999999998</v>
       </c>
       <c r="D11" s="80">
-        <v>5664.49</v>
+        <v>8845.7200000000012</v>
       </c>
       <c r="E11" s="80"/>
       <c r="F11" s="80"/>
@@ -15417,7 +15783,7 @@
       </c>
       <c r="H11" s="82">
         <f t="shared" ref="H11" si="2">SUM(C11:G11)</f>
-        <v>7372.6</v>
+        <v>11124.430000000002</v>
       </c>
       <c r="I11" s="83" t="s">
         <v>41</v>
@@ -15713,18 +16079,16 @@
       <c r="B17" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="74">
-        <v>-22.09</v>
-      </c>
+      <c r="C17" s="74"/>
       <c r="D17" s="75">
-        <v>-91.59</v>
+        <v>-148.5</v>
       </c>
       <c r="E17" s="75"/>
       <c r="F17" s="75"/>
       <c r="G17" s="76"/>
       <c r="H17" s="61">
         <f t="shared" ref="H17:H25" si="3">SUM(C17:G17)</f>
-        <v>-113.68</v>
+        <v>-148.5</v>
       </c>
       <c r="I17" s="62" t="s">
         <v>15</v>
@@ -15737,14 +16101,14 @@
       </c>
       <c r="C18" s="77"/>
       <c r="D18" s="58">
-        <v>-464.53</v>
+        <v>-380.98</v>
       </c>
       <c r="E18" s="58"/>
       <c r="F18" s="58"/>
       <c r="G18" s="78"/>
       <c r="H18" s="61">
         <f t="shared" si="3"/>
-        <v>-464.53</v>
+        <v>-380.98</v>
       </c>
       <c r="I18" s="62" t="s">
         <v>23</v>
@@ -15757,16 +16121,14 @@
       </c>
       <c r="C19" s="77"/>
       <c r="D19" s="58">
-        <v>-2776.8199999999997</v>
+        <v>-2980.8100000000009</v>
       </c>
       <c r="E19" s="58"/>
-      <c r="F19" s="58">
-        <v>-167.43</v>
-      </c>
+      <c r="F19" s="58"/>
       <c r="G19" s="78"/>
       <c r="H19" s="61">
         <f t="shared" si="3"/>
-        <v>-2944.2499999999995</v>
+        <v>-2980.8100000000009</v>
       </c>
       <c r="I19" s="62" t="s">
         <v>22</v>
@@ -15777,20 +16139,18 @@
       <c r="B20" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="77">
-        <v>-40</v>
-      </c>
+      <c r="C20" s="77"/>
       <c r="D20" s="58">
-        <v>-1232.8200000000002</v>
+        <v>-2384.2699999999995</v>
       </c>
       <c r="E20" s="58"/>
       <c r="F20" s="58">
-        <v>-1</v>
+        <v>-165.26</v>
       </c>
       <c r="G20" s="78"/>
       <c r="H20" s="61">
         <f t="shared" si="3"/>
-        <v>-1273.8200000000002</v>
+        <v>-2549.5299999999997</v>
       </c>
       <c r="I20" s="62" t="s">
         <v>14</v>
@@ -15803,14 +16163,14 @@
       </c>
       <c r="C21" s="77"/>
       <c r="D21" s="58">
-        <v>-375</v>
+        <v>-855</v>
       </c>
       <c r="E21" s="58"/>
       <c r="F21" s="58"/>
       <c r="G21" s="78"/>
       <c r="H21" s="61">
         <f t="shared" si="3"/>
-        <v>-375</v>
+        <v>-855</v>
       </c>
       <c r="I21" s="62" t="s">
         <v>13</v>
@@ -15821,18 +16181,16 @@
       <c r="B22" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="77">
-        <v>-30</v>
-      </c>
+      <c r="C22" s="77"/>
       <c r="D22" s="58">
-        <v>-1630.8100000000006</v>
+        <v>-3633.85</v>
       </c>
       <c r="E22" s="58"/>
       <c r="F22" s="58"/>
       <c r="G22" s="78"/>
       <c r="H22" s="61">
         <f t="shared" si="3"/>
-        <v>-1660.8100000000006</v>
+        <v>-3633.85</v>
       </c>
       <c r="I22" s="62" t="s">
         <v>0</v>
@@ -15845,14 +16203,14 @@
       </c>
       <c r="C23" s="77"/>
       <c r="D23" s="58">
-        <v>-1523.1000000000001</v>
+        <v>-1046</v>
       </c>
       <c r="E23" s="58"/>
       <c r="F23" s="58"/>
       <c r="G23" s="78"/>
       <c r="H23" s="61">
         <f t="shared" si="3"/>
-        <v>-1523.1000000000001</v>
+        <v>-1046</v>
       </c>
       <c r="I23" s="62" t="s">
         <v>19</v>
@@ -15865,14 +16223,14 @@
       </c>
       <c r="C24" s="77"/>
       <c r="D24" s="58">
-        <v>-25.5</v>
+        <v>-46.239999999999995</v>
       </c>
       <c r="E24" s="58"/>
       <c r="F24" s="58"/>
       <c r="G24" s="78"/>
       <c r="H24" s="61">
         <f t="shared" si="3"/>
-        <v>-25.5</v>
+        <v>-46.239999999999995</v>
       </c>
       <c r="I24" s="62" t="s">
         <v>20</v>
@@ -15883,20 +16241,18 @@
       <c r="B25" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="79">
-        <v>-92.09</v>
-      </c>
+      <c r="C25" s="79"/>
       <c r="D25" s="80">
-        <v>-8120.170000000001</v>
+        <v>-11475.65</v>
       </c>
       <c r="E25" s="80"/>
       <c r="F25" s="80">
-        <v>-168.43</v>
+        <v>-165.26</v>
       </c>
       <c r="G25" s="81"/>
       <c r="H25" s="82">
         <f t="shared" si="3"/>
-        <v>-8380.69</v>
+        <v>-11640.91</v>
       </c>
       <c r="I25" s="83" t="s">
         <v>42</v>

--- a/2023/AWO_Einnahmen_Ausgaben_2023.xlsx
+++ b/2023/AWO_Einnahmen_Ausgaben_2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubDesktopFiles\AWO\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBA35AC-AE9B-4B24-8DEB-49D69DF5F7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11977D9A-F2F1-472F-AFB8-276B4C2E6919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,8 +25,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="21" r:id="rId4"/>
-    <pivotCache cacheId="25" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -1411,295 +1411,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="89">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="71">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -4513,116 +4225,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="12">
-        <item h="1" x="6"/>
-        <item x="7"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item h="1" x="0"/>
-        <item m="1" x="10"/>
-        <item x="2"/>
-        <item m="1" x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </colItems>
-  <dataFields count="5">
-    <dataField name="Summe von Barkasse" fld="1" baseField="0" baseItem="0"/>
-    <dataField name="Summe von VOBA" fld="2" baseField="0" baseItem="0"/>
-    <dataField name="Summe von VOBA TgK 630041601" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Summe von KSK" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="85">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="84">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="83">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B16:G25" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -4709,17 +4312,126 @@
     <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="88">
+    <format dxfId="67">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="87">
+    <format dxfId="66">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="86">
+    <format dxfId="65">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:G11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item h="1" x="6"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item h="1" x="0"/>
+        <item m="1" x="10"/>
+        <item x="2"/>
+        <item m="1" x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="Summe von Barkasse" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Summe von VOBA" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Summe von VOBA TgK 630041601" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Summe von KSK" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Summe von KSK SpB 3001734183" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="70">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="69">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="68">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -5846,8 +5558,8 @@
   <dimension ref="A1:IK176"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4:I107"/>
+      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:I97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5916,7 +5628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="10"/>
       <c r="C3" s="49" t="s">
@@ -5968,7 +5680,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <v>44928</v>
       </c>
@@ -5991,7 +5703,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
         <v>44935</v>
       </c>
@@ -6016,7 +5728,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <v>44937</v>
       </c>
@@ -6041,7 +5753,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <v>44937</v>
       </c>
@@ -6066,7 +5778,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>44951</v>
       </c>
@@ -6116,7 +5828,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <v>44958</v>
       </c>
@@ -6141,7 +5853,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
         <v>44965</v>
       </c>
@@ -6191,7 +5903,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
         <v>44971</v>
       </c>
@@ -6216,7 +5928,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15">
         <v>44972</v>
       </c>
@@ -6241,7 +5953,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15">
         <v>44979</v>
       </c>
@@ -6341,7 +6053,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15">
         <v>44991</v>
       </c>
@@ -6366,7 +6078,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
         <v>44991</v>
       </c>
@@ -6389,7 +6101,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15">
         <v>44993</v>
       </c>
@@ -6412,7 +6124,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15">
         <v>45008</v>
       </c>
@@ -6481,7 +6193,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
         <v>45021</v>
       </c>
@@ -6527,7 +6239,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15">
         <v>45035</v>
       </c>
@@ -6573,7 +6285,7 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15">
         <v>45037</v>
       </c>
@@ -6596,7 +6308,7 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="15">
         <v>45040</v>
       </c>
@@ -6619,7 +6331,7 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="15">
         <v>45048</v>
       </c>
@@ -6665,7 +6377,7 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="15">
         <v>45048</v>
       </c>
@@ -6688,7 +6400,7 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="15">
         <v>45049</v>
       </c>
@@ -6711,7 +6423,7 @@
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="15">
         <v>45055</v>
       </c>
@@ -6734,7 +6446,7 @@
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15">
         <v>45063</v>
       </c>
@@ -6757,7 +6469,7 @@
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="15">
         <v>45065</v>
       </c>
@@ -6872,7 +6584,7 @@
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="15">
         <v>45076</v>
       </c>
@@ -6895,7 +6607,7 @@
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="15">
         <v>45076</v>
       </c>
@@ -6918,7 +6630,7 @@
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="15">
         <v>45079</v>
       </c>
@@ -6941,7 +6653,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
     </row>
-    <row r="46" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="15">
         <v>45084</v>
       </c>
@@ -6964,7 +6676,7 @@
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="15">
         <v>45091</v>
       </c>
@@ -6987,7 +6699,7 @@
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="15">
         <v>45092</v>
       </c>
@@ -7033,7 +6745,7 @@
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
     </row>
-    <row r="50" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="15">
         <v>45100</v>
       </c>
@@ -7056,7 +6768,7 @@
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
     </row>
-    <row r="51" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="15">
         <v>45105</v>
       </c>
@@ -7102,7 +6814,7 @@
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
     </row>
-    <row r="53" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="15">
         <v>45119</v>
       </c>
@@ -7125,7 +6837,7 @@
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
     </row>
-    <row r="54" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="15">
         <v>45120</v>
       </c>
@@ -7148,7 +6860,7 @@
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
     </row>
-    <row r="55" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="15">
         <v>45124</v>
       </c>
@@ -7217,7 +6929,7 @@
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
     </row>
-    <row r="58" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="15">
         <v>45126</v>
       </c>
@@ -7263,7 +6975,7 @@
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
     </row>
-    <row r="60" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="15">
         <v>45134</v>
       </c>
@@ -7309,7 +7021,7 @@
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
     </row>
-    <row r="62" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="15">
         <v>45145</v>
       </c>
@@ -7331,7 +7043,7 @@
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
     </row>
-    <row r="63" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="15">
         <v>45154</v>
       </c>
@@ -7354,7 +7066,7 @@
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
     </row>
-    <row r="64" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="15">
         <v>45173</v>
       </c>
@@ -7377,7 +7089,7 @@
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
     </row>
-    <row r="65" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="15">
         <v>45175</v>
       </c>
@@ -7400,7 +7112,7 @@
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
     </row>
-    <row r="66" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="15">
         <v>45182</v>
       </c>
@@ -7423,7 +7135,7 @@
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
     </row>
-    <row r="67" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="15">
         <v>45190</v>
       </c>
@@ -7446,7 +7158,7 @@
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
     </row>
-    <row r="68" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="15">
         <v>45196</v>
       </c>
@@ -7469,7 +7181,7 @@
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
     </row>
-    <row r="69" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="15">
         <v>45201</v>
       </c>
@@ -7492,7 +7204,7 @@
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
     </row>
-    <row r="70" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="15">
         <v>45203</v>
       </c>
@@ -7538,7 +7250,7 @@
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
     </row>
-    <row r="72" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="15">
         <v>45215</v>
       </c>
@@ -7561,7 +7273,7 @@
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
     </row>
-    <row r="73" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="15">
         <v>45216</v>
       </c>
@@ -7584,7 +7296,7 @@
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
     </row>
-    <row r="74" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="15">
         <v>45217</v>
       </c>
@@ -7607,7 +7319,7 @@
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
     </row>
-    <row r="75" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="15">
         <v>45233</v>
       </c>
@@ -7722,7 +7434,7 @@
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
     </row>
-    <row r="80" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="15">
         <v>45243</v>
       </c>
@@ -7745,7 +7457,7 @@
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="15">
         <v>45245</v>
       </c>
@@ -7768,7 +7480,7 @@
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
     </row>
-    <row r="82" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="15">
         <v>45246</v>
       </c>
@@ -7837,7 +7549,7 @@
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
     </row>
-    <row r="85" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="15">
         <v>45259</v>
       </c>
@@ -7860,7 +7572,7 @@
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
     </row>
-    <row r="86" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="15">
         <v>45259</v>
       </c>
@@ -7883,7 +7595,7 @@
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
     </row>
-    <row r="87" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="15">
         <v>45259</v>
       </c>
@@ -7906,7 +7618,7 @@
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
     </row>
-    <row r="88" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="15">
         <v>45259</v>
       </c>
@@ -7929,7 +7641,7 @@
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
     </row>
-    <row r="89" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="15">
         <v>45260</v>
       </c>
@@ -7998,7 +7710,7 @@
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
     </row>
-    <row r="92" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="15">
         <v>45273</v>
       </c>
@@ -8021,7 +7733,7 @@
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
     </row>
-    <row r="93" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="15">
         <v>45277</v>
       </c>
@@ -8067,7 +7779,7 @@
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
     </row>
-    <row r="95" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="15">
         <v>45277</v>
       </c>
@@ -8090,7 +7802,7 @@
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
     </row>
-    <row r="96" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="15">
         <v>45277</v>
       </c>
@@ -8136,7 +7848,7 @@
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
     </row>
-    <row r="98" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="15">
         <v>45278</v>
       </c>
@@ -8159,7 +7871,7 @@
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
     </row>
-    <row r="99" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="15">
         <v>45278</v>
       </c>
@@ -8182,7 +7894,7 @@
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
     </row>
-    <row r="100" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="15">
         <v>45278</v>
       </c>
@@ -8205,7 +7917,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
     </row>
-    <row r="101" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="15">
         <v>45278</v>
       </c>
@@ -8228,7 +7940,7 @@
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
     </row>
-    <row r="102" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="15">
         <v>45280</v>
       </c>
@@ -8251,7 +7963,7 @@
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
     </row>
-    <row r="103" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="15">
         <v>45281</v>
       </c>
@@ -8297,7 +8009,7 @@
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
     </row>
-    <row r="105" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="15">
         <v>45287</v>
       </c>
@@ -8343,7 +8055,7 @@
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
     </row>
-    <row r="107" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="15">
         <v>45289</v>
       </c>
@@ -9299,14 +9011,8 @@
   </sheetData>
   <autoFilter ref="A2:I107" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="3">
-      <filters blank="1">
-        <filter val="Beiträge an OV"/>
-        <filter val="Nebenkosten"/>
-        <filter val="Sonstiges"/>
+      <filters>
         <filter val="Spenden"/>
-        <filter val="T. z. g. Laune"/>
-        <filter val="Weihnachtsfeier"/>
-        <filter val="Zinsen"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -9314,147 +9020,147 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="A94:A97">
-    <cfRule type="cellIs" dxfId="82" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93:C93">
-    <cfRule type="cellIs" dxfId="81" priority="136" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="136" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83">
-    <cfRule type="cellIs" dxfId="80" priority="150" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="150" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C99:D100">
-    <cfRule type="cellIs" dxfId="79" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D16">
-    <cfRule type="cellIs" dxfId="78" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:D68">
-    <cfRule type="cellIs" dxfId="77" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71:D73">
-    <cfRule type="cellIs" dxfId="76" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:D87">
-    <cfRule type="cellIs" dxfId="75" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:G17">
-    <cfRule type="cellIs" dxfId="74" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:G70 E71:G71 E73:G73 D74:G82">
-    <cfRule type="cellIs" dxfId="73" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88:G98">
-    <cfRule type="cellIs" dxfId="72" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D101:G110">
-    <cfRule type="cellIs" dxfId="71" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="70" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="69" priority="181" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="181" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21:F21">
-    <cfRule type="cellIs" dxfId="68" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="cellIs" dxfId="67" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:F32">
-    <cfRule type="cellIs" dxfId="66" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:G15">
-    <cfRule type="cellIs" dxfId="65" priority="238" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="238" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:G27">
-    <cfRule type="cellIs" dxfId="64" priority="220" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="220" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38:G41">
-    <cfRule type="cellIs" dxfId="63" priority="201" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="201" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84:G87">
-    <cfRule type="cellIs" dxfId="62" priority="137" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="137" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:I3 G4:G13 H4:I27 G16 G18:G24 G26 H29:I110 E60:G61 F62 G62:G63 F64:G64 E65:G65 F66:G66 E67:G67 G83 G99 E100:G100 D110:I110 E111:I175 D115">
-    <cfRule type="cellIs" dxfId="61" priority="302" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="302" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="60" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25:G25">
-    <cfRule type="cellIs" dxfId="59" priority="223" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="223" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F68:G68">
-    <cfRule type="cellIs" dxfId="58" priority="166" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="166" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F72:G72">
-    <cfRule type="cellIs" dxfId="57" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:G32 E33:G34 G35:G37">
-    <cfRule type="cellIs" dxfId="56" priority="77" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="77" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42:G47 E48:G49 G50:G51 E51:F51 F52:G52 E53:G53 F54:G59">
-    <cfRule type="cellIs" dxfId="55" priority="48" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="48" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:I28">
-    <cfRule type="cellIs" dxfId="54" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9483,8 +9189,8 @@
   <dimension ref="A1:IM241"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3:J171"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4:J162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9558,7 +9264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="43"/>
       <c r="B3" s="15">
         <v>44928</v>
@@ -9612,7 +9318,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="43"/>
       <c r="B5" s="15">
         <v>44928</v>
@@ -9639,7 +9345,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="43"/>
       <c r="B6" s="15">
         <v>44930</v>
@@ -9666,7 +9372,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="43"/>
       <c r="B7" s="15">
         <v>44930</v>
@@ -9693,7 +9399,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="43"/>
       <c r="B8" s="15">
         <v>44935</v>
@@ -9720,7 +9426,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="43"/>
       <c r="B9" s="15">
         <v>44942</v>
@@ -9747,7 +9453,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="43"/>
       <c r="B10" s="15">
         <v>44944</v>
@@ -9774,7 +9480,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="43"/>
       <c r="B11" s="15">
         <v>44949</v>
@@ -9801,7 +9507,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="43"/>
       <c r="B12" s="15">
         <v>44950</v>
@@ -9828,7 +9534,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="43"/>
       <c r="B13" s="15">
         <v>44952</v>
@@ -9855,7 +9561,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="43"/>
       <c r="B14" s="15">
         <v>44952</v>
@@ -9882,7 +9588,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="43"/>
       <c r="B15" s="15">
         <v>44957</v>
@@ -9909,7 +9615,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="43"/>
       <c r="B16" s="15">
         <v>44958</v>
@@ -9936,7 +9642,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="43"/>
       <c r="B17" s="15">
         <v>44958</v>
@@ -9963,7 +9669,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="43"/>
       <c r="B18" s="15">
         <v>44959</v>
@@ -9990,7 +9696,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="43"/>
       <c r="B19" s="15">
         <v>44963</v>
@@ -10017,7 +9723,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="43"/>
       <c r="B20" s="15">
         <v>44963</v>
@@ -10042,7 +9748,7 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="43"/>
       <c r="B21" s="15">
         <v>44963</v>
@@ -10067,7 +9773,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="43"/>
       <c r="B22" s="15">
         <v>44965</v>
@@ -10092,7 +9798,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="43"/>
       <c r="B23" s="15">
         <v>44970</v>
@@ -10117,7 +9823,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="43"/>
       <c r="B24" s="15">
         <v>44972</v>
@@ -10142,7 +9848,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="43"/>
       <c r="B25" s="15">
         <v>44973</v>
@@ -10167,7 +9873,7 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="43"/>
       <c r="B26" s="15">
         <v>44974</v>
@@ -10192,7 +9898,7 @@
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="43"/>
       <c r="B27" s="15">
         <v>44977</v>
@@ -10217,7 +9923,7 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="43"/>
       <c r="B28" s="15">
         <v>44978</v>
@@ -10242,7 +9948,7 @@
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="43"/>
       <c r="B29" s="15">
         <v>44978</v>
@@ -10267,7 +9973,7 @@
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="43"/>
       <c r="B30" s="15">
         <v>44978</v>
@@ -10317,7 +10023,7 @@
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="43"/>
       <c r="B32" s="15">
         <v>44979</v>
@@ -10342,7 +10048,7 @@
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="43"/>
       <c r="B33" s="15">
         <v>44985</v>
@@ -10367,7 +10073,7 @@
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
     </row>
-    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="43"/>
       <c r="B34" s="15">
         <v>44986</v>
@@ -10392,7 +10098,7 @@
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="43"/>
       <c r="B35" s="15">
         <v>44987</v>
@@ -10417,7 +10123,7 @@
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="43"/>
       <c r="B36" s="15">
         <v>44987</v>
@@ -10442,7 +10148,7 @@
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="43"/>
       <c r="B37" s="15">
         <v>44987</v>
@@ -10467,7 +10173,7 @@
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
     </row>
-    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="43"/>
       <c r="B38" s="15">
         <v>44987</v>
@@ -10492,7 +10198,7 @@
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
     </row>
-    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="43"/>
       <c r="B39" s="15">
         <v>44993</v>
@@ -10517,7 +10223,7 @@
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
     </row>
-    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="43"/>
       <c r="B40" s="15">
         <v>45001</v>
@@ -10542,7 +10248,7 @@
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
     </row>
-    <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="43"/>
       <c r="B41" s="15">
         <v>45002</v>
@@ -10567,7 +10273,7 @@
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
     </row>
-    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="43"/>
       <c r="B42" s="15">
         <v>45012</v>
@@ -10592,7 +10298,7 @@
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
     </row>
-    <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="43"/>
       <c r="B43" s="15">
         <v>45012</v>
@@ -10617,7 +10323,7 @@
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
     </row>
-    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="43"/>
       <c r="B44" s="15">
         <v>45016</v>
@@ -10642,7 +10348,7 @@
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
     </row>
-    <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="43"/>
       <c r="B45" s="15">
         <v>45016</v>
@@ -10667,7 +10373,7 @@
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
     </row>
-    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="43"/>
       <c r="B46" s="15">
         <v>45019</v>
@@ -10692,7 +10398,7 @@
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
     </row>
-    <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="43"/>
       <c r="B47" s="15">
         <v>45020</v>
@@ -10717,7 +10423,7 @@
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
     </row>
-    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="43"/>
       <c r="B48" s="15">
         <v>45020</v>
@@ -10742,7 +10448,7 @@
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
     </row>
-    <row r="49" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="43"/>
       <c r="B49" s="15">
         <v>45029</v>
@@ -10767,7 +10473,7 @@
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
     </row>
-    <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="43"/>
       <c r="B50" s="15">
         <v>45030</v>
@@ -10792,7 +10498,7 @@
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
     </row>
-    <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="43"/>
       <c r="B51" s="15">
         <v>45033</v>
@@ -10817,7 +10523,7 @@
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
     </row>
-    <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="43"/>
       <c r="B52" s="15">
         <v>45035</v>
@@ -10842,7 +10548,7 @@
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
     </row>
-    <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="43"/>
       <c r="B53" s="15">
         <v>45036</v>
@@ -10867,7 +10573,7 @@
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
     </row>
-    <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="43"/>
       <c r="B54" s="15">
         <v>45040</v>
@@ -10892,7 +10598,7 @@
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
     </row>
-    <row r="55" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="43"/>
       <c r="B55" s="15">
         <v>45048</v>
@@ -10917,7 +10623,7 @@
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
     </row>
-    <row r="56" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="43"/>
       <c r="B56" s="15">
         <v>45048</v>
@@ -10942,7 +10648,7 @@
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
     </row>
-    <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="43"/>
       <c r="B57" s="15">
         <v>45048</v>
@@ -10967,7 +10673,7 @@
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
     </row>
-    <row r="58" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="43"/>
       <c r="B58" s="15">
         <v>45048</v>
@@ -10992,7 +10698,7 @@
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
     </row>
-    <row r="59" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="43"/>
       <c r="B59" s="15">
         <v>45049</v>
@@ -11017,7 +10723,7 @@
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
     </row>
-    <row r="60" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="43"/>
       <c r="B60" s="15">
         <v>45049</v>
@@ -11042,7 +10748,7 @@
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
     </row>
-    <row r="61" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="43"/>
       <c r="B61" s="15">
         <v>45049</v>
@@ -11067,7 +10773,7 @@
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
     </row>
-    <row r="62" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="43"/>
       <c r="B62" s="15">
         <v>45049</v>
@@ -11092,7 +10798,7 @@
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
     </row>
-    <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="43"/>
       <c r="B63" s="15">
         <v>45050</v>
@@ -11117,7 +10823,7 @@
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
     </row>
-    <row r="64" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="43"/>
       <c r="B64" s="15">
         <v>45054</v>
@@ -11142,7 +10848,7 @@
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
     </row>
-    <row r="65" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="43"/>
       <c r="B65" s="15">
         <v>45054</v>
@@ -11192,7 +10898,7 @@
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
     </row>
-    <row r="67" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="43"/>
       <c r="B67" s="15">
         <v>45056</v>
@@ -11217,7 +10923,7 @@
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
     </row>
-    <row r="68" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="43"/>
       <c r="B68" s="15">
         <v>45061</v>
@@ -11242,7 +10948,7 @@
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
     </row>
-    <row r="69" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="43"/>
       <c r="B69" s="15">
         <v>45061</v>
@@ -11267,7 +10973,7 @@
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
     </row>
-    <row r="70" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="43"/>
       <c r="B70" s="15">
         <v>45063</v>
@@ -11292,7 +10998,7 @@
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
     </row>
-    <row r="71" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="43"/>
       <c r="B71" s="15">
         <v>45065</v>
@@ -11317,7 +11023,7 @@
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
     </row>
-    <row r="72" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="43"/>
       <c r="B72" s="15">
         <v>45065</v>
@@ -11342,7 +11048,7 @@
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
     </row>
-    <row r="73" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="43"/>
       <c r="B73" s="15">
         <v>45065</v>
@@ -11392,7 +11098,7 @@
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
     </row>
-    <row r="75" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="43"/>
       <c r="B75" s="15">
         <v>45070</v>
@@ -11417,7 +11123,7 @@
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
     </row>
-    <row r="76" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="43"/>
       <c r="B76" s="15">
         <v>45076</v>
@@ -11442,7 +11148,7 @@
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
     </row>
-    <row r="77" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="43"/>
       <c r="B77" s="15">
         <v>45076</v>
@@ -11467,7 +11173,7 @@
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
     </row>
-    <row r="78" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="43"/>
       <c r="B78" s="15">
         <v>45078</v>
@@ -11492,7 +11198,7 @@
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
     </row>
-    <row r="79" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="43"/>
       <c r="B79" s="15">
         <v>45079</v>
@@ -11517,7 +11223,7 @@
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
     </row>
-    <row r="80" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="43"/>
       <c r="B80" s="15">
         <v>45079</v>
@@ -11542,7 +11248,7 @@
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
     </row>
-    <row r="81" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="43"/>
       <c r="B81" s="15">
         <v>45079</v>
@@ -11567,7 +11273,7 @@
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
     </row>
-    <row r="82" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="43"/>
       <c r="B82" s="15">
         <v>45084</v>
@@ -11592,7 +11298,7 @@
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
     </row>
-    <row r="83" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="43"/>
       <c r="B83" s="15">
         <v>45084</v>
@@ -11617,7 +11323,7 @@
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
     </row>
-    <row r="84" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="43"/>
       <c r="B84" s="15">
         <v>45092</v>
@@ -11642,7 +11348,7 @@
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
     </row>
-    <row r="85" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="43"/>
       <c r="B85" s="15">
         <v>45097</v>
@@ -11667,7 +11373,7 @@
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
     </row>
-    <row r="86" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="43"/>
       <c r="B86" s="15">
         <v>45097</v>
@@ -11692,7 +11398,7 @@
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
     </row>
-    <row r="87" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="43"/>
       <c r="B87" s="15">
         <v>45104</v>
@@ -11717,7 +11423,7 @@
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
     </row>
-    <row r="88" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="43"/>
       <c r="B88" s="15">
         <v>45105</v>
@@ -11742,7 +11448,7 @@
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
     </row>
-    <row r="89" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="43"/>
       <c r="B89" s="15">
         <v>45107</v>
@@ -11767,7 +11473,7 @@
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
     </row>
-    <row r="90" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="43"/>
       <c r="B90" s="15">
         <v>45110</v>
@@ -11792,7 +11498,7 @@
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
     </row>
-    <row r="91" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="43"/>
       <c r="B91" s="15">
         <v>45110</v>
@@ -11817,7 +11523,7 @@
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
     </row>
-    <row r="92" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="43"/>
       <c r="B92" s="15">
         <v>45111</v>
@@ -11842,7 +11548,7 @@
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
     </row>
-    <row r="93" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="43"/>
       <c r="B93" s="15">
         <v>45111</v>
@@ -11867,7 +11573,7 @@
       <c r="L93" s="2"/>
       <c r="M93" s="2"/>
     </row>
-    <row r="94" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="43"/>
       <c r="B94" s="15">
         <v>45118</v>
@@ -11892,7 +11598,7 @@
       <c r="L94" s="2"/>
       <c r="M94" s="2"/>
     </row>
-    <row r="95" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="43"/>
       <c r="B95" s="15">
         <v>45119</v>
@@ -11942,7 +11648,7 @@
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
     </row>
-    <row r="97" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:247" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="43"/>
       <c r="B97" s="15">
         <v>45119</v>
@@ -11967,7 +11673,7 @@
       <c r="L97" s="2"/>
       <c r="M97" s="2"/>
     </row>
-    <row r="98" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:247" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="43"/>
       <c r="B98" s="15">
         <v>45120</v>
@@ -11992,7 +11698,7 @@
       <c r="L98" s="2"/>
       <c r="M98" s="2"/>
     </row>
-    <row r="99" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:247" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="43"/>
       <c r="B99" s="15">
         <v>45120</v>
@@ -12017,7 +11723,7 @@
       <c r="L99" s="2"/>
       <c r="M99" s="2"/>
     </row>
-    <row r="100" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:247" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="43"/>
       <c r="B100" s="15">
         <v>45124</v>
@@ -12069,7 +11775,7 @@
       <c r="L101" s="2"/>
       <c r="M101" s="2"/>
     </row>
-    <row r="102" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:247" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="43"/>
       <c r="B102" s="15">
         <v>45125</v>
@@ -12094,7 +11800,7 @@
       <c r="L102" s="2"/>
       <c r="M102" s="2"/>
     </row>
-    <row r="103" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:247" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="43"/>
       <c r="B103" s="15">
         <v>45127</v>
@@ -12144,7 +11850,7 @@
       <c r="L104" s="2"/>
       <c r="M104" s="2"/>
     </row>
-    <row r="105" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:247" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="43"/>
       <c r="B105" s="15">
         <v>45135</v>
@@ -12169,7 +11875,7 @@
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
     </row>
-    <row r="106" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:247" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="43"/>
       <c r="B106" s="15">
         <v>45139</v>
@@ -12194,7 +11900,7 @@
       <c r="L106" s="2"/>
       <c r="M106" s="2"/>
     </row>
-    <row r="107" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:247" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="43"/>
       <c r="B107" s="15">
         <v>45139</v>
@@ -12219,7 +11925,7 @@
       <c r="L107" s="2"/>
       <c r="M107" s="2"/>
     </row>
-    <row r="108" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:247" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="43"/>
       <c r="B108" s="15">
         <v>45139</v>
@@ -12244,7 +11950,7 @@
       <c r="L108" s="2"/>
       <c r="M108" s="2"/>
     </row>
-    <row r="109" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:247" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="43"/>
       <c r="B109" s="15">
         <v>45140</v>
@@ -12269,7 +11975,7 @@
       <c r="L109" s="2"/>
       <c r="M109" s="2"/>
     </row>
-    <row r="110" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:247" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="43"/>
       <c r="B110" s="15">
         <v>45140</v>
@@ -12319,7 +12025,7 @@
       <c r="L111" s="2"/>
       <c r="M111" s="2"/>
     </row>
-    <row r="112" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:247" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="43"/>
       <c r="B112" s="15">
         <v>45142</v>
@@ -12344,7 +12050,7 @@
       <c r="L112" s="2"/>
       <c r="M112" s="2"/>
     </row>
-    <row r="113" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="43"/>
       <c r="B113" s="15">
         <v>45148</v>
@@ -12369,7 +12075,7 @@
       <c r="L113" s="2"/>
       <c r="M113" s="2"/>
     </row>
-    <row r="114" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="43"/>
       <c r="B114" s="15">
         <v>45155</v>
@@ -12394,7 +12100,7 @@
       <c r="L114" s="2"/>
       <c r="M114" s="2"/>
     </row>
-    <row r="115" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="43"/>
       <c r="B115" s="15">
         <v>45170</v>
@@ -12419,7 +12125,7 @@
       <c r="L115" s="2"/>
       <c r="M115" s="2"/>
     </row>
-    <row r="116" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="43"/>
       <c r="B116" s="15">
         <v>45173</v>
@@ -12444,7 +12150,7 @@
       <c r="L116" s="2"/>
       <c r="M116" s="2"/>
     </row>
-    <row r="117" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="43"/>
       <c r="B117" s="15">
         <v>45173</v>
@@ -12469,7 +12175,7 @@
       <c r="L117" s="2"/>
       <c r="M117" s="2"/>
     </row>
-    <row r="118" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="43"/>
       <c r="B118" s="15">
         <v>45180</v>
@@ -12494,7 +12200,7 @@
       <c r="L118" s="2"/>
       <c r="M118" s="2"/>
     </row>
-    <row r="119" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="43"/>
       <c r="B119" s="15">
         <v>45187</v>
@@ -12519,7 +12225,7 @@
       <c r="L119" s="2"/>
       <c r="M119" s="2"/>
     </row>
-    <row r="120" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="43"/>
       <c r="B120" s="15">
         <v>45187</v>
@@ -12544,7 +12250,7 @@
       <c r="L120" s="2"/>
       <c r="M120" s="2"/>
     </row>
-    <row r="121" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="43"/>
       <c r="B121" s="15">
         <v>45190</v>
@@ -12569,7 +12275,7 @@
       <c r="L121" s="2"/>
       <c r="M121" s="2"/>
     </row>
-    <row r="122" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="43"/>
       <c r="B122" s="15">
         <v>45195</v>
@@ -12594,7 +12300,7 @@
       <c r="L122" s="2"/>
       <c r="M122" s="2"/>
     </row>
-    <row r="123" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="43"/>
       <c r="B123" s="15">
         <v>45198</v>
@@ -12619,7 +12325,7 @@
       <c r="L123" s="2"/>
       <c r="M123" s="2"/>
     </row>
-    <row r="124" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="43"/>
       <c r="B124" s="15">
         <v>45201</v>
@@ -12644,7 +12350,7 @@
       <c r="L124" s="2"/>
       <c r="M124" s="2"/>
     </row>
-    <row r="125" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="43"/>
       <c r="B125" s="15">
         <v>45201</v>
@@ -12669,7 +12375,7 @@
       <c r="L125" s="2"/>
       <c r="M125" s="2"/>
     </row>
-    <row r="126" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="43"/>
       <c r="B126" s="15">
         <v>45203</v>
@@ -12694,7 +12400,7 @@
       <c r="L126" s="2"/>
       <c r="M126" s="2"/>
     </row>
-    <row r="127" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="43"/>
       <c r="B127" s="15">
         <v>45203</v>
@@ -12719,7 +12425,7 @@
       <c r="L127" s="2"/>
       <c r="M127" s="2"/>
     </row>
-    <row r="128" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="43"/>
       <c r="B128" s="15">
         <v>45203</v>
@@ -12744,7 +12450,7 @@
       <c r="L128" s="2"/>
       <c r="M128" s="2"/>
     </row>
-    <row r="129" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="43"/>
       <c r="B129" s="15">
         <v>45203</v>
@@ -12769,7 +12475,7 @@
       <c r="L129" s="2"/>
       <c r="M129" s="2"/>
     </row>
-    <row r="130" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="43"/>
       <c r="B130" s="15">
         <v>45203</v>
@@ -12794,7 +12500,7 @@
       <c r="L130" s="2"/>
       <c r="M130" s="2"/>
     </row>
-    <row r="131" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="43"/>
       <c r="B131" s="15">
         <v>45210</v>
@@ -12819,7 +12525,7 @@
       <c r="L131" s="2"/>
       <c r="M131" s="2"/>
     </row>
-    <row r="132" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="43"/>
       <c r="B132" s="15">
         <v>45211</v>
@@ -12869,7 +12575,7 @@
       <c r="L133" s="2"/>
       <c r="M133" s="2"/>
     </row>
-    <row r="134" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="43"/>
       <c r="B134" s="15">
         <v>45211</v>
@@ -12894,7 +12600,7 @@
       <c r="L134" s="2"/>
       <c r="M134" s="2"/>
     </row>
-    <row r="135" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="43"/>
       <c r="B135" s="15">
         <v>45215</v>
@@ -12919,7 +12625,7 @@
       <c r="L135" s="2"/>
       <c r="M135" s="2"/>
     </row>
-    <row r="136" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="43"/>
       <c r="B136" s="15">
         <v>45217</v>
@@ -12944,7 +12650,7 @@
       <c r="L136" s="2"/>
       <c r="M136" s="2"/>
     </row>
-    <row r="137" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="43"/>
       <c r="B137" s="15">
         <v>45222</v>
@@ -12969,7 +12675,7 @@
       <c r="L137" s="2"/>
       <c r="M137" s="2"/>
     </row>
-    <row r="138" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="43"/>
       <c r="B138" s="15">
         <v>45232</v>
@@ -12994,7 +12700,7 @@
       <c r="L138" s="2"/>
       <c r="M138" s="2"/>
     </row>
-    <row r="139" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="43"/>
       <c r="B139" s="15">
         <v>45233</v>
@@ -13019,7 +12725,7 @@
       <c r="L139" s="2"/>
       <c r="M139" s="2"/>
     </row>
-    <row r="140" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="43"/>
       <c r="B140" s="15">
         <v>45233</v>
@@ -13044,7 +12750,7 @@
       <c r="L140" s="2"/>
       <c r="M140" s="2"/>
     </row>
-    <row r="141" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="43"/>
       <c r="B141" s="15">
         <v>45238</v>
@@ -13069,7 +12775,7 @@
       <c r="L141" s="2"/>
       <c r="M141" s="2"/>
     </row>
-    <row r="142" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="43"/>
       <c r="B142" s="15">
         <v>45239</v>
@@ -13094,7 +12800,7 @@
       <c r="L142" s="2"/>
       <c r="M142" s="2"/>
     </row>
-    <row r="143" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="43"/>
       <c r="B143" s="15">
         <v>45240</v>
@@ -13119,7 +12825,7 @@
       <c r="L143" s="2"/>
       <c r="M143" s="2"/>
     </row>
-    <row r="144" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="43"/>
       <c r="B144" s="15">
         <v>45243</v>
@@ -13144,7 +12850,7 @@
       <c r="L144" s="2"/>
       <c r="M144" s="2"/>
     </row>
-    <row r="145" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="43"/>
       <c r="B145" s="15">
         <v>45244</v>
@@ -13169,7 +12875,7 @@
       <c r="L145" s="2"/>
       <c r="M145" s="2"/>
     </row>
-    <row r="146" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="43"/>
       <c r="B146" s="15">
         <v>45245</v>
@@ -13194,7 +12900,7 @@
       <c r="L146" s="2"/>
       <c r="M146" s="2"/>
     </row>
-    <row r="147" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="43"/>
       <c r="B147" s="15">
         <v>45247</v>
@@ -13218,7 +12924,7 @@
       <c r="K147" s="4"/>
       <c r="L147" s="2"/>
     </row>
-    <row r="148" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="43"/>
       <c r="B148" s="15">
         <v>45251</v>
@@ -13243,7 +12949,7 @@
       <c r="L148" s="2"/>
       <c r="M148" s="2"/>
     </row>
-    <row r="149" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="43"/>
       <c r="B149" s="15">
         <v>45254</v>
@@ -13268,7 +12974,7 @@
       <c r="L149" s="2"/>
       <c r="M149" s="2"/>
     </row>
-    <row r="150" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="43"/>
       <c r="B150" s="15">
         <v>45259</v>
@@ -13293,7 +12999,7 @@
       <c r="L150" s="2"/>
       <c r="M150" s="2"/>
     </row>
-    <row r="151" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="43"/>
       <c r="B151" s="15">
         <v>45259</v>
@@ -13318,7 +13024,7 @@
       <c r="L151" s="2"/>
       <c r="M151" s="2"/>
     </row>
-    <row r="152" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="43"/>
       <c r="B152" s="15">
         <v>45261</v>
@@ -13343,7 +13049,7 @@
       <c r="L152" s="2"/>
       <c r="M152" s="2"/>
     </row>
-    <row r="153" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="43"/>
       <c r="B153" s="15">
         <v>45261</v>
@@ -13368,7 +13074,7 @@
       <c r="L153" s="2"/>
       <c r="M153" s="2"/>
     </row>
-    <row r="154" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="43"/>
       <c r="B154" s="15">
         <v>45264</v>
@@ -13393,7 +13099,7 @@
       <c r="L154" s="2"/>
       <c r="M154" s="2"/>
     </row>
-    <row r="155" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="43"/>
       <c r="B155" s="15">
         <v>45264</v>
@@ -13418,7 +13124,7 @@
       <c r="L155" s="2"/>
       <c r="M155" s="2"/>
     </row>
-    <row r="156" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="43"/>
       <c r="B156" s="15">
         <v>45267</v>
@@ -13443,7 +13149,7 @@
       <c r="L156" s="2"/>
       <c r="M156" s="2"/>
     </row>
-    <row r="157" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="43"/>
       <c r="B157" s="15">
         <v>45271</v>
@@ -13468,7 +13174,7 @@
       <c r="L157" s="2"/>
       <c r="M157" s="2"/>
     </row>
-    <row r="158" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="43"/>
       <c r="B158" s="15">
         <v>45272</v>
@@ -13518,7 +13224,7 @@
       <c r="L159" s="2"/>
       <c r="M159" s="2"/>
     </row>
-    <row r="160" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="43"/>
       <c r="B160" s="15">
         <v>45273</v>
@@ -13593,7 +13299,7 @@
       <c r="L162" s="2"/>
       <c r="M162" s="2"/>
     </row>
-    <row r="163" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:247" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="43"/>
       <c r="B163" s="15">
         <v>45275</v>
@@ -13618,7 +13324,7 @@
       <c r="L163" s="2"/>
       <c r="M163" s="2"/>
     </row>
-    <row r="164" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:247" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="43"/>
       <c r="B164" s="15">
         <v>45279</v>
@@ -13643,7 +13349,7 @@
       <c r="L164" s="2"/>
       <c r="M164" s="2"/>
     </row>
-    <row r="165" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:247" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="43"/>
       <c r="B165" s="15">
         <v>45279</v>
@@ -13668,7 +13374,7 @@
       <c r="L165" s="2"/>
       <c r="M165" s="2"/>
     </row>
-    <row r="166" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:247" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="43"/>
       <c r="B166" s="15">
         <v>45280</v>
@@ -13693,7 +13399,7 @@
       <c r="L166" s="2"/>
       <c r="M166" s="2"/>
     </row>
-    <row r="167" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:247" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="43"/>
       <c r="B167" s="15">
         <v>45280</v>
@@ -13718,7 +13424,7 @@
       <c r="L167" s="2"/>
       <c r="M167" s="2"/>
     </row>
-    <row r="168" spans="1:247" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:247" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="43"/>
       <c r="B168" s="15">
         <v>45282</v>
@@ -14858,15 +14564,7 @@
   <autoFilter ref="B2:K170" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="3">
       <filters>
-        <filter val="Büromaterial"/>
-        <filter val="Jubiläen"/>
-        <filter val="Nebenkosten"/>
-        <filter val="Portoauslagen"/>
-        <filter val="Sonstiges"/>
         <filter val="Spenden"/>
-        <filter val="T. z. g. Laune"/>
-        <filter val="Versicherung"/>
-        <filter val="Weihnachtsfeier"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -14874,182 +14572,182 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A239 B126:B130">
-    <cfRule type="cellIs" dxfId="53" priority="468" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="468" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B132:B134">
-    <cfRule type="cellIs" dxfId="52" priority="462" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="462" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136:B140">
-    <cfRule type="cellIs" dxfId="51" priority="451" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="451" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B160:B161">
-    <cfRule type="cellIs" dxfId="50" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B164:B241">
-    <cfRule type="cellIs" dxfId="49" priority="414" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="414" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B152:C155">
-    <cfRule type="cellIs" dxfId="48" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B162:C163">
-    <cfRule type="cellIs" dxfId="47" priority="416" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="416" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B156:D158">
-    <cfRule type="cellIs" dxfId="46" priority="428" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="428" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B159:E159">
-    <cfRule type="cellIs" dxfId="45" priority="425" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="425" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C113">
-    <cfRule type="cellIs" dxfId="44" priority="489" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="489" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C123">
-    <cfRule type="cellIs" dxfId="43" priority="606" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="606" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C133:C136">
-    <cfRule type="cellIs" dxfId="42" priority="458" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="458" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C147:C148">
-    <cfRule type="cellIs" dxfId="41" priority="438" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="438" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C112:D112 C125 C128:C129 B131:D131 C140 C146:D146 C164:C240 K176 J176:J239 I176:I241">
-    <cfRule type="cellIs" dxfId="40" priority="698" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="698" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C130:D130">
-    <cfRule type="cellIs" dxfId="39" priority="466" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="466" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C149:D151">
-    <cfRule type="cellIs" dxfId="38" priority="437" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="437" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C160:E160">
-    <cfRule type="cellIs" dxfId="37" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D147">
-    <cfRule type="cellIs" dxfId="36" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D161:E168">
-    <cfRule type="cellIs" dxfId="35" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D176:H239">
-    <cfRule type="cellIs" dxfId="34" priority="650" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="650" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E158">
-    <cfRule type="cellIs" dxfId="33" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E169:E173 D174:E176">
-    <cfRule type="cellIs" dxfId="32" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="31" priority="582" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="582" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="cellIs" dxfId="30" priority="178" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="178" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="29" priority="176" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="176" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="cellIs" dxfId="28" priority="566" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="566" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44:F45">
-    <cfRule type="cellIs" dxfId="27" priority="380" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="380" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="cellIs" dxfId="26" priority="154" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="154" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62:F64">
-    <cfRule type="cellIs" dxfId="25" priority="359" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="359" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F87">
-    <cfRule type="cellIs" dxfId="24" priority="127" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="127" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F96:F97">
-    <cfRule type="cellIs" dxfId="23" priority="111" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="111" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F108">
-    <cfRule type="cellIs" dxfId="22" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F120:F121">
-    <cfRule type="cellIs" dxfId="21" priority="80" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="80" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F135:F136">
-    <cfRule type="cellIs" dxfId="20" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F143:F145">
-    <cfRule type="cellIs" dxfId="19" priority="443" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="443" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F147:F148">
-    <cfRule type="cellIs" dxfId="18" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15080,7 +14778,7 @@
   </sheetPr>
   <dimension ref="A1:IV281"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
